--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Careeria opiskelu\Scrum projekti\muistutussovellus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Scrum projekti\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB700C5-53C4-4D4D-8693-DF156069991B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4054803-4DBC-4AAD-A8BA-4905EF4FA912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="456">
   <si>
     <t>CRM Srcum tiimi - SCRUM BACKLOG</t>
   </si>
@@ -1439,6 +1439,21 @@
   <si>
     <t>Jäljellä pisteet 
 19.4.</t>
+  </si>
+  <si>
+    <t>Koodauksen jatkaminen</t>
+  </si>
+  <si>
+    <t>git luonti, user storyt, käyttötapaukset</t>
+  </si>
+  <si>
+    <t>käyttötarkoitus, rautalankamalli, sivukartta, sisältökartta</t>
+  </si>
+  <si>
+    <t>animaatiokokeilua, aktiviteettikaaviot, animaatio pohja</t>
+  </si>
+  <si>
+    <t>Koodauksen aloittaminen, animaatiokokeiluja</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2958,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3884,27 +3899,6 @@
     <xf numFmtId="49" fontId="1" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="34" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3917,6 +3911,117 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3950,12 +4055,6 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3968,111 +4067,24 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4100,108 +4112,192 @@
     <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4218,107 +4314,11 @@
     <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4332,19 +4332,73 @@
     <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4353,65 +4407,56 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4437,56 +4482,41 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4498,7 +4528,38 @@
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5075,10 +5136,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6624,7 +6685,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -9662,8 +9723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89C1641-4002-491B-BFC5-A3CCE3FF301E}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9711,20 +9772,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="340" t="s">
+      <c r="B2" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="344"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="374"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -9740,19 +9801,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="375" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="347"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="377"/>
       <c r="M3" s="34" t="s">
         <v>2</v>
       </c>
@@ -9771,17 +9832,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="345"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="347"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="376"/>
+      <c r="J4" s="376"/>
+      <c r="K4" s="376"/>
+      <c r="L4" s="377"/>
       <c r="M4" s="175">
         <v>43628</v>
       </c>
@@ -9834,19 +9895,19 @@
       <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="348" t="s">
+      <c r="C6" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="349"/>
-      <c r="E6" s="349"/>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
-      <c r="J6" s="349"/>
-      <c r="K6" s="349"/>
-      <c r="L6" s="349"/>
-      <c r="M6" s="350"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
+      <c r="K6" s="348"/>
+      <c r="L6" s="348"/>
+      <c r="M6" s="378"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -9865,19 +9926,19 @@
       <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="351" t="s">
+      <c r="C7" s="379" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="352"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="352"/>
-      <c r="L7" s="352"/>
-      <c r="M7" s="353"/>
+      <c r="D7" s="380"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="380"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="380"/>
+      <c r="J7" s="380"/>
+      <c r="K7" s="380"/>
+      <c r="L7" s="380"/>
+      <c r="M7" s="381"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -9896,19 +9957,19 @@
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="351" t="s">
+      <c r="C8" s="379" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="352"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="352"/>
-      <c r="K8" s="352"/>
-      <c r="L8" s="352"/>
-      <c r="M8" s="353"/>
+      <c r="D8" s="380"/>
+      <c r="E8" s="380"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="380"/>
+      <c r="H8" s="380"/>
+      <c r="I8" s="380"/>
+      <c r="J8" s="380"/>
+      <c r="K8" s="380"/>
+      <c r="L8" s="380"/>
+      <c r="M8" s="381"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -9927,19 +9988,19 @@
       <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="337" t="s">
+      <c r="C9" s="367" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="338"/>
-      <c r="E9" s="338"/>
-      <c r="F9" s="338"/>
-      <c r="G9" s="338"/>
-      <c r="H9" s="338"/>
-      <c r="I9" s="338"/>
-      <c r="J9" s="338"/>
-      <c r="K9" s="338"/>
-      <c r="L9" s="338"/>
-      <c r="M9" s="339"/>
+      <c r="D9" s="368"/>
+      <c r="E9" s="368"/>
+      <c r="F9" s="368"/>
+      <c r="G9" s="368"/>
+      <c r="H9" s="368"/>
+      <c r="I9" s="368"/>
+      <c r="J9" s="368"/>
+      <c r="K9" s="368"/>
+      <c r="L9" s="368"/>
+      <c r="M9" s="369"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -9982,20 +10043,20 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="354" t="s">
+      <c r="B11" s="356" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="355"/>
-      <c r="D11" s="355"/>
-      <c r="E11" s="355"/>
-      <c r="F11" s="355"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="355"/>
-      <c r="I11" s="355"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="355"/>
-      <c r="L11" s="355"/>
-      <c r="M11" s="356"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="358"/>
       <c r="N11" s="32"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -10020,14 +10081,14 @@
       <c r="D12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="357" t="s">
+      <c r="E12" s="359" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="358"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="358"/>
-      <c r="J12" s="359"/>
+      <c r="F12" s="360"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="360"/>
+      <c r="I12" s="360"/>
+      <c r="J12" s="361"/>
       <c r="K12" s="293" t="s">
         <v>18</v>
       </c>
@@ -10045,20 +10106,20 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="360"/>
-      <c r="W12" s="360"/>
-      <c r="X12" s="360"/>
+      <c r="V12" s="362"/>
+      <c r="W12" s="362"/>
+      <c r="X12" s="362"/>
       <c r="Y12" s="41"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
-      <c r="B13" s="361">
+      <c r="B13" s="334">
         <v>1</v>
       </c>
-      <c r="C13" s="362">
+      <c r="C13" s="336">
         <v>43531</v>
       </c>
-      <c r="D13" s="362">
+      <c r="D13" s="336">
         <v>43558</v>
       </c>
       <c r="E13" s="363" t="s">
@@ -10069,14 +10130,14 @@
       <c r="H13" s="365"/>
       <c r="I13" s="365"/>
       <c r="J13" s="366"/>
-      <c r="K13" s="367" t="s">
+      <c r="K13" s="353" t="s">
         <v>392</v>
       </c>
-      <c r="L13" s="369">
+      <c r="L13" s="355">
         <f>'S1 - Backlog'!I26</f>
         <v>25</v>
       </c>
-      <c r="M13" s="371">
+      <c r="M13" s="331">
         <f>'S1 - Backlog'!J26</f>
         <v>1</v>
       </c>
@@ -10095,18 +10156,18 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="361"/>
-      <c r="C14" s="362"/>
-      <c r="D14" s="362"/>
+      <c r="B14" s="334"/>
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
       <c r="E14" s="363"/>
       <c r="F14" s="364"/>
       <c r="G14" s="365"/>
       <c r="H14" s="365"/>
       <c r="I14" s="365"/>
       <c r="J14" s="366"/>
-      <c r="K14" s="368"/>
-      <c r="L14" s="370"/>
-      <c r="M14" s="371"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="345"/>
+      <c r="M14" s="331"/>
       <c r="N14" s="32"/>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -10122,31 +10183,31 @@
     </row>
     <row r="15" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="361">
+      <c r="B15" s="334">
         <v>2</v>
       </c>
-      <c r="C15" s="362">
+      <c r="C15" s="336">
         <v>43559</v>
       </c>
-      <c r="D15" s="362">
+      <c r="D15" s="336">
         <v>43593</v>
       </c>
-      <c r="E15" s="348" t="s">
+      <c r="E15" s="347" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="349"/>
-      <c r="G15" s="349"/>
-      <c r="H15" s="349"/>
-      <c r="I15" s="349"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="367" t="s">
+      <c r="F15" s="348"/>
+      <c r="G15" s="348"/>
+      <c r="H15" s="348"/>
+      <c r="I15" s="348"/>
+      <c r="J15" s="349"/>
+      <c r="K15" s="353" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="369">
+      <c r="L15" s="355">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M15" s="371">
+      <c r="M15" s="331">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -10165,18 +10226,18 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="372"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="375"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="377"/>
-      <c r="K16" s="368"/>
-      <c r="L16" s="370"/>
-      <c r="M16" s="371"/>
+      <c r="B16" s="335"/>
+      <c r="C16" s="346"/>
+      <c r="D16" s="346"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="351"/>
+      <c r="G16" s="351"/>
+      <c r="H16" s="351"/>
+      <c r="I16" s="351"/>
+      <c r="J16" s="352"/>
+      <c r="K16" s="354"/>
+      <c r="L16" s="345"/>
+      <c r="M16" s="331"/>
       <c r="N16" s="32"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -10192,31 +10253,31 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="361">
+      <c r="B17" s="334">
         <v>3</v>
       </c>
-      <c r="C17" s="362">
+      <c r="C17" s="336">
         <v>43594</v>
       </c>
-      <c r="D17" s="362">
+      <c r="D17" s="336">
         <v>43628</v>
       </c>
-      <c r="E17" s="348" t="s">
+      <c r="E17" s="347" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
-      <c r="I17" s="349"/>
-      <c r="J17" s="374"/>
-      <c r="K17" s="367" t="s">
+      <c r="F17" s="348"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="349"/>
+      <c r="K17" s="353" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="369">
+      <c r="L17" s="355">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M17" s="369">
+      <c r="M17" s="355">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -10235,18 +10296,18 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
-      <c r="B18" s="372"/>
-      <c r="C18" s="373"/>
-      <c r="D18" s="373"/>
-      <c r="E18" s="375"/>
-      <c r="F18" s="376"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="377"/>
-      <c r="K18" s="368"/>
-      <c r="L18" s="370"/>
-      <c r="M18" s="370"/>
+      <c r="B18" s="335"/>
+      <c r="C18" s="346"/>
+      <c r="D18" s="346"/>
+      <c r="E18" s="350"/>
+      <c r="F18" s="351"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="354"/>
+      <c r="L18" s="345"/>
+      <c r="M18" s="345"/>
       <c r="N18" s="32"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -10262,20 +10323,20 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="361">
+      <c r="B19" s="334">
         <v>4</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
-      <c r="E19" s="380"/>
-      <c r="F19" s="381"/>
-      <c r="G19" s="381"/>
-      <c r="H19" s="381"/>
-      <c r="I19" s="381"/>
-      <c r="J19" s="382"/>
-      <c r="K19" s="386"/>
-      <c r="L19" s="370"/>
-      <c r="M19" s="371"/>
+      <c r="C19" s="336"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="337"/>
+      <c r="F19" s="338"/>
+      <c r="G19" s="338"/>
+      <c r="H19" s="338"/>
+      <c r="I19" s="338"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="343"/>
+      <c r="L19" s="345"/>
+      <c r="M19" s="331"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -10291,18 +10352,18 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="372"/>
-      <c r="C20" s="362"/>
-      <c r="D20" s="362"/>
-      <c r="E20" s="383"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="384"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="387"/>
-      <c r="L20" s="370"/>
-      <c r="M20" s="371"/>
+      <c r="B20" s="335"/>
+      <c r="C20" s="336"/>
+      <c r="D20" s="336"/>
+      <c r="E20" s="340"/>
+      <c r="F20" s="341"/>
+      <c r="G20" s="341"/>
+      <c r="H20" s="341"/>
+      <c r="I20" s="341"/>
+      <c r="J20" s="342"/>
+      <c r="K20" s="344"/>
+      <c r="L20" s="345"/>
+      <c r="M20" s="331"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -10345,13 +10406,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
-      <c r="B22" s="379" t="s">
+      <c r="B22" s="333" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="379"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="379"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="333"/>
       <c r="G22" s="254"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
@@ -10374,7 +10435,7 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="378" t="s">
+      <c r="B23" s="332" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="258" t="s">
@@ -10411,7 +10472,7 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="378"/>
+      <c r="B24" s="332"/>
       <c r="C24" s="259" t="s">
         <v>32</v>
       </c>
@@ -10451,7 +10512,7 @@
       </c>
       <c r="C25" s="176">
         <f>+'S1 - Tunnit'!B3</f>
-        <v>4.5</v>
+        <v>13.75</v>
       </c>
       <c r="D25" s="176">
         <f>+'S2 -Tunnit'!B3</f>
@@ -10463,7 +10524,7 @@
       </c>
       <c r="F25" s="176">
         <f>SUM(B25:E25)</f>
-        <v>53.5</v>
+        <v>62.75</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="51"/>
@@ -10492,7 +10553,7 @@
       </c>
       <c r="C26" s="176">
         <f>'S1 - Tunnit'!B4</f>
-        <v>4.5</v>
+        <v>15.75</v>
       </c>
       <c r="D26" s="176">
         <f>+'S2 -Tunnit'!B4</f>
@@ -10504,7 +10565,7 @@
       </c>
       <c r="F26" s="176">
         <f>SUM(B26:E26)</f>
-        <v>70</v>
+        <v>81.25</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="51"/>
@@ -10641,7 +10702,7 @@
       </c>
       <c r="C31" s="241">
         <f>SUM(C25:C30)</f>
-        <v>9</v>
+        <v>29.5</v>
       </c>
       <c r="D31" s="241">
         <f>SUM(D25:D30)</f>
@@ -10653,7 +10714,7 @@
       </c>
       <c r="F31" s="241">
         <f>SUM(F25:F30)</f>
-        <v>123.5</v>
+        <v>144</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="51"/>
@@ -10922,15 +10983,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -10945,22 +11013,15 @@
     <mergeCell ref="E15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11009,14 +11070,14 @@
       <c r="C2" s="317" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="497" t="s">
+      <c r="D2" s="471" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="498"/>
-      <c r="F2" s="499" t="s">
+      <c r="E2" s="472"/>
+      <c r="F2" s="473" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="498"/>
+      <c r="G2" s="472"/>
       <c r="H2" s="317" t="s">
         <v>237</v>
       </c>
@@ -11038,14 +11099,14 @@
       <c r="C3" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="500" t="s">
+      <c r="D3" s="474" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="500"/>
-      <c r="F3" s="501" t="s">
+      <c r="E3" s="474"/>
+      <c r="F3" s="475" t="s">
         <v>241</v>
       </c>
-      <c r="G3" s="502"/>
+      <c r="G3" s="476"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -11059,10 +11120,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="318"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="501"/>
-      <c r="G4" s="502"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="476"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="476"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -11125,10 +11186,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="313"/>
-      <c r="B8" s="489" t="s">
+      <c r="B8" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="490"/>
+      <c r="C8" s="478"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -11166,10 +11227,10 @@
       <c r="B10" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="491" t="s">
+      <c r="C10" s="479" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="492"/>
+      <c r="D10" s="480"/>
       <c r="E10" s="316" t="s">
         <v>108</v>
       </c>
@@ -11198,16 +11259,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="493" t="s">
+      <c r="B11" s="481" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="493"/>
-      <c r="D11" s="494"/>
-      <c r="E11" s="495"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="495"/>
-      <c r="H11" s="495"/>
-      <c r="I11" s="495"/>
+      <c r="C11" s="481"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="484"/>
+      <c r="G11" s="483"/>
+      <c r="H11" s="483"/>
+      <c r="I11" s="483"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="313"/>
@@ -11255,10 +11316,10 @@
       <c r="B13" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="480" t="s">
+      <c r="C13" s="485" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="480"/>
+      <c r="D13" s="485"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -11342,10 +11403,10 @@
       <c r="B16" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="480" t="s">
+      <c r="C16" s="485" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="480"/>
+      <c r="D16" s="485"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -11413,10 +11474,10 @@
       <c r="B19" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="480" t="s">
+      <c r="C19" s="485" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="478"/>
+      <c r="D19" s="486"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -11457,10 +11518,10 @@
       <c r="B21" s="315" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="483" t="s">
+      <c r="C21" s="487" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="484"/>
+      <c r="D21" s="488"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -11480,10 +11541,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="313"/>
       <c r="B22" s="313"/>
-      <c r="C22" s="480" t="s">
+      <c r="C22" s="485" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="478"/>
+      <c r="D22" s="486"/>
       <c r="E22" s="313">
         <v>20</v>
       </c>
@@ -11503,10 +11564,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="314"/>
       <c r="B23" s="315"/>
-      <c r="C23" s="480" t="s">
+      <c r="C23" s="485" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="478"/>
+      <c r="D23" s="486"/>
       <c r="E23" s="314">
         <v>9</v>
       </c>
@@ -11526,10 +11587,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="314"/>
       <c r="B24" s="315"/>
-      <c r="C24" s="480" t="s">
+      <c r="C24" s="485" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="478"/>
+      <c r="D24" s="486"/>
       <c r="E24" s="314">
         <v>25</v>
       </c>
@@ -11549,10 +11610,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="314"/>
       <c r="B25" s="315"/>
-      <c r="C25" s="480" t="s">
+      <c r="C25" s="485" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="480"/>
+      <c r="D25" s="485"/>
       <c r="E25" s="314">
         <v>27</v>
       </c>
@@ -11572,10 +11633,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="314"/>
       <c r="B26" s="315"/>
-      <c r="C26" s="480" t="s">
+      <c r="C26" s="485" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="478"/>
+      <c r="D26" s="486"/>
       <c r="E26" s="314">
         <v>17</v>
       </c>
@@ -11594,16 +11655,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="314"/>
-      <c r="B27" s="479" t="s">
+      <c r="B27" s="489" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="485"/>
-      <c r="D27" s="486"/>
-      <c r="E27" s="487"/>
-      <c r="F27" s="488"/>
-      <c r="G27" s="487"/>
-      <c r="H27" s="487"/>
-      <c r="I27" s="487"/>
+      <c r="C27" s="490"/>
+      <c r="D27" s="491"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="493"/>
+      <c r="G27" s="492"/>
+      <c r="H27" s="492"/>
+      <c r="I27" s="492"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="313"/>
@@ -11633,10 +11694,10 @@
       <c r="B29" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="483" t="s">
+      <c r="C29" s="487" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="483"/>
+      <c r="D29" s="487"/>
       <c r="E29" s="313">
         <v>26</v>
       </c>
@@ -11656,10 +11717,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="314"/>
       <c r="B30" s="315"/>
-      <c r="C30" s="480" t="s">
+      <c r="C30" s="485" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="478"/>
+      <c r="D30" s="486"/>
       <c r="E30" s="121" t="s">
         <v>280</v>
       </c>
@@ -11677,10 +11738,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="314"/>
       <c r="B31" s="315"/>
-      <c r="C31" s="480" t="s">
+      <c r="C31" s="485" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="478"/>
+      <c r="D31" s="486"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -11700,10 +11761,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="314"/>
       <c r="B32" s="315"/>
-      <c r="C32" s="480" t="s">
+      <c r="C32" s="485" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="478"/>
+      <c r="D32" s="486"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -11721,10 +11782,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="314"/>
       <c r="B33" s="315"/>
-      <c r="C33" s="480" t="s">
+      <c r="C33" s="485" t="s">
         <v>283</v>
       </c>
-      <c r="D33" s="478"/>
+      <c r="D33" s="486"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -11742,10 +11803,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="314"/>
       <c r="B34" s="315"/>
-      <c r="C34" s="480" t="s">
+      <c r="C34" s="485" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="478"/>
+      <c r="D34" s="486"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -11763,10 +11824,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="314"/>
       <c r="B35" s="315"/>
-      <c r="C35" s="480" t="s">
+      <c r="C35" s="485" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="478"/>
+      <c r="D35" s="486"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -11820,10 +11881,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="314"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="483" t="s">
+      <c r="C38" s="487" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="484"/>
+      <c r="D38" s="488"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -11843,8 +11904,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="314"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="480"/>
-      <c r="D39" s="478"/>
+      <c r="C39" s="485"/>
+      <c r="D39" s="486"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -11860,10 +11921,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="314"/>
       <c r="B40" s="315"/>
-      <c r="C40" s="480" t="s">
+      <c r="C40" s="485" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="478"/>
+      <c r="D40" s="486"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -11967,16 +12028,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="314"/>
-      <c r="B46" s="479" t="s">
+      <c r="B46" s="489" t="s">
         <v>288</v>
       </c>
-      <c r="C46" s="479"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
-      <c r="G46" s="479"/>
-      <c r="H46" s="479"/>
-      <c r="I46" s="479"/>
+      <c r="C46" s="489"/>
+      <c r="D46" s="489"/>
+      <c r="E46" s="489"/>
+      <c r="F46" s="489"/>
+      <c r="G46" s="489"/>
+      <c r="H46" s="489"/>
+      <c r="I46" s="489"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="314"/>
@@ -11989,10 +12050,10 @@
         <v>253</v>
       </c>
       <c r="B47" s="315"/>
-      <c r="C47" s="480" t="s">
+      <c r="C47" s="485" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="480"/>
+      <c r="D47" s="485"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -12014,8 +12075,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="314"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="480"/>
-      <c r="D48" s="480"/>
+      <c r="C48" s="485"/>
+      <c r="D48" s="485"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -12033,10 +12094,10 @@
         <v>253</v>
       </c>
       <c r="B49" s="315"/>
-      <c r="C49" s="480" t="s">
+      <c r="C49" s="485" t="s">
         <v>290</v>
       </c>
-      <c r="D49" s="480"/>
+      <c r="D49" s="485"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -12058,8 +12119,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="314"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="480"/>
-      <c r="D50" s="480"/>
+      <c r="C50" s="485"/>
+      <c r="D50" s="485"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -12092,8 +12153,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="313"/>
       <c r="B52" s="315"/>
-      <c r="C52" s="480"/>
-      <c r="D52" s="478"/>
+      <c r="C52" s="485"/>
+      <c r="D52" s="486"/>
       <c r="E52" s="314"/>
       <c r="F52" s="133"/>
       <c r="G52" s="314"/>
@@ -12125,16 +12186,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="314"/>
-      <c r="B54" s="479" t="s">
+      <c r="B54" s="489" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="479"/>
-      <c r="D54" s="479"/>
-      <c r="E54" s="479"/>
-      <c r="F54" s="479"/>
-      <c r="G54" s="479"/>
-      <c r="H54" s="479"/>
-      <c r="I54" s="479"/>
+      <c r="C54" s="489"/>
+      <c r="D54" s="489"/>
+      <c r="E54" s="489"/>
+      <c r="F54" s="489"/>
+      <c r="G54" s="489"/>
+      <c r="H54" s="489"/>
+      <c r="I54" s="489"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="314"/>
@@ -12145,10 +12206,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="314"/>
       <c r="B55" s="315"/>
-      <c r="C55" s="480" t="s">
+      <c r="C55" s="485" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="478"/>
+      <c r="D55" s="486"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -12168,10 +12229,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="314"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="480" t="s">
+      <c r="C56" s="485" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="480"/>
+      <c r="D56" s="485"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -12207,16 +12268,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="314"/>
-      <c r="B58" s="479" t="s">
+      <c r="B58" s="489" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="479"/>
-      <c r="D58" s="479"/>
-      <c r="E58" s="479"/>
-      <c r="F58" s="479"/>
-      <c r="G58" s="479"/>
-      <c r="H58" s="479"/>
-      <c r="I58" s="479"/>
+      <c r="C58" s="489"/>
+      <c r="D58" s="489"/>
+      <c r="E58" s="489"/>
+      <c r="F58" s="489"/>
+      <c r="G58" s="489"/>
+      <c r="H58" s="489"/>
+      <c r="I58" s="489"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="314"/>
@@ -12229,10 +12290,10 @@
       <c r="B59" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="480" t="s">
+      <c r="C59" s="485" t="s">
         <v>295</v>
       </c>
-      <c r="D59" s="480"/>
+      <c r="D59" s="485"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -12252,10 +12313,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="313"/>
       <c r="B60" s="313"/>
-      <c r="C60" s="478" t="s">
+      <c r="C60" s="486" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="478"/>
+      <c r="D60" s="486"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -12275,10 +12336,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="313"/>
       <c r="B61" s="313"/>
-      <c r="C61" s="478" t="s">
+      <c r="C61" s="486" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="478"/>
+      <c r="D61" s="486"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -12319,10 +12380,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="313"/>
       <c r="B63" s="313"/>
-      <c r="C63" s="478" t="s">
+      <c r="C63" s="486" t="s">
         <v>299</v>
       </c>
-      <c r="D63" s="478"/>
+      <c r="D63" s="486"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -12451,10 +12512,10 @@
       <c r="B68" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="480" t="s">
+      <c r="C68" s="485" t="s">
         <v>305</v>
       </c>
-      <c r="D68" s="480"/>
+      <c r="D68" s="485"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -12536,16 +12597,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="314"/>
-      <c r="B71" s="479" t="s">
+      <c r="B71" s="489" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="479"/>
-      <c r="D71" s="479"/>
-      <c r="E71" s="479"/>
-      <c r="F71" s="479"/>
-      <c r="G71" s="479"/>
-      <c r="H71" s="479"/>
-      <c r="I71" s="479"/>
+      <c r="C71" s="489"/>
+      <c r="D71" s="489"/>
+      <c r="E71" s="489"/>
+      <c r="F71" s="489"/>
+      <c r="G71" s="489"/>
+      <c r="H71" s="489"/>
+      <c r="I71" s="489"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="314"/>
@@ -12561,10 +12622,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="314"/>
       <c r="B72" s="314"/>
-      <c r="C72" s="478" t="s">
+      <c r="C72" s="486" t="s">
         <v>310</v>
       </c>
-      <c r="D72" s="478"/>
+      <c r="D72" s="486"/>
       <c r="E72" s="314">
         <v>20</v>
       </c>
@@ -12591,10 +12652,10 @@
       <c r="B73" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="478" t="s">
+      <c r="C73" s="486" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="478"/>
+      <c r="D73" s="486"/>
       <c r="E73" s="314">
         <v>16</v>
       </c>
@@ -12688,16 +12749,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="314"/>
-      <c r="B77" s="479" t="s">
+      <c r="B77" s="489" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="479"/>
-      <c r="D77" s="479"/>
-      <c r="E77" s="479"/>
-      <c r="F77" s="479"/>
-      <c r="G77" s="479"/>
-      <c r="H77" s="479"/>
-      <c r="I77" s="479"/>
+      <c r="C77" s="489"/>
+      <c r="D77" s="489"/>
+      <c r="E77" s="489"/>
+      <c r="F77" s="489"/>
+      <c r="G77" s="489"/>
+      <c r="H77" s="489"/>
+      <c r="I77" s="489"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="314"/>
@@ -12713,15 +12774,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="314"/>
       <c r="B78" s="314"/>
-      <c r="C78" s="480" t="s">
+      <c r="C78" s="485" t="s">
         <v>315</v>
       </c>
-      <c r="D78" s="480"/>
-      <c r="E78" s="480"/>
-      <c r="F78" s="480"/>
-      <c r="G78" s="480"/>
-      <c r="H78" s="480"/>
-      <c r="I78" s="480"/>
+      <c r="D78" s="485"/>
+      <c r="E78" s="485"/>
+      <c r="F78" s="485"/>
+      <c r="G78" s="485"/>
+      <c r="H78" s="485"/>
+      <c r="I78" s="485"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="314"/>
@@ -12737,13 +12798,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="314"/>
       <c r="B79" s="314"/>
-      <c r="C79" s="481"/>
-      <c r="D79" s="481"/>
-      <c r="E79" s="481"/>
-      <c r="F79" s="481"/>
-      <c r="G79" s="481"/>
-      <c r="H79" s="481"/>
-      <c r="I79" s="481"/>
+      <c r="C79" s="494"/>
+      <c r="D79" s="494"/>
+      <c r="E79" s="494"/>
+      <c r="F79" s="494"/>
+      <c r="G79" s="494"/>
+      <c r="H79" s="494"/>
+      <c r="I79" s="494"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="314"/>
@@ -12783,10 +12844,10 @@
         <v>316</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="482" t="s">
+      <c r="C81" s="495" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="482"/>
+      <c r="D81" s="495"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -12825,57 +12886,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12902,14 +12963,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="496" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="524"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="498"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12922,11 +12983,11 @@
       <c r="C2" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="467" t="s">
+      <c r="D2" s="430" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12941,11 +13002,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="525" t="s">
+      <c r="D3" s="499" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="526"/>
-      <c r="F3" s="527"/>
+      <c r="E3" s="500"/>
+      <c r="F3" s="501"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12960,11 +13021,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="511" t="s">
+      <c r="D4" s="502" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="512"/>
-      <c r="F4" s="513"/>
+      <c r="E4" s="503"/>
+      <c r="F4" s="504"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12979,9 +13040,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="511"/>
-      <c r="E5" s="512"/>
-      <c r="F5" s="513"/>
+      <c r="D5" s="502"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="504"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12996,9 +13057,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="511"/>
-      <c r="E6" s="512"/>
-      <c r="F6" s="513"/>
+      <c r="D6" s="502"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="504"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13013,78 +13074,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="511"/>
-      <c r="E7" s="512"/>
-      <c r="F7" s="513"/>
+      <c r="D7" s="502"/>
+      <c r="E7" s="503"/>
+      <c r="F7" s="504"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="514" t="s">
+      <c r="A8" s="505" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="516">
+      <c r="B8" s="507">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="516">
+      <c r="C8" s="507">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="511"/>
-      <c r="E8" s="512"/>
-      <c r="F8" s="513"/>
+      <c r="D8" s="502"/>
+      <c r="E8" s="503"/>
+      <c r="F8" s="504"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="515"/>
-      <c r="B9" s="517"/>
-      <c r="C9" s="518"/>
-      <c r="D9" s="519"/>
-      <c r="E9" s="520"/>
-      <c r="F9" s="521"/>
+      <c r="A9" s="506"/>
+      <c r="B9" s="508"/>
+      <c r="C9" s="509"/>
+      <c r="D9" s="510"/>
+      <c r="E9" s="511"/>
+      <c r="F9" s="512"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="503" t="s">
+      <c r="A10" s="513" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="504"/>
-      <c r="C10" s="504"/>
-      <c r="D10" s="504"/>
-      <c r="E10" s="505"/>
-      <c r="F10" s="504"/>
+      <c r="B10" s="514"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="515"/>
+      <c r="F10" s="514"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="506" t="s">
+      <c r="A11" s="516" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="444" t="s">
+      <c r="B11" s="456" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="357" t="s">
+      <c r="C11" s="359" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="359"/>
-      <c r="E11" s="507" t="s">
+      <c r="D11" s="361"/>
+      <c r="E11" s="517" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="509" t="s">
+      <c r="F11" s="519" t="s">
         <v>327</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="506"/>
-      <c r="B12" s="444"/>
+      <c r="A12" s="516"/>
+      <c r="B12" s="456"/>
       <c r="C12" s="302" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="508"/>
-      <c r="F12" s="510"/>
+      <c r="E12" s="518"/>
+      <c r="F12" s="520"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14412,11 +14473,12 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -14424,12 +14486,11 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14440,7 +14501,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14454,7 +14515,7 @@
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14515,15 +14576,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="391" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="394"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="393"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -14559,15 +14620,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="388" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="390"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="391"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="390"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -14606,10 +14667,10 @@
       <c r="B4" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="382" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="402"/>
+      <c r="D4" s="383"/>
       <c r="E4" s="225" t="s">
         <v>84</v>
       </c>
@@ -14657,7 +14718,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="388" t="s">
+      <c r="B5" s="384" t="s">
         <v>393</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -14709,7 +14770,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="388"/>
+      <c r="B6" s="384"/>
       <c r="C6" s="269" t="s">
         <v>382</v>
       </c>
@@ -14759,13 +14820,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="398"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="400"/>
+      <c r="B7" s="385"/>
+      <c r="C7" s="386"/>
+      <c r="D7" s="386"/>
+      <c r="E7" s="386"/>
+      <c r="F7" s="386"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="387"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -14801,7 +14862,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="388" t="s">
+      <c r="B8" s="384" t="s">
         <v>380</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -14853,7 +14914,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="388"/>
+      <c r="B9" s="384"/>
       <c r="C9" s="269" t="s">
         <v>382</v>
       </c>
@@ -14903,13 +14964,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="398"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="399"/>
-      <c r="H10" s="400"/>
+      <c r="B10" s="385"/>
+      <c r="C10" s="386"/>
+      <c r="D10" s="386"/>
+      <c r="E10" s="386"/>
+      <c r="F10" s="386"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="387"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -14945,7 +15006,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
-      <c r="B11" s="388" t="s">
+      <c r="B11" s="384" t="s">
         <v>395</v>
       </c>
       <c r="C11" s="269" t="s">
@@ -14954,7 +15015,9 @@
       <c r="D11" s="320" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="319"/>
+      <c r="E11" s="330" t="s">
+        <v>451</v>
+      </c>
       <c r="F11" s="230"/>
       <c r="G11" s="319"/>
       <c r="H11" s="184"/>
@@ -14993,14 +15056,16 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
-      <c r="B12" s="388"/>
+      <c r="B12" s="384"/>
       <c r="C12" s="269" t="s">
         <v>382</v>
       </c>
       <c r="D12" s="320" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="319"/>
+      <c r="E12" s="330" t="s">
+        <v>394</v>
+      </c>
       <c r="F12" s="184"/>
       <c r="G12" s="319"/>
       <c r="H12" s="184"/>
@@ -15039,13 +15104,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="222"/>
-      <c r="B13" s="398"/>
-      <c r="C13" s="399"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="399"/>
-      <c r="H13" s="400"/>
+      <c r="B13" s="385"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="386"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="387"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -15081,15 +15146,15 @@
     </row>
     <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="222"/>
-      <c r="B14" s="389" t="s">
+      <c r="B14" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="390"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="391"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="389"/>
+      <c r="E14" s="389"/>
+      <c r="F14" s="389"/>
+      <c r="G14" s="389"/>
+      <c r="H14" s="390"/>
       <c r="I14" s="223"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -15128,10 +15193,10 @@
       <c r="B15" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="401" t="s">
+      <c r="C15" s="382" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="402"/>
+      <c r="D15" s="383"/>
       <c r="E15" s="225" t="s">
         <v>84</v>
       </c>
@@ -15179,7 +15244,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="231"/>
-      <c r="B16" s="388"/>
+      <c r="B16" s="384"/>
       <c r="C16" s="269" t="s">
         <v>381</v>
       </c>
@@ -15225,7 +15290,7 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="231"/>
-      <c r="B17" s="388"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="269" t="s">
         <v>382</v>
       </c>
@@ -15271,13 +15336,13 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="222"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="399"/>
-      <c r="D18" s="399"/>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="399"/>
-      <c r="H18" s="400"/>
+      <c r="B18" s="385"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="386"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="387"/>
       <c r="I18" s="223"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -15313,7 +15378,7 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="231"/>
-      <c r="B19" s="388"/>
+      <c r="B19" s="384"/>
       <c r="C19" s="269" t="s">
         <v>381</v>
       </c>
@@ -15359,7 +15424,7 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="222"/>
-      <c r="B20" s="388"/>
+      <c r="B20" s="384"/>
       <c r="C20" s="269" t="s">
         <v>382</v>
       </c>
@@ -15405,13 +15470,13 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="222"/>
-      <c r="B21" s="398"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="399"/>
-      <c r="H21" s="400"/>
+      <c r="B21" s="385"/>
+      <c r="C21" s="386"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="386"/>
+      <c r="F21" s="386"/>
+      <c r="G21" s="386"/>
+      <c r="H21" s="387"/>
       <c r="I21" s="223"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -15447,7 +15512,7 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="222"/>
-      <c r="B22" s="388"/>
+      <c r="B22" s="384"/>
       <c r="C22" s="269" t="s">
         <v>381</v>
       </c>
@@ -15493,7 +15558,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="222"/>
-      <c r="B23" s="388"/>
+      <c r="B23" s="384"/>
       <c r="C23" s="269" t="s">
         <v>382</v>
       </c>
@@ -15539,13 +15604,13 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="222"/>
-      <c r="B24" s="398"/>
-      <c r="C24" s="399"/>
-      <c r="D24" s="399"/>
-      <c r="E24" s="399"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="399"/>
-      <c r="H24" s="400"/>
+      <c r="B24" s="385"/>
+      <c r="C24" s="386"/>
+      <c r="D24" s="386"/>
+      <c r="E24" s="386"/>
+      <c r="F24" s="386"/>
+      <c r="G24" s="386"/>
+      <c r="H24" s="387"/>
       <c r="I24" s="223"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -15581,15 +15646,15 @@
     </row>
     <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="222"/>
-      <c r="B25" s="395" t="s">
+      <c r="B25" s="394" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="396"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="396"/>
-      <c r="F25" s="396"/>
-      <c r="G25" s="396"/>
-      <c r="H25" s="397"/>
+      <c r="C25" s="395"/>
+      <c r="D25" s="395"/>
+      <c r="E25" s="395"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="395"/>
+      <c r="H25" s="396"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -15628,10 +15693,10 @@
       <c r="B26" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="401" t="s">
+      <c r="C26" s="382" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="402"/>
+      <c r="D26" s="383"/>
       <c r="E26" s="225" t="s">
         <v>84</v>
       </c>
@@ -15679,7 +15744,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="231"/>
-      <c r="B27" s="388"/>
+      <c r="B27" s="384"/>
       <c r="C27" s="269" t="s">
         <v>381</v>
       </c>
@@ -15725,7 +15790,7 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="231"/>
-      <c r="B28" s="388"/>
+      <c r="B28" s="384"/>
       <c r="C28" s="269" t="s">
         <v>382</v>
       </c>
@@ -15771,13 +15836,13 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="222"/>
-      <c r="B29" s="398"/>
-      <c r="C29" s="399"/>
-      <c r="D29" s="399"/>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="399"/>
-      <c r="H29" s="400"/>
+      <c r="B29" s="385"/>
+      <c r="C29" s="386"/>
+      <c r="D29" s="386"/>
+      <c r="E29" s="386"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
       <c r="I29" s="223"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -15813,7 +15878,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="231"/>
-      <c r="B30" s="388"/>
+      <c r="B30" s="384"/>
       <c r="C30" s="269" t="s">
         <v>381</v>
       </c>
@@ -15859,7 +15924,7 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="222"/>
-      <c r="B31" s="388"/>
+      <c r="B31" s="384"/>
       <c r="C31" s="269" t="s">
         <v>382</v>
       </c>
@@ -15905,13 +15970,13 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="222"/>
-      <c r="B32" s="398"/>
-      <c r="C32" s="399"/>
-      <c r="D32" s="399"/>
-      <c r="E32" s="399"/>
-      <c r="F32" s="399"/>
-      <c r="G32" s="399"/>
-      <c r="H32" s="400"/>
+      <c r="B32" s="385"/>
+      <c r="C32" s="386"/>
+      <c r="D32" s="386"/>
+      <c r="E32" s="386"/>
+      <c r="F32" s="386"/>
+      <c r="G32" s="386"/>
+      <c r="H32" s="387"/>
       <c r="I32" s="223"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -15947,7 +16012,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="222"/>
-      <c r="B33" s="388"/>
+      <c r="B33" s="384"/>
       <c r="C33" s="269" t="s">
         <v>381</v>
       </c>
@@ -15993,7 +16058,7 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="222"/>
-      <c r="B34" s="388"/>
+      <c r="B34" s="384"/>
       <c r="C34" s="269" t="s">
         <v>382</v>
       </c>
@@ -16039,13 +16104,13 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="222"/>
-      <c r="B35" s="398"/>
-      <c r="C35" s="399"/>
-      <c r="D35" s="399"/>
-      <c r="E35" s="399"/>
-      <c r="F35" s="399"/>
-      <c r="G35" s="399"/>
-      <c r="H35" s="400"/>
+      <c r="B35" s="385"/>
+      <c r="C35" s="386"/>
+      <c r="D35" s="386"/>
+      <c r="E35" s="386"/>
+      <c r="F35" s="386"/>
+      <c r="G35" s="386"/>
+      <c r="H35" s="387"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -17299,15 +17364,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:H3"/>
@@ -17324,6 +17380,15 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17333,8 +17398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C49" sqref="C46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17362,15 +17427,15 @@
       <c r="O1" s="306"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="422" t="s">
+      <c r="B2" s="397" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="423"/>
-      <c r="D2" s="424" t="s">
+      <c r="C2" s="398"/>
+      <c r="D2" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="425"/>
-      <c r="F2" s="426"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="401"/>
       <c r="J2" s="306"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
@@ -17381,9 +17446,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="404"/>
       <c r="J3" s="306"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
@@ -17394,9 +17459,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="429"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="403"/>
+      <c r="F4" s="404"/>
       <c r="J4" s="306"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
@@ -17407,9 +17472,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="427"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="429"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="404"/>
       <c r="J5" s="306"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
@@ -17420,9 +17485,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="430"/>
-      <c r="E6" s="431"/>
-      <c r="F6" s="432"/>
+      <c r="D6" s="405"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="407"/>
       <c r="J6" s="306"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
@@ -17460,14 +17525,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="418" t="s">
+      <c r="E9" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="419"/>
-      <c r="G9" s="415" t="s">
+      <c r="F9" s="413"/>
+      <c r="G9" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="416"/>
+      <c r="H9" s="409"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -17493,12 +17558,12 @@
       <c r="D10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="417" t="s">
+      <c r="E10" s="410" t="s">
         <v>384</v>
       </c>
-      <c r="F10" s="417"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="405"/>
+      <c r="F10" s="410"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
       <c r="I10" s="173">
         <v>0</v>
       </c>
@@ -17524,10 +17589,10 @@
       <c r="D11" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="420" t="s">
+      <c r="E11" s="414" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="420"/>
+      <c r="F11" s="414"/>
       <c r="G11" s="321"/>
       <c r="H11" s="321"/>
       <c r="I11" s="173">
@@ -17554,12 +17619,12 @@
       <c r="D12" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="412" t="s">
+      <c r="E12" s="415" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="412"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="411"/>
+      <c r="H12" s="411"/>
       <c r="I12" s="173">
         <v>20</v>
       </c>
@@ -17585,12 +17650,12 @@
       <c r="D13" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="412" t="s">
+      <c r="E13" s="415" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="412"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="411"/>
+      <c r="H13" s="411"/>
       <c r="I13" s="173"/>
       <c r="J13" s="173"/>
       <c r="K13" s="312"/>
@@ -17611,12 +17676,12 @@
       <c r="D14" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="412" t="s">
+      <c r="E14" s="415" t="s">
         <v>420</v>
       </c>
-      <c r="F14" s="412"/>
-      <c r="G14" s="405"/>
-      <c r="H14" s="405"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="411"/>
       <c r="I14" s="173"/>
       <c r="J14" s="173"/>
       <c r="K14" s="312"/>
@@ -17663,12 +17728,12 @@
       <c r="D16" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E16" s="412" t="s">
+      <c r="E16" s="415" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="412"/>
-      <c r="G16" s="405"/>
-      <c r="H16" s="405"/>
+      <c r="F16" s="415"/>
+      <c r="G16" s="411"/>
+      <c r="H16" s="411"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="312"/>
@@ -17689,12 +17754,12 @@
       <c r="D17" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="412" t="s">
+      <c r="E17" s="415" t="s">
         <v>425</v>
       </c>
-      <c r="F17" s="412"/>
-      <c r="G17" s="405"/>
-      <c r="H17" s="405"/>
+      <c r="F17" s="415"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="411"/>
       <c r="I17" s="173"/>
       <c r="J17" s="173"/>
       <c r="K17" s="312"/>
@@ -17715,12 +17780,12 @@
       <c r="D18" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E18" s="412" t="s">
+      <c r="E18" s="415" t="s">
         <v>426</v>
       </c>
-      <c r="F18" s="412"/>
-      <c r="G18" s="405"/>
-      <c r="H18" s="405"/>
+      <c r="F18" s="415"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="411"/>
       <c r="I18" s="173"/>
       <c r="J18" s="173"/>
       <c r="K18" s="312"/>
@@ -17741,10 +17806,10 @@
       <c r="D19" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="421" t="s">
+      <c r="E19" s="424" t="s">
         <v>423</v>
       </c>
-      <c r="F19" s="421"/>
+      <c r="F19" s="424"/>
       <c r="G19" s="304"/>
       <c r="H19" s="304"/>
       <c r="I19" s="173"/>
@@ -17761,10 +17826,10 @@
       <c r="T19" s="303"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="421"/>
-      <c r="F20" s="421"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
+      <c r="E20" s="424"/>
+      <c r="F20" s="424"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
       <c r="I20" s="173"/>
       <c r="J20" s="173"/>
       <c r="K20" s="312"/>
@@ -17785,10 +17850,10 @@
       <c r="D21" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="335" t="s">
+      <c r="E21" s="328" t="s">
         <v>430</v>
       </c>
-      <c r="F21" s="335"/>
+      <c r="F21" s="328"/>
       <c r="G21" s="324"/>
       <c r="H21" s="324"/>
       <c r="I21" s="173">
@@ -17808,8 +17873,8 @@
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="26"/>
-      <c r="E22" s="335"/>
-      <c r="F22" s="335"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
       <c r="G22" s="324"/>
       <c r="H22" s="324"/>
       <c r="I22" s="173"/>
@@ -17827,8 +17892,8 @@
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="26"/>
-      <c r="E23" s="335"/>
-      <c r="F23" s="335"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
       <c r="G23" s="324"/>
       <c r="H23" s="324"/>
       <c r="I23" s="173"/>
@@ -17845,8 +17910,8 @@
       <c r="T23" s="323"/>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="335"/>
-      <c r="F24" s="335"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
       <c r="G24" s="324"/>
       <c r="H24" s="324"/>
       <c r="I24" s="173"/>
@@ -17865,8 +17930,8 @@
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
-      <c r="E25" s="413"/>
-      <c r="F25" s="413"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="173"/>
@@ -17884,11 +17949,11 @@
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="406" t="s">
+      <c r="C26" s="416" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="418"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="178" t="s">
@@ -17942,10 +18007,10 @@
       <c r="C28" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="409" t="s">
+      <c r="D28" s="419" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="410"/>
+      <c r="E28" s="420"/>
       <c r="F28" s="172" t="s">
         <v>104</v>
       </c>
@@ -17995,10 +18060,10 @@
         <v>111</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="414" t="s">
+      <c r="D29" s="423" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="414"/>
+      <c r="E29" s="423"/>
       <c r="F29" s="268" t="s">
         <v>142</v>
       </c>
@@ -18031,13 +18096,13 @@
       <c r="Q29" s="303">
         <v>0</v>
       </c>
-      <c r="R29" s="336">
+      <c r="R29" s="329">
         <v>0</v>
       </c>
-      <c r="S29" s="336">
+      <c r="S29" s="329">
         <v>0</v>
       </c>
-      <c r="T29" s="336">
+      <c r="T29" s="329">
         <v>0</v>
       </c>
     </row>
@@ -18046,10 +18111,10 @@
         <v>114</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="411" t="s">
+      <c r="D30" s="421" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="411"/>
+      <c r="E30" s="421"/>
       <c r="F30" s="268" t="s">
         <v>142</v>
       </c>
@@ -18082,13 +18147,13 @@
       <c r="Q30" s="303">
         <v>0</v>
       </c>
-      <c r="R30" s="336">
+      <c r="R30" s="329">
         <v>0</v>
       </c>
-      <c r="S30" s="336">
+      <c r="S30" s="329">
         <v>0</v>
       </c>
-      <c r="T30" s="336">
+      <c r="T30" s="329">
         <v>0</v>
       </c>
     </row>
@@ -18097,10 +18162,10 @@
         <v>116</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="403" t="s">
+      <c r="D31" s="426" t="s">
         <v>389</v>
       </c>
-      <c r="E31" s="403"/>
+      <c r="E31" s="426"/>
       <c r="F31" s="268" t="s">
         <v>142</v>
       </c>
@@ -18118,7 +18183,9 @@
       <c r="L31" s="28">
         <v>1</v>
       </c>
-      <c r="M31" s="28"/>
+      <c r="M31" s="28">
+        <v>1</v>
+      </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
@@ -18132,10 +18199,10 @@
         <v>117</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="403" t="s">
+      <c r="D32" s="426" t="s">
         <v>396</v>
       </c>
-      <c r="E32" s="403"/>
+      <c r="E32" s="426"/>
       <c r="F32" s="322" t="s">
         <v>407</v>
       </c>
@@ -18151,7 +18218,9 @@
       <c r="L32" s="303">
         <v>1</v>
       </c>
-      <c r="M32" s="303"/>
+      <c r="M32" s="303">
+        <v>1</v>
+      </c>
       <c r="N32" s="303"/>
       <c r="O32" s="312"/>
       <c r="P32" s="303"/>
@@ -18165,10 +18234,10 @@
         <v>87</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="403" t="s">
+      <c r="D33" s="426" t="s">
         <v>397</v>
       </c>
-      <c r="E33" s="403"/>
+      <c r="E33" s="426"/>
       <c r="F33" s="268" t="s">
         <v>142</v>
       </c>
@@ -18186,7 +18255,9 @@
       <c r="L33" s="303">
         <v>0</v>
       </c>
-      <c r="M33" s="303"/>
+      <c r="M33" s="303">
+        <v>0</v>
+      </c>
       <c r="N33" s="303"/>
       <c r="O33" s="312"/>
       <c r="P33" s="303"/>
@@ -18200,10 +18271,10 @@
         <v>409</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="403" t="s">
+      <c r="D34" s="426" t="s">
         <v>398</v>
       </c>
-      <c r="E34" s="403"/>
+      <c r="E34" s="426"/>
       <c r="F34" s="268" t="s">
         <v>142</v>
       </c>
@@ -18223,7 +18294,9 @@
       <c r="L34" s="303">
         <v>0</v>
       </c>
-      <c r="M34" s="303"/>
+      <c r="M34" s="303">
+        <v>0</v>
+      </c>
       <c r="N34" s="303"/>
       <c r="O34" s="312"/>
       <c r="P34" s="303"/>
@@ -18237,10 +18310,10 @@
         <v>410</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="403" t="s">
+      <c r="D35" s="426" t="s">
         <v>399</v>
       </c>
-      <c r="E35" s="403"/>
+      <c r="E35" s="426"/>
       <c r="F35" s="268" t="s">
         <v>142</v>
       </c>
@@ -18260,7 +18333,9 @@
       <c r="L35" s="303">
         <v>0</v>
       </c>
-      <c r="M35" s="303"/>
+      <c r="M35" s="303">
+        <v>0</v>
+      </c>
       <c r="N35" s="303"/>
       <c r="O35" s="312"/>
       <c r="P35" s="303"/>
@@ -18274,20 +18349,18 @@
         <v>411</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="403" t="s">
+      <c r="D36" s="426" t="s">
         <v>400</v>
       </c>
-      <c r="E36" s="403"/>
-      <c r="F36" s="322" t="s">
-        <v>407</v>
+      <c r="E36" s="426"/>
+      <c r="F36" s="268" t="s">
+        <v>142</v>
       </c>
       <c r="G36" s="303"/>
       <c r="H36" s="322" t="s">
         <v>382</v>
       </c>
-      <c r="I36" s="334" t="s">
-        <v>418</v>
-      </c>
+      <c r="I36" s="327"/>
       <c r="J36" s="312">
         <v>5</v>
       </c>
@@ -18297,7 +18370,9 @@
       <c r="L36" s="303">
         <v>5</v>
       </c>
-      <c r="M36" s="303"/>
+      <c r="M36" s="303">
+        <v>0</v>
+      </c>
       <c r="N36" s="303"/>
       <c r="O36" s="312"/>
       <c r="P36" s="303"/>
@@ -18311,10 +18386,10 @@
         <v>412</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="403" t="s">
+      <c r="D37" s="426" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="403"/>
+      <c r="E37" s="426"/>
       <c r="F37" s="268" t="s">
         <v>142</v>
       </c>
@@ -18334,7 +18409,9 @@
       <c r="L37" s="303">
         <v>0</v>
       </c>
-      <c r="M37" s="303"/>
+      <c r="M37" s="303">
+        <v>0</v>
+      </c>
       <c r="N37" s="303"/>
       <c r="O37" s="312"/>
       <c r="P37" s="303"/>
@@ -18348,10 +18425,10 @@
         <v>413</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="403" t="s">
+      <c r="D38" s="426" t="s">
         <v>402</v>
       </c>
-      <c r="E38" s="403"/>
+      <c r="E38" s="426"/>
       <c r="F38" s="268" t="s">
         <v>142</v>
       </c>
@@ -18369,7 +18446,9 @@
       <c r="L38" s="303">
         <v>0</v>
       </c>
-      <c r="M38" s="303"/>
+      <c r="M38" s="303">
+        <v>0</v>
+      </c>
       <c r="N38" s="303"/>
       <c r="O38" s="312"/>
       <c r="P38" s="303"/>
@@ -18383,10 +18462,10 @@
         <v>414</v>
       </c>
       <c r="C39" s="303"/>
-      <c r="D39" s="403" t="s">
+      <c r="D39" s="426" t="s">
         <v>403</v>
       </c>
-      <c r="E39" s="403"/>
+      <c r="E39" s="426"/>
       <c r="F39" s="268" t="s">
         <v>142</v>
       </c>
@@ -18404,7 +18483,9 @@
       <c r="L39" s="303">
         <v>0</v>
       </c>
-      <c r="M39" s="303"/>
+      <c r="M39" s="303">
+        <v>0</v>
+      </c>
       <c r="N39" s="303"/>
       <c r="O39" s="312"/>
       <c r="P39" s="303"/>
@@ -18418,10 +18499,10 @@
         <v>415</v>
       </c>
       <c r="C40" s="303"/>
-      <c r="D40" s="403" t="s">
+      <c r="D40" s="426" t="s">
         <v>404</v>
       </c>
-      <c r="E40" s="403"/>
+      <c r="E40" s="426"/>
       <c r="F40" s="322" t="s">
         <v>407</v>
       </c>
@@ -18429,7 +18510,7 @@
       <c r="H40" s="322" t="s">
         <v>382</v>
       </c>
-      <c r="I40" s="334" t="s">
+      <c r="I40" s="327" t="s">
         <v>418</v>
       </c>
       <c r="J40" s="312">
@@ -18441,7 +18522,9 @@
       <c r="L40" s="303">
         <v>4</v>
       </c>
-      <c r="M40" s="303"/>
+      <c r="M40" s="303">
+        <v>4</v>
+      </c>
       <c r="N40" s="303"/>
       <c r="O40" s="312"/>
       <c r="P40" s="303"/>
@@ -18455,10 +18538,10 @@
         <v>416</v>
       </c>
       <c r="C41" s="303"/>
-      <c r="D41" s="403" t="s">
+      <c r="D41" s="426" t="s">
         <v>405</v>
       </c>
-      <c r="E41" s="403"/>
+      <c r="E41" s="426"/>
       <c r="F41" s="322" t="s">
         <v>407</v>
       </c>
@@ -18474,7 +18557,9 @@
       <c r="L41" s="303">
         <v>1</v>
       </c>
-      <c r="M41" s="303"/>
+      <c r="M41" s="303">
+        <v>1</v>
+      </c>
       <c r="N41" s="303"/>
       <c r="O41" s="312"/>
       <c r="P41" s="303"/>
@@ -18488,10 +18573,10 @@
         <v>417</v>
       </c>
       <c r="C42" s="303"/>
-      <c r="D42" s="403" t="s">
+      <c r="D42" s="426" t="s">
         <v>406</v>
       </c>
-      <c r="E42" s="403"/>
+      <c r="E42" s="426"/>
       <c r="F42" s="322" t="s">
         <v>407</v>
       </c>
@@ -18507,7 +18592,9 @@
       <c r="L42" s="303">
         <v>1</v>
       </c>
-      <c r="M42" s="303"/>
+      <c r="M42" s="303">
+        <v>1</v>
+      </c>
       <c r="N42" s="303"/>
       <c r="O42" s="312"/>
       <c r="P42" s="303"/>
@@ -18521,10 +18608,10 @@
         <v>144</v>
       </c>
       <c r="C43" s="303"/>
-      <c r="D43" s="403" t="s">
+      <c r="D43" s="426" t="s">
         <v>431</v>
       </c>
-      <c r="E43" s="403"/>
+      <c r="E43" s="426"/>
       <c r="F43" s="323" t="s">
         <v>407</v>
       </c>
@@ -18532,7 +18619,7 @@
       <c r="H43" s="323" t="s">
         <v>381</v>
       </c>
-      <c r="I43" s="334" t="s">
+      <c r="I43" s="327" t="s">
         <v>418</v>
       </c>
       <c r="J43" s="312">
@@ -18544,7 +18631,9 @@
       <c r="L43" s="303">
         <v>3</v>
       </c>
-      <c r="M43" s="303"/>
+      <c r="M43" s="303">
+        <v>3</v>
+      </c>
       <c r="N43" s="303"/>
       <c r="O43" s="312"/>
       <c r="P43" s="303"/>
@@ -18558,10 +18647,10 @@
         <v>433</v>
       </c>
       <c r="C44" s="303"/>
-      <c r="D44" s="403" t="s">
+      <c r="D44" s="426" t="s">
         <v>432</v>
       </c>
-      <c r="E44" s="403"/>
+      <c r="E44" s="426"/>
       <c r="F44" s="323" t="s">
         <v>407</v>
       </c>
@@ -18577,7 +18666,9 @@
       <c r="L44" s="303">
         <v>2</v>
       </c>
-      <c r="M44" s="303"/>
+      <c r="M44" s="303">
+        <v>2</v>
+      </c>
       <c r="N44" s="303"/>
       <c r="O44" s="312"/>
       <c r="P44" s="303"/>
@@ -18591,10 +18682,10 @@
         <v>434</v>
       </c>
       <c r="C45" s="303"/>
-      <c r="D45" s="404" t="s">
+      <c r="D45" s="425" t="s">
         <v>437</v>
       </c>
-      <c r="E45" s="404"/>
+      <c r="E45" s="425"/>
       <c r="F45" s="323" t="s">
         <v>407</v>
       </c>
@@ -18602,7 +18693,7 @@
       <c r="H45" s="323" t="s">
         <v>381</v>
       </c>
-      <c r="I45" s="334" t="s">
+      <c r="I45" s="327" t="s">
         <v>418</v>
       </c>
       <c r="J45" s="312"/>
@@ -18622,10 +18713,10 @@
         <v>435</v>
       </c>
       <c r="C46" s="303"/>
-      <c r="D46" s="404" t="s">
+      <c r="D46" s="425" t="s">
         <v>436</v>
       </c>
-      <c r="E46" s="404"/>
+      <c r="E46" s="425"/>
       <c r="F46" s="323" t="s">
         <v>407</v>
       </c>
@@ -18649,10 +18740,10 @@
         <v>438</v>
       </c>
       <c r="C47" s="303"/>
-      <c r="D47" s="404" t="s">
+      <c r="D47" s="425" t="s">
         <v>439</v>
       </c>
-      <c r="E47" s="404"/>
+      <c r="E47" s="425"/>
       <c r="F47" s="323" t="s">
         <v>407</v>
       </c>
@@ -18676,10 +18767,10 @@
         <v>440</v>
       </c>
       <c r="C48" s="303"/>
-      <c r="D48" s="404" t="s">
+      <c r="D48" s="425" t="s">
         <v>443</v>
       </c>
-      <c r="E48" s="404"/>
+      <c r="E48" s="425"/>
       <c r="F48" s="323" t="s">
         <v>407</v>
       </c>
@@ -18703,10 +18794,10 @@
         <v>441</v>
       </c>
       <c r="C49" s="303"/>
-      <c r="D49" s="404" t="s">
+      <c r="D49" s="425" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="404"/>
+      <c r="E49" s="425"/>
       <c r="F49" s="323" t="s">
         <v>407</v>
       </c>
@@ -18728,9 +18819,9 @@
     <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="404"/>
-      <c r="E50" s="404"/>
-      <c r="F50" s="333"/>
+      <c r="D50" s="425"/>
+      <c r="E50" s="425"/>
+      <c r="F50" s="326"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
       <c r="I50" s="303"/>
@@ -18749,9 +18840,9 @@
     <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="404"/>
-      <c r="E51" s="404"/>
-      <c r="F51" s="333"/>
+      <c r="D51" s="425"/>
+      <c r="E51" s="425"/>
+      <c r="F51" s="326"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
       <c r="I51" s="303"/>
@@ -18770,9 +18861,9 @@
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="404"/>
-      <c r="E52" s="404"/>
-      <c r="F52" s="333"/>
+      <c r="D52" s="425"/>
+      <c r="E52" s="425"/>
+      <c r="F52" s="326"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
       <c r="I52" s="303"/>
@@ -18791,9 +18882,9 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="404"/>
-      <c r="E53" s="404"/>
-      <c r="F53" s="333"/>
+      <c r="D53" s="425"/>
+      <c r="E53" s="425"/>
+      <c r="F53" s="326"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
       <c r="I53" s="303"/>
@@ -18812,8 +18903,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="404"/>
-      <c r="E54" s="404"/>
+      <c r="D54" s="425"/>
+      <c r="E54" s="425"/>
       <c r="F54" s="268"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -18833,8 +18924,8 @@
     <row r="55" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="303"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="404"/>
-      <c r="E55" s="404"/>
+      <c r="D55" s="425"/>
+      <c r="E55" s="425"/>
       <c r="F55" s="268"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -18878,7 +18969,7 @@
       </c>
       <c r="M56" s="312">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N56" s="312">
         <f t="shared" si="0"/>
@@ -19074,41 +19165,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -19125,145 +19181,194 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="F29:F31 F50:F55">
-    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="52" priority="46" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="45" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F29)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="45" priority="47">
+    <cfRule type="containsBlanks" dxfId="49" priority="51">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36 F40:F42">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
+  <conditionalFormatting sqref="F40:F42">
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",F40)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="41" priority="36">
-      <formula>LEN(TRIM(F36))=0</formula>
+    <cfRule type="containsBlanks" dxfId="45" priority="40">
+      <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F33)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="32">
+    <cfRule type="containsBlanks" dxfId="41" priority="36">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F34)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="33" priority="28">
+    <cfRule type="containsBlanks" dxfId="37" priority="32">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F35)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="24">
+    <cfRule type="containsBlanks" dxfId="33" priority="28">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F37)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="20">
+    <cfRule type="containsBlanks" dxfId="29" priority="24">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F38)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="21" priority="16">
+    <cfRule type="containsBlanks" dxfId="25" priority="20">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F32)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="12">
+    <cfRule type="containsBlanks" dxfId="21" priority="16">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F43)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="8">
+    <cfRule type="containsBlanks" dxfId="17" priority="12">
       <formula>LEN(TRIM(F43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F49">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F45)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
+    <cfRule type="containsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(F45))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="4">
+      <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19272,7 +19377,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{D439F447-6291-4170-AC36-024702558D93}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{D439F447-6291-4170-AC36-024702558D93}">
             <xm:f>NOT(ISERROR(SEARCH("""",F29)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -19295,9 +19400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19306,21 +19411,21 @@
     <col min="2" max="2" width="12.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="59.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="332" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="532" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="10"/>
     <col min="8" max="8" width="11.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
-      <c r="F1" s="466"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="429"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -19334,11 +19439,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="467" t="s">
+      <c r="D2" s="430" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="467"/>
-      <c r="F2" s="468"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="431"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -19348,12 +19453,12 @@
       </c>
       <c r="B3" s="87">
         <f>SUMIF($B$14:$B$103,"Toni",$E$14:$E$103)</f>
-        <v>4.5</v>
+        <v>13.75</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="471"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="434"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -19363,12 +19468,12 @@
       </c>
       <c r="B4" s="87">
         <f>SUMIF($B$14:$B$103,"Ronja",$E$14:$E$103)</f>
-        <v>4.5</v>
+        <v>15.75</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="451"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="437"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -19376,9 +19481,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="451"/>
+      <c r="D5" s="435"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="437"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -19386,9 +19491,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="450"/>
-      <c r="F6" s="451"/>
+      <c r="D6" s="435"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -19396,9 +19501,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="450"/>
+      <c r="D7" s="436"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="436"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -19407,87 +19512,87 @@
       <c r="B8" s="185"/>
       <c r="C8" s="182"/>
       <c r="D8" s="297"/>
-      <c r="E8" s="326"/>
+      <c r="E8" s="523"/>
       <c r="F8" s="299"/>
       <c r="G8" s="56"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="452" t="s">
+      <c r="A9" s="438" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="454">
+      <c r="B9" s="440">
         <f>SUM(B3:B8)</f>
-        <v>9</v>
-      </c>
-      <c r="C9" s="456" t="str">
+        <v>29.5</v>
+      </c>
+      <c r="C9" s="442" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="458" t="s">
+      <c r="D9" s="444" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="460">
+      <c r="E9" s="446">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="462"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="448"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="453"/>
-      <c r="B10" s="455"/>
-      <c r="C10" s="457"/>
-      <c r="D10" s="459"/>
-      <c r="E10" s="461"/>
-      <c r="F10" s="463"/>
+      <c r="A10" s="439"/>
+      <c r="B10" s="441"/>
+      <c r="C10" s="443"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="447"/>
+      <c r="F10" s="449"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="438" t="s">
+      <c r="A11" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="439"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="439"/>
-      <c r="E11" s="441"/>
-      <c r="F11" s="442"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="453"/>
+      <c r="F11" s="454"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="443" t="s">
+      <c r="A12" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="456" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="445" t="s">
+      <c r="C12" s="457" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="446"/>
-      <c r="E12" s="447" t="s">
+      <c r="D12" s="458"/>
+      <c r="E12" s="524" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="448" t="s">
+      <c r="F12" s="459" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="443"/>
-      <c r="B13" s="444"/>
+      <c r="A13" s="455"/>
+      <c r="B13" s="456"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="447"/>
-      <c r="F13" s="448"/>
+      <c r="E13" s="524"/>
+      <c r="F13" s="459"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -19502,7 +19607,7 @@
       <c r="D14" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="327">
+      <c r="E14" s="525">
         <v>4</v>
       </c>
       <c r="F14" s="208"/>
@@ -19520,7 +19625,7 @@
       <c r="D15" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="327">
+      <c r="E15" s="525">
         <v>4</v>
       </c>
       <c r="F15" s="208"/>
@@ -19529,17 +19634,16 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="205">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B16" s="191" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="E16" s="327">
-        <v>0.25</v>
+        <v>382</v>
+      </c>
+      <c r="D16" s="521" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="525">
+        <v>3</v>
       </c>
       <c r="F16" s="195"/>
       <c r="G16" s="56"/>
@@ -19547,17 +19651,16 @@
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="205">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B17" s="191" t="s">
-        <v>382</v>
-      </c>
-      <c r="C17" s="206"/>
-      <c r="D17" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="E17" s="327">
-        <v>0.25</v>
+        <v>381</v>
+      </c>
+      <c r="D17" s="521" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="525">
+        <v>3</v>
       </c>
       <c r="F17" s="195"/>
       <c r="G17" s="56"/>
@@ -19565,7 +19668,7 @@
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="205">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B18" s="191" t="s">
         <v>381</v>
@@ -19574,7 +19677,7 @@
       <c r="D18" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E18" s="327">
+      <c r="E18" s="525">
         <v>0.25</v>
       </c>
       <c r="F18" s="195"/>
@@ -19583,7 +19686,7 @@
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="205">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="B19" s="191" t="s">
         <v>382</v>
@@ -19592,7 +19695,7 @@
       <c r="D19" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="327">
+      <c r="E19" s="525">
         <v>0.25</v>
       </c>
       <c r="F19" s="195"/>
@@ -19600,41 +19703,71 @@
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="197"/>
+      <c r="A20" s="205">
+        <v>43914</v>
+      </c>
+      <c r="B20" s="522" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="521" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" s="526">
+        <v>6</v>
+      </c>
       <c r="F20" s="195"/>
       <c r="G20" s="56"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="197"/>
+      <c r="A21" s="205">
+        <v>43914</v>
+      </c>
+      <c r="B21" s="522" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="521" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" s="526">
+        <v>8</v>
+      </c>
       <c r="F21" s="195"/>
       <c r="G21" s="56"/>
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="197"/>
+      <c r="A22" s="205">
+        <v>43915</v>
+      </c>
+      <c r="B22" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="206"/>
+      <c r="D22" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="E22" s="525">
+        <v>0.25</v>
+      </c>
       <c r="F22" s="196"/>
       <c r="G22" s="62"/>
       <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="174"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="197"/>
+      <c r="A23" s="205">
+        <v>43915</v>
+      </c>
+      <c r="B23" s="191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" s="206"/>
+      <c r="D23" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="525">
+        <v>0.25</v>
+      </c>
       <c r="F23" s="196"/>
       <c r="G23" s="62"/>
       <c r="H23" s="29"/>
@@ -19644,7 +19777,7 @@
       <c r="B24" s="191"/>
       <c r="C24" s="197"/>
       <c r="D24" s="193"/>
-      <c r="E24" s="197"/>
+      <c r="E24" s="527"/>
       <c r="F24" s="196"/>
       <c r="G24" s="62"/>
       <c r="H24" s="29"/>
@@ -19654,27 +19787,43 @@
       <c r="B25" s="191"/>
       <c r="C25" s="192"/>
       <c r="D25" s="193"/>
-      <c r="E25" s="197"/>
+      <c r="E25" s="527"/>
       <c r="F25" s="196"/>
       <c r="G25" s="62"/>
       <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="197"/>
+      <c r="A26" s="205">
+        <v>43919</v>
+      </c>
+      <c r="B26" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="206"/>
+      <c r="D26" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="525">
+        <v>0.25</v>
+      </c>
       <c r="F26" s="196"/>
       <c r="G26" s="62"/>
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="197"/>
+      <c r="A27" s="205">
+        <v>43919</v>
+      </c>
+      <c r="B27" s="191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="206"/>
+      <c r="D27" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="525">
+        <v>0.25</v>
+      </c>
       <c r="F27" s="196"/>
       <c r="G27" s="82"/>
       <c r="H27" s="29"/>
@@ -19684,7 +19833,7 @@
       <c r="B28" s="191"/>
       <c r="C28" s="192"/>
       <c r="D28" s="193"/>
-      <c r="E28" s="197"/>
+      <c r="E28" s="527"/>
       <c r="F28" s="196"/>
       <c r="G28" s="204"/>
       <c r="H28" s="29"/>
@@ -19694,7 +19843,7 @@
       <c r="B29" s="191"/>
       <c r="C29" s="192"/>
       <c r="D29" s="193"/>
-      <c r="E29" s="197"/>
+      <c r="E29" s="527"/>
       <c r="F29" s="196"/>
       <c r="G29" s="83"/>
       <c r="H29" s="29"/>
@@ -19704,7 +19853,7 @@
       <c r="B30" s="191"/>
       <c r="C30" s="192"/>
       <c r="D30" s="193"/>
-      <c r="E30" s="197"/>
+      <c r="E30" s="527"/>
       <c r="F30" s="196"/>
       <c r="G30" s="83"/>
       <c r="H30" s="29"/>
@@ -19714,7 +19863,7 @@
       <c r="B31" s="191"/>
       <c r="C31" s="192"/>
       <c r="D31" s="193"/>
-      <c r="E31" s="197"/>
+      <c r="E31" s="527"/>
       <c r="F31" s="196"/>
       <c r="G31" s="83"/>
       <c r="H31" s="29"/>
@@ -19724,7 +19873,7 @@
       <c r="B32" s="191"/>
       <c r="C32" s="192"/>
       <c r="D32" s="193"/>
-      <c r="E32" s="197"/>
+      <c r="E32" s="527"/>
       <c r="F32" s="196"/>
       <c r="G32" s="84"/>
       <c r="H32" s="29"/>
@@ -19734,7 +19883,7 @@
       <c r="B33" s="191"/>
       <c r="C33" s="192"/>
       <c r="D33" s="193"/>
-      <c r="E33" s="197"/>
+      <c r="E33" s="527"/>
       <c r="F33" s="196"/>
       <c r="G33" s="84"/>
       <c r="H33" s="29"/>
@@ -19744,7 +19893,7 @@
       <c r="B34" s="191"/>
       <c r="C34" s="192"/>
       <c r="D34" s="193"/>
-      <c r="E34" s="197"/>
+      <c r="E34" s="527"/>
       <c r="F34" s="196"/>
       <c r="G34" s="84"/>
       <c r="H34" s="29"/>
@@ -19754,7 +19903,7 @@
       <c r="B35" s="191"/>
       <c r="C35" s="192"/>
       <c r="D35" s="193"/>
-      <c r="E35" s="197"/>
+      <c r="E35" s="527"/>
       <c r="F35" s="196"/>
       <c r="G35" s="84"/>
       <c r="H35" s="29"/>
@@ -19764,7 +19913,7 @@
       <c r="B36" s="191"/>
       <c r="C36" s="192"/>
       <c r="D36" s="193"/>
-      <c r="E36" s="197"/>
+      <c r="E36" s="527"/>
       <c r="F36" s="196"/>
       <c r="G36" s="84"/>
       <c r="H36" s="29"/>
@@ -19774,7 +19923,7 @@
       <c r="B37" s="191"/>
       <c r="C37" s="192"/>
       <c r="D37" s="193"/>
-      <c r="E37" s="197"/>
+      <c r="E37" s="527"/>
       <c r="F37" s="196"/>
       <c r="G37" s="84"/>
       <c r="H37" s="29"/>
@@ -19784,7 +19933,7 @@
       <c r="B38" s="191"/>
       <c r="C38" s="192"/>
       <c r="D38" s="193"/>
-      <c r="E38" s="197"/>
+      <c r="E38" s="527"/>
       <c r="F38" s="196"/>
       <c r="G38" s="62"/>
       <c r="H38" s="29"/>
@@ -19794,7 +19943,7 @@
       <c r="B39" s="191"/>
       <c r="C39" s="192"/>
       <c r="D39" s="193"/>
-      <c r="E39" s="197"/>
+      <c r="E39" s="527"/>
       <c r="F39" s="196"/>
       <c r="G39" s="62"/>
       <c r="H39" s="29"/>
@@ -19804,7 +19953,7 @@
       <c r="B40" s="191"/>
       <c r="C40" s="192"/>
       <c r="D40" s="193"/>
-      <c r="E40" s="197"/>
+      <c r="E40" s="527"/>
       <c r="F40" s="195"/>
       <c r="G40" s="56"/>
       <c r="H40" s="29"/>
@@ -19814,7 +19963,7 @@
       <c r="B41" s="191"/>
       <c r="C41" s="192"/>
       <c r="D41" s="193"/>
-      <c r="E41" s="197"/>
+      <c r="E41" s="527"/>
       <c r="F41" s="195"/>
       <c r="G41" s="56"/>
       <c r="H41" s="29"/>
@@ -19824,7 +19973,7 @@
       <c r="B42" s="191"/>
       <c r="C42" s="192"/>
       <c r="D42" s="193"/>
-      <c r="E42" s="197"/>
+      <c r="E42" s="527"/>
       <c r="F42" s="195"/>
       <c r="G42" s="56"/>
       <c r="H42" s="29"/>
@@ -19834,7 +19983,7 @@
       <c r="B43" s="191"/>
       <c r="C43" s="192"/>
       <c r="D43" s="193"/>
-      <c r="E43" s="197"/>
+      <c r="E43" s="527"/>
       <c r="F43" s="195"/>
       <c r="G43" s="56"/>
       <c r="H43" s="29"/>
@@ -19844,7 +19993,7 @@
       <c r="B44" s="191"/>
       <c r="C44" s="192"/>
       <c r="D44" s="193"/>
-      <c r="E44" s="197"/>
+      <c r="E44" s="527"/>
       <c r="F44" s="195"/>
       <c r="G44" s="56"/>
       <c r="H44" s="29"/>
@@ -19854,7 +20003,7 @@
       <c r="B45" s="191"/>
       <c r="C45" s="192"/>
       <c r="D45" s="193"/>
-      <c r="E45" s="197"/>
+      <c r="E45" s="527"/>
       <c r="F45" s="195"/>
       <c r="G45" s="56"/>
       <c r="H45" s="29"/>
@@ -19864,7 +20013,7 @@
       <c r="B46" s="191"/>
       <c r="C46" s="192"/>
       <c r="D46" s="193"/>
-      <c r="E46" s="197"/>
+      <c r="E46" s="527"/>
       <c r="F46" s="195"/>
       <c r="G46" s="56"/>
       <c r="H46" s="29"/>
@@ -19874,7 +20023,7 @@
       <c r="B47" s="191"/>
       <c r="C47" s="192"/>
       <c r="D47" s="193"/>
-      <c r="E47" s="197"/>
+      <c r="E47" s="527"/>
       <c r="F47" s="195"/>
       <c r="G47" s="56"/>
       <c r="H47" s="29"/>
@@ -19884,7 +20033,7 @@
       <c r="B48" s="191"/>
       <c r="C48" s="192"/>
       <c r="D48" s="193"/>
-      <c r="E48" s="197"/>
+      <c r="E48" s="527"/>
       <c r="F48" s="195"/>
       <c r="G48" s="56"/>
       <c r="H48" s="29"/>
@@ -19894,7 +20043,7 @@
       <c r="B49" s="191"/>
       <c r="C49" s="192"/>
       <c r="D49" s="193"/>
-      <c r="E49" s="197"/>
+      <c r="E49" s="527"/>
       <c r="F49" s="195"/>
       <c r="G49" s="56"/>
       <c r="H49" s="29"/>
@@ -19904,7 +20053,7 @@
       <c r="B50" s="191"/>
       <c r="C50" s="192"/>
       <c r="D50" s="193"/>
-      <c r="E50" s="197"/>
+      <c r="E50" s="527"/>
       <c r="F50" s="195"/>
       <c r="G50" s="56"/>
       <c r="H50" s="29"/>
@@ -19914,7 +20063,7 @@
       <c r="B51" s="191"/>
       <c r="C51" s="192"/>
       <c r="D51" s="193"/>
-      <c r="E51" s="197"/>
+      <c r="E51" s="527"/>
       <c r="F51" s="195"/>
       <c r="G51" s="56"/>
       <c r="H51" s="29"/>
@@ -19924,7 +20073,7 @@
       <c r="B52" s="191"/>
       <c r="C52" s="192"/>
       <c r="D52" s="193"/>
-      <c r="E52" s="197"/>
+      <c r="E52" s="527"/>
       <c r="F52" s="195"/>
       <c r="G52" s="56"/>
       <c r="H52" s="29"/>
@@ -19934,7 +20083,7 @@
       <c r="B53" s="191"/>
       <c r="C53" s="192"/>
       <c r="D53" s="193"/>
-      <c r="E53" s="197"/>
+      <c r="E53" s="527"/>
       <c r="F53" s="195"/>
       <c r="G53" s="56"/>
       <c r="H53" s="29"/>
@@ -19944,7 +20093,7 @@
       <c r="B54" s="248"/>
       <c r="C54" s="249"/>
       <c r="D54" s="250"/>
-      <c r="E54" s="328"/>
+      <c r="E54" s="528"/>
       <c r="F54" s="252"/>
       <c r="G54" s="56"/>
       <c r="H54" s="29"/>
@@ -19954,7 +20103,7 @@
       <c r="B55" s="191"/>
       <c r="C55" s="192"/>
       <c r="D55" s="193"/>
-      <c r="E55" s="197"/>
+      <c r="E55" s="527"/>
       <c r="F55" s="195"/>
       <c r="G55" s="56"/>
       <c r="H55" s="29"/>
@@ -19964,7 +20113,7 @@
       <c r="B56" s="191"/>
       <c r="C56" s="192"/>
       <c r="D56" s="193"/>
-      <c r="E56" s="197"/>
+      <c r="E56" s="527"/>
       <c r="F56" s="195"/>
       <c r="G56" s="56"/>
       <c r="H56" s="29"/>
@@ -19974,7 +20123,7 @@
       <c r="B57" s="191"/>
       <c r="C57" s="192"/>
       <c r="D57" s="193"/>
-      <c r="E57" s="197"/>
+      <c r="E57" s="527"/>
       <c r="F57" s="195"/>
       <c r="G57" s="56"/>
       <c r="H57" s="29"/>
@@ -19984,7 +20133,7 @@
       <c r="B58" s="191"/>
       <c r="C58" s="192"/>
       <c r="D58" s="193"/>
-      <c r="E58" s="197"/>
+      <c r="E58" s="527"/>
       <c r="F58" s="195"/>
       <c r="G58" s="56"/>
       <c r="H58" s="29"/>
@@ -19994,7 +20143,7 @@
       <c r="B59" s="191"/>
       <c r="C59" s="192"/>
       <c r="D59" s="193"/>
-      <c r="E59" s="197"/>
+      <c r="E59" s="527"/>
       <c r="F59" s="195"/>
       <c r="G59" s="56"/>
       <c r="H59" s="29"/>
@@ -20004,7 +20153,7 @@
       <c r="B60" s="191"/>
       <c r="C60" s="192"/>
       <c r="D60" s="193"/>
-      <c r="E60" s="197"/>
+      <c r="E60" s="527"/>
       <c r="F60" s="195"/>
       <c r="G60" s="56"/>
       <c r="H60" s="29"/>
@@ -20014,7 +20163,7 @@
       <c r="B61" s="191"/>
       <c r="C61" s="192"/>
       <c r="D61" s="193"/>
-      <c r="E61" s="197"/>
+      <c r="E61" s="527"/>
       <c r="F61" s="195"/>
       <c r="G61" s="56"/>
       <c r="H61" s="29"/>
@@ -20024,7 +20173,7 @@
       <c r="B62" s="191"/>
       <c r="C62" s="192"/>
       <c r="D62" s="193"/>
-      <c r="E62" s="197"/>
+      <c r="E62" s="527"/>
       <c r="F62" s="195"/>
       <c r="G62" s="56"/>
       <c r="H62" s="29"/>
@@ -20034,7 +20183,7 @@
       <c r="B63" s="191"/>
       <c r="C63" s="192"/>
       <c r="D63" s="193"/>
-      <c r="E63" s="197"/>
+      <c r="E63" s="527"/>
       <c r="F63" s="195"/>
       <c r="G63" s="56"/>
       <c r="H63" s="29"/>
@@ -20044,7 +20193,7 @@
       <c r="B64" s="191"/>
       <c r="C64" s="192"/>
       <c r="D64" s="193"/>
-      <c r="E64" s="197"/>
+      <c r="E64" s="527"/>
       <c r="F64" s="195"/>
       <c r="G64" s="56"/>
       <c r="H64" s="29"/>
@@ -20054,7 +20203,7 @@
       <c r="B65" s="191"/>
       <c r="C65" s="192"/>
       <c r="D65" s="193"/>
-      <c r="E65" s="197"/>
+      <c r="E65" s="527"/>
       <c r="F65" s="195"/>
       <c r="G65" s="56"/>
       <c r="H65" s="29"/>
@@ -20064,7 +20213,7 @@
       <c r="B66" s="191"/>
       <c r="C66" s="192"/>
       <c r="D66" s="193"/>
-      <c r="E66" s="197"/>
+      <c r="E66" s="527"/>
       <c r="F66" s="195"/>
       <c r="G66" s="56"/>
       <c r="H66" s="29"/>
@@ -20074,7 +20223,7 @@
       <c r="B67" s="191"/>
       <c r="C67" s="192"/>
       <c r="D67" s="193"/>
-      <c r="E67" s="197"/>
+      <c r="E67" s="527"/>
       <c r="F67" s="195"/>
       <c r="G67" s="56"/>
       <c r="H67" s="85"/>
@@ -20084,7 +20233,7 @@
       <c r="B68" s="191"/>
       <c r="C68" s="192"/>
       <c r="D68" s="193"/>
-      <c r="E68" s="197"/>
+      <c r="E68" s="527"/>
       <c r="F68" s="195"/>
       <c r="G68" s="56"/>
       <c r="H68" s="85"/>
@@ -20094,7 +20243,7 @@
       <c r="B69" s="191"/>
       <c r="C69" s="192"/>
       <c r="D69" s="193"/>
-      <c r="E69" s="197"/>
+      <c r="E69" s="527"/>
       <c r="F69" s="195"/>
       <c r="G69" s="56"/>
       <c r="H69" s="85"/>
@@ -20104,7 +20253,7 @@
       <c r="B70" s="191"/>
       <c r="C70" s="192"/>
       <c r="D70" s="193"/>
-      <c r="E70" s="197"/>
+      <c r="E70" s="527"/>
       <c r="F70" s="195"/>
       <c r="G70" s="56"/>
       <c r="H70" s="85"/>
@@ -20114,7 +20263,7 @@
       <c r="B71" s="191"/>
       <c r="C71" s="192"/>
       <c r="D71" s="193"/>
-      <c r="E71" s="197"/>
+      <c r="E71" s="527"/>
       <c r="F71" s="195"/>
       <c r="G71" s="56"/>
       <c r="H71" s="29"/>
@@ -20124,7 +20273,7 @@
       <c r="B72" s="191"/>
       <c r="C72" s="197"/>
       <c r="D72" s="193"/>
-      <c r="E72" s="197"/>
+      <c r="E72" s="527"/>
       <c r="F72" s="195"/>
       <c r="G72" s="56"/>
       <c r="H72" s="29"/>
@@ -20134,7 +20283,7 @@
       <c r="B73" s="191"/>
       <c r="C73" s="197"/>
       <c r="D73" s="193"/>
-      <c r="E73" s="197"/>
+      <c r="E73" s="527"/>
       <c r="F73" s="195"/>
       <c r="G73" s="56"/>
       <c r="H73" s="29"/>
@@ -20144,7 +20293,7 @@
       <c r="B74" s="191"/>
       <c r="C74" s="197"/>
       <c r="D74" s="193"/>
-      <c r="E74" s="197"/>
+      <c r="E74" s="527"/>
       <c r="F74" s="195"/>
       <c r="G74" s="56"/>
       <c r="H74" s="29"/>
@@ -20154,7 +20303,7 @@
       <c r="B75" s="191"/>
       <c r="C75" s="192"/>
       <c r="D75" s="193"/>
-      <c r="E75" s="197"/>
+      <c r="E75" s="527"/>
       <c r="F75" s="195"/>
       <c r="G75" s="56"/>
       <c r="H75" s="29"/>
@@ -20164,7 +20313,7 @@
       <c r="B76" s="191"/>
       <c r="C76" s="192"/>
       <c r="D76" s="193"/>
-      <c r="E76" s="197"/>
+      <c r="E76" s="527"/>
       <c r="F76" s="195"/>
       <c r="G76" s="56"/>
       <c r="H76" s="29"/>
@@ -20174,7 +20323,7 @@
       <c r="B77" s="191"/>
       <c r="C77" s="192"/>
       <c r="D77" s="193"/>
-      <c r="E77" s="197"/>
+      <c r="E77" s="527"/>
       <c r="F77" s="195"/>
       <c r="G77" s="56"/>
       <c r="H77" s="29"/>
@@ -20184,7 +20333,7 @@
       <c r="B78" s="191"/>
       <c r="C78" s="192"/>
       <c r="D78" s="193"/>
-      <c r="E78" s="197"/>
+      <c r="E78" s="527"/>
       <c r="F78" s="195"/>
       <c r="G78" s="56"/>
       <c r="H78" s="29"/>
@@ -20194,7 +20343,7 @@
       <c r="B79" s="191"/>
       <c r="C79" s="192"/>
       <c r="D79" s="193"/>
-      <c r="E79" s="197"/>
+      <c r="E79" s="527"/>
       <c r="F79" s="195"/>
       <c r="G79" s="56"/>
       <c r="H79" s="85"/>
@@ -20204,7 +20353,7 @@
       <c r="B80" s="191"/>
       <c r="C80" s="198"/>
       <c r="D80" s="193"/>
-      <c r="E80" s="197"/>
+      <c r="E80" s="527"/>
       <c r="F80" s="195"/>
       <c r="G80" s="56"/>
       <c r="H80" s="29"/>
@@ -20214,7 +20363,7 @@
       <c r="B81" s="191"/>
       <c r="C81" s="198"/>
       <c r="D81" s="193"/>
-      <c r="E81" s="197"/>
+      <c r="E81" s="527"/>
       <c r="F81" s="195"/>
       <c r="G81" s="56"/>
       <c r="H81" s="29"/>
@@ -20224,7 +20373,7 @@
       <c r="B82" s="191"/>
       <c r="C82" s="198"/>
       <c r="D82" s="193"/>
-      <c r="E82" s="197"/>
+      <c r="E82" s="527"/>
       <c r="F82" s="195"/>
       <c r="G82" s="56"/>
       <c r="H82" s="85"/>
@@ -20234,7 +20383,7 @@
       <c r="B83" s="191"/>
       <c r="C83" s="198"/>
       <c r="D83" s="193"/>
-      <c r="E83" s="197"/>
+      <c r="E83" s="527"/>
       <c r="F83" s="195"/>
       <c r="G83" s="56"/>
       <c r="H83" s="85"/>
@@ -20244,7 +20393,7 @@
       <c r="B84" s="191"/>
       <c r="C84" s="198"/>
       <c r="D84" s="193"/>
-      <c r="E84" s="197"/>
+      <c r="E84" s="527"/>
       <c r="F84" s="195"/>
       <c r="G84" s="56"/>
       <c r="H84" s="85"/>
@@ -20254,7 +20403,7 @@
       <c r="B85" s="191"/>
       <c r="C85" s="198"/>
       <c r="D85" s="193"/>
-      <c r="E85" s="197"/>
+      <c r="E85" s="527"/>
       <c r="F85" s="195"/>
       <c r="G85" s="56"/>
       <c r="H85" s="85"/>
@@ -20264,7 +20413,7 @@
       <c r="B86" s="191"/>
       <c r="C86" s="198"/>
       <c r="D86" s="193"/>
-      <c r="E86" s="197"/>
+      <c r="E86" s="527"/>
       <c r="F86" s="195"/>
       <c r="G86" s="56"/>
       <c r="H86" s="85"/>
@@ -20274,7 +20423,7 @@
       <c r="B87" s="191"/>
       <c r="C87" s="198"/>
       <c r="D87" s="193"/>
-      <c r="E87" s="197"/>
+      <c r="E87" s="527"/>
       <c r="F87" s="195"/>
       <c r="G87" s="56"/>
       <c r="H87" s="29"/>
@@ -20284,7 +20433,7 @@
       <c r="B88" s="191"/>
       <c r="C88" s="198"/>
       <c r="D88" s="193"/>
-      <c r="E88" s="197"/>
+      <c r="E88" s="527"/>
       <c r="F88" s="195"/>
       <c r="G88" s="56"/>
       <c r="H88" s="85"/>
@@ -20294,7 +20443,7 @@
       <c r="B89" s="191"/>
       <c r="C89" s="198"/>
       <c r="D89" s="193"/>
-      <c r="E89" s="197"/>
+      <c r="E89" s="527"/>
       <c r="F89" s="195"/>
       <c r="G89" s="56"/>
       <c r="H89" s="85"/>
@@ -20304,7 +20453,7 @@
       <c r="B90" s="191"/>
       <c r="C90" s="198"/>
       <c r="D90" s="193"/>
-      <c r="E90" s="197"/>
+      <c r="E90" s="527"/>
       <c r="F90" s="195"/>
       <c r="G90" s="56"/>
       <c r="H90" s="85"/>
@@ -20314,7 +20463,7 @@
       <c r="B91" s="191"/>
       <c r="C91" s="198"/>
       <c r="D91" s="193"/>
-      <c r="E91" s="197"/>
+      <c r="E91" s="527"/>
       <c r="F91" s="195"/>
       <c r="G91" s="56"/>
       <c r="H91" s="85"/>
@@ -20324,7 +20473,7 @@
       <c r="B92" s="191"/>
       <c r="C92" s="198"/>
       <c r="D92" s="193"/>
-      <c r="E92" s="197"/>
+      <c r="E92" s="527"/>
       <c r="F92" s="195"/>
       <c r="G92" s="56"/>
       <c r="H92" s="85"/>
@@ -20334,7 +20483,7 @@
       <c r="B93" s="191"/>
       <c r="C93" s="198"/>
       <c r="D93" s="193"/>
-      <c r="E93" s="329"/>
+      <c r="E93" s="529"/>
       <c r="F93" s="195"/>
       <c r="G93" s="56"/>
       <c r="H93" s="85"/>
@@ -20344,7 +20493,7 @@
       <c r="B94" s="198"/>
       <c r="C94" s="198"/>
       <c r="D94" s="193"/>
-      <c r="E94" s="329"/>
+      <c r="E94" s="529"/>
       <c r="F94" s="195"/>
       <c r="G94" s="56"/>
       <c r="H94" s="85"/>
@@ -20354,7 +20503,7 @@
       <c r="B95" s="198"/>
       <c r="C95" s="198"/>
       <c r="D95" s="193"/>
-      <c r="E95" s="329"/>
+      <c r="E95" s="529"/>
       <c r="F95" s="195"/>
       <c r="G95" s="56"/>
       <c r="H95" s="29"/>
@@ -20364,7 +20513,7 @@
       <c r="B96" s="198"/>
       <c r="C96" s="198"/>
       <c r="D96" s="193"/>
-      <c r="E96" s="329"/>
+      <c r="E96" s="529"/>
       <c r="F96" s="195"/>
       <c r="G96" s="56"/>
       <c r="H96" s="29"/>
@@ -20374,7 +20523,7 @@
       <c r="B97" s="198"/>
       <c r="C97" s="198"/>
       <c r="D97" s="193"/>
-      <c r="E97" s="329"/>
+      <c r="E97" s="529"/>
       <c r="F97" s="195"/>
       <c r="G97" s="56"/>
       <c r="H97" s="29"/>
@@ -20384,7 +20533,7 @@
       <c r="B98" s="198"/>
       <c r="C98" s="198"/>
       <c r="D98" s="193"/>
-      <c r="E98" s="329"/>
+      <c r="E98" s="529"/>
       <c r="F98" s="195"/>
       <c r="G98" s="56"/>
       <c r="H98" s="29"/>
@@ -20394,7 +20543,7 @@
       <c r="B99" s="198"/>
       <c r="C99" s="198"/>
       <c r="D99" s="193"/>
-      <c r="E99" s="330"/>
+      <c r="E99" s="530"/>
       <c r="F99" s="195"/>
       <c r="G99" s="56"/>
       <c r="H99" s="85"/>
@@ -20404,7 +20553,7 @@
       <c r="B100" s="191"/>
       <c r="C100" s="191"/>
       <c r="D100" s="200"/>
-      <c r="E100" s="197"/>
+      <c r="E100" s="527"/>
       <c r="F100" s="195"/>
       <c r="G100" s="56"/>
       <c r="H100" s="29"/>
@@ -20414,7 +20563,7 @@
       <c r="B101" s="201"/>
       <c r="C101" s="201"/>
       <c r="D101" s="202"/>
-      <c r="E101" s="197"/>
+      <c r="E101" s="527"/>
       <c r="F101" s="203"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
@@ -20424,7 +20573,7 @@
       <c r="B102" s="201"/>
       <c r="C102" s="201"/>
       <c r="D102" s="202"/>
-      <c r="E102" s="197"/>
+      <c r="E102" s="527"/>
       <c r="F102" s="212"/>
       <c r="G102" s="213"/>
       <c r="H102" s="29"/>
@@ -20434,7 +20583,7 @@
       <c r="B103" s="244"/>
       <c r="C103" s="244"/>
       <c r="D103" s="245"/>
-      <c r="E103" s="331"/>
+      <c r="E103" s="531"/>
       <c r="F103" s="246"/>
       <c r="G103" s="213"/>
       <c r="H103" s="29"/>
@@ -20444,7 +20593,7 @@
       <c r="B104" s="201"/>
       <c r="C104" s="201"/>
       <c r="D104" s="202"/>
-      <c r="E104" s="197"/>
+      <c r="E104" s="527"/>
       <c r="F104" s="212"/>
       <c r="G104" s="213"/>
       <c r="H104" s="29"/>
@@ -20454,7 +20603,7 @@
       <c r="B105" s="201"/>
       <c r="C105" s="201"/>
       <c r="D105" s="202"/>
-      <c r="E105" s="197"/>
+      <c r="E105" s="527"/>
       <c r="F105" s="212"/>
       <c r="G105" s="213"/>
       <c r="H105" s="29"/>
@@ -20464,7 +20613,7 @@
       <c r="B106" s="201"/>
       <c r="C106" s="201"/>
       <c r="D106" s="202"/>
-      <c r="E106" s="197"/>
+      <c r="E106" s="527"/>
       <c r="F106" s="212"/>
       <c r="G106" s="213"/>
       <c r="H106" s="29"/>
@@ -20474,7 +20623,7 @@
       <c r="B107" s="201"/>
       <c r="C107" s="201"/>
       <c r="D107" s="202"/>
-      <c r="E107" s="197"/>
+      <c r="E107" s="527"/>
       <c r="F107" s="212"/>
       <c r="G107" s="213"/>
       <c r="H107" s="29"/>
@@ -20484,7 +20633,7 @@
       <c r="B108" s="201"/>
       <c r="C108" s="201"/>
       <c r="D108" s="202"/>
-      <c r="E108" s="197"/>
+      <c r="E108" s="527"/>
       <c r="F108" s="212"/>
       <c r="G108" s="213"/>
       <c r="H108" s="29"/>
@@ -20494,7 +20643,7 @@
       <c r="B109" s="201"/>
       <c r="C109" s="201"/>
       <c r="D109" s="202"/>
-      <c r="E109" s="197"/>
+      <c r="E109" s="527"/>
       <c r="F109" s="212"/>
       <c r="G109" s="213"/>
       <c r="H109" s="29"/>
@@ -20504,7 +20653,7 @@
       <c r="B110" s="201"/>
       <c r="C110" s="201"/>
       <c r="D110" s="202"/>
-      <c r="E110" s="197"/>
+      <c r="E110" s="527"/>
       <c r="F110" s="212"/>
       <c r="G110" s="213"/>
       <c r="H110" s="29"/>
@@ -20514,7 +20663,7 @@
       <c r="B111" s="201"/>
       <c r="C111" s="201"/>
       <c r="D111" s="202"/>
-      <c r="E111" s="197"/>
+      <c r="E111" s="527"/>
       <c r="F111" s="212"/>
       <c r="G111" s="213"/>
       <c r="H111" s="29"/>
@@ -20524,7 +20673,7 @@
       <c r="B112" s="201"/>
       <c r="C112" s="201"/>
       <c r="D112" s="202"/>
-      <c r="E112" s="197"/>
+      <c r="E112" s="527"/>
       <c r="F112" s="212"/>
       <c r="G112" s="213"/>
       <c r="H112" s="29"/>
@@ -20534,7 +20683,7 @@
       <c r="B113" s="201"/>
       <c r="C113" s="201"/>
       <c r="D113" s="202"/>
-      <c r="E113" s="197"/>
+      <c r="E113" s="527"/>
       <c r="F113" s="212"/>
       <c r="G113" s="213"/>
       <c r="H113" s="29"/>
@@ -20544,18 +20693,19 @@
       <c r="B114" s="201"/>
       <c r="C114" s="201"/>
       <c r="D114" s="202"/>
-      <c r="E114" s="197"/>
+      <c r="E114" s="527"/>
       <c r="F114" s="212"/>
       <c r="G114" s="213"/>
       <c r="H114" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -20564,12 +20714,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20601,15 +20750,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="422" t="s">
+      <c r="B2" s="397" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="423"/>
-      <c r="D2" s="424" t="s">
+      <c r="C2" s="398"/>
+      <c r="D2" s="399" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="425"/>
-      <c r="F2" s="426"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="401"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
       <c r="M2" s="306"/>
@@ -20619,9 +20768,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="404"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
       <c r="M3" s="306"/>
@@ -20631,9 +20780,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="429"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="403"/>
+      <c r="F4" s="404"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
       <c r="M4" s="306"/>
@@ -20643,9 +20792,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="427"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="429"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="404"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
       <c r="M5" s="306"/>
@@ -20655,9 +20804,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="430"/>
-      <c r="E6" s="431"/>
-      <c r="F6" s="432"/>
+      <c r="D6" s="405"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="407"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
       <c r="M6" s="306"/>
@@ -20701,14 +20850,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="418" t="s">
+      <c r="E9" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="419"/>
-      <c r="G9" s="415" t="s">
+      <c r="F9" s="413"/>
+      <c r="G9" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="416"/>
+      <c r="H9" s="409"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -20734,12 +20883,12 @@
       <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="417" t="s">
+      <c r="E10" s="410" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="417"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="405"/>
+      <c r="F10" s="410"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -20764,12 +20913,12 @@
       <c r="D11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="412" t="s">
+      <c r="E11" s="415" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="412"/>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="411"/>
       <c r="I11" s="312">
         <v>3</v>
       </c>
@@ -20794,12 +20943,12 @@
       <c r="D12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="412" t="s">
+      <c r="E12" s="415" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="412"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="411"/>
+      <c r="H12" s="411"/>
       <c r="I12" s="312">
         <v>2</v>
       </c>
@@ -20824,12 +20973,12 @@
       <c r="D13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="412" t="s">
+      <c r="E13" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="412"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="411"/>
+      <c r="H13" s="411"/>
       <c r="I13" s="312">
         <v>5</v>
       </c>
@@ -20854,12 +21003,12 @@
       <c r="D14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="412" t="s">
+      <c r="E14" s="415" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="412"/>
-      <c r="G14" s="405"/>
-      <c r="H14" s="405"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="411"/>
       <c r="I14" s="312">
         <v>12</v>
       </c>
@@ -20884,12 +21033,12 @@
       <c r="D15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="412" t="s">
+      <c r="E15" s="415" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="412"/>
-      <c r="G15" s="405"/>
-      <c r="H15" s="405"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
       <c r="I15" s="312">
         <v>19</v>
       </c>
@@ -20916,10 +21065,10 @@
       <c r="D16" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="433" t="s">
+      <c r="E16" s="460" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="433"/>
+      <c r="F16" s="460"/>
       <c r="G16" s="310"/>
       <c r="H16" s="310"/>
       <c r="I16" s="275">
@@ -20948,12 +21097,12 @@
       <c r="D17" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="433" t="s">
+      <c r="E17" s="460" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="433"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
+      <c r="F17" s="460"/>
+      <c r="G17" s="461"/>
+      <c r="H17" s="461"/>
       <c r="I17" s="275">
         <v>12</v>
       </c>
@@ -20972,10 +21121,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="412"/>
-      <c r="F18" s="412"/>
-      <c r="G18" s="405"/>
-      <c r="H18" s="405"/>
+      <c r="E18" s="415"/>
+      <c r="F18" s="415"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="411"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="312"/>
@@ -20992,8 +21141,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="413"/>
-      <c r="F19" s="413"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="306"/>
@@ -21011,11 +21160,11 @@
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
-      <c r="C20" s="435" t="s">
+      <c r="C20" s="462" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="436"/>
-      <c r="E20" s="437"/>
+      <c r="D20" s="463"/>
+      <c r="E20" s="464"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="178" t="s">
@@ -21069,10 +21218,10 @@
       <c r="C22" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="409" t="s">
+      <c r="D22" s="419" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="410"/>
+      <c r="E22" s="420"/>
       <c r="F22" s="172" t="s">
         <v>104</v>
       </c>
@@ -21121,10 +21270,10 @@
         <v>140</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="414" t="s">
+      <c r="D23" s="423" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="414"/>
+      <c r="E23" s="423"/>
       <c r="F23" s="303" t="s">
         <v>142</v>
       </c>
@@ -21170,10 +21319,10 @@
         <v>144</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="411" t="s">
+      <c r="D24" s="421" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="411"/>
+      <c r="E24" s="421"/>
       <c r="F24" s="303" t="s">
         <v>142</v>
       </c>
@@ -21221,10 +21370,10 @@
         <v>146</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="411" t="s">
+      <c r="D25" s="421" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="411"/>
+      <c r="E25" s="421"/>
       <c r="F25" s="303" t="s">
         <v>142</v>
       </c>
@@ -21270,10 +21419,10 @@
         <v>147</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="403" t="s">
+      <c r="D26" s="426" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="403"/>
+      <c r="E26" s="426"/>
       <c r="F26" s="303" t="s">
         <v>142</v>
       </c>
@@ -21368,10 +21517,10 @@
         <v>151</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="403" t="s">
+      <c r="D28" s="426" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="403"/>
+      <c r="E28" s="426"/>
       <c r="F28" s="303" t="s">
         <v>118</v>
       </c>
@@ -21417,10 +21566,10 @@
         <v>153</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="403" t="s">
+      <c r="D29" s="426" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="403"/>
+      <c r="E29" s="426"/>
       <c r="F29" s="303" t="s">
         <v>118</v>
       </c>
@@ -21466,10 +21615,10 @@
         <v>155</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="403" t="s">
+      <c r="D30" s="426" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="403"/>
+      <c r="E30" s="426"/>
       <c r="F30" s="303" t="s">
         <v>118</v>
       </c>
@@ -21515,10 +21664,10 @@
         <v>158</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="403" t="s">
+      <c r="D31" s="426" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="403"/>
+      <c r="E31" s="426"/>
       <c r="F31" s="303" t="s">
         <v>142</v>
       </c>
@@ -21564,10 +21713,10 @@
         <v>160</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="403" t="s">
+      <c r="D32" s="426" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="403"/>
+      <c r="E32" s="426"/>
       <c r="F32" s="303" t="s">
         <v>142</v>
       </c>
@@ -21613,10 +21762,10 @@
         <v>162</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="403" t="s">
+      <c r="D33" s="426" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="403"/>
+      <c r="E33" s="426"/>
       <c r="F33" s="303" t="s">
         <v>142</v>
       </c>
@@ -21662,10 +21811,10 @@
         <v>164</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="403" t="s">
+      <c r="D34" s="426" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="403"/>
+      <c r="E34" s="426"/>
       <c r="F34" s="303" t="s">
         <v>142</v>
       </c>
@@ -21711,10 +21860,10 @@
         <v>166</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="403" t="s">
+      <c r="D35" s="426" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="403"/>
+      <c r="E35" s="426"/>
       <c r="F35" s="303" t="s">
         <v>142</v>
       </c>
@@ -21760,10 +21909,10 @@
         <v>168</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="403" t="s">
+      <c r="D36" s="426" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="403"/>
+      <c r="E36" s="426"/>
       <c r="F36" s="303" t="s">
         <v>142</v>
       </c>
@@ -21809,10 +21958,10 @@
         <v>170</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="403" t="s">
+      <c r="D37" s="426" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="403"/>
+      <c r="E37" s="426"/>
       <c r="F37" s="303" t="s">
         <v>142</v>
       </c>
@@ -21858,10 +22007,10 @@
         <v>172</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="403" t="s">
+      <c r="D38" s="426" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="403"/>
+      <c r="E38" s="426"/>
       <c r="F38" s="303" t="s">
         <v>142</v>
       </c>
@@ -21905,8 +22054,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="303"/>
-      <c r="D39" s="403"/>
-      <c r="E39" s="403"/>
+      <c r="D39" s="426"/>
+      <c r="E39" s="426"/>
       <c r="F39" s="303"/>
       <c r="G39" s="303"/>
       <c r="H39" s="303"/>
@@ -21926,8 +22075,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="403"/>
-      <c r="E40" s="403"/>
+      <c r="D40" s="426"/>
+      <c r="E40" s="426"/>
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
       <c r="H40" s="303"/>
@@ -21947,8 +22096,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="303"/>
-      <c r="D41" s="403"/>
-      <c r="E41" s="403"/>
+      <c r="D41" s="426"/>
+      <c r="E41" s="426"/>
       <c r="F41" s="303"/>
       <c r="G41" s="303"/>
       <c r="H41" s="303"/>
@@ -21968,8 +22117,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="303"/>
-      <c r="D42" s="403"/>
-      <c r="E42" s="403"/>
+      <c r="D42" s="426"/>
+      <c r="E42" s="426"/>
       <c r="F42" s="303"/>
       <c r="G42" s="303"/>
       <c r="H42" s="303"/>
@@ -21989,8 +22138,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="303"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="403"/>
+      <c r="D43" s="426"/>
+      <c r="E43" s="426"/>
       <c r="F43" s="303"/>
       <c r="G43" s="303"/>
       <c r="H43" s="303"/>
@@ -22010,8 +22159,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="403"/>
-      <c r="E44" s="403"/>
+      <c r="D44" s="426"/>
+      <c r="E44" s="426"/>
       <c r="F44" s="303"/>
       <c r="G44" s="303"/>
       <c r="H44" s="303"/>
@@ -22031,8 +22180,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="303"/>
-      <c r="D45" s="403"/>
-      <c r="E45" s="403"/>
+      <c r="D45" s="426"/>
+      <c r="E45" s="426"/>
       <c r="F45" s="303"/>
       <c r="G45" s="303"/>
       <c r="H45" s="303"/>
@@ -22052,8 +22201,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="303"/>
-      <c r="D46" s="403"/>
-      <c r="E46" s="403"/>
+      <c r="D46" s="426"/>
+      <c r="E46" s="426"/>
       <c r="F46" s="303"/>
       <c r="G46" s="303"/>
       <c r="H46" s="303"/>
@@ -22073,8 +22222,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="303"/>
-      <c r="D47" s="403"/>
-      <c r="E47" s="403"/>
+      <c r="D47" s="426"/>
+      <c r="E47" s="426"/>
       <c r="F47" s="303"/>
       <c r="G47" s="303"/>
       <c r="H47" s="303"/>
@@ -22094,8 +22243,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="303"/>
-      <c r="D48" s="403"/>
-      <c r="E48" s="403"/>
+      <c r="D48" s="426"/>
+      <c r="E48" s="426"/>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
       <c r="H48" s="303"/>
@@ -22115,8 +22264,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="404"/>
-      <c r="E49" s="404"/>
+      <c r="D49" s="425"/>
+      <c r="E49" s="425"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -22136,8 +22285,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="404"/>
-      <c r="E50" s="404"/>
+      <c r="D50" s="425"/>
+      <c r="E50" s="425"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -22157,8 +22306,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="404"/>
-      <c r="E51" s="404"/>
+      <c r="D51" s="425"/>
+      <c r="E51" s="425"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -22178,8 +22327,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="404"/>
-      <c r="E52" s="404"/>
+      <c r="D52" s="425"/>
+      <c r="E52" s="425"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -22199,8 +22348,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="404"/>
-      <c r="E53" s="404"/>
+      <c r="D53" s="425"/>
+      <c r="E53" s="425"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -22220,8 +22369,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="404"/>
-      <c r="E54" s="404"/>
+      <c r="D54" s="425"/>
+      <c r="E54" s="425"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -22241,8 +22390,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="404"/>
-      <c r="E55" s="404"/>
+      <c r="D55" s="425"/>
+      <c r="E55" s="425"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -22262,8 +22411,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="404"/>
-      <c r="E56" s="404"/>
+      <c r="D56" s="425"/>
+      <c r="E56" s="425"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -22283,8 +22432,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="404"/>
-      <c r="E57" s="404"/>
+      <c r="D57" s="425"/>
+      <c r="E57" s="425"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -22304,8 +22453,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="404"/>
-      <c r="E58" s="404"/>
+      <c r="D58" s="425"/>
+      <c r="E58" s="425"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -22325,8 +22474,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="404"/>
-      <c r="E59" s="404"/>
+      <c r="D59" s="425"/>
+      <c r="E59" s="425"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -22561,39 +22710,18 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -22609,18 +22737,39 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
@@ -22661,14 +22810,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="427" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
-      <c r="F1" s="466"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="429"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -22682,11 +22831,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="467" t="s">
+      <c r="D2" s="430" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="467"/>
-      <c r="F2" s="468"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="431"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -22699,9 +22848,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="471"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="434"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -22714,9 +22863,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="451"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="437"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -22729,9 +22878,9 @@
         <v>26.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="451"/>
+      <c r="D5" s="435"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="437"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -22744,9 +22893,9 @@
         <v>45</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="450"/>
-      <c r="F6" s="451"/>
+      <c r="D6" s="435"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -22759,9 +22908,9 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="450"/>
+      <c r="D7" s="436"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="436"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -22776,80 +22925,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="472" t="s">
+      <c r="A9" s="467" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="454">
+      <c r="B9" s="440">
         <f>SUM(B3:B8)</f>
         <v>126</v>
       </c>
-      <c r="C9" s="456" t="str">
+      <c r="C9" s="442" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="458" t="s">
+      <c r="D9" s="444" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="474">
+      <c r="E9" s="469">
         <v>10.5</v>
       </c>
-      <c r="F9" s="462"/>
+      <c r="F9" s="448"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="473"/>
-      <c r="B10" s="455"/>
-      <c r="C10" s="457"/>
-      <c r="D10" s="459"/>
-      <c r="E10" s="475"/>
-      <c r="F10" s="463"/>
+      <c r="A10" s="468"/>
+      <c r="B10" s="441"/>
+      <c r="C10" s="443"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="470"/>
+      <c r="F10" s="449"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="438" t="s">
+      <c r="A11" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="439"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="439"/>
-      <c r="E11" s="441"/>
-      <c r="F11" s="442"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="453"/>
+      <c r="F11" s="454"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="476" t="s">
+      <c r="A12" s="465" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="456" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="445" t="s">
+      <c r="C12" s="457" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="446"/>
-      <c r="E12" s="477" t="s">
+      <c r="D12" s="458"/>
+      <c r="E12" s="466" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="448" t="s">
+      <c r="F12" s="459" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="476"/>
-      <c r="B13" s="444"/>
+      <c r="A13" s="465"/>
+      <c r="B13" s="456"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="477"/>
-      <c r="F13" s="448"/>
+      <c r="E13" s="466"/>
+      <c r="F13" s="459"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -24418,12 +24567,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -24431,12 +24580,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24467,15 +24616,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="422" t="s">
+      <c r="B2" s="397" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="423"/>
-      <c r="D2" s="424" t="s">
+      <c r="C2" s="398"/>
+      <c r="D2" s="399" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="425"/>
-      <c r="F2" s="426"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="401"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
       <c r="M2" s="306"/>
@@ -24485,9 +24634,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="403"/>
+      <c r="F3" s="404"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
       <c r="M3" s="306"/>
@@ -24497,9 +24646,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="429"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="403"/>
+      <c r="F4" s="404"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
       <c r="M4" s="306"/>
@@ -24509,9 +24658,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="427"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="429"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="404"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
       <c r="M5" s="306"/>
@@ -24521,9 +24670,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="430"/>
-      <c r="E6" s="431"/>
-      <c r="F6" s="432"/>
+      <c r="D6" s="405"/>
+      <c r="E6" s="406"/>
+      <c r="F6" s="407"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
       <c r="M6" s="306"/>
@@ -24567,14 +24716,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="418" t="s">
+      <c r="E9" s="412" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="419"/>
-      <c r="G9" s="415" t="s">
+      <c r="F9" s="413"/>
+      <c r="G9" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="416"/>
+      <c r="H9" s="409"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -24600,12 +24749,12 @@
       <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="412" t="s">
+      <c r="E10" s="415" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="412"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="405"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -24630,12 +24779,12 @@
       <c r="D11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="412" t="s">
+      <c r="E11" s="415" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="412"/>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="411"/>
       <c r="I11" s="312">
         <v>3</v>
       </c>
@@ -24660,12 +24809,12 @@
       <c r="D12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="412" t="s">
+      <c r="E12" s="415" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="412"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
+      <c r="F12" s="415"/>
+      <c r="G12" s="411"/>
+      <c r="H12" s="411"/>
       <c r="I12" s="312">
         <v>40</v>
       </c>
@@ -24690,12 +24839,12 @@
       <c r="D13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="412" t="s">
+      <c r="E13" s="415" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="412"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="411"/>
+      <c r="H13" s="411"/>
       <c r="I13" s="312">
         <v>3</v>
       </c>
@@ -24720,12 +24869,12 @@
       <c r="D14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="412" t="s">
+      <c r="E14" s="415" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="412"/>
-      <c r="G14" s="405"/>
-      <c r="H14" s="405"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="411"/>
       <c r="I14" s="312">
         <v>27</v>
       </c>
@@ -24750,12 +24899,12 @@
       <c r="D15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="412" t="s">
+      <c r="E15" s="415" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="412"/>
-      <c r="G15" s="405"/>
-      <c r="H15" s="405"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
       <c r="I15" s="312">
         <v>7</v>
       </c>
@@ -24774,10 +24923,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="412"/>
-      <c r="F16" s="412"/>
-      <c r="G16" s="405"/>
-      <c r="H16" s="405"/>
+      <c r="E16" s="415"/>
+      <c r="F16" s="415"/>
+      <c r="G16" s="411"/>
+      <c r="H16" s="411"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="312"/>
@@ -24794,8 +24943,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="413"/>
-      <c r="F17" s="413"/>
+      <c r="E17" s="422"/>
+      <c r="F17" s="422"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="306"/>
@@ -24813,11 +24962,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="406" t="s">
+      <c r="C18" s="416" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="407"/>
-      <c r="E18" s="408"/>
+      <c r="D18" s="417"/>
+      <c r="E18" s="418"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -24871,10 +25020,10 @@
       <c r="C20" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="409" t="s">
+      <c r="D20" s="419" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="410"/>
+      <c r="E20" s="420"/>
       <c r="F20" s="172" t="s">
         <v>104</v>
       </c>
@@ -24926,10 +25075,10 @@
         <v>151</v>
       </c>
       <c r="C21" s="303"/>
-      <c r="D21" s="403" t="s">
+      <c r="D21" s="426" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="403"/>
+      <c r="E21" s="426"/>
       <c r="F21" s="303" t="s">
         <v>112</v>
       </c>
@@ -24975,10 +25124,10 @@
         <v>217</v>
       </c>
       <c r="C22" s="303"/>
-      <c r="D22" s="403" t="s">
+      <c r="D22" s="426" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="403"/>
+      <c r="E22" s="426"/>
       <c r="F22" s="303" t="s">
         <v>112</v>
       </c>
@@ -25026,10 +25175,10 @@
         <v>220</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="403" t="s">
+      <c r="D23" s="426" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="403"/>
+      <c r="E23" s="426"/>
       <c r="F23" s="303" t="s">
         <v>112</v>
       </c>
@@ -25077,10 +25226,10 @@
         <v>222</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="403" t="s">
+      <c r="D24" s="426" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="403"/>
+      <c r="E24" s="426"/>
       <c r="F24" s="303" t="s">
         <v>112</v>
       </c>
@@ -25128,10 +25277,10 @@
         <v>224</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="403" t="s">
+      <c r="D25" s="426" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="403"/>
+      <c r="E25" s="426"/>
       <c r="F25" s="303" t="s">
         <v>112</v>
       </c>
@@ -25179,10 +25328,10 @@
         <v>226</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="403" t="s">
+      <c r="D26" s="426" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="403"/>
+      <c r="E26" s="426"/>
       <c r="F26" s="303" t="s">
         <v>112</v>
       </c>
@@ -25230,10 +25379,10 @@
         <v>227</v>
       </c>
       <c r="C27" s="303"/>
-      <c r="D27" s="403" t="s">
+      <c r="D27" s="426" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="403"/>
+      <c r="E27" s="426"/>
       <c r="F27" s="303" t="s">
         <v>112</v>
       </c>
@@ -25281,10 +25430,10 @@
         <v>229</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="403" t="s">
+      <c r="D28" s="426" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="403"/>
+      <c r="E28" s="426"/>
       <c r="F28" s="303" t="s">
         <v>112</v>
       </c>
@@ -25332,10 +25481,10 @@
         <v>231</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="404" t="s">
+      <c r="D29" s="425" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="404"/>
+      <c r="E29" s="425"/>
       <c r="F29" s="303" t="s">
         <v>112</v>
       </c>
@@ -25381,8 +25530,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="404"/>
-      <c r="E30" s="404"/>
+      <c r="D30" s="425"/>
+      <c r="E30" s="425"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -25402,8 +25551,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="404"/>
-      <c r="E31" s="404"/>
+      <c r="D31" s="425"/>
+      <c r="E31" s="425"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -25423,8 +25572,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="404"/>
-      <c r="E32" s="404"/>
+      <c r="D32" s="425"/>
+      <c r="E32" s="425"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -25444,8 +25593,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="404"/>
-      <c r="E33" s="404"/>
+      <c r="D33" s="425"/>
+      <c r="E33" s="425"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -25465,8 +25614,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="404"/>
-      <c r="E34" s="404"/>
+      <c r="D34" s="425"/>
+      <c r="E34" s="425"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -25486,8 +25635,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="404"/>
-      <c r="E35" s="404"/>
+      <c r="D35" s="425"/>
+      <c r="E35" s="425"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -25788,6 +25937,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -25802,28 +25973,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
@@ -25864,14 +26013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
-      <c r="F1" s="466"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
+      <c r="F1" s="429"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -25885,11 +26034,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="467" t="s">
+      <c r="D2" s="430" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="467"/>
-      <c r="F2" s="468"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="431"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -25902,9 +26051,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="471"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="434"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -25917,9 +26066,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="450"/>
-      <c r="F4" s="451"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="437"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -25932,9 +26081,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="451"/>
+      <c r="D5" s="435"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="437"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -25947,9 +26096,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="450"/>
-      <c r="F6" s="451"/>
+      <c r="D6" s="435"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -25962,9 +26111,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="450"/>
+      <c r="D7" s="436"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="436"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -25979,80 +26128,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="452" t="s">
+      <c r="A9" s="438" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="454">
+      <c r="B9" s="440">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="456" t="str">
+      <c r="C9" s="442" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="458" t="s">
+      <c r="D9" s="444" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="474">
+      <c r="E9" s="469">
         <v>16.5</v>
       </c>
-      <c r="F9" s="462"/>
+      <c r="F9" s="448"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="453"/>
-      <c r="B10" s="455"/>
-      <c r="C10" s="457"/>
-      <c r="D10" s="459"/>
-      <c r="E10" s="475"/>
-      <c r="F10" s="463"/>
+      <c r="A10" s="439"/>
+      <c r="B10" s="441"/>
+      <c r="C10" s="443"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="470"/>
+      <c r="F10" s="449"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="438" t="s">
+      <c r="A11" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="439"/>
-      <c r="C11" s="440"/>
-      <c r="D11" s="439"/>
-      <c r="E11" s="441"/>
-      <c r="F11" s="442"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="452"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="453"/>
+      <c r="F11" s="454"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="443" t="s">
+      <c r="A12" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="456" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="445" t="s">
+      <c r="C12" s="457" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="446"/>
-      <c r="E12" s="477" t="s">
+      <c r="D12" s="458"/>
+      <c r="E12" s="466" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="448" t="s">
+      <c r="F12" s="459" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="443"/>
-      <c r="B13" s="444"/>
+      <c r="A13" s="455"/>
+      <c r="B13" s="456"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="477"/>
-      <c r="F13" s="448"/>
+      <c r="E13" s="466"/>
+      <c r="F13" s="459"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -27856,12 +28005,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -27869,18 +28018,33 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101007224E9EE5B3BF94C806FF09039891060" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3e27591f2678635d285da64c2a7aad9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aec78b04-9439-499f-911c-68c5b1e9ccff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79be787e91dac9966e20cd4a195ad7e2" ns2:_="">
     <xsd:import namespace="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
@@ -28038,22 +28202,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28069,28 +28242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Scrum projekti\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4054803-4DBC-4AAD-A8BA-4905EF4FA912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBCAEFC-7391-427A-B88D-CAF4EAE88567}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="460">
   <si>
     <t>CRM Srcum tiimi - SCRUM BACKLOG</t>
   </si>
@@ -1401,16 +1401,7 @@
     <t>Lisää kirjautumissivun toiminnallisuudet</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>4.5</t>
-  </si>
-  <si>
-    <t>Luo tietokannan taulun luontilauseet</t>
-  </si>
-  <si>
-    <t>Luo tietokanta malli "käyttäjät" taululle</t>
   </si>
   <si>
     <t>Jäljellä pisteet
@@ -1454,6 +1445,28 @@
   </si>
   <si>
     <t>Koodauksen aloittaminen, animaatiokokeiluja</t>
+  </si>
+  <si>
+    <t>29.3.2020
+15min</t>
+  </si>
+  <si>
+    <t>Koodauksen jatkaminen(login sivu)</t>
+  </si>
+  <si>
+    <t>tietohakemisto</t>
+  </si>
+  <si>
+    <t>Luo tietokannan taulun "käyttäjät" luontilauseet</t>
+  </si>
+  <si>
+    <t>Sprintti</t>
+  </si>
+  <si>
+    <t>tietokantahakemiston, aktiviteettikaavioiden tekemistä</t>
+  </si>
+  <si>
+    <t>Login sivun pohjan tekoa ja tyylitiedoston tekemistä</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2061,6 +2074,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,7 +2977,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="533">
+  <cellXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3914,24 +3933,177 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3956,116 +4128,44 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4073,44 +4173,45 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4154,52 +4255,90 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4224,81 +4363,6 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4314,23 +4378,80 @@
     <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4350,62 +4471,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4425,98 +4546,56 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4528,7 +4607,114 @@
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4939,6 +5125,82 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5136,10 +5398,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.75</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.75</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6566,7 +6828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'S1 - Backlog'!$I$57</c:f>
+              <c:f>'S1 - Backlog'!$I$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6589,33 +6851,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - Backlog'!$J$57:$Q$57</c:f>
+              <c:f>'S1 - Backlog'!$J$56:$Q$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.285714285714285</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.571428571428569</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.857142857142854</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.142857142857139</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4285714285714244</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.71428571428571</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.4408920985006262E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6648,7 +6910,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'S1 - Backlog'!$I$56</c:f>
+              <c:f>'S1 - Backlog'!$I$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6671,12 +6933,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'S1 - Backlog'!$J$56:$Q$56</c:f>
+              <c:f>'S1 - Backlog'!$J$55:$Q$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26</c:v>
@@ -9723,8 +9985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89C1641-4002-491B-BFC5-A3CCE3FF301E}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9772,20 +10034,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="373"/>
-      <c r="I2" s="373"/>
-      <c r="J2" s="373"/>
-      <c r="K2" s="373"/>
-      <c r="L2" s="371"/>
-      <c r="M2" s="374"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="352"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -9801,19 +10063,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="377"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="354"/>
+      <c r="L3" s="355"/>
       <c r="M3" s="34" t="s">
         <v>2</v>
       </c>
@@ -9832,17 +10094,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="375"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-      <c r="H4" s="376"/>
-      <c r="I4" s="376"/>
-      <c r="J4" s="376"/>
-      <c r="K4" s="376"/>
-      <c r="L4" s="377"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="354"/>
+      <c r="F4" s="354"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="355"/>
       <c r="M4" s="175">
         <v>43628</v>
       </c>
@@ -9895,19 +10157,19 @@
       <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="347" t="s">
+      <c r="C6" s="356" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348"/>
-      <c r="H6" s="348"/>
-      <c r="I6" s="348"/>
-      <c r="J6" s="348"/>
-      <c r="K6" s="348"/>
-      <c r="L6" s="348"/>
-      <c r="M6" s="378"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
+      <c r="G6" s="357"/>
+      <c r="H6" s="357"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="357"/>
+      <c r="K6" s="357"/>
+      <c r="L6" s="357"/>
+      <c r="M6" s="358"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -9926,19 +10188,19 @@
       <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="379" t="s">
+      <c r="C7" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="380"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="380"/>
-      <c r="J7" s="380"/>
-      <c r="K7" s="380"/>
-      <c r="L7" s="380"/>
-      <c r="M7" s="381"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="360"/>
+      <c r="L7" s="360"/>
+      <c r="M7" s="361"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -9957,19 +10219,19 @@
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="379" t="s">
+      <c r="C8" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="380"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="380"/>
-      <c r="J8" s="380"/>
-      <c r="K8" s="380"/>
-      <c r="L8" s="380"/>
-      <c r="M8" s="381"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="360"/>
+      <c r="L8" s="360"/>
+      <c r="M8" s="361"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -9988,19 +10250,19 @@
       <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="367" t="s">
+      <c r="C9" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="368"/>
-      <c r="E9" s="368"/>
-      <c r="F9" s="368"/>
-      <c r="G9" s="368"/>
-      <c r="H9" s="368"/>
-      <c r="I9" s="368"/>
-      <c r="J9" s="368"/>
-      <c r="K9" s="368"/>
-      <c r="L9" s="368"/>
-      <c r="M9" s="369"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="346"/>
+      <c r="G9" s="346"/>
+      <c r="H9" s="346"/>
+      <c r="I9" s="346"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="347"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -10043,20 +10305,20 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="356" t="s">
+      <c r="B11" s="362" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="357"/>
-      <c r="D11" s="357"/>
-      <c r="E11" s="357"/>
-      <c r="F11" s="357"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="357"/>
-      <c r="M11" s="358"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="363"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="363"/>
+      <c r="M11" s="364"/>
       <c r="N11" s="32"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -10081,14 +10343,14 @@
       <c r="D12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="359" t="s">
+      <c r="E12" s="365" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="360"/>
-      <c r="G12" s="360"/>
-      <c r="H12" s="360"/>
-      <c r="I12" s="360"/>
-      <c r="J12" s="361"/>
+      <c r="F12" s="366"/>
+      <c r="G12" s="366"/>
+      <c r="H12" s="366"/>
+      <c r="I12" s="366"/>
+      <c r="J12" s="367"/>
       <c r="K12" s="293" t="s">
         <v>18</v>
       </c>
@@ -10106,38 +10368,38 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="362"/>
-      <c r="W12" s="362"/>
-      <c r="X12" s="362"/>
+      <c r="V12" s="368"/>
+      <c r="W12" s="368"/>
+      <c r="X12" s="368"/>
       <c r="Y12" s="41"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
-      <c r="B13" s="334">
+      <c r="B13" s="369">
         <v>1</v>
       </c>
-      <c r="C13" s="336">
+      <c r="C13" s="370">
         <v>43531</v>
       </c>
-      <c r="D13" s="336">
+      <c r="D13" s="370">
         <v>43558</v>
       </c>
-      <c r="E13" s="363" t="s">
+      <c r="E13" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="364"/>
-      <c r="G13" s="365"/>
-      <c r="H13" s="365"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="353" t="s">
+      <c r="F13" s="372"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="374"/>
+      <c r="K13" s="375" t="s">
         <v>392</v>
       </c>
-      <c r="L13" s="355">
+      <c r="L13" s="377">
         <f>'S1 - Backlog'!I26</f>
         <v>25</v>
       </c>
-      <c r="M13" s="331">
+      <c r="M13" s="379">
         <f>'S1 - Backlog'!J26</f>
         <v>1</v>
       </c>
@@ -10156,18 +10418,18 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="334"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="363"/>
-      <c r="F14" s="364"/>
-      <c r="G14" s="365"/>
-      <c r="H14" s="365"/>
-      <c r="I14" s="365"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="354"/>
-      <c r="L14" s="345"/>
-      <c r="M14" s="331"/>
+      <c r="B14" s="369"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="373"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="374"/>
+      <c r="K14" s="376"/>
+      <c r="L14" s="378"/>
+      <c r="M14" s="379"/>
       <c r="N14" s="32"/>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -10183,31 +10445,31 @@
     </row>
     <row r="15" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="334">
+      <c r="B15" s="369">
         <v>2</v>
       </c>
-      <c r="C15" s="336">
+      <c r="C15" s="370">
         <v>43559</v>
       </c>
-      <c r="D15" s="336">
+      <c r="D15" s="370">
         <v>43593</v>
       </c>
-      <c r="E15" s="347" t="s">
+      <c r="E15" s="356" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
-      <c r="I15" s="348"/>
-      <c r="J15" s="349"/>
-      <c r="K15" s="353" t="s">
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="382"/>
+      <c r="K15" s="375" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="355">
+      <c r="L15" s="377">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M15" s="331">
+      <c r="M15" s="379">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -10226,18 +10488,18 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="335"/>
-      <c r="C16" s="346"/>
-      <c r="D16" s="346"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="351"/>
-      <c r="G16" s="351"/>
-      <c r="H16" s="351"/>
-      <c r="I16" s="351"/>
-      <c r="J16" s="352"/>
-      <c r="K16" s="354"/>
-      <c r="L16" s="345"/>
-      <c r="M16" s="331"/>
+      <c r="B16" s="380"/>
+      <c r="C16" s="381"/>
+      <c r="D16" s="381"/>
+      <c r="E16" s="383"/>
+      <c r="F16" s="384"/>
+      <c r="G16" s="384"/>
+      <c r="H16" s="384"/>
+      <c r="I16" s="384"/>
+      <c r="J16" s="385"/>
+      <c r="K16" s="376"/>
+      <c r="L16" s="378"/>
+      <c r="M16" s="379"/>
       <c r="N16" s="32"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -10253,31 +10515,31 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="334">
+      <c r="B17" s="369">
         <v>3</v>
       </c>
-      <c r="C17" s="336">
+      <c r="C17" s="370">
         <v>43594</v>
       </c>
-      <c r="D17" s="336">
+      <c r="D17" s="370">
         <v>43628</v>
       </c>
-      <c r="E17" s="347" t="s">
+      <c r="E17" s="356" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="348"/>
-      <c r="G17" s="348"/>
-      <c r="H17" s="348"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="349"/>
-      <c r="K17" s="353" t="s">
+      <c r="F17" s="357"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="382"/>
+      <c r="K17" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="355">
+      <c r="L17" s="377">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M17" s="355">
+      <c r="M17" s="377">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -10296,18 +10558,18 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
-      <c r="B18" s="335"/>
-      <c r="C18" s="346"/>
-      <c r="D18" s="346"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="351"/>
-      <c r="G18" s="351"/>
-      <c r="H18" s="351"/>
-      <c r="I18" s="351"/>
-      <c r="J18" s="352"/>
-      <c r="K18" s="354"/>
-      <c r="L18" s="345"/>
-      <c r="M18" s="345"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="381"/>
+      <c r="D18" s="381"/>
+      <c r="E18" s="383"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="384"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="376"/>
+      <c r="L18" s="378"/>
+      <c r="M18" s="378"/>
       <c r="N18" s="32"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -10323,20 +10585,20 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="334">
+      <c r="B19" s="369">
         <v>4</v>
       </c>
-      <c r="C19" s="336"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="337"/>
-      <c r="F19" s="338"/>
-      <c r="G19" s="338"/>
-      <c r="H19" s="338"/>
-      <c r="I19" s="338"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="343"/>
-      <c r="L19" s="345"/>
-      <c r="M19" s="331"/>
+      <c r="C19" s="370"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="389"/>
+      <c r="G19" s="389"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="394"/>
+      <c r="L19" s="378"/>
+      <c r="M19" s="379"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -10352,18 +10614,18 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="335"/>
-      <c r="C20" s="336"/>
-      <c r="D20" s="336"/>
-      <c r="E20" s="340"/>
-      <c r="F20" s="341"/>
-      <c r="G20" s="341"/>
-      <c r="H20" s="341"/>
-      <c r="I20" s="341"/>
-      <c r="J20" s="342"/>
-      <c r="K20" s="344"/>
-      <c r="L20" s="345"/>
-      <c r="M20" s="331"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="370"/>
+      <c r="D20" s="370"/>
+      <c r="E20" s="391"/>
+      <c r="F20" s="392"/>
+      <c r="G20" s="392"/>
+      <c r="H20" s="392"/>
+      <c r="I20" s="392"/>
+      <c r="J20" s="393"/>
+      <c r="K20" s="395"/>
+      <c r="L20" s="378"/>
+      <c r="M20" s="379"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -10406,13 +10668,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="387" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="333"/>
-      <c r="D22" s="333"/>
-      <c r="E22" s="333"/>
-      <c r="F22" s="333"/>
+      <c r="C22" s="387"/>
+      <c r="D22" s="387"/>
+      <c r="E22" s="387"/>
+      <c r="F22" s="387"/>
       <c r="G22" s="254"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
@@ -10435,7 +10697,7 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="332" t="s">
+      <c r="B23" s="386" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="258" t="s">
@@ -10472,7 +10734,7 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="332"/>
+      <c r="B24" s="386"/>
       <c r="C24" s="259" t="s">
         <v>32</v>
       </c>
@@ -10512,7 +10774,7 @@
       </c>
       <c r="C25" s="176">
         <f>+'S1 - Tunnit'!B3</f>
-        <v>13.75</v>
+        <v>17.75</v>
       </c>
       <c r="D25" s="176">
         <f>+'S2 -Tunnit'!B3</f>
@@ -10524,7 +10786,7 @@
       </c>
       <c r="F25" s="176">
         <f>SUM(B25:E25)</f>
-        <v>62.75</v>
+        <v>66.75</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="51"/>
@@ -10553,7 +10815,7 @@
       </c>
       <c r="C26" s="176">
         <f>'S1 - Tunnit'!B4</f>
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="D26" s="176">
         <f>+'S2 -Tunnit'!B4</f>
@@ -10565,7 +10827,7 @@
       </c>
       <c r="F26" s="176">
         <f>SUM(B26:E26)</f>
-        <v>81.25</v>
+        <v>85.25</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="51"/>
@@ -10702,7 +10964,7 @@
       </c>
       <c r="C31" s="241">
         <f>SUM(C25:C30)</f>
-        <v>29.5</v>
+        <v>37.5</v>
       </c>
       <c r="D31" s="241">
         <f>SUM(D25:D30)</f>
@@ -10714,7 +10976,7 @@
       </c>
       <c r="F31" s="241">
         <f>SUM(F25:F30)</f>
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="51"/>
@@ -10983,22 +11245,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -11013,15 +11268,22 @@
     <mergeCell ref="E15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11070,14 +11332,14 @@
       <c r="C2" s="317" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="471" t="s">
+      <c r="D2" s="505" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="472"/>
-      <c r="F2" s="473" t="s">
+      <c r="E2" s="506"/>
+      <c r="F2" s="507" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="472"/>
+      <c r="G2" s="506"/>
       <c r="H2" s="317" t="s">
         <v>237</v>
       </c>
@@ -11099,14 +11361,14 @@
       <c r="C3" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="474" t="s">
+      <c r="D3" s="508" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="474"/>
-      <c r="F3" s="475" t="s">
+      <c r="E3" s="508"/>
+      <c r="F3" s="509" t="s">
         <v>241</v>
       </c>
-      <c r="G3" s="476"/>
+      <c r="G3" s="510"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -11120,10 +11382,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="318"/>
-      <c r="D4" s="476"/>
-      <c r="E4" s="476"/>
-      <c r="F4" s="475"/>
-      <c r="G4" s="476"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
+      <c r="F4" s="509"/>
+      <c r="G4" s="510"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -11186,10 +11448,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="313"/>
-      <c r="B8" s="477" t="s">
+      <c r="B8" s="497" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="478"/>
+      <c r="C8" s="498"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -11227,10 +11489,10 @@
       <c r="B10" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="479" t="s">
+      <c r="C10" s="499" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="480"/>
+      <c r="D10" s="500"/>
       <c r="E10" s="316" t="s">
         <v>108</v>
       </c>
@@ -11259,16 +11521,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="481" t="s">
+      <c r="B11" s="501" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="481"/>
-      <c r="D11" s="482"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="484"/>
-      <c r="G11" s="483"/>
-      <c r="H11" s="483"/>
-      <c r="I11" s="483"/>
+      <c r="C11" s="501"/>
+      <c r="D11" s="502"/>
+      <c r="E11" s="503"/>
+      <c r="F11" s="504"/>
+      <c r="G11" s="503"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="503"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="313"/>
@@ -11316,10 +11578,10 @@
       <c r="B13" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="485" t="s">
+      <c r="C13" s="488" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="485"/>
+      <c r="D13" s="488"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -11403,10 +11665,10 @@
       <c r="B16" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="485" t="s">
+      <c r="C16" s="488" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="485"/>
+      <c r="D16" s="488"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -11474,7 +11736,7 @@
       <c r="B19" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="485" t="s">
+      <c r="C19" s="488" t="s">
         <v>267</v>
       </c>
       <c r="D19" s="486"/>
@@ -11518,10 +11780,10 @@
       <c r="B21" s="315" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="487" t="s">
+      <c r="C21" s="491" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="488"/>
+      <c r="D21" s="492"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -11541,7 +11803,7 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="313"/>
       <c r="B22" s="313"/>
-      <c r="C22" s="485" t="s">
+      <c r="C22" s="488" t="s">
         <v>271</v>
       </c>
       <c r="D22" s="486"/>
@@ -11564,7 +11826,7 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="314"/>
       <c r="B23" s="315"/>
-      <c r="C23" s="485" t="s">
+      <c r="C23" s="488" t="s">
         <v>272</v>
       </c>
       <c r="D23" s="486"/>
@@ -11587,7 +11849,7 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="314"/>
       <c r="B24" s="315"/>
-      <c r="C24" s="485" t="s">
+      <c r="C24" s="488" t="s">
         <v>273</v>
       </c>
       <c r="D24" s="486"/>
@@ -11610,10 +11872,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="314"/>
       <c r="B25" s="315"/>
-      <c r="C25" s="485" t="s">
+      <c r="C25" s="488" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="485"/>
+      <c r="D25" s="488"/>
       <c r="E25" s="314">
         <v>27</v>
       </c>
@@ -11633,7 +11895,7 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="314"/>
       <c r="B26" s="315"/>
-      <c r="C26" s="485" t="s">
+      <c r="C26" s="488" t="s">
         <v>275</v>
       </c>
       <c r="D26" s="486"/>
@@ -11655,16 +11917,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="314"/>
-      <c r="B27" s="489" t="s">
+      <c r="B27" s="487" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="490"/>
-      <c r="D27" s="491"/>
-      <c r="E27" s="492"/>
-      <c r="F27" s="493"/>
-      <c r="G27" s="492"/>
-      <c r="H27" s="492"/>
-      <c r="I27" s="492"/>
+      <c r="C27" s="493"/>
+      <c r="D27" s="494"/>
+      <c r="E27" s="495"/>
+      <c r="F27" s="496"/>
+      <c r="G27" s="495"/>
+      <c r="H27" s="495"/>
+      <c r="I27" s="495"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="313"/>
@@ -11694,10 +11956,10 @@
       <c r="B29" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="487" t="s">
+      <c r="C29" s="491" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="487"/>
+      <c r="D29" s="491"/>
       <c r="E29" s="313">
         <v>26</v>
       </c>
@@ -11717,7 +11979,7 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="314"/>
       <c r="B30" s="315"/>
-      <c r="C30" s="485" t="s">
+      <c r="C30" s="488" t="s">
         <v>279</v>
       </c>
       <c r="D30" s="486"/>
@@ -11738,7 +12000,7 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="314"/>
       <c r="B31" s="315"/>
-      <c r="C31" s="485" t="s">
+      <c r="C31" s="488" t="s">
         <v>281</v>
       </c>
       <c r="D31" s="486"/>
@@ -11761,7 +12023,7 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="314"/>
       <c r="B32" s="315"/>
-      <c r="C32" s="485" t="s">
+      <c r="C32" s="488" t="s">
         <v>282</v>
       </c>
       <c r="D32" s="486"/>
@@ -11782,7 +12044,7 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="314"/>
       <c r="B33" s="315"/>
-      <c r="C33" s="485" t="s">
+      <c r="C33" s="488" t="s">
         <v>283</v>
       </c>
       <c r="D33" s="486"/>
@@ -11803,7 +12065,7 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="314"/>
       <c r="B34" s="315"/>
-      <c r="C34" s="485" t="s">
+      <c r="C34" s="488" t="s">
         <v>284</v>
       </c>
       <c r="D34" s="486"/>
@@ -11824,7 +12086,7 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="314"/>
       <c r="B35" s="315"/>
-      <c r="C35" s="485" t="s">
+      <c r="C35" s="488" t="s">
         <v>285</v>
       </c>
       <c r="D35" s="486"/>
@@ -11881,10 +12143,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="314"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="487" t="s">
+      <c r="C38" s="491" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="488"/>
+      <c r="D38" s="492"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -11904,7 +12166,7 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="314"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="485"/>
+      <c r="C39" s="488"/>
       <c r="D39" s="486"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
@@ -11921,7 +12183,7 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="314"/>
       <c r="B40" s="315"/>
-      <c r="C40" s="485" t="s">
+      <c r="C40" s="488" t="s">
         <v>287</v>
       </c>
       <c r="D40" s="486"/>
@@ -12028,16 +12290,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="314"/>
-      <c r="B46" s="489" t="s">
+      <c r="B46" s="487" t="s">
         <v>288</v>
       </c>
-      <c r="C46" s="489"/>
-      <c r="D46" s="489"/>
-      <c r="E46" s="489"/>
-      <c r="F46" s="489"/>
-      <c r="G46" s="489"/>
-      <c r="H46" s="489"/>
-      <c r="I46" s="489"/>
+      <c r="C46" s="487"/>
+      <c r="D46" s="487"/>
+      <c r="E46" s="487"/>
+      <c r="F46" s="487"/>
+      <c r="G46" s="487"/>
+      <c r="H46" s="487"/>
+      <c r="I46" s="487"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="314"/>
@@ -12050,10 +12312,10 @@
         <v>253</v>
       </c>
       <c r="B47" s="315"/>
-      <c r="C47" s="485" t="s">
+      <c r="C47" s="488" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="485"/>
+      <c r="D47" s="488"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -12075,8 +12337,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="314"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="485"/>
-      <c r="D48" s="485"/>
+      <c r="C48" s="488"/>
+      <c r="D48" s="488"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -12094,10 +12356,10 @@
         <v>253</v>
       </c>
       <c r="B49" s="315"/>
-      <c r="C49" s="485" t="s">
+      <c r="C49" s="488" t="s">
         <v>290</v>
       </c>
-      <c r="D49" s="485"/>
+      <c r="D49" s="488"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -12119,8 +12381,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="314"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="485"/>
-      <c r="D50" s="485"/>
+      <c r="C50" s="488"/>
+      <c r="D50" s="488"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -12153,7 +12415,7 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="313"/>
       <c r="B52" s="315"/>
-      <c r="C52" s="485"/>
+      <c r="C52" s="488"/>
       <c r="D52" s="486"/>
       <c r="E52" s="314"/>
       <c r="F52" s="133"/>
@@ -12186,16 +12448,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="314"/>
-      <c r="B54" s="489" t="s">
+      <c r="B54" s="487" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="489"/>
-      <c r="D54" s="489"/>
-      <c r="E54" s="489"/>
-      <c r="F54" s="489"/>
-      <c r="G54" s="489"/>
-      <c r="H54" s="489"/>
-      <c r="I54" s="489"/>
+      <c r="C54" s="487"/>
+      <c r="D54" s="487"/>
+      <c r="E54" s="487"/>
+      <c r="F54" s="487"/>
+      <c r="G54" s="487"/>
+      <c r="H54" s="487"/>
+      <c r="I54" s="487"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="314"/>
@@ -12206,7 +12468,7 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="314"/>
       <c r="B55" s="315"/>
-      <c r="C55" s="485" t="s">
+      <c r="C55" s="488" t="s">
         <v>292</v>
       </c>
       <c r="D55" s="486"/>
@@ -12229,10 +12491,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="314"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="485" t="s">
+      <c r="C56" s="488" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="485"/>
+      <c r="D56" s="488"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -12268,16 +12530,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="314"/>
-      <c r="B58" s="489" t="s">
+      <c r="B58" s="487" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="489"/>
-      <c r="D58" s="489"/>
-      <c r="E58" s="489"/>
-      <c r="F58" s="489"/>
-      <c r="G58" s="489"/>
-      <c r="H58" s="489"/>
-      <c r="I58" s="489"/>
+      <c r="C58" s="487"/>
+      <c r="D58" s="487"/>
+      <c r="E58" s="487"/>
+      <c r="F58" s="487"/>
+      <c r="G58" s="487"/>
+      <c r="H58" s="487"/>
+      <c r="I58" s="487"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="314"/>
@@ -12290,10 +12552,10 @@
       <c r="B59" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="485" t="s">
+      <c r="C59" s="488" t="s">
         <v>295</v>
       </c>
-      <c r="D59" s="485"/>
+      <c r="D59" s="488"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -12512,10 +12774,10 @@
       <c r="B68" s="315" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="485" t="s">
+      <c r="C68" s="488" t="s">
         <v>305</v>
       </c>
-      <c r="D68" s="485"/>
+      <c r="D68" s="488"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -12597,16 +12859,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="314"/>
-      <c r="B71" s="489" t="s">
+      <c r="B71" s="487" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="489"/>
-      <c r="D71" s="489"/>
-      <c r="E71" s="489"/>
-      <c r="F71" s="489"/>
-      <c r="G71" s="489"/>
-      <c r="H71" s="489"/>
-      <c r="I71" s="489"/>
+      <c r="C71" s="487"/>
+      <c r="D71" s="487"/>
+      <c r="E71" s="487"/>
+      <c r="F71" s="487"/>
+      <c r="G71" s="487"/>
+      <c r="H71" s="487"/>
+      <c r="I71" s="487"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="314"/>
@@ -12749,16 +13011,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="314"/>
-      <c r="B77" s="489" t="s">
+      <c r="B77" s="487" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="489"/>
-      <c r="D77" s="489"/>
-      <c r="E77" s="489"/>
-      <c r="F77" s="489"/>
-      <c r="G77" s="489"/>
-      <c r="H77" s="489"/>
-      <c r="I77" s="489"/>
+      <c r="C77" s="487"/>
+      <c r="D77" s="487"/>
+      <c r="E77" s="487"/>
+      <c r="F77" s="487"/>
+      <c r="G77" s="487"/>
+      <c r="H77" s="487"/>
+      <c r="I77" s="487"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="314"/>
@@ -12774,15 +13036,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="314"/>
       <c r="B78" s="314"/>
-      <c r="C78" s="485" t="s">
+      <c r="C78" s="488" t="s">
         <v>315</v>
       </c>
-      <c r="D78" s="485"/>
-      <c r="E78" s="485"/>
-      <c r="F78" s="485"/>
-      <c r="G78" s="485"/>
-      <c r="H78" s="485"/>
-      <c r="I78" s="485"/>
+      <c r="D78" s="488"/>
+      <c r="E78" s="488"/>
+      <c r="F78" s="488"/>
+      <c r="G78" s="488"/>
+      <c r="H78" s="488"/>
+      <c r="I78" s="488"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="314"/>
@@ -12798,13 +13060,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="314"/>
       <c r="B79" s="314"/>
-      <c r="C79" s="494"/>
-      <c r="D79" s="494"/>
-      <c r="E79" s="494"/>
-      <c r="F79" s="494"/>
-      <c r="G79" s="494"/>
-      <c r="H79" s="494"/>
-      <c r="I79" s="494"/>
+      <c r="C79" s="489"/>
+      <c r="D79" s="489"/>
+      <c r="E79" s="489"/>
+      <c r="F79" s="489"/>
+      <c r="G79" s="489"/>
+      <c r="H79" s="489"/>
+      <c r="I79" s="489"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="314"/>
@@ -12844,10 +13106,10 @@
         <v>316</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="495" t="s">
+      <c r="C81" s="490" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="495"/>
+      <c r="D81" s="490"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -12886,57 +13148,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12963,14 +13225,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="530" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="498"/>
+      <c r="B1" s="531"/>
+      <c r="C1" s="531"/>
+      <c r="D1" s="531"/>
+      <c r="E1" s="531"/>
+      <c r="F1" s="532"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12983,11 +13245,11 @@
       <c r="C2" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="470"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13002,11 +13264,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="499" t="s">
+      <c r="D3" s="533" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="500"/>
-      <c r="F3" s="501"/>
+      <c r="E3" s="534"/>
+      <c r="F3" s="535"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13021,11 +13283,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="502" t="s">
+      <c r="D4" s="519" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="503"/>
-      <c r="F4" s="504"/>
+      <c r="E4" s="520"/>
+      <c r="F4" s="521"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13040,9 +13302,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="502"/>
-      <c r="E5" s="503"/>
-      <c r="F5" s="504"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="520"/>
+      <c r="F5" s="521"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13057,9 +13319,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="502"/>
-      <c r="E6" s="503"/>
-      <c r="F6" s="504"/>
+      <c r="D6" s="519"/>
+      <c r="E6" s="520"/>
+      <c r="F6" s="521"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13074,78 +13336,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="502"/>
-      <c r="E7" s="503"/>
-      <c r="F7" s="504"/>
+      <c r="D7" s="519"/>
+      <c r="E7" s="520"/>
+      <c r="F7" s="521"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="505" t="s">
+      <c r="A8" s="522" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="507">
+      <c r="B8" s="524">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="507">
+      <c r="C8" s="524">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="502"/>
-      <c r="E8" s="503"/>
-      <c r="F8" s="504"/>
+      <c r="D8" s="519"/>
+      <c r="E8" s="520"/>
+      <c r="F8" s="521"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="506"/>
-      <c r="B9" s="508"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="510"/>
-      <c r="E9" s="511"/>
-      <c r="F9" s="512"/>
+      <c r="A9" s="523"/>
+      <c r="B9" s="525"/>
+      <c r="C9" s="526"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="528"/>
+      <c r="F9" s="529"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="513" t="s">
+      <c r="A10" s="511" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="514"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="514"/>
+      <c r="B10" s="512"/>
+      <c r="C10" s="512"/>
+      <c r="D10" s="512"/>
+      <c r="E10" s="513"/>
+      <c r="F10" s="512"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="516" t="s">
+      <c r="A11" s="514" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="456" t="s">
+      <c r="B11" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="359" t="s">
+      <c r="C11" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="361"/>
-      <c r="E11" s="517" t="s">
+      <c r="D11" s="367"/>
+      <c r="E11" s="515" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="519" t="s">
+      <c r="F11" s="517" t="s">
         <v>327</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="516"/>
-      <c r="B12" s="456"/>
+      <c r="A12" s="514"/>
+      <c r="B12" s="447"/>
       <c r="C12" s="302" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="518"/>
-      <c r="F12" s="520"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="518"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14473,12 +14735,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -14486,11 +14747,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14498,24 +14760,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="550" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="543" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="332" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="439" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="440"/>
+      <c r="E1" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="332" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="544">
+        <v>1</v>
+      </c>
+      <c r="B2" s="539" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="552" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="552"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+    </row>
+    <row r="3" spans="1:6" s="542" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="545" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="541"/>
+      <c r="C3" s="551" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="551"/>
+      <c r="E3" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="542" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="545" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="541"/>
+      <c r="C4" s="419" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="419"/>
+      <c r="E4" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="542" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="544">
+        <v>1</v>
+      </c>
+      <c r="B5" s="539" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="552" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="552"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="545" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="541"/>
+      <c r="C6" s="551" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="551"/>
+      <c r="E6" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="545" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="541"/>
+      <c r="C7" s="419" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="419"/>
+      <c r="E7" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="546"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="424"/>
+      <c r="D33" s="424"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="547">
+        <v>3</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="420" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="420"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="547">
+        <v>4</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="420" t="s">
+        <v>419</v>
+      </c>
+      <c r="D35" s="420"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="547">
+        <v>5</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" s="420" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" s="420"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="547">
+        <v>6</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="423" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="423"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="547">
+        <v>7</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C38" s="420" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="420"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="547">
+        <v>8</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C39" s="420" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="420"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="547">
+        <v>9</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="420" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="420"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="548">
+        <v>10</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="423" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="423"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="549"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="423"/>
+      <c r="D42" s="423"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="547">
+        <v>11</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="423" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" s="423"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="73" priority="20">
+      <formula>LEN(TRIM(E3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="68" priority="15">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="6" priority="10">
+      <formula>LEN(TRIM(E6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(E7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{AB7CDDA4-2537-4CEB-954D-631EC348B3FC}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E3)))</xm:f>
+            <xm:f>""""</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{95D7A4E2-8423-4FDE-9DA4-3A15F28E586E}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E4)))</xm:f>
+            <xm:f>""""</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{E53B7021-94CD-4CA9-ABB1-7A0365A39DA5}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E6)))</xm:f>
+            <xm:f>""""</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FA03C797-B006-4A78-9B0A-8D310E09EF99}">
+            <xm:f>NOT(ISERROR(SEARCH("""",E7)))</xm:f>
+            <xm:f>""""</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE3776-34F1-4EC7-90B7-5F4D31BD4230}">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14576,15 +15212,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="391" t="s">
+      <c r="B2" s="400" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="393"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="402"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -14620,15 +15256,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="397" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="390"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="399"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -14667,10 +15303,10 @@
       <c r="B4" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="409" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="383"/>
+      <c r="D4" s="410"/>
       <c r="E4" s="225" t="s">
         <v>84</v>
       </c>
@@ -14718,7 +15354,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="384" t="s">
+      <c r="B5" s="396" t="s">
         <v>393</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -14770,7 +15406,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="384"/>
+      <c r="B6" s="396"/>
       <c r="C6" s="269" t="s">
         <v>382</v>
       </c>
@@ -14820,13 +15456,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="385"/>
-      <c r="C7" s="386"/>
-      <c r="D7" s="386"/>
-      <c r="E7" s="386"/>
-      <c r="F7" s="386"/>
-      <c r="G7" s="386"/>
-      <c r="H7" s="387"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="407"/>
+      <c r="D7" s="407"/>
+      <c r="E7" s="407"/>
+      <c r="F7" s="407"/>
+      <c r="G7" s="407"/>
+      <c r="H7" s="408"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -14862,7 +15498,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="384" t="s">
+      <c r="B8" s="396" t="s">
         <v>380</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -14914,7 +15550,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="384"/>
+      <c r="B9" s="396"/>
       <c r="C9" s="269" t="s">
         <v>382</v>
       </c>
@@ -14964,13 +15600,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="385"/>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
-      <c r="G10" s="386"/>
-      <c r="H10" s="387"/>
+      <c r="B10" s="406"/>
+      <c r="C10" s="407"/>
+      <c r="D10" s="407"/>
+      <c r="E10" s="407"/>
+      <c r="F10" s="407"/>
+      <c r="G10" s="407"/>
+      <c r="H10" s="408"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -15006,20 +15642,22 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
-      <c r="B11" s="384" t="s">
+      <c r="B11" s="536" t="s">
         <v>395</v>
       </c>
       <c r="C11" s="269" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="320" t="s">
+      <c r="D11" s="331" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="330" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F11" s="230"/>
-      <c r="G11" s="319"/>
+      <c r="G11" s="330" t="s">
+        <v>454</v>
+      </c>
       <c r="H11" s="184"/>
       <c r="I11" s="223"/>
       <c r="J11" s="29"/>
@@ -15056,18 +15694,20 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
-      <c r="B12" s="384"/>
+      <c r="B12" s="537"/>
       <c r="C12" s="269" t="s">
         <v>382</v>
       </c>
-      <c r="D12" s="320" t="s">
+      <c r="D12" s="331" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="330" t="s">
         <v>394</v>
       </c>
       <c r="F12" s="184"/>
-      <c r="G12" s="319"/>
+      <c r="G12" s="330" t="s">
+        <v>394</v>
+      </c>
       <c r="H12" s="184"/>
       <c r="I12" s="223"/>
       <c r="J12" s="29"/>
@@ -15103,14 +15743,14 @@
       <c r="AN12" s="29"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
-      <c r="B13" s="385"/>
-      <c r="C13" s="386"/>
-      <c r="D13" s="386"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="386"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="387"/>
+      <c r="A13" s="538"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="407"/>
+      <c r="D13" s="407"/>
+      <c r="E13" s="407"/>
+      <c r="F13" s="407"/>
+      <c r="G13" s="407"/>
+      <c r="H13" s="408"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -15144,17 +15784,23 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
     </row>
-    <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
-      <c r="B14" s="388" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="389"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="390"/>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="538"/>
+      <c r="B14" s="536" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="331" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="330" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="230"/>
+      <c r="G14" s="330"/>
+      <c r="H14" s="184"/>
       <c r="I14" s="223"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -15188,73 +15834,63 @@
       <c r="AM14" s="29"/>
       <c r="AN14" s="29"/>
     </row>
-    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="224"/>
-      <c r="B15" s="260" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="382" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="383"/>
-      <c r="E15" s="225" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="325" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="227" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="228"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="229"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="229"/>
-      <c r="P15" s="229"/>
-      <c r="Q15" s="229"/>
-      <c r="R15" s="229"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="229"/>
-      <c r="U15" s="229"/>
-      <c r="V15" s="229"/>
-      <c r="W15" s="229"/>
-      <c r="X15" s="229"/>
-      <c r="Y15" s="229"/>
-      <c r="Z15" s="229"/>
-      <c r="AA15" s="229"/>
-      <c r="AB15" s="229"/>
-      <c r="AC15" s="229"/>
-      <c r="AD15" s="229"/>
-      <c r="AE15" s="229"/>
-      <c r="AF15" s="229"/>
-      <c r="AG15" s="229"/>
-      <c r="AH15" s="229"/>
-      <c r="AI15" s="229"/>
-      <c r="AJ15" s="229"/>
-      <c r="AK15" s="229"/>
-      <c r="AL15" s="229"/>
-      <c r="AM15" s="229"/>
-      <c r="AN15" s="229"/>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="538"/>
+      <c r="B15" s="537"/>
+      <c r="C15" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="331" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="330" t="s">
+        <v>455</v>
+      </c>
+      <c r="F15" s="184"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="231"/>
-      <c r="B16" s="384"/>
-      <c r="C16" s="269" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="319"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="319"/>
-      <c r="H16" s="184"/>
+      <c r="A16" s="538"/>
+      <c r="B16" s="406"/>
+      <c r="C16" s="407"/>
+      <c r="D16" s="407"/>
+      <c r="E16" s="407"/>
+      <c r="F16" s="407"/>
+      <c r="G16" s="407"/>
+      <c r="H16" s="408"/>
       <c r="I16" s="223"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -15289,17 +15925,19 @@
       <c r="AN16" s="29"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="231"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="538"/>
+      <c r="B17" s="536" t="s">
+        <v>395</v>
+      </c>
       <c r="C17" s="269" t="s">
-        <v>382</v>
-      </c>
-      <c r="D17" s="320" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="319"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="319"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="330"/>
       <c r="H17" s="184"/>
       <c r="I17" s="223"/>
       <c r="J17" s="29"/>
@@ -15335,14 +15973,18 @@
       <c r="AN17" s="29"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
-      <c r="B18" s="385"/>
-      <c r="C18" s="386"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="386"/>
-      <c r="H18" s="387"/>
+      <c r="A18" s="538"/>
+      <c r="B18" s="537"/>
+      <c r="C18" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="331" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="330"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="184"/>
       <c r="I18" s="223"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -15377,18 +16019,14 @@
       <c r="AN18" s="29"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="231"/>
-      <c r="B19" s="384"/>
-      <c r="C19" s="269" t="s">
-        <v>381</v>
-      </c>
-      <c r="D19" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="319"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="184"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="406"/>
+      <c r="C19" s="407"/>
+      <c r="D19" s="407"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="407"/>
+      <c r="G19" s="407"/>
+      <c r="H19" s="408"/>
       <c r="I19" s="223"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -15422,19 +16060,17 @@
       <c r="AM19" s="29"/>
       <c r="AN19" s="29"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="222"/>
-      <c r="B20" s="384"/>
-      <c r="C20" s="269" t="s">
-        <v>382</v>
-      </c>
-      <c r="D20" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="319"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="184"/>
+      <c r="B20" s="397" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="398"/>
+      <c r="D20" s="398"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="399"/>
       <c r="I20" s="223"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -15468,60 +16104,72 @@
       <c r="AM20" s="29"/>
       <c r="AN20" s="29"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="222"/>
-      <c r="B21" s="385"/>
-      <c r="C21" s="386"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-    </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
-      <c r="B22" s="384"/>
+      <c r="B21" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="409" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="410"/>
+      <c r="E21" s="225" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="325" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="228"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="229"/>
+      <c r="M21" s="229"/>
+      <c r="N21" s="229"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="229"/>
+      <c r="Q21" s="229"/>
+      <c r="R21" s="229"/>
+      <c r="S21" s="229"/>
+      <c r="T21" s="229"/>
+      <c r="U21" s="229"/>
+      <c r="V21" s="229"/>
+      <c r="W21" s="229"/>
+      <c r="X21" s="229"/>
+      <c r="Y21" s="229"/>
+      <c r="Z21" s="229"/>
+      <c r="AA21" s="229"/>
+      <c r="AB21" s="229"/>
+      <c r="AC21" s="229"/>
+      <c r="AD21" s="229"/>
+      <c r="AE21" s="229"/>
+      <c r="AF21" s="229"/>
+      <c r="AG21" s="229"/>
+      <c r="AH21" s="229"/>
+      <c r="AI21" s="229"/>
+      <c r="AJ21" s="229"/>
+      <c r="AK21" s="229"/>
+      <c r="AL21" s="229"/>
+      <c r="AM21" s="229"/>
+      <c r="AN21" s="229"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="224"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="269" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="320" t="s">
+      <c r="D22" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="319"/>
+      <c r="E22" s="330"/>
       <c r="F22" s="230"/>
-      <c r="G22" s="319"/>
+      <c r="G22" s="330"/>
       <c r="H22" s="184"/>
       <c r="I22" s="223"/>
       <c r="J22" s="29"/>
@@ -15557,8 +16205,8 @@
       <c r="AN22" s="29"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
-      <c r="B23" s="384"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="269" t="s">
         <v>382</v>
       </c>
@@ -15603,17 +16251,16 @@
       <c r="AN23" s="29"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="386"/>
-      <c r="D24" s="386"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="386"/>
-      <c r="H24" s="387"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="406"/>
+      <c r="C24" s="407"/>
+      <c r="D24" s="407"/>
+      <c r="E24" s="407"/>
+      <c r="F24" s="407"/>
+      <c r="G24" s="407"/>
+      <c r="H24" s="408"/>
       <c r="I24" s="223"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
@@ -15644,17 +16291,19 @@
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
     </row>
-    <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="222"/>
-      <c r="B25" s="394" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="395"/>
-      <c r="D25" s="395"/>
-      <c r="E25" s="395"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="395"/>
-      <c r="H25" s="396"/>
+      <c r="B25" s="396"/>
+      <c r="C25" s="269" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="319"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="184"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -15688,73 +16337,61 @@
       <c r="AM25" s="29"/>
       <c r="AN25" s="29"/>
     </row>
-    <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="224"/>
-      <c r="B26" s="260" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="382" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="383"/>
-      <c r="E26" s="225" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="325" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="227" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="228"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="229"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="229"/>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="229"/>
-      <c r="AE26" s="229"/>
-      <c r="AF26" s="229"/>
-      <c r="AG26" s="229"/>
-      <c r="AH26" s="229"/>
-      <c r="AI26" s="229"/>
-      <c r="AJ26" s="229"/>
-      <c r="AK26" s="229"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="229"/>
-      <c r="AN26" s="229"/>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="231"/>
+      <c r="B26" s="396"/>
+      <c r="C26" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="319"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="231"/>
-      <c r="B27" s="384"/>
-      <c r="C27" s="269" t="s">
-        <v>381</v>
-      </c>
-      <c r="D27" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="319"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="184"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="406"/>
+      <c r="C27" s="407"/>
+      <c r="D27" s="407"/>
+      <c r="E27" s="407"/>
+      <c r="F27" s="407"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="408"/>
       <c r="I27" s="223"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -15788,17 +16425,17 @@
       <c r="AM27" s="29"/>
       <c r="AN27" s="29"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="231"/>
-      <c r="B28" s="384"/>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="222"/>
+      <c r="B28" s="396"/>
       <c r="C28" s="269" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D28" s="320" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="319"/>
-      <c r="F28" s="184"/>
+      <c r="F28" s="230"/>
       <c r="G28" s="319"/>
       <c r="H28" s="184"/>
       <c r="I28" s="223"/>
@@ -15836,13 +16473,17 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="222"/>
-      <c r="B29" s="385"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="386"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
+      <c r="B29" s="396"/>
+      <c r="C29" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="319"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="184"/>
       <c r="I29" s="223"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -15876,19 +16517,15 @@
       <c r="AM29" s="29"/>
       <c r="AN29" s="29"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="231"/>
-      <c r="B30" s="384"/>
-      <c r="C30" s="269" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="319"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="319"/>
-      <c r="H30" s="184"/>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="222"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="407"/>
+      <c r="E30" s="407"/>
+      <c r="F30" s="407"/>
+      <c r="G30" s="407"/>
+      <c r="H30" s="408"/>
       <c r="I30" s="223"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -15922,19 +16559,17 @@
       <c r="AM30" s="29"/>
       <c r="AN30" s="29"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="222"/>
-      <c r="B31" s="384"/>
-      <c r="C31" s="269" t="s">
-        <v>382</v>
-      </c>
-      <c r="D31" s="320" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="319"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="319"/>
-      <c r="H31" s="184"/>
+      <c r="B31" s="403" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="404"/>
+      <c r="D31" s="404"/>
+      <c r="E31" s="404"/>
+      <c r="F31" s="404"/>
+      <c r="G31" s="404"/>
+      <c r="H31" s="405"/>
       <c r="I31" s="223"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -15968,51 +16603,63 @@
       <c r="AM31" s="29"/>
       <c r="AN31" s="29"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="222"/>
-      <c r="B32" s="385"/>
-      <c r="C32" s="386"/>
-      <c r="D32" s="386"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="386"/>
-      <c r="G32" s="386"/>
-      <c r="H32" s="387"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-    </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="222"/>
-      <c r="B33" s="384"/>
+      <c r="B32" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="409" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="410"/>
+      <c r="E32" s="225" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="325" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="228"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="229"/>
+      <c r="N32" s="229"/>
+      <c r="O32" s="229"/>
+      <c r="P32" s="229"/>
+      <c r="Q32" s="229"/>
+      <c r="R32" s="229"/>
+      <c r="S32" s="229"/>
+      <c r="T32" s="229"/>
+      <c r="U32" s="229"/>
+      <c r="V32" s="229"/>
+      <c r="W32" s="229"/>
+      <c r="X32" s="229"/>
+      <c r="Y32" s="229"/>
+      <c r="Z32" s="229"/>
+      <c r="AA32" s="229"/>
+      <c r="AB32" s="229"/>
+      <c r="AC32" s="229"/>
+      <c r="AD32" s="229"/>
+      <c r="AE32" s="229"/>
+      <c r="AF32" s="229"/>
+      <c r="AG32" s="229"/>
+      <c r="AH32" s="229"/>
+      <c r="AI32" s="229"/>
+      <c r="AJ32" s="229"/>
+      <c r="AK32" s="229"/>
+      <c r="AL32" s="229"/>
+      <c r="AM32" s="229"/>
+      <c r="AN32" s="229"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="224"/>
+      <c r="B33" s="396"/>
       <c r="C33" s="269" t="s">
         <v>381</v>
       </c>
@@ -16057,8 +16704,8 @@
       <c r="AN33" s="29"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="222"/>
-      <c r="B34" s="384"/>
+      <c r="A34" s="231"/>
+      <c r="B34" s="396"/>
       <c r="C34" s="269" t="s">
         <v>382</v>
       </c>
@@ -16103,14 +16750,14 @@
       <c r="AN34" s="29"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="222"/>
-      <c r="B35" s="385"/>
-      <c r="C35" s="386"/>
-      <c r="D35" s="386"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="386"/>
-      <c r="G35" s="386"/>
-      <c r="H35" s="387"/>
+      <c r="A35" s="231"/>
+      <c r="B35" s="406"/>
+      <c r="C35" s="407"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
+      <c r="F35" s="407"/>
+      <c r="G35" s="407"/>
+      <c r="H35" s="408"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -16144,17 +16791,21 @@
       <c r="AM35" s="29"/>
       <c r="AN35" s="29"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="213"/>
-      <c r="B36" s="188"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="292"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="222"/>
+      <c r="B36" s="396"/>
+      <c r="C36" s="269" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="319"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
@@ -16187,16 +16838,20 @@
       <c r="AN36" s="29"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="292"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
+      <c r="A37" s="231"/>
+      <c r="B37" s="396"/>
+      <c r="C37" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="319"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -16229,16 +16884,16 @@
       <c r="AN37" s="29"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="292"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
+      <c r="A38" s="222"/>
+      <c r="B38" s="406"/>
+      <c r="C38" s="407"/>
+      <c r="D38" s="407"/>
+      <c r="E38" s="407"/>
+      <c r="F38" s="407"/>
+      <c r="G38" s="407"/>
+      <c r="H38" s="408"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -16270,17 +16925,21 @@
       <c r="AM38" s="29"/>
       <c r="AN38" s="29"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="213"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="292"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="222"/>
+      <c r="B39" s="396"/>
+      <c r="C39" s="269" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="319"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
@@ -16313,16 +16972,20 @@
       <c r="AN39" s="29"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="213"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="292"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
+      <c r="A40" s="222"/>
+      <c r="B40" s="396"/>
+      <c r="C40" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40" s="320" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="319"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
@@ -16355,16 +17018,16 @@
       <c r="AN40" s="29"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="213"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="292"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
+      <c r="A41" s="222"/>
+      <c r="B41" s="406"/>
+      <c r="C41" s="407"/>
+      <c r="D41" s="407"/>
+      <c r="E41" s="407"/>
+      <c r="F41" s="407"/>
+      <c r="G41" s="407"/>
+      <c r="H41" s="408"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -16397,7 +17060,7 @@
       <c r="AN41" s="29"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="213"/>
+      <c r="A42" s="222"/>
       <c r="B42" s="188"/>
       <c r="C42" s="189"/>
       <c r="D42" s="186"/>
@@ -17362,33 +18025,292 @@
       <c r="AM64" s="29"/>
       <c r="AN64" s="29"/>
     </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A65" s="213"/>
+      <c r="B65" s="188"/>
+      <c r="C65" s="189"/>
+      <c r="D65" s="186"/>
+      <c r="E65" s="292"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="213"/>
+      <c r="J65" s="213"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
+      <c r="AH65" s="29"/>
+      <c r="AI65" s="29"/>
+      <c r="AJ65" s="29"/>
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="29"/>
+      <c r="AM65" s="29"/>
+      <c r="AN65" s="29"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" s="213"/>
+      <c r="B66" s="188"/>
+      <c r="C66" s="189"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="292"/>
+      <c r="F66" s="189"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="213"/>
+      <c r="J66" s="213"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="29"/>
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="29"/>
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A67" s="213"/>
+      <c r="B67" s="188"/>
+      <c r="C67" s="189"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="292"/>
+      <c r="F67" s="189"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="213"/>
+      <c r="J67" s="213"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="29"/>
+      <c r="AG67" s="29"/>
+      <c r="AH67" s="29"/>
+      <c r="AI67" s="29"/>
+      <c r="AJ67" s="29"/>
+      <c r="AK67" s="29"/>
+      <c r="AL67" s="29"/>
+      <c r="AM67" s="29"/>
+      <c r="AN67" s="29"/>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A68" s="213"/>
+      <c r="B68" s="188"/>
+      <c r="C68" s="189"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="292"/>
+      <c r="F68" s="189"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="190"/>
+      <c r="I68" s="213"/>
+      <c r="J68" s="213"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="29"/>
+      <c r="AH68" s="29"/>
+      <c r="AI68" s="29"/>
+      <c r="AJ68" s="29"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="29"/>
+      <c r="AM68" s="29"/>
+      <c r="AN68" s="29"/>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" s="213"/>
+      <c r="B69" s="188"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="292"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="213"/>
+      <c r="J69" s="213"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="29"/>
+      <c r="AH69" s="29"/>
+      <c r="AI69" s="29"/>
+      <c r="AJ69" s="29"/>
+      <c r="AK69" s="29"/>
+      <c r="AL69" s="29"/>
+      <c r="AM69" s="29"/>
+      <c r="AN69" s="29"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A70" s="213"/>
+      <c r="B70" s="188"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="292"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="190"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="29"/>
+      <c r="AH70" s="29"/>
+      <c r="AI70" s="29"/>
+      <c r="AJ70" s="29"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="29"/>
+      <c r="AM70" s="29"/>
+      <c r="AN70" s="29"/>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A71" s="213"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B38:H38"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B20:H20"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:H19"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17396,10 +18318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C49" sqref="C46:G49"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17427,15 +18349,15 @@
       <c r="O1" s="306"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="425" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="399" t="s">
+      <c r="C2" s="426"/>
+      <c r="D2" s="427" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="400"/>
-      <c r="F2" s="401"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="429"/>
       <c r="J2" s="306"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
@@ -17446,9 +18368,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="404"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="432"/>
       <c r="J3" s="306"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
@@ -17459,9 +18381,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="432"/>
       <c r="J4" s="306"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
@@ -17472,9 +18394,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="404"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="432"/>
       <c r="J5" s="306"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
@@ -17485,9 +18407,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="406"/>
-      <c r="F6" s="407"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="435"/>
       <c r="J6" s="306"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
@@ -17525,14 +18447,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="412" t="s">
+      <c r="E9" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="413"/>
-      <c r="G9" s="408" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="409"/>
+      <c r="H9" s="437"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -17558,12 +18480,12 @@
       <c r="D10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="438" t="s">
         <v>384</v>
       </c>
-      <c r="F10" s="410"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
+      <c r="F10" s="438"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
       <c r="I10" s="173">
         <v>0</v>
       </c>
@@ -17589,10 +18511,10 @@
       <c r="D11" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="414" t="s">
+      <c r="E11" s="424" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="414"/>
+      <c r="F11" s="424"/>
       <c r="G11" s="321"/>
       <c r="H11" s="321"/>
       <c r="I11" s="173">
@@ -17619,18 +18541,18 @@
       <c r="D12" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="415" t="s">
+      <c r="E12" s="420" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="415"/>
-      <c r="G12" s="411"/>
-      <c r="H12" s="411"/>
+      <c r="F12" s="420"/>
+      <c r="G12" s="413"/>
+      <c r="H12" s="413"/>
       <c r="I12" s="173">
         <v>20</v>
       </c>
       <c r="J12" s="173"/>
       <c r="K12" s="312" t="e">
-        <f>SUMIFS($J$29:$J$54,$B$29:$B$107,"3.*",$F$29:$F$107,"Valmis")</f>
+        <f>SUMIFS($J$29:$J$53,$B$29:$B$106,"3.*",$F$29:$F$106,"Valmis")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L12" s="312"/>
@@ -17650,12 +18572,12 @@
       <c r="D13" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="420" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="415"/>
-      <c r="G13" s="411"/>
-      <c r="H13" s="411"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="413"/>
       <c r="I13" s="173"/>
       <c r="J13" s="173"/>
       <c r="K13" s="312"/>
@@ -17676,12 +18598,12 @@
       <c r="D14" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="415" t="s">
+      <c r="E14" s="420" t="s">
         <v>420</v>
       </c>
-      <c r="F14" s="415"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="411"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="413"/>
       <c r="I14" s="173"/>
       <c r="J14" s="173"/>
       <c r="K14" s="312"/>
@@ -17728,12 +18650,12 @@
       <c r="D16" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E16" s="415" t="s">
+      <c r="E16" s="420" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="415"/>
-      <c r="G16" s="411"/>
-      <c r="H16" s="411"/>
+      <c r="F16" s="420"/>
+      <c r="G16" s="413"/>
+      <c r="H16" s="413"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="312"/>
@@ -17754,12 +18676,12 @@
       <c r="D17" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="415" t="s">
+      <c r="E17" s="420" t="s">
         <v>425</v>
       </c>
-      <c r="F17" s="415"/>
-      <c r="G17" s="411"/>
-      <c r="H17" s="411"/>
+      <c r="F17" s="420"/>
+      <c r="G17" s="413"/>
+      <c r="H17" s="413"/>
       <c r="I17" s="173"/>
       <c r="J17" s="173"/>
       <c r="K17" s="312"/>
@@ -17780,12 +18702,12 @@
       <c r="D18" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="E18" s="415" t="s">
+      <c r="E18" s="420" t="s">
         <v>426</v>
       </c>
-      <c r="F18" s="415"/>
-      <c r="G18" s="411"/>
-      <c r="H18" s="411"/>
+      <c r="F18" s="420"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="413"/>
       <c r="I18" s="173"/>
       <c r="J18" s="173"/>
       <c r="K18" s="312"/>
@@ -17806,10 +18728,10 @@
       <c r="D19" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="424" t="s">
+      <c r="E19" s="423" t="s">
         <v>423</v>
       </c>
-      <c r="F19" s="424"/>
+      <c r="F19" s="423"/>
       <c r="G19" s="304"/>
       <c r="H19" s="304"/>
       <c r="I19" s="173"/>
@@ -17826,10 +18748,10 @@
       <c r="T19" s="303"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="424"/>
-      <c r="F20" s="424"/>
-      <c r="G20" s="411"/>
-      <c r="H20" s="411"/>
+      <c r="E20" s="423"/>
+      <c r="F20" s="423"/>
+      <c r="G20" s="413"/>
+      <c r="H20" s="413"/>
       <c r="I20" s="173"/>
       <c r="J20" s="173"/>
       <c r="K20" s="312"/>
@@ -17930,8 +18852,8 @@
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
-      <c r="E25" s="422"/>
-      <c r="F25" s="422"/>
+      <c r="E25" s="421"/>
+      <c r="F25" s="421"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="173"/>
@@ -17949,11 +18871,11 @@
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="416" t="s">
+      <c r="C26" s="414" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="417"/>
-      <c r="E26" s="418"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="416"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="178" t="s">
@@ -18007,10 +18929,10 @@
       <c r="C28" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="419" t="s">
+      <c r="D28" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="420"/>
+      <c r="E28" s="418"/>
       <c r="F28" s="172" t="s">
         <v>104</v>
       </c>
@@ -18025,34 +18947,34 @@
         <v>108</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M28" s="28" t="s">
         <v>109</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O28" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="28" t="s">
         <v>132</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -18060,10 +18982,10 @@
         <v>111</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="423" t="s">
+      <c r="D29" s="422" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="423"/>
+      <c r="E29" s="422"/>
       <c r="F29" s="268" t="s">
         <v>142</v>
       </c>
@@ -18111,10 +19033,10 @@
         <v>114</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="421" t="s">
+      <c r="D30" s="419" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="421"/>
+      <c r="E30" s="419"/>
       <c r="F30" s="268" t="s">
         <v>142</v>
       </c>
@@ -18162,10 +19084,10 @@
         <v>116</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="426" t="s">
+      <c r="D31" s="411" t="s">
         <v>389</v>
       </c>
-      <c r="E31" s="426"/>
+      <c r="E31" s="411"/>
       <c r="F31" s="268" t="s">
         <v>142</v>
       </c>
@@ -18199,10 +19121,10 @@
         <v>117</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="426" t="s">
+      <c r="D32" s="411" t="s">
         <v>396</v>
       </c>
-      <c r="E32" s="426"/>
+      <c r="E32" s="411"/>
       <c r="F32" s="322" t="s">
         <v>407</v>
       </c>
@@ -18234,10 +19156,10 @@
         <v>87</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="426" t="s">
+      <c r="D33" s="411" t="s">
         <v>397</v>
       </c>
-      <c r="E33" s="426"/>
+      <c r="E33" s="411"/>
       <c r="F33" s="268" t="s">
         <v>142</v>
       </c>
@@ -18271,10 +19193,10 @@
         <v>409</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="426" t="s">
+      <c r="D34" s="411" t="s">
         <v>398</v>
       </c>
-      <c r="E34" s="426"/>
+      <c r="E34" s="411"/>
       <c r="F34" s="268" t="s">
         <v>142</v>
       </c>
@@ -18310,10 +19232,10 @@
         <v>410</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="426" t="s">
+      <c r="D35" s="411" t="s">
         <v>399</v>
       </c>
-      <c r="E35" s="426"/>
+      <c r="E35" s="411"/>
       <c r="F35" s="268" t="s">
         <v>142</v>
       </c>
@@ -18349,10 +19271,10 @@
         <v>411</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="426" t="s">
+      <c r="D36" s="411" t="s">
         <v>400</v>
       </c>
-      <c r="E36" s="426"/>
+      <c r="E36" s="411"/>
       <c r="F36" s="268" t="s">
         <v>142</v>
       </c>
@@ -18386,16 +19308,14 @@
         <v>412</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="426" t="s">
+      <c r="D37" s="411" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="426"/>
+      <c r="E37" s="411"/>
       <c r="F37" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="303" t="s">
-        <v>408</v>
-      </c>
+      <c r="G37" s="303"/>
       <c r="H37" s="322" t="s">
         <v>381</v>
       </c>
@@ -18425,10 +19345,10 @@
         <v>413</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="426" t="s">
+      <c r="D38" s="411" t="s">
         <v>402</v>
       </c>
-      <c r="E38" s="426"/>
+      <c r="E38" s="411"/>
       <c r="F38" s="268" t="s">
         <v>142</v>
       </c>
@@ -18462,10 +19382,10 @@
         <v>414</v>
       </c>
       <c r="C39" s="303"/>
-      <c r="D39" s="426" t="s">
+      <c r="D39" s="411" t="s">
         <v>403</v>
       </c>
-      <c r="E39" s="426"/>
+      <c r="E39" s="411"/>
       <c r="F39" s="268" t="s">
         <v>142</v>
       </c>
@@ -18499,10 +19419,10 @@
         <v>415</v>
       </c>
       <c r="C40" s="303"/>
-      <c r="D40" s="426" t="s">
+      <c r="D40" s="411" t="s">
         <v>404</v>
       </c>
-      <c r="E40" s="426"/>
+      <c r="E40" s="411"/>
       <c r="F40" s="322" t="s">
         <v>407</v>
       </c>
@@ -18538,10 +19458,10 @@
         <v>416</v>
       </c>
       <c r="C41" s="303"/>
-      <c r="D41" s="426" t="s">
+      <c r="D41" s="411" t="s">
         <v>405</v>
       </c>
-      <c r="E41" s="426"/>
+      <c r="E41" s="411"/>
       <c r="F41" s="322" t="s">
         <v>407</v>
       </c>
@@ -18573,10 +19493,10 @@
         <v>417</v>
       </c>
       <c r="C42" s="303"/>
-      <c r="D42" s="426" t="s">
+      <c r="D42" s="411" t="s">
         <v>406</v>
       </c>
-      <c r="E42" s="426"/>
+      <c r="E42" s="411"/>
       <c r="F42" s="322" t="s">
         <v>407</v>
       </c>
@@ -18608,10 +19528,10 @@
         <v>144</v>
       </c>
       <c r="C43" s="303"/>
-      <c r="D43" s="426" t="s">
+      <c r="D43" s="411" t="s">
         <v>431</v>
       </c>
-      <c r="E43" s="426"/>
+      <c r="E43" s="411"/>
       <c r="F43" s="323" t="s">
         <v>407</v>
       </c>
@@ -18647,10 +19567,10 @@
         <v>433</v>
       </c>
       <c r="C44" s="303"/>
-      <c r="D44" s="426" t="s">
+      <c r="D44" s="411" t="s">
         <v>432</v>
       </c>
-      <c r="E44" s="426"/>
+      <c r="E44" s="411"/>
       <c r="F44" s="323" t="s">
         <v>407</v>
       </c>
@@ -18682,21 +19602,21 @@
         <v>434</v>
       </c>
       <c r="C45" s="303"/>
-      <c r="D45" s="425" t="s">
+      <c r="D45" s="412" t="s">
         <v>437</v>
       </c>
-      <c r="E45" s="425"/>
-      <c r="F45" s="323" t="s">
-        <v>407</v>
+      <c r="E45" s="412"/>
+      <c r="F45" s="268" t="s">
+        <v>142</v>
       </c>
       <c r="G45" s="303"/>
       <c r="H45" s="323" t="s">
         <v>381</v>
       </c>
-      <c r="I45" s="327" t="s">
-        <v>418</v>
-      </c>
-      <c r="J45" s="312"/>
+      <c r="I45" s="327"/>
+      <c r="J45" s="312">
+        <v>1</v>
+      </c>
       <c r="K45" s="303"/>
       <c r="L45" s="303"/>
       <c r="M45" s="303"/>
@@ -18713,17 +19633,21 @@
         <v>435</v>
       </c>
       <c r="C46" s="303"/>
-      <c r="D46" s="425" t="s">
+      <c r="D46" s="412" t="s">
         <v>436</v>
       </c>
-      <c r="E46" s="425"/>
-      <c r="F46" s="323" t="s">
-        <v>407</v>
+      <c r="E46" s="412"/>
+      <c r="F46" s="268" t="s">
+        <v>142</v>
       </c>
       <c r="G46" s="303"/>
-      <c r="H46" s="303"/>
+      <c r="H46" s="333" t="s">
+        <v>381</v>
+      </c>
       <c r="I46" s="303"/>
-      <c r="J46" s="312"/>
+      <c r="J46" s="312">
+        <v>1</v>
+      </c>
       <c r="K46" s="303"/>
       <c r="L46" s="303"/>
       <c r="M46" s="303"/>
@@ -18740,10 +19664,10 @@
         <v>438</v>
       </c>
       <c r="C47" s="303"/>
-      <c r="D47" s="425" t="s">
+      <c r="D47" s="412" t="s">
         <v>439</v>
       </c>
-      <c r="E47" s="425"/>
+      <c r="E47" s="412"/>
       <c r="F47" s="323" t="s">
         <v>407</v>
       </c>
@@ -18762,15 +19686,15 @@
       <c r="S47" s="303"/>
       <c r="T47" s="303"/>
     </row>
-    <row r="48" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27" t="s">
         <v>440</v>
       </c>
       <c r="C48" s="303"/>
-      <c r="D48" s="425" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="425"/>
+      <c r="D48" s="412" t="s">
+        <v>456</v>
+      </c>
+      <c r="E48" s="412"/>
       <c r="F48" s="323" t="s">
         <v>407</v>
       </c>
@@ -18790,17 +19714,11 @@
       <c r="T48" s="303"/>
     </row>
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
-        <v>441</v>
-      </c>
+      <c r="B49" s="27"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="425" t="s">
-        <v>442</v>
-      </c>
-      <c r="E49" s="425"/>
-      <c r="F49" s="323" t="s">
-        <v>407</v>
-      </c>
+      <c r="D49" s="412"/>
+      <c r="E49" s="412"/>
+      <c r="F49" s="326"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
       <c r="I49" s="303"/>
@@ -18819,8 +19737,8 @@
     <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="425"/>
-      <c r="E50" s="425"/>
+      <c r="D50" s="412"/>
+      <c r="E50" s="412"/>
       <c r="F50" s="326"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -18840,8 +19758,8 @@
     <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="425"/>
-      <c r="E51" s="425"/>
+      <c r="D51" s="412"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="326"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -18861,8 +19779,8 @@
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="425"/>
-      <c r="E52" s="425"/>
+      <c r="D52" s="412"/>
+      <c r="E52" s="412"/>
       <c r="F52" s="326"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -18882,9 +19800,9 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="425"/>
-      <c r="E53" s="425"/>
-      <c r="F53" s="326"/>
+      <c r="D53" s="412"/>
+      <c r="E53" s="412"/>
+      <c r="F53" s="268"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
       <c r="I53" s="303"/>
@@ -18900,11 +19818,11 @@
       <c r="S53" s="303"/>
       <c r="T53" s="303"/>
     </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
+    <row r="54" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="303"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="425"/>
-      <c r="E54" s="425"/>
+      <c r="D54" s="412"/>
+      <c r="E54" s="412"/>
       <c r="F54" s="268"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -18921,86 +19839,121 @@
       <c r="S54" s="303"/>
       <c r="T54" s="303"/>
     </row>
-    <row r="55" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="303"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="425"/>
-      <c r="E55" s="425"/>
-      <c r="F55" s="268"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="261" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
-      <c r="I55" s="303"/>
-      <c r="J55" s="312"/>
-      <c r="K55" s="303"/>
-      <c r="L55" s="303"/>
-      <c r="M55" s="303"/>
-      <c r="N55" s="303"/>
-      <c r="O55" s="312"/>
-      <c r="P55" s="303"/>
-      <c r="Q55" s="303"/>
-      <c r="R55" s="303"/>
-      <c r="S55" s="303"/>
-      <c r="T55" s="303"/>
+      <c r="I55" s="303" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="312">
+        <f>SUM(J29:J54)</f>
+        <v>28</v>
+      </c>
+      <c r="K55" s="312">
+        <f>SUM(K29:K54)</f>
+        <v>26</v>
+      </c>
+      <c r="L55" s="312">
+        <f>SUM(L29:L54)</f>
+        <v>18</v>
+      </c>
+      <c r="M55" s="312">
+        <f>SUM(M29:M54)</f>
+        <v>13</v>
+      </c>
+      <c r="N55" s="312">
+        <f>SUM(N29:N54)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="312">
+        <f>SUM(O29:O54)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="312">
+        <f>SUM(P29:P54)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="312">
+        <f>SUM(Q29:Q54)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="312">
+        <f>SUM(R29:R54)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="312">
+        <f>SUM(S29:S54)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="312">
+        <f>SUM(T29:T54)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
       <c r="D56" s="303"/>
-      <c r="E56" s="261" t="s">
-        <v>119</v>
-      </c>
+      <c r="E56" s="303"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
       <c r="I56" s="303" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" s="312">
+        <f>+J55</f>
+        <v>28</v>
+      </c>
+      <c r="K56" s="262">
+        <f>+J56-($J$56/7)</f>
+        <v>24</v>
+      </c>
+      <c r="L56" s="262">
+        <f>+K56-($J$56/7)</f>
         <v>20</v>
       </c>
-      <c r="J56" s="312">
-        <f t="shared" ref="J56:Q56" si="0">SUM(J29:J55)</f>
-        <v>26</v>
-      </c>
-      <c r="K56" s="312">
+      <c r="M56" s="262">
+        <f t="shared" ref="M56:T56" si="0">+L56-($J$56/7)</f>
+        <v>16</v>
+      </c>
+      <c r="N56" s="262">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L56" s="312">
+        <v>12</v>
+      </c>
+      <c r="O56" s="262">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M56" s="312">
+        <v>8</v>
+      </c>
+      <c r="P56" s="262">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N56" s="312">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="262">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O56" s="312">
+      <c r="R56" s="262">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="312">
+        <v>-4</v>
+      </c>
+      <c r="S56" s="262">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="312">
+        <v>-8</v>
+      </c>
+      <c r="T56" s="262">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="312">
-        <f t="shared" ref="R56:T56" si="1">SUM(R29:R55)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="312">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="312">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
       <c r="D57" s="303"/>
@@ -19008,53 +19961,13 @@
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
-      <c r="I57" s="303" t="s">
-        <v>120</v>
-      </c>
-      <c r="J57" s="312">
-        <f>+J56</f>
-        <v>26</v>
-      </c>
-      <c r="K57" s="262">
-        <f>+J57-($J$57/7)</f>
-        <v>22.285714285714285</v>
-      </c>
-      <c r="L57" s="262">
-        <f>+K57-($J$57/7)</f>
-        <v>18.571428571428569</v>
-      </c>
-      <c r="M57" s="262">
-        <f t="shared" ref="M57:T57" si="2">+L57-($J$57/7)</f>
-        <v>14.857142857142854</v>
-      </c>
-      <c r="N57" s="262">
-        <f t="shared" si="2"/>
-        <v>11.142857142857139</v>
-      </c>
-      <c r="O57" s="262">
-        <f t="shared" si="2"/>
-        <v>7.4285714285714244</v>
-      </c>
-      <c r="P57" s="262">
-        <f t="shared" si="2"/>
-        <v>3.71428571428571</v>
-      </c>
-      <c r="Q57" s="262">
-        <f t="shared" si="2"/>
-        <v>-4.4408920985006262E-15</v>
-      </c>
-      <c r="R57" s="262">
-        <f t="shared" si="2"/>
-        <v>-3.7142857142857189</v>
-      </c>
-      <c r="S57" s="262">
-        <f t="shared" si="2"/>
-        <v>-7.4285714285714333</v>
-      </c>
-      <c r="T57" s="262">
-        <f t="shared" si="2"/>
-        <v>-11.142857142857148</v>
-      </c>
+      <c r="I57" s="303"/>
+      <c r="J57" s="312"/>
+      <c r="K57" s="303"/>
+      <c r="L57" s="303"/>
+      <c r="M57" s="303"/>
+      <c r="N57" s="303"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
@@ -19072,7 +19985,7 @@
       <c r="N58" s="303"/>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
       <c r="D59" s="303"/>
@@ -19086,7 +19999,6 @@
       <c r="L59" s="303"/>
       <c r="M59" s="303"/>
       <c r="N59" s="303"/>
-      <c r="O59" s="19"/>
     </row>
     <row r="60" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="303"/>
@@ -19148,48 +20060,23 @@
       <c r="M63" s="303"/>
       <c r="N63" s="303"/>
     </row>
-    <row r="64" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="303"/>
-      <c r="C64" s="303"/>
-      <c r="D64" s="303"/>
-      <c r="E64" s="303"/>
-      <c r="F64" s="303"/>
-      <c r="G64" s="303"/>
-      <c r="H64" s="303"/>
-      <c r="I64" s="303"/>
-      <c r="J64" s="312"/>
-      <c r="K64" s="303"/>
-      <c r="L64" s="303"/>
-      <c r="M64" s="303"/>
-      <c r="N64" s="303"/>
-    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D35:E35"/>
+  <mergeCells count="50">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D28:E28"/>
@@ -19201,174 +20088,197 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="E19:F20"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
   </mergeCells>
-  <conditionalFormatting sqref="F29:F31 F50:F55">
-    <cfRule type="containsText" dxfId="52" priority="46" operator="containsText" text="Ei tehdä">
+  <conditionalFormatting sqref="F29:F31 F47:F54">
+    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="65" priority="56" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="64" priority="57" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F29)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="49" priority="51">
+    <cfRule type="containsBlanks" dxfId="63" priority="59">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F42">
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="61" priority="46" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="60" priority="47" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F40)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="45" priority="40">
+    <cfRule type="containsBlanks" dxfId="59" priority="48">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="56" priority="43" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F33)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="41" priority="36">
+    <cfRule type="containsBlanks" dxfId="55" priority="44">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="54" priority="37" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="53" priority="38" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F34)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="37" priority="32">
+    <cfRule type="containsBlanks" dxfId="51" priority="40">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="49" priority="34" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F35)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="33" priority="28">
+    <cfRule type="containsBlanks" dxfId="47" priority="36">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F37)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="24">
+    <cfRule type="containsBlanks" dxfId="43" priority="32">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F38)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="20">
+    <cfRule type="containsBlanks" dxfId="39" priority="28">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="37" priority="22" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F32)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="21" priority="16">
+    <cfRule type="containsBlanks" dxfId="35" priority="24">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F43)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="12">
+    <cfRule type="containsBlanks" dxfId="31" priority="20">
       <formula>LEN(TRIM(F43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Ei tehdä">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="27" priority="12">
+      <formula>LEN(TRIM(F36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F45)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="8">
+    <cfRule type="containsBlanks" dxfId="22" priority="8">
       <formula>LEN(TRIM(F45))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Ei tehdä">
-      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Ei tehdä">
+      <formula>NOT(ISERROR(SEARCH("Ei tehdä",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Valmis">
-      <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Valmis">
+      <formula>NOT(ISERROR(SEARCH("Valmis",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kesken">
-      <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Kesken">
+      <formula>NOT(ISERROR(SEARCH("Kesken",F46)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="4">
-      <formula>LEN(TRIM(F36))=0</formula>
+    <cfRule type="containsBlanks" dxfId="18" priority="4">
+      <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19377,7 +20287,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{D439F447-6291-4170-AC36-024702558D93}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{D439F447-6291-4170-AC36-024702558D93}">
             <xm:f>NOT(ISERROR(SEARCH("""",F29)))</xm:f>
             <xm:f>""""</xm:f>
             <x14:dxf>
@@ -19400,9 +20310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19411,21 +20321,21 @@
     <col min="2" max="2" width="12.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="59.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="532" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="344" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="10"/>
     <col min="8" max="8" width="11.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="467" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="429"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="469"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -19439,11 +20349,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="430"/>
-      <c r="F2" s="431"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -19453,12 +20363,12 @@
       </c>
       <c r="B3" s="87">
         <f>SUMIF($B$14:$B$103,"Toni",$E$14:$E$103)</f>
-        <v>13.75</v>
+        <v>17.75</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="433"/>
-      <c r="F3" s="434"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -19468,12 +20378,12 @@
       </c>
       <c r="B4" s="87">
         <f>SUMIF($B$14:$B$103,"Ronja",$E$14:$E$103)</f>
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="437"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -19481,9 +20391,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="437"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="453"/>
+      <c r="F5" s="454"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -19491,9 +20401,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="435"/>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437"/>
+      <c r="D6" s="452"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="454"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -19501,9 +20411,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="436"/>
-      <c r="E7" s="436"/>
-      <c r="F7" s="436"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="453"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -19512,87 +20422,87 @@
       <c r="B8" s="185"/>
       <c r="C8" s="182"/>
       <c r="D8" s="297"/>
-      <c r="E8" s="523"/>
+      <c r="E8" s="336"/>
       <c r="F8" s="299"/>
       <c r="G8" s="56"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="438" t="s">
+      <c r="A9" s="455" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="440">
+      <c r="B9" s="457">
         <f>SUM(B3:B8)</f>
-        <v>29.5</v>
-      </c>
-      <c r="C9" s="442" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="C9" s="459" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="444" t="s">
+      <c r="D9" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="446">
+      <c r="E9" s="463">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>0.75</v>
       </c>
-      <c r="F9" s="448"/>
+      <c r="F9" s="465"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="439"/>
-      <c r="B10" s="441"/>
-      <c r="C10" s="443"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="447"/>
-      <c r="F10" s="449"/>
+      <c r="A10" s="456"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="460"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="464"/>
+      <c r="F10" s="466"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="450" t="s">
+      <c r="A11" s="441" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="454"/>
+      <c r="B11" s="442"/>
+      <c r="C11" s="443"/>
+      <c r="D11" s="442"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="445"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="455" t="s">
+      <c r="A12" s="446" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="456" t="s">
+      <c r="B12" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="457" t="s">
+      <c r="C12" s="448" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="458"/>
-      <c r="E12" s="524" t="s">
+      <c r="D12" s="449"/>
+      <c r="E12" s="450" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="459" t="s">
+      <c r="F12" s="451" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="455"/>
-      <c r="B13" s="456"/>
+      <c r="A13" s="446"/>
+      <c r="B13" s="447"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="524"/>
-      <c r="F13" s="459"/>
+      <c r="E13" s="450"/>
+      <c r="F13" s="451"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -19607,7 +20517,7 @@
       <c r="D14" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="525">
+      <c r="E14" s="337">
         <v>4</v>
       </c>
       <c r="F14" s="208"/>
@@ -19625,7 +20535,7 @@
       <c r="D15" s="193" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="525">
+      <c r="E15" s="337">
         <v>4</v>
       </c>
       <c r="F15" s="208"/>
@@ -19639,10 +20549,10 @@
       <c r="B16" s="191" t="s">
         <v>382</v>
       </c>
-      <c r="D16" s="521" t="s">
-        <v>452</v>
-      </c>
-      <c r="E16" s="525">
+      <c r="D16" s="334" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="337">
         <v>3</v>
       </c>
       <c r="F16" s="195"/>
@@ -19656,10 +20566,10 @@
       <c r="B17" s="191" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="521" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="525">
+      <c r="D17" s="334" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" s="337">
         <v>3</v>
       </c>
       <c r="F17" s="195"/>
@@ -19677,7 +20587,7 @@
       <c r="D18" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E18" s="525">
+      <c r="E18" s="337">
         <v>0.25</v>
       </c>
       <c r="F18" s="195"/>
@@ -19695,7 +20605,7 @@
       <c r="D19" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="525">
+      <c r="E19" s="337">
         <v>0.25</v>
       </c>
       <c r="F19" s="195"/>
@@ -19706,13 +20616,13 @@
       <c r="A20" s="205">
         <v>43914</v>
       </c>
-      <c r="B20" s="522" t="s">
+      <c r="B20" s="335" t="s">
         <v>381</v>
       </c>
-      <c r="D20" s="521" t="s">
-        <v>455</v>
-      </c>
-      <c r="E20" s="526">
+      <c r="D20" s="334" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" s="338">
         <v>6</v>
       </c>
       <c r="F20" s="195"/>
@@ -19723,13 +20633,13 @@
       <c r="A21" s="205">
         <v>43914</v>
       </c>
-      <c r="B21" s="522" t="s">
+      <c r="B21" s="335" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="521" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" s="526">
+      <c r="D21" s="334" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="338">
         <v>8</v>
       </c>
       <c r="F21" s="195"/>
@@ -19747,7 +20657,7 @@
       <c r="D22" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E22" s="525">
+      <c r="E22" s="337">
         <v>0.25</v>
       </c>
       <c r="F22" s="196"/>
@@ -19765,7 +20675,7 @@
       <c r="D23" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E23" s="525">
+      <c r="E23" s="337">
         <v>0.25</v>
       </c>
       <c r="F23" s="196"/>
@@ -19773,21 +20683,37 @@
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174"/>
-      <c r="B24" s="191"/>
+      <c r="A24" s="174">
+        <v>43918</v>
+      </c>
+      <c r="B24" s="191" t="s">
+        <v>381</v>
+      </c>
       <c r="C24" s="197"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="527"/>
+      <c r="D24" s="193" t="s">
+        <v>459</v>
+      </c>
+      <c r="E24" s="339">
+        <v>4</v>
+      </c>
       <c r="F24" s="196"/>
       <c r="G24" s="62"/>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
-      <c r="B25" s="191"/>
+      <c r="A25" s="174">
+        <v>43918</v>
+      </c>
+      <c r="B25" s="191" t="s">
+        <v>382</v>
+      </c>
       <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="527"/>
+      <c r="D25" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="339">
+        <v>4</v>
+      </c>
       <c r="F25" s="196"/>
       <c r="G25" s="62"/>
       <c r="H25" s="29"/>
@@ -19803,7 +20729,7 @@
       <c r="D26" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E26" s="525">
+      <c r="E26" s="337">
         <v>0.25</v>
       </c>
       <c r="F26" s="196"/>
@@ -19821,7 +20747,7 @@
       <c r="D27" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="E27" s="525">
+      <c r="E27" s="337">
         <v>0.25</v>
       </c>
       <c r="F27" s="196"/>
@@ -19833,7 +20759,7 @@
       <c r="B28" s="191"/>
       <c r="C28" s="192"/>
       <c r="D28" s="193"/>
-      <c r="E28" s="527"/>
+      <c r="E28" s="339"/>
       <c r="F28" s="196"/>
       <c r="G28" s="204"/>
       <c r="H28" s="29"/>
@@ -19843,7 +20769,7 @@
       <c r="B29" s="191"/>
       <c r="C29" s="192"/>
       <c r="D29" s="193"/>
-      <c r="E29" s="527"/>
+      <c r="E29" s="339"/>
       <c r="F29" s="196"/>
       <c r="G29" s="83"/>
       <c r="H29" s="29"/>
@@ -19853,7 +20779,7 @@
       <c r="B30" s="191"/>
       <c r="C30" s="192"/>
       <c r="D30" s="193"/>
-      <c r="E30" s="527"/>
+      <c r="E30" s="339"/>
       <c r="F30" s="196"/>
       <c r="G30" s="83"/>
       <c r="H30" s="29"/>
@@ -19863,7 +20789,7 @@
       <c r="B31" s="191"/>
       <c r="C31" s="192"/>
       <c r="D31" s="193"/>
-      <c r="E31" s="527"/>
+      <c r="E31" s="339"/>
       <c r="F31" s="196"/>
       <c r="G31" s="83"/>
       <c r="H31" s="29"/>
@@ -19873,7 +20799,7 @@
       <c r="B32" s="191"/>
       <c r="C32" s="192"/>
       <c r="D32" s="193"/>
-      <c r="E32" s="527"/>
+      <c r="E32" s="339"/>
       <c r="F32" s="196"/>
       <c r="G32" s="84"/>
       <c r="H32" s="29"/>
@@ -19883,7 +20809,7 @@
       <c r="B33" s="191"/>
       <c r="C33" s="192"/>
       <c r="D33" s="193"/>
-      <c r="E33" s="527"/>
+      <c r="E33" s="339"/>
       <c r="F33" s="196"/>
       <c r="G33" s="84"/>
       <c r="H33" s="29"/>
@@ -19893,7 +20819,7 @@
       <c r="B34" s="191"/>
       <c r="C34" s="192"/>
       <c r="D34" s="193"/>
-      <c r="E34" s="527"/>
+      <c r="E34" s="339"/>
       <c r="F34" s="196"/>
       <c r="G34" s="84"/>
       <c r="H34" s="29"/>
@@ -19903,7 +20829,7 @@
       <c r="B35" s="191"/>
       <c r="C35" s="192"/>
       <c r="D35" s="193"/>
-      <c r="E35" s="527"/>
+      <c r="E35" s="339"/>
       <c r="F35" s="196"/>
       <c r="G35" s="84"/>
       <c r="H35" s="29"/>
@@ -19913,7 +20839,7 @@
       <c r="B36" s="191"/>
       <c r="C36" s="192"/>
       <c r="D36" s="193"/>
-      <c r="E36" s="527"/>
+      <c r="E36" s="339"/>
       <c r="F36" s="196"/>
       <c r="G36" s="84"/>
       <c r="H36" s="29"/>
@@ -19923,7 +20849,7 @@
       <c r="B37" s="191"/>
       <c r="C37" s="192"/>
       <c r="D37" s="193"/>
-      <c r="E37" s="527"/>
+      <c r="E37" s="339"/>
       <c r="F37" s="196"/>
       <c r="G37" s="84"/>
       <c r="H37" s="29"/>
@@ -19933,7 +20859,7 @@
       <c r="B38" s="191"/>
       <c r="C38" s="192"/>
       <c r="D38" s="193"/>
-      <c r="E38" s="527"/>
+      <c r="E38" s="339"/>
       <c r="F38" s="196"/>
       <c r="G38" s="62"/>
       <c r="H38" s="29"/>
@@ -19943,7 +20869,7 @@
       <c r="B39" s="191"/>
       <c r="C39" s="192"/>
       <c r="D39" s="193"/>
-      <c r="E39" s="527"/>
+      <c r="E39" s="339"/>
       <c r="F39" s="196"/>
       <c r="G39" s="62"/>
       <c r="H39" s="29"/>
@@ -19953,7 +20879,7 @@
       <c r="B40" s="191"/>
       <c r="C40" s="192"/>
       <c r="D40" s="193"/>
-      <c r="E40" s="527"/>
+      <c r="E40" s="339"/>
       <c r="F40" s="195"/>
       <c r="G40" s="56"/>
       <c r="H40" s="29"/>
@@ -19963,7 +20889,7 @@
       <c r="B41" s="191"/>
       <c r="C41" s="192"/>
       <c r="D41" s="193"/>
-      <c r="E41" s="527"/>
+      <c r="E41" s="339"/>
       <c r="F41" s="195"/>
       <c r="G41" s="56"/>
       <c r="H41" s="29"/>
@@ -19973,7 +20899,7 @@
       <c r="B42" s="191"/>
       <c r="C42" s="192"/>
       <c r="D42" s="193"/>
-      <c r="E42" s="527"/>
+      <c r="E42" s="339"/>
       <c r="F42" s="195"/>
       <c r="G42" s="56"/>
       <c r="H42" s="29"/>
@@ -19983,7 +20909,7 @@
       <c r="B43" s="191"/>
       <c r="C43" s="192"/>
       <c r="D43" s="193"/>
-      <c r="E43" s="527"/>
+      <c r="E43" s="339"/>
       <c r="F43" s="195"/>
       <c r="G43" s="56"/>
       <c r="H43" s="29"/>
@@ -19993,7 +20919,7 @@
       <c r="B44" s="191"/>
       <c r="C44" s="192"/>
       <c r="D44" s="193"/>
-      <c r="E44" s="527"/>
+      <c r="E44" s="339"/>
       <c r="F44" s="195"/>
       <c r="G44" s="56"/>
       <c r="H44" s="29"/>
@@ -20003,7 +20929,7 @@
       <c r="B45" s="191"/>
       <c r="C45" s="192"/>
       <c r="D45" s="193"/>
-      <c r="E45" s="527"/>
+      <c r="E45" s="339"/>
       <c r="F45" s="195"/>
       <c r="G45" s="56"/>
       <c r="H45" s="29"/>
@@ -20013,7 +20939,7 @@
       <c r="B46" s="191"/>
       <c r="C46" s="192"/>
       <c r="D46" s="193"/>
-      <c r="E46" s="527"/>
+      <c r="E46" s="339"/>
       <c r="F46" s="195"/>
       <c r="G46" s="56"/>
       <c r="H46" s="29"/>
@@ -20023,7 +20949,7 @@
       <c r="B47" s="191"/>
       <c r="C47" s="192"/>
       <c r="D47" s="193"/>
-      <c r="E47" s="527"/>
+      <c r="E47" s="339"/>
       <c r="F47" s="195"/>
       <c r="G47" s="56"/>
       <c r="H47" s="29"/>
@@ -20033,7 +20959,7 @@
       <c r="B48" s="191"/>
       <c r="C48" s="192"/>
       <c r="D48" s="193"/>
-      <c r="E48" s="527"/>
+      <c r="E48" s="339"/>
       <c r="F48" s="195"/>
       <c r="G48" s="56"/>
       <c r="H48" s="29"/>
@@ -20043,7 +20969,7 @@
       <c r="B49" s="191"/>
       <c r="C49" s="192"/>
       <c r="D49" s="193"/>
-      <c r="E49" s="527"/>
+      <c r="E49" s="339"/>
       <c r="F49" s="195"/>
       <c r="G49" s="56"/>
       <c r="H49" s="29"/>
@@ -20053,7 +20979,7 @@
       <c r="B50" s="191"/>
       <c r="C50" s="192"/>
       <c r="D50" s="193"/>
-      <c r="E50" s="527"/>
+      <c r="E50" s="339"/>
       <c r="F50" s="195"/>
       <c r="G50" s="56"/>
       <c r="H50" s="29"/>
@@ -20063,7 +20989,7 @@
       <c r="B51" s="191"/>
       <c r="C51" s="192"/>
       <c r="D51" s="193"/>
-      <c r="E51" s="527"/>
+      <c r="E51" s="339"/>
       <c r="F51" s="195"/>
       <c r="G51" s="56"/>
       <c r="H51" s="29"/>
@@ -20073,7 +20999,7 @@
       <c r="B52" s="191"/>
       <c r="C52" s="192"/>
       <c r="D52" s="193"/>
-      <c r="E52" s="527"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="195"/>
       <c r="G52" s="56"/>
       <c r="H52" s="29"/>
@@ -20083,7 +21009,7 @@
       <c r="B53" s="191"/>
       <c r="C53" s="192"/>
       <c r="D53" s="193"/>
-      <c r="E53" s="527"/>
+      <c r="E53" s="339"/>
       <c r="F53" s="195"/>
       <c r="G53" s="56"/>
       <c r="H53" s="29"/>
@@ -20093,7 +21019,7 @@
       <c r="B54" s="248"/>
       <c r="C54" s="249"/>
       <c r="D54" s="250"/>
-      <c r="E54" s="528"/>
+      <c r="E54" s="340"/>
       <c r="F54" s="252"/>
       <c r="G54" s="56"/>
       <c r="H54" s="29"/>
@@ -20103,7 +21029,7 @@
       <c r="B55" s="191"/>
       <c r="C55" s="192"/>
       <c r="D55" s="193"/>
-      <c r="E55" s="527"/>
+      <c r="E55" s="339"/>
       <c r="F55" s="195"/>
       <c r="G55" s="56"/>
       <c r="H55" s="29"/>
@@ -20113,7 +21039,7 @@
       <c r="B56" s="191"/>
       <c r="C56" s="192"/>
       <c r="D56" s="193"/>
-      <c r="E56" s="527"/>
+      <c r="E56" s="339"/>
       <c r="F56" s="195"/>
       <c r="G56" s="56"/>
       <c r="H56" s="29"/>
@@ -20123,7 +21049,7 @@
       <c r="B57" s="191"/>
       <c r="C57" s="192"/>
       <c r="D57" s="193"/>
-      <c r="E57" s="527"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="195"/>
       <c r="G57" s="56"/>
       <c r="H57" s="29"/>
@@ -20133,7 +21059,7 @@
       <c r="B58" s="191"/>
       <c r="C58" s="192"/>
       <c r="D58" s="193"/>
-      <c r="E58" s="527"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="195"/>
       <c r="G58" s="56"/>
       <c r="H58" s="29"/>
@@ -20143,7 +21069,7 @@
       <c r="B59" s="191"/>
       <c r="C59" s="192"/>
       <c r="D59" s="193"/>
-      <c r="E59" s="527"/>
+      <c r="E59" s="339"/>
       <c r="F59" s="195"/>
       <c r="G59" s="56"/>
       <c r="H59" s="29"/>
@@ -20153,7 +21079,7 @@
       <c r="B60" s="191"/>
       <c r="C60" s="192"/>
       <c r="D60" s="193"/>
-      <c r="E60" s="527"/>
+      <c r="E60" s="339"/>
       <c r="F60" s="195"/>
       <c r="G60" s="56"/>
       <c r="H60" s="29"/>
@@ -20163,7 +21089,7 @@
       <c r="B61" s="191"/>
       <c r="C61" s="192"/>
       <c r="D61" s="193"/>
-      <c r="E61" s="527"/>
+      <c r="E61" s="339"/>
       <c r="F61" s="195"/>
       <c r="G61" s="56"/>
       <c r="H61" s="29"/>
@@ -20173,7 +21099,7 @@
       <c r="B62" s="191"/>
       <c r="C62" s="192"/>
       <c r="D62" s="193"/>
-      <c r="E62" s="527"/>
+      <c r="E62" s="339"/>
       <c r="F62" s="195"/>
       <c r="G62" s="56"/>
       <c r="H62" s="29"/>
@@ -20183,7 +21109,7 @@
       <c r="B63" s="191"/>
       <c r="C63" s="192"/>
       <c r="D63" s="193"/>
-      <c r="E63" s="527"/>
+      <c r="E63" s="339"/>
       <c r="F63" s="195"/>
       <c r="G63" s="56"/>
       <c r="H63" s="29"/>
@@ -20193,7 +21119,7 @@
       <c r="B64" s="191"/>
       <c r="C64" s="192"/>
       <c r="D64" s="193"/>
-      <c r="E64" s="527"/>
+      <c r="E64" s="339"/>
       <c r="F64" s="195"/>
       <c r="G64" s="56"/>
       <c r="H64" s="29"/>
@@ -20203,7 +21129,7 @@
       <c r="B65" s="191"/>
       <c r="C65" s="192"/>
       <c r="D65" s="193"/>
-      <c r="E65" s="527"/>
+      <c r="E65" s="339"/>
       <c r="F65" s="195"/>
       <c r="G65" s="56"/>
       <c r="H65" s="29"/>
@@ -20213,7 +21139,7 @@
       <c r="B66" s="191"/>
       <c r="C66" s="192"/>
       <c r="D66" s="193"/>
-      <c r="E66" s="527"/>
+      <c r="E66" s="339"/>
       <c r="F66" s="195"/>
       <c r="G66" s="56"/>
       <c r="H66" s="29"/>
@@ -20223,7 +21149,7 @@
       <c r="B67" s="191"/>
       <c r="C67" s="192"/>
       <c r="D67" s="193"/>
-      <c r="E67" s="527"/>
+      <c r="E67" s="339"/>
       <c r="F67" s="195"/>
       <c r="G67" s="56"/>
       <c r="H67" s="85"/>
@@ -20233,7 +21159,7 @@
       <c r="B68" s="191"/>
       <c r="C68" s="192"/>
       <c r="D68" s="193"/>
-      <c r="E68" s="527"/>
+      <c r="E68" s="339"/>
       <c r="F68" s="195"/>
       <c r="G68" s="56"/>
       <c r="H68" s="85"/>
@@ -20243,7 +21169,7 @@
       <c r="B69" s="191"/>
       <c r="C69" s="192"/>
       <c r="D69" s="193"/>
-      <c r="E69" s="527"/>
+      <c r="E69" s="339"/>
       <c r="F69" s="195"/>
       <c r="G69" s="56"/>
       <c r="H69" s="85"/>
@@ -20253,7 +21179,7 @@
       <c r="B70" s="191"/>
       <c r="C70" s="192"/>
       <c r="D70" s="193"/>
-      <c r="E70" s="527"/>
+      <c r="E70" s="339"/>
       <c r="F70" s="195"/>
       <c r="G70" s="56"/>
       <c r="H70" s="85"/>
@@ -20263,7 +21189,7 @@
       <c r="B71" s="191"/>
       <c r="C71" s="192"/>
       <c r="D71" s="193"/>
-      <c r="E71" s="527"/>
+      <c r="E71" s="339"/>
       <c r="F71" s="195"/>
       <c r="G71" s="56"/>
       <c r="H71" s="29"/>
@@ -20273,7 +21199,7 @@
       <c r="B72" s="191"/>
       <c r="C72" s="197"/>
       <c r="D72" s="193"/>
-      <c r="E72" s="527"/>
+      <c r="E72" s="339"/>
       <c r="F72" s="195"/>
       <c r="G72" s="56"/>
       <c r="H72" s="29"/>
@@ -20283,7 +21209,7 @@
       <c r="B73" s="191"/>
       <c r="C73" s="197"/>
       <c r="D73" s="193"/>
-      <c r="E73" s="527"/>
+      <c r="E73" s="339"/>
       <c r="F73" s="195"/>
       <c r="G73" s="56"/>
       <c r="H73" s="29"/>
@@ -20293,7 +21219,7 @@
       <c r="B74" s="191"/>
       <c r="C74" s="197"/>
       <c r="D74" s="193"/>
-      <c r="E74" s="527"/>
+      <c r="E74" s="339"/>
       <c r="F74" s="195"/>
       <c r="G74" s="56"/>
       <c r="H74" s="29"/>
@@ -20303,7 +21229,7 @@
       <c r="B75" s="191"/>
       <c r="C75" s="192"/>
       <c r="D75" s="193"/>
-      <c r="E75" s="527"/>
+      <c r="E75" s="339"/>
       <c r="F75" s="195"/>
       <c r="G75" s="56"/>
       <c r="H75" s="29"/>
@@ -20313,7 +21239,7 @@
       <c r="B76" s="191"/>
       <c r="C76" s="192"/>
       <c r="D76" s="193"/>
-      <c r="E76" s="527"/>
+      <c r="E76" s="339"/>
       <c r="F76" s="195"/>
       <c r="G76" s="56"/>
       <c r="H76" s="29"/>
@@ -20323,7 +21249,7 @@
       <c r="B77" s="191"/>
       <c r="C77" s="192"/>
       <c r="D77" s="193"/>
-      <c r="E77" s="527"/>
+      <c r="E77" s="339"/>
       <c r="F77" s="195"/>
       <c r="G77" s="56"/>
       <c r="H77" s="29"/>
@@ -20333,7 +21259,7 @@
       <c r="B78" s="191"/>
       <c r="C78" s="192"/>
       <c r="D78" s="193"/>
-      <c r="E78" s="527"/>
+      <c r="E78" s="339"/>
       <c r="F78" s="195"/>
       <c r="G78" s="56"/>
       <c r="H78" s="29"/>
@@ -20343,7 +21269,7 @@
       <c r="B79" s="191"/>
       <c r="C79" s="192"/>
       <c r="D79" s="193"/>
-      <c r="E79" s="527"/>
+      <c r="E79" s="339"/>
       <c r="F79" s="195"/>
       <c r="G79" s="56"/>
       <c r="H79" s="85"/>
@@ -20353,7 +21279,7 @@
       <c r="B80" s="191"/>
       <c r="C80" s="198"/>
       <c r="D80" s="193"/>
-      <c r="E80" s="527"/>
+      <c r="E80" s="339"/>
       <c r="F80" s="195"/>
       <c r="G80" s="56"/>
       <c r="H80" s="29"/>
@@ -20363,7 +21289,7 @@
       <c r="B81" s="191"/>
       <c r="C81" s="198"/>
       <c r="D81" s="193"/>
-      <c r="E81" s="527"/>
+      <c r="E81" s="339"/>
       <c r="F81" s="195"/>
       <c r="G81" s="56"/>
       <c r="H81" s="29"/>
@@ -20373,7 +21299,7 @@
       <c r="B82" s="191"/>
       <c r="C82" s="198"/>
       <c r="D82" s="193"/>
-      <c r="E82" s="527"/>
+      <c r="E82" s="339"/>
       <c r="F82" s="195"/>
       <c r="G82" s="56"/>
       <c r="H82" s="85"/>
@@ -20383,7 +21309,7 @@
       <c r="B83" s="191"/>
       <c r="C83" s="198"/>
       <c r="D83" s="193"/>
-      <c r="E83" s="527"/>
+      <c r="E83" s="339"/>
       <c r="F83" s="195"/>
       <c r="G83" s="56"/>
       <c r="H83" s="85"/>
@@ -20393,7 +21319,7 @@
       <c r="B84" s="191"/>
       <c r="C84" s="198"/>
       <c r="D84" s="193"/>
-      <c r="E84" s="527"/>
+      <c r="E84" s="339"/>
       <c r="F84" s="195"/>
       <c r="G84" s="56"/>
       <c r="H84" s="85"/>
@@ -20403,7 +21329,7 @@
       <c r="B85" s="191"/>
       <c r="C85" s="198"/>
       <c r="D85" s="193"/>
-      <c r="E85" s="527"/>
+      <c r="E85" s="339"/>
       <c r="F85" s="195"/>
       <c r="G85" s="56"/>
       <c r="H85" s="85"/>
@@ -20413,7 +21339,7 @@
       <c r="B86" s="191"/>
       <c r="C86" s="198"/>
       <c r="D86" s="193"/>
-      <c r="E86" s="527"/>
+      <c r="E86" s="339"/>
       <c r="F86" s="195"/>
       <c r="G86" s="56"/>
       <c r="H86" s="85"/>
@@ -20423,7 +21349,7 @@
       <c r="B87" s="191"/>
       <c r="C87" s="198"/>
       <c r="D87" s="193"/>
-      <c r="E87" s="527"/>
+      <c r="E87" s="339"/>
       <c r="F87" s="195"/>
       <c r="G87" s="56"/>
       <c r="H87" s="29"/>
@@ -20433,7 +21359,7 @@
       <c r="B88" s="191"/>
       <c r="C88" s="198"/>
       <c r="D88" s="193"/>
-      <c r="E88" s="527"/>
+      <c r="E88" s="339"/>
       <c r="F88" s="195"/>
       <c r="G88" s="56"/>
       <c r="H88" s="85"/>
@@ -20443,7 +21369,7 @@
       <c r="B89" s="191"/>
       <c r="C89" s="198"/>
       <c r="D89" s="193"/>
-      <c r="E89" s="527"/>
+      <c r="E89" s="339"/>
       <c r="F89" s="195"/>
       <c r="G89" s="56"/>
       <c r="H89" s="85"/>
@@ -20453,7 +21379,7 @@
       <c r="B90" s="191"/>
       <c r="C90" s="198"/>
       <c r="D90" s="193"/>
-      <c r="E90" s="527"/>
+      <c r="E90" s="339"/>
       <c r="F90" s="195"/>
       <c r="G90" s="56"/>
       <c r="H90" s="85"/>
@@ -20463,7 +21389,7 @@
       <c r="B91" s="191"/>
       <c r="C91" s="198"/>
       <c r="D91" s="193"/>
-      <c r="E91" s="527"/>
+      <c r="E91" s="339"/>
       <c r="F91" s="195"/>
       <c r="G91" s="56"/>
       <c r="H91" s="85"/>
@@ -20473,7 +21399,7 @@
       <c r="B92" s="191"/>
       <c r="C92" s="198"/>
       <c r="D92" s="193"/>
-      <c r="E92" s="527"/>
+      <c r="E92" s="339"/>
       <c r="F92" s="195"/>
       <c r="G92" s="56"/>
       <c r="H92" s="85"/>
@@ -20483,7 +21409,7 @@
       <c r="B93" s="191"/>
       <c r="C93" s="198"/>
       <c r="D93" s="193"/>
-      <c r="E93" s="529"/>
+      <c r="E93" s="341"/>
       <c r="F93" s="195"/>
       <c r="G93" s="56"/>
       <c r="H93" s="85"/>
@@ -20493,7 +21419,7 @@
       <c r="B94" s="198"/>
       <c r="C94" s="198"/>
       <c r="D94" s="193"/>
-      <c r="E94" s="529"/>
+      <c r="E94" s="341"/>
       <c r="F94" s="195"/>
       <c r="G94" s="56"/>
       <c r="H94" s="85"/>
@@ -20503,7 +21429,7 @@
       <c r="B95" s="198"/>
       <c r="C95" s="198"/>
       <c r="D95" s="193"/>
-      <c r="E95" s="529"/>
+      <c r="E95" s="341"/>
       <c r="F95" s="195"/>
       <c r="G95" s="56"/>
       <c r="H95" s="29"/>
@@ -20513,7 +21439,7 @@
       <c r="B96" s="198"/>
       <c r="C96" s="198"/>
       <c r="D96" s="193"/>
-      <c r="E96" s="529"/>
+      <c r="E96" s="341"/>
       <c r="F96" s="195"/>
       <c r="G96" s="56"/>
       <c r="H96" s="29"/>
@@ -20523,7 +21449,7 @@
       <c r="B97" s="198"/>
       <c r="C97" s="198"/>
       <c r="D97" s="193"/>
-      <c r="E97" s="529"/>
+      <c r="E97" s="341"/>
       <c r="F97" s="195"/>
       <c r="G97" s="56"/>
       <c r="H97" s="29"/>
@@ -20533,7 +21459,7 @@
       <c r="B98" s="198"/>
       <c r="C98" s="198"/>
       <c r="D98" s="193"/>
-      <c r="E98" s="529"/>
+      <c r="E98" s="341"/>
       <c r="F98" s="195"/>
       <c r="G98" s="56"/>
       <c r="H98" s="29"/>
@@ -20543,7 +21469,7 @@
       <c r="B99" s="198"/>
       <c r="C99" s="198"/>
       <c r="D99" s="193"/>
-      <c r="E99" s="530"/>
+      <c r="E99" s="342"/>
       <c r="F99" s="195"/>
       <c r="G99" s="56"/>
       <c r="H99" s="85"/>
@@ -20553,7 +21479,7 @@
       <c r="B100" s="191"/>
       <c r="C100" s="191"/>
       <c r="D100" s="200"/>
-      <c r="E100" s="527"/>
+      <c r="E100" s="339"/>
       <c r="F100" s="195"/>
       <c r="G100" s="56"/>
       <c r="H100" s="29"/>
@@ -20563,7 +21489,7 @@
       <c r="B101" s="201"/>
       <c r="C101" s="201"/>
       <c r="D101" s="202"/>
-      <c r="E101" s="527"/>
+      <c r="E101" s="339"/>
       <c r="F101" s="203"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
@@ -20573,7 +21499,7 @@
       <c r="B102" s="201"/>
       <c r="C102" s="201"/>
       <c r="D102" s="202"/>
-      <c r="E102" s="527"/>
+      <c r="E102" s="339"/>
       <c r="F102" s="212"/>
       <c r="G102" s="213"/>
       <c r="H102" s="29"/>
@@ -20583,7 +21509,7 @@
       <c r="B103" s="244"/>
       <c r="C103" s="244"/>
       <c r="D103" s="245"/>
-      <c r="E103" s="531"/>
+      <c r="E103" s="343"/>
       <c r="F103" s="246"/>
       <c r="G103" s="213"/>
       <c r="H103" s="29"/>
@@ -20593,7 +21519,7 @@
       <c r="B104" s="201"/>
       <c r="C104" s="201"/>
       <c r="D104" s="202"/>
-      <c r="E104" s="527"/>
+      <c r="E104" s="339"/>
       <c r="F104" s="212"/>
       <c r="G104" s="213"/>
       <c r="H104" s="29"/>
@@ -20603,7 +21529,7 @@
       <c r="B105" s="201"/>
       <c r="C105" s="201"/>
       <c r="D105" s="202"/>
-      <c r="E105" s="527"/>
+      <c r="E105" s="339"/>
       <c r="F105" s="212"/>
       <c r="G105" s="213"/>
       <c r="H105" s="29"/>
@@ -20613,7 +21539,7 @@
       <c r="B106" s="201"/>
       <c r="C106" s="201"/>
       <c r="D106" s="202"/>
-      <c r="E106" s="527"/>
+      <c r="E106" s="339"/>
       <c r="F106" s="212"/>
       <c r="G106" s="213"/>
       <c r="H106" s="29"/>
@@ -20623,7 +21549,7 @@
       <c r="B107" s="201"/>
       <c r="C107" s="201"/>
       <c r="D107" s="202"/>
-      <c r="E107" s="527"/>
+      <c r="E107" s="339"/>
       <c r="F107" s="212"/>
       <c r="G107" s="213"/>
       <c r="H107" s="29"/>
@@ -20633,7 +21559,7 @@
       <c r="B108" s="201"/>
       <c r="C108" s="201"/>
       <c r="D108" s="202"/>
-      <c r="E108" s="527"/>
+      <c r="E108" s="339"/>
       <c r="F108" s="212"/>
       <c r="G108" s="213"/>
       <c r="H108" s="29"/>
@@ -20643,7 +21569,7 @@
       <c r="B109" s="201"/>
       <c r="C109" s="201"/>
       <c r="D109" s="202"/>
-      <c r="E109" s="527"/>
+      <c r="E109" s="339"/>
       <c r="F109" s="212"/>
       <c r="G109" s="213"/>
       <c r="H109" s="29"/>
@@ -20653,7 +21579,7 @@
       <c r="B110" s="201"/>
       <c r="C110" s="201"/>
       <c r="D110" s="202"/>
-      <c r="E110" s="527"/>
+      <c r="E110" s="339"/>
       <c r="F110" s="212"/>
       <c r="G110" s="213"/>
       <c r="H110" s="29"/>
@@ -20663,7 +21589,7 @@
       <c r="B111" s="201"/>
       <c r="C111" s="201"/>
       <c r="D111" s="202"/>
-      <c r="E111" s="527"/>
+      <c r="E111" s="339"/>
       <c r="F111" s="212"/>
       <c r="G111" s="213"/>
       <c r="H111" s="29"/>
@@ -20673,7 +21599,7 @@
       <c r="B112" s="201"/>
       <c r="C112" s="201"/>
       <c r="D112" s="202"/>
-      <c r="E112" s="527"/>
+      <c r="E112" s="339"/>
       <c r="F112" s="212"/>
       <c r="G112" s="213"/>
       <c r="H112" s="29"/>
@@ -20683,7 +21609,7 @@
       <c r="B113" s="201"/>
       <c r="C113" s="201"/>
       <c r="D113" s="202"/>
-      <c r="E113" s="527"/>
+      <c r="E113" s="339"/>
       <c r="F113" s="212"/>
       <c r="G113" s="213"/>
       <c r="H113" s="29"/>
@@ -20693,19 +21619,18 @@
       <c r="B114" s="201"/>
       <c r="C114" s="201"/>
       <c r="D114" s="202"/>
-      <c r="E114" s="527"/>
+      <c r="E114" s="339"/>
       <c r="F114" s="212"/>
       <c r="G114" s="213"/>
       <c r="H114" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -20714,11 +21639,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20750,15 +21676,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="425" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="399" t="s">
+      <c r="C2" s="426"/>
+      <c r="D2" s="427" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="400"/>
-      <c r="F2" s="401"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="429"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
       <c r="M2" s="306"/>
@@ -20768,9 +21694,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="404"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="432"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
       <c r="M3" s="306"/>
@@ -20780,9 +21706,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="432"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
       <c r="M4" s="306"/>
@@ -20792,9 +21718,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="404"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="432"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
       <c r="M5" s="306"/>
@@ -20804,9 +21730,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="406"/>
-      <c r="F6" s="407"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="435"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
       <c r="M6" s="306"/>
@@ -20850,14 +21776,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="412" t="s">
+      <c r="E9" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="413"/>
-      <c r="G9" s="408" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="409"/>
+      <c r="H9" s="437"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -20883,12 +21809,12 @@
       <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="438" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="410"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
+      <c r="F10" s="438"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -20913,12 +21839,12 @@
       <c r="D11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="415" t="s">
+      <c r="E11" s="420" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="415"/>
-      <c r="G11" s="411"/>
-      <c r="H11" s="411"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="413"/>
+      <c r="H11" s="413"/>
       <c r="I11" s="312">
         <v>3</v>
       </c>
@@ -20943,12 +21869,12 @@
       <c r="D12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="415" t="s">
+      <c r="E12" s="420" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="415"/>
-      <c r="G12" s="411"/>
-      <c r="H12" s="411"/>
+      <c r="F12" s="420"/>
+      <c r="G12" s="413"/>
+      <c r="H12" s="413"/>
       <c r="I12" s="312">
         <v>2</v>
       </c>
@@ -20973,12 +21899,12 @@
       <c r="D13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="420" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="415"/>
-      <c r="G13" s="411"/>
-      <c r="H13" s="411"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="413"/>
       <c r="I13" s="312">
         <v>5</v>
       </c>
@@ -21003,12 +21929,12 @@
       <c r="D14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="415" t="s">
+      <c r="E14" s="420" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="415"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="411"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="413"/>
       <c r="I14" s="312">
         <v>12</v>
       </c>
@@ -21033,12 +21959,12 @@
       <c r="D15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="415" t="s">
+      <c r="E15" s="420" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="415"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="413"/>
+      <c r="H15" s="413"/>
       <c r="I15" s="312">
         <v>19</v>
       </c>
@@ -21065,10 +21991,10 @@
       <c r="D16" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="460" t="s">
+      <c r="E16" s="475" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="460"/>
+      <c r="F16" s="475"/>
       <c r="G16" s="310"/>
       <c r="H16" s="310"/>
       <c r="I16" s="275">
@@ -21097,12 +22023,12 @@
       <c r="D17" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="460" t="s">
+      <c r="E17" s="475" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="460"/>
-      <c r="G17" s="461"/>
-      <c r="H17" s="461"/>
+      <c r="F17" s="475"/>
+      <c r="G17" s="476"/>
+      <c r="H17" s="476"/>
       <c r="I17" s="275">
         <v>12</v>
       </c>
@@ -21121,10 +22047,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="415"/>
-      <c r="F18" s="415"/>
-      <c r="G18" s="411"/>
-      <c r="H18" s="411"/>
+      <c r="E18" s="420"/>
+      <c r="F18" s="420"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="413"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="312"/>
@@ -21141,8 +22067,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="422"/>
-      <c r="F19" s="422"/>
+      <c r="E19" s="421"/>
+      <c r="F19" s="421"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="306"/>
@@ -21160,11 +22086,11 @@
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
-      <c r="C20" s="462" t="s">
+      <c r="C20" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="463"/>
-      <c r="E20" s="464"/>
+      <c r="D20" s="478"/>
+      <c r="E20" s="479"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="178" t="s">
@@ -21218,10 +22144,10 @@
       <c r="C22" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="419" t="s">
+      <c r="D22" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="420"/>
+      <c r="E22" s="418"/>
       <c r="F22" s="172" t="s">
         <v>104</v>
       </c>
@@ -21270,10 +22196,10 @@
         <v>140</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="423" t="s">
+      <c r="D23" s="422" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="423"/>
+      <c r="E23" s="422"/>
       <c r="F23" s="303" t="s">
         <v>142</v>
       </c>
@@ -21319,10 +22245,10 @@
         <v>144</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="421" t="s">
+      <c r="D24" s="419" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="421"/>
+      <c r="E24" s="419"/>
       <c r="F24" s="303" t="s">
         <v>142</v>
       </c>
@@ -21370,10 +22296,10 @@
         <v>146</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="421" t="s">
+      <c r="D25" s="419" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="421"/>
+      <c r="E25" s="419"/>
       <c r="F25" s="303" t="s">
         <v>142</v>
       </c>
@@ -21419,10 +22345,10 @@
         <v>147</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="426" t="s">
+      <c r="D26" s="411" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="426"/>
+      <c r="E26" s="411"/>
       <c r="F26" s="303" t="s">
         <v>142</v>
       </c>
@@ -21517,10 +22443,10 @@
         <v>151</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="426" t="s">
+      <c r="D28" s="411" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="426"/>
+      <c r="E28" s="411"/>
       <c r="F28" s="303" t="s">
         <v>118</v>
       </c>
@@ -21566,10 +22492,10 @@
         <v>153</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="426" t="s">
+      <c r="D29" s="411" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="426"/>
+      <c r="E29" s="411"/>
       <c r="F29" s="303" t="s">
         <v>118</v>
       </c>
@@ -21615,10 +22541,10 @@
         <v>155</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="426" t="s">
+      <c r="D30" s="411" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="426"/>
+      <c r="E30" s="411"/>
       <c r="F30" s="303" t="s">
         <v>118</v>
       </c>
@@ -21664,10 +22590,10 @@
         <v>158</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="426" t="s">
+      <c r="D31" s="411" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="426"/>
+      <c r="E31" s="411"/>
       <c r="F31" s="303" t="s">
         <v>142</v>
       </c>
@@ -21713,10 +22639,10 @@
         <v>160</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="426" t="s">
+      <c r="D32" s="411" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="426"/>
+      <c r="E32" s="411"/>
       <c r="F32" s="303" t="s">
         <v>142</v>
       </c>
@@ -21762,10 +22688,10 @@
         <v>162</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="426" t="s">
+      <c r="D33" s="411" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="426"/>
+      <c r="E33" s="411"/>
       <c r="F33" s="303" t="s">
         <v>142</v>
       </c>
@@ -21811,10 +22737,10 @@
         <v>164</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="426" t="s">
+      <c r="D34" s="411" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="426"/>
+      <c r="E34" s="411"/>
       <c r="F34" s="303" t="s">
         <v>142</v>
       </c>
@@ -21860,10 +22786,10 @@
         <v>166</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="426" t="s">
+      <c r="D35" s="411" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="426"/>
+      <c r="E35" s="411"/>
       <c r="F35" s="303" t="s">
         <v>142</v>
       </c>
@@ -21909,10 +22835,10 @@
         <v>168</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="426" t="s">
+      <c r="D36" s="411" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="426"/>
+      <c r="E36" s="411"/>
       <c r="F36" s="303" t="s">
         <v>142</v>
       </c>
@@ -21958,10 +22884,10 @@
         <v>170</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="426" t="s">
+      <c r="D37" s="411" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="426"/>
+      <c r="E37" s="411"/>
       <c r="F37" s="303" t="s">
         <v>142</v>
       </c>
@@ -22007,10 +22933,10 @@
         <v>172</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="426" t="s">
+      <c r="D38" s="411" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="426"/>
+      <c r="E38" s="411"/>
       <c r="F38" s="303" t="s">
         <v>142</v>
       </c>
@@ -22054,8 +22980,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="303"/>
-      <c r="D39" s="426"/>
-      <c r="E39" s="426"/>
+      <c r="D39" s="411"/>
+      <c r="E39" s="411"/>
       <c r="F39" s="303"/>
       <c r="G39" s="303"/>
       <c r="H39" s="303"/>
@@ -22075,8 +23001,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="426"/>
-      <c r="E40" s="426"/>
+      <c r="D40" s="411"/>
+      <c r="E40" s="411"/>
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
       <c r="H40" s="303"/>
@@ -22096,8 +23022,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="303"/>
-      <c r="D41" s="426"/>
-      <c r="E41" s="426"/>
+      <c r="D41" s="411"/>
+      <c r="E41" s="411"/>
       <c r="F41" s="303"/>
       <c r="G41" s="303"/>
       <c r="H41" s="303"/>
@@ -22117,8 +23043,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="303"/>
-      <c r="D42" s="426"/>
-      <c r="E42" s="426"/>
+      <c r="D42" s="411"/>
+      <c r="E42" s="411"/>
       <c r="F42" s="303"/>
       <c r="G42" s="303"/>
       <c r="H42" s="303"/>
@@ -22138,8 +23064,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="303"/>
-      <c r="D43" s="426"/>
-      <c r="E43" s="426"/>
+      <c r="D43" s="411"/>
+      <c r="E43" s="411"/>
       <c r="F43" s="303"/>
       <c r="G43" s="303"/>
       <c r="H43" s="303"/>
@@ -22159,8 +23085,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="426"/>
-      <c r="E44" s="426"/>
+      <c r="D44" s="411"/>
+      <c r="E44" s="411"/>
       <c r="F44" s="303"/>
       <c r="G44" s="303"/>
       <c r="H44" s="303"/>
@@ -22180,8 +23106,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="303"/>
-      <c r="D45" s="426"/>
-      <c r="E45" s="426"/>
+      <c r="D45" s="411"/>
+      <c r="E45" s="411"/>
       <c r="F45" s="303"/>
       <c r="G45" s="303"/>
       <c r="H45" s="303"/>
@@ -22201,8 +23127,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="303"/>
-      <c r="D46" s="426"/>
-      <c r="E46" s="426"/>
+      <c r="D46" s="411"/>
+      <c r="E46" s="411"/>
       <c r="F46" s="303"/>
       <c r="G46" s="303"/>
       <c r="H46" s="303"/>
@@ -22222,8 +23148,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="303"/>
-      <c r="D47" s="426"/>
-      <c r="E47" s="426"/>
+      <c r="D47" s="411"/>
+      <c r="E47" s="411"/>
       <c r="F47" s="303"/>
       <c r="G47" s="303"/>
       <c r="H47" s="303"/>
@@ -22243,8 +23169,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="303"/>
-      <c r="D48" s="426"/>
-      <c r="E48" s="426"/>
+      <c r="D48" s="411"/>
+      <c r="E48" s="411"/>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
       <c r="H48" s="303"/>
@@ -22264,8 +23190,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="425"/>
-      <c r="E49" s="425"/>
+      <c r="D49" s="412"/>
+      <c r="E49" s="412"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -22285,8 +23211,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="425"/>
-      <c r="E50" s="425"/>
+      <c r="D50" s="412"/>
+      <c r="E50" s="412"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -22306,8 +23232,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="425"/>
-      <c r="E51" s="425"/>
+      <c r="D51" s="412"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -22327,8 +23253,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="425"/>
-      <c r="E52" s="425"/>
+      <c r="D52" s="412"/>
+      <c r="E52" s="412"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -22348,8 +23274,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="425"/>
-      <c r="E53" s="425"/>
+      <c r="D53" s="412"/>
+      <c r="E53" s="412"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -22369,8 +23295,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="425"/>
-      <c r="E54" s="425"/>
+      <c r="D54" s="412"/>
+      <c r="E54" s="412"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -22390,8 +23316,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="425"/>
-      <c r="E55" s="425"/>
+      <c r="D55" s="412"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -22411,8 +23337,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="425"/>
-      <c r="E56" s="425"/>
+      <c r="D56" s="412"/>
+      <c r="E56" s="412"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -22432,8 +23358,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="425"/>
-      <c r="E57" s="425"/>
+      <c r="D57" s="412"/>
+      <c r="E57" s="412"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -22453,8 +23379,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="425"/>
-      <c r="E58" s="425"/>
+      <c r="D58" s="412"/>
+      <c r="E58" s="412"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -22474,8 +23400,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="425"/>
-      <c r="E59" s="425"/>
+      <c r="D59" s="412"/>
+      <c r="E59" s="412"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -22710,18 +23636,39 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -22737,51 +23684,30 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F23)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22810,14 +23736,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="467" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="429"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="469"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -22831,11 +23757,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="430"/>
-      <c r="F2" s="431"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -22848,9 +23774,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="433"/>
-      <c r="F3" s="434"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -22863,9 +23789,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="437"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -22878,9 +23804,9 @@
         <v>26.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="437"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="453"/>
+      <c r="F5" s="454"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -22893,9 +23819,9 @@
         <v>45</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="435"/>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437"/>
+      <c r="D6" s="452"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="454"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -22908,9 +23834,9 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="436"/>
-      <c r="E7" s="436"/>
-      <c r="F7" s="436"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="453"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -22925,80 +23851,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="467" t="s">
+      <c r="A9" s="480" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="440">
+      <c r="B9" s="457">
         <f>SUM(B3:B8)</f>
         <v>126</v>
       </c>
-      <c r="C9" s="442" t="str">
+      <c r="C9" s="459" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="444" t="s">
+      <c r="D9" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="469">
+      <c r="E9" s="482">
         <v>10.5</v>
       </c>
-      <c r="F9" s="448"/>
+      <c r="F9" s="465"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="468"/>
-      <c r="B10" s="441"/>
-      <c r="C10" s="443"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="470"/>
-      <c r="F10" s="449"/>
+      <c r="A10" s="481"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="460"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="483"/>
+      <c r="F10" s="466"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="450" t="s">
+      <c r="A11" s="441" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="454"/>
+      <c r="B11" s="442"/>
+      <c r="C11" s="443"/>
+      <c r="D11" s="442"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="445"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="465" t="s">
+      <c r="A12" s="484" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="456" t="s">
+      <c r="B12" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="457" t="s">
+      <c r="C12" s="448" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="458"/>
-      <c r="E12" s="466" t="s">
+      <c r="D12" s="449"/>
+      <c r="E12" s="485" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="459" t="s">
+      <c r="F12" s="451" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="465"/>
-      <c r="B13" s="456"/>
+      <c r="A13" s="484"/>
+      <c r="B13" s="447"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="466"/>
-      <c r="F13" s="459"/>
+      <c r="E13" s="485"/>
+      <c r="F13" s="451"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -24567,12 +25493,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -24580,12 +25506,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24616,15 +25542,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="425" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="399" t="s">
+      <c r="C2" s="426"/>
+      <c r="D2" s="427" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="400"/>
-      <c r="F2" s="401"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="429"/>
       <c r="K2" s="306"/>
       <c r="L2" s="306"/>
       <c r="M2" s="306"/>
@@ -24634,9 +25560,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="404"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="432"/>
       <c r="K3" s="306"/>
       <c r="L3" s="306"/>
       <c r="M3" s="306"/>
@@ -24646,9 +25572,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="403"/>
-      <c r="F4" s="404"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="432"/>
       <c r="K4" s="306"/>
       <c r="L4" s="306"/>
       <c r="M4" s="306"/>
@@ -24658,9 +25584,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="404"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="432"/>
       <c r="K5" s="306"/>
       <c r="L5" s="306"/>
       <c r="M5" s="306"/>
@@ -24670,9 +25596,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="406"/>
-      <c r="F6" s="407"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="435"/>
       <c r="K6" s="306"/>
       <c r="L6" s="306"/>
       <c r="M6" s="306"/>
@@ -24716,14 +25642,14 @@
       <c r="D9" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="412" t="s">
+      <c r="E9" s="439" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="413"/>
-      <c r="G9" s="408" t="s">
+      <c r="F9" s="440"/>
+      <c r="G9" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="409"/>
+      <c r="H9" s="437"/>
       <c r="I9" s="308" t="s">
         <v>96</v>
       </c>
@@ -24749,12 +25675,12 @@
       <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="415" t="s">
+      <c r="E10" s="420" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="415"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
+      <c r="F10" s="420"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="413"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -24779,12 +25705,12 @@
       <c r="D11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="415" t="s">
+      <c r="E11" s="420" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="415"/>
-      <c r="G11" s="411"/>
-      <c r="H11" s="411"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="413"/>
+      <c r="H11" s="413"/>
       <c r="I11" s="312">
         <v>3</v>
       </c>
@@ -24809,12 +25735,12 @@
       <c r="D12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="415" t="s">
+      <c r="E12" s="420" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="415"/>
-      <c r="G12" s="411"/>
-      <c r="H12" s="411"/>
+      <c r="F12" s="420"/>
+      <c r="G12" s="413"/>
+      <c r="H12" s="413"/>
       <c r="I12" s="312">
         <v>40</v>
       </c>
@@ -24839,12 +25765,12 @@
       <c r="D13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="420" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="415"/>
-      <c r="G13" s="411"/>
-      <c r="H13" s="411"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="413"/>
       <c r="I13" s="312">
         <v>3</v>
       </c>
@@ -24869,12 +25795,12 @@
       <c r="D14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="415" t="s">
+      <c r="E14" s="420" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="415"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="411"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="413"/>
       <c r="I14" s="312">
         <v>27</v>
       </c>
@@ -24899,12 +25825,12 @@
       <c r="D15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="415" t="s">
+      <c r="E15" s="420" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="415"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="413"/>
+      <c r="H15" s="413"/>
       <c r="I15" s="312">
         <v>7</v>
       </c>
@@ -24923,10 +25849,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="415"/>
-      <c r="F16" s="415"/>
-      <c r="G16" s="411"/>
-      <c r="H16" s="411"/>
+      <c r="E16" s="420"/>
+      <c r="F16" s="420"/>
+      <c r="G16" s="413"/>
+      <c r="H16" s="413"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="312"/>
@@ -24943,8 +25869,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="422"/>
-      <c r="F17" s="422"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="421"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="306"/>
@@ -24962,11 +25888,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="416" t="s">
+      <c r="C18" s="414" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="417"/>
-      <c r="E18" s="418"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="416"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -25020,10 +25946,10 @@
       <c r="C20" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="419" t="s">
+      <c r="D20" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="420"/>
+      <c r="E20" s="418"/>
       <c r="F20" s="172" t="s">
         <v>104</v>
       </c>
@@ -25075,10 +26001,10 @@
         <v>151</v>
       </c>
       <c r="C21" s="303"/>
-      <c r="D21" s="426" t="s">
+      <c r="D21" s="411" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="426"/>
+      <c r="E21" s="411"/>
       <c r="F21" s="303" t="s">
         <v>112</v>
       </c>
@@ -25124,10 +26050,10 @@
         <v>217</v>
       </c>
       <c r="C22" s="303"/>
-      <c r="D22" s="426" t="s">
+      <c r="D22" s="411" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="426"/>
+      <c r="E22" s="411"/>
       <c r="F22" s="303" t="s">
         <v>112</v>
       </c>
@@ -25175,10 +26101,10 @@
         <v>220</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="426" t="s">
+      <c r="D23" s="411" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="426"/>
+      <c r="E23" s="411"/>
       <c r="F23" s="303" t="s">
         <v>112</v>
       </c>
@@ -25226,10 +26152,10 @@
         <v>222</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="426" t="s">
+      <c r="D24" s="411" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="426"/>
+      <c r="E24" s="411"/>
       <c r="F24" s="303" t="s">
         <v>112</v>
       </c>
@@ -25277,10 +26203,10 @@
         <v>224</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="426" t="s">
+      <c r="D25" s="411" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="426"/>
+      <c r="E25" s="411"/>
       <c r="F25" s="303" t="s">
         <v>112</v>
       </c>
@@ -25328,10 +26254,10 @@
         <v>226</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="426" t="s">
+      <c r="D26" s="411" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="426"/>
+      <c r="E26" s="411"/>
       <c r="F26" s="303" t="s">
         <v>112</v>
       </c>
@@ -25379,10 +26305,10 @@
         <v>227</v>
       </c>
       <c r="C27" s="303"/>
-      <c r="D27" s="426" t="s">
+      <c r="D27" s="411" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="426"/>
+      <c r="E27" s="411"/>
       <c r="F27" s="303" t="s">
         <v>112</v>
       </c>
@@ -25430,10 +26356,10 @@
         <v>229</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="426" t="s">
+      <c r="D28" s="411" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="426"/>
+      <c r="E28" s="411"/>
       <c r="F28" s="303" t="s">
         <v>112</v>
       </c>
@@ -25481,10 +26407,10 @@
         <v>231</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="425" t="s">
+      <c r="D29" s="412" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="425"/>
+      <c r="E29" s="412"/>
       <c r="F29" s="303" t="s">
         <v>112</v>
       </c>
@@ -25530,8 +26456,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="425"/>
-      <c r="E30" s="425"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="412"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -25551,8 +26477,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="425"/>
-      <c r="E31" s="425"/>
+      <c r="D31" s="412"/>
+      <c r="E31" s="412"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -25572,8 +26498,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="425"/>
-      <c r="E32" s="425"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="412"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -25593,8 +26519,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="425"/>
-      <c r="E33" s="425"/>
+      <c r="D33" s="412"/>
+      <c r="E33" s="412"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -25614,8 +26540,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="425"/>
-      <c r="E34" s="425"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="412"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -25635,8 +26561,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="425"/>
-      <c r="E35" s="425"/>
+      <c r="D35" s="412"/>
+      <c r="E35" s="412"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -25937,28 +26863,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -25973,18 +26877,40 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F21)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+    <cfRule type="containsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26013,14 +26939,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="467" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="429"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="469"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -26034,11 +26960,11 @@
       <c r="C2" s="300" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="430" t="s">
+      <c r="D2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="430"/>
-      <c r="F2" s="431"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -26051,9 +26977,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="433"/>
-      <c r="F3" s="434"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -26066,9 +26992,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="437"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -26081,9 +27007,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="437"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="453"/>
+      <c r="F5" s="454"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -26096,9 +27022,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="435"/>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437"/>
+      <c r="D6" s="452"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="454"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -26111,9 +27037,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="436"/>
-      <c r="E7" s="436"/>
-      <c r="F7" s="436"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="453"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -26128,80 +27054,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="438" t="s">
+      <c r="A9" s="455" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="440">
+      <c r="B9" s="457">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="442" t="str">
+      <c r="C9" s="459" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="444" t="s">
+      <c r="D9" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="469">
+      <c r="E9" s="482">
         <v>16.5</v>
       </c>
-      <c r="F9" s="448"/>
+      <c r="F9" s="465"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="439"/>
-      <c r="B10" s="441"/>
-      <c r="C10" s="443"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="470"/>
-      <c r="F10" s="449"/>
+      <c r="A10" s="456"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="460"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="483"/>
+      <c r="F10" s="466"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="450" t="s">
+      <c r="A11" s="441" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="454"/>
+      <c r="B11" s="442"/>
+      <c r="C11" s="443"/>
+      <c r="D11" s="442"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="445"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="455" t="s">
+      <c r="A12" s="446" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="456" t="s">
+      <c r="B12" s="447" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="457" t="s">
+      <c r="C12" s="448" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="458"/>
-      <c r="E12" s="466" t="s">
+      <c r="D12" s="449"/>
+      <c r="E12" s="485" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="459" t="s">
+      <c r="F12" s="451" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="455"/>
-      <c r="B13" s="456"/>
+      <c r="A13" s="446"/>
+      <c r="B13" s="447"/>
       <c r="C13" s="183" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="466"/>
-      <c r="F13" s="459"/>
+      <c r="E13" s="485"/>
+      <c r="F13" s="451"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -28005,12 +28931,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -28018,33 +28944,18 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101007224E9EE5B3BF94C806FF09039891060" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3e27591f2678635d285da64c2a7aad9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aec78b04-9439-499f-911c-68c5b1e9ccff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79be787e91dac9966e20cd4a195ad7e2" ns2:_="">
     <xsd:import namespace="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
@@ -28202,31 +29113,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8130D149-6442-4525-BFAE-974CCFFB1910}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28242,4 +29144,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Scrum projekti\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A746E-4AD7-429F-A3F4-081F334740BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6A3EC-2D01-4828-8652-F98B41F4A780}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="512">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -4193,24 +4193,135 @@
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4235,116 +4346,50 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4352,96 +4397,95 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4482,49 +4526,83 @@
     <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4550,83 +4628,8 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4646,8 +4649,17 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4655,17 +4667,62 @@
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4685,62 +4742,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4759,63 +4816,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4827,69 +4827,7 @@
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="289">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="267">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4956,144 +4894,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6317,51 +6117,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
@@ -6423,6 +6178,82 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7243,10 +7074,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.5</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11830,8 +11661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89C1641-4002-491B-BFC5-A3CCE3FF301E}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11879,20 +11710,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="406" t="s">
+      <c r="B2" s="370" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="409"/>
-      <c r="J2" s="409"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="410"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="374"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -11908,19 +11739,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="375" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="413"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="377"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -11939,17 +11770,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="411"/>
-      <c r="C4" s="412"/>
-      <c r="D4" s="412"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="412"/>
-      <c r="G4" s="412"/>
-      <c r="H4" s="412"/>
-      <c r="I4" s="412"/>
-      <c r="J4" s="412"/>
-      <c r="K4" s="412"/>
-      <c r="L4" s="413"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="376"/>
+      <c r="J4" s="376"/>
+      <c r="K4" s="376"/>
+      <c r="L4" s="377"/>
       <c r="M4" s="175">
         <v>43920</v>
       </c>
@@ -12002,19 +11833,19 @@
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="383" t="s">
+      <c r="C6" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="384"/>
-      <c r="E6" s="384"/>
-      <c r="F6" s="384"/>
-      <c r="G6" s="384"/>
-      <c r="H6" s="384"/>
-      <c r="I6" s="384"/>
-      <c r="J6" s="384"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="384"/>
-      <c r="M6" s="414"/>
+      <c r="D6" s="379"/>
+      <c r="E6" s="379"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
+      <c r="M6" s="380"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -12033,19 +11864,19 @@
       <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="415" t="s">
+      <c r="C7" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="416"/>
-      <c r="E7" s="416"/>
-      <c r="F7" s="416"/>
-      <c r="G7" s="416"/>
-      <c r="H7" s="416"/>
-      <c r="I7" s="416"/>
-      <c r="J7" s="416"/>
-      <c r="K7" s="416"/>
-      <c r="L7" s="416"/>
-      <c r="M7" s="417"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="382"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="382"/>
+      <c r="L7" s="382"/>
+      <c r="M7" s="383"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -12064,19 +11895,19 @@
       <c r="B8" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="415" t="s">
+      <c r="C8" s="381" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="416"/>
-      <c r="E8" s="416"/>
-      <c r="F8" s="416"/>
-      <c r="G8" s="416"/>
-      <c r="H8" s="416"/>
-      <c r="I8" s="416"/>
-      <c r="J8" s="416"/>
-      <c r="K8" s="416"/>
-      <c r="L8" s="416"/>
-      <c r="M8" s="417"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="382"/>
+      <c r="K8" s="382"/>
+      <c r="L8" s="382"/>
+      <c r="M8" s="383"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -12095,19 +11926,19 @@
       <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="415" t="s">
+      <c r="C9" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="416"/>
-      <c r="E9" s="416"/>
-      <c r="F9" s="416"/>
-      <c r="G9" s="416"/>
-      <c r="H9" s="416"/>
-      <c r="I9" s="416"/>
-      <c r="J9" s="416"/>
-      <c r="K9" s="416"/>
-      <c r="L9" s="416"/>
-      <c r="M9" s="417"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="382"/>
+      <c r="K9" s="382"/>
+      <c r="L9" s="382"/>
+      <c r="M9" s="383"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -12126,19 +11957,19 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="403" t="s">
+      <c r="C10" s="367" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="404"/>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="404"/>
-      <c r="I10" s="404"/>
-      <c r="J10" s="404"/>
-      <c r="K10" s="404"/>
-      <c r="L10" s="404"/>
-      <c r="M10" s="405"/>
+      <c r="D10" s="368"/>
+      <c r="E10" s="368"/>
+      <c r="F10" s="368"/>
+      <c r="G10" s="368"/>
+      <c r="H10" s="368"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="369"/>
       <c r="N10" s="32"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -12181,20 +12012,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="392" t="s">
+      <c r="B12" s="384" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="393"/>
-      <c r="D12" s="393"/>
-      <c r="E12" s="393"/>
-      <c r="F12" s="393"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="393"/>
-      <c r="K12" s="393"/>
-      <c r="L12" s="393"/>
-      <c r="M12" s="394"/>
+      <c r="C12" s="385"/>
+      <c r="D12" s="385"/>
+      <c r="E12" s="385"/>
+      <c r="F12" s="385"/>
+      <c r="G12" s="385"/>
+      <c r="H12" s="385"/>
+      <c r="I12" s="385"/>
+      <c r="J12" s="385"/>
+      <c r="K12" s="385"/>
+      <c r="L12" s="385"/>
+      <c r="M12" s="386"/>
       <c r="N12" s="32"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -12219,14 +12050,14 @@
       <c r="D13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="395" t="s">
+      <c r="E13" s="387" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="396"/>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
-      <c r="I13" s="396"/>
-      <c r="J13" s="397"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="388"/>
+      <c r="H13" s="388"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="389"/>
       <c r="K13" s="293" t="s">
         <v>16</v>
       </c>
@@ -12244,38 +12075,38 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="398"/>
-      <c r="W13" s="398"/>
-      <c r="X13" s="398"/>
+      <c r="V13" s="390"/>
+      <c r="W13" s="390"/>
+      <c r="X13" s="390"/>
       <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="370">
+      <c r="B14" s="391">
         <v>1</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="392">
         <v>43906</v>
       </c>
-      <c r="D14" s="372">
+      <c r="D14" s="392">
         <v>43941</v>
       </c>
-      <c r="E14" s="399" t="s">
+      <c r="E14" s="393" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="400"/>
-      <c r="G14" s="401"/>
-      <c r="H14" s="401"/>
-      <c r="I14" s="401"/>
-      <c r="J14" s="402"/>
-      <c r="K14" s="389" t="s">
+      <c r="F14" s="394"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="395"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="396"/>
+      <c r="K14" s="397" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="391">
+      <c r="L14" s="399">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="367">
+      <c r="M14" s="401">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12294,18 +12125,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="370"/>
-      <c r="C15" s="372"/>
-      <c r="D15" s="372"/>
-      <c r="E15" s="399"/>
-      <c r="F15" s="400"/>
-      <c r="G15" s="401"/>
-      <c r="H15" s="401"/>
-      <c r="I15" s="401"/>
-      <c r="J15" s="402"/>
-      <c r="K15" s="390"/>
-      <c r="L15" s="381"/>
-      <c r="M15" s="367"/>
+      <c r="B15" s="391"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="394"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="398"/>
+      <c r="L15" s="400"/>
+      <c r="M15" s="401"/>
       <c r="N15" s="32"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -12321,29 +12152,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="370">
+      <c r="B16" s="391">
         <v>2</v>
       </c>
-      <c r="C16" s="372">
+      <c r="C16" s="392">
         <v>43941</v>
       </c>
-      <c r="D16" s="372">
+      <c r="D16" s="392">
         <v>43969</v>
       </c>
-      <c r="E16" s="383"/>
-      <c r="F16" s="384"/>
-      <c r="G16" s="384"/>
-      <c r="H16" s="384"/>
-      <c r="I16" s="384"/>
-      <c r="J16" s="385"/>
-      <c r="K16" s="389" t="s">
+      <c r="E16" s="378"/>
+      <c r="F16" s="379"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="379"/>
+      <c r="I16" s="379"/>
+      <c r="J16" s="404"/>
+      <c r="K16" s="397" t="s">
         <v>491</v>
       </c>
-      <c r="L16" s="391">
+      <c r="L16" s="399">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M16" s="367">
+      <c r="M16" s="401">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -12362,18 +12193,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="371"/>
-      <c r="C17" s="382"/>
-      <c r="D17" s="382"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="387"/>
-      <c r="G17" s="387"/>
-      <c r="H17" s="387"/>
-      <c r="I17" s="387"/>
-      <c r="J17" s="388"/>
-      <c r="K17" s="390"/>
-      <c r="L17" s="381"/>
-      <c r="M17" s="367"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="406"/>
+      <c r="G17" s="406"/>
+      <c r="H17" s="406"/>
+      <c r="I17" s="406"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="398"/>
+      <c r="L17" s="400"/>
+      <c r="M17" s="401"/>
       <c r="N17" s="32"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -12389,29 +12220,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="370">
+      <c r="B18" s="391">
         <v>3</v>
       </c>
-      <c r="C18" s="372">
+      <c r="C18" s="392">
         <v>43969</v>
       </c>
-      <c r="D18" s="372">
+      <c r="D18" s="392">
         <v>43997</v>
       </c>
-      <c r="E18" s="383"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="384"/>
-      <c r="J18" s="385"/>
-      <c r="K18" s="389" t="s">
+      <c r="E18" s="378"/>
+      <c r="F18" s="379"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="379"/>
+      <c r="I18" s="379"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="397" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="391">
+      <c r="L18" s="399">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M18" s="391">
+      <c r="M18" s="399">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -12430,18 +12261,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="371"/>
-      <c r="C19" s="382"/>
-      <c r="D19" s="382"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="387"/>
-      <c r="I19" s="387"/>
-      <c r="J19" s="388"/>
-      <c r="K19" s="390"/>
-      <c r="L19" s="381"/>
-      <c r="M19" s="381"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="406"/>
+      <c r="G19" s="406"/>
+      <c r="H19" s="406"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="398"/>
+      <c r="L19" s="400"/>
+      <c r="M19" s="400"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -12457,20 +12288,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="370">
+      <c r="B20" s="391">
         <v>4</v>
       </c>
-      <c r="C20" s="372"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="373"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
-      <c r="I20" s="374"/>
-      <c r="J20" s="375"/>
-      <c r="K20" s="379"/>
-      <c r="L20" s="381"/>
-      <c r="M20" s="367"/>
+      <c r="C20" s="392"/>
+      <c r="D20" s="392"/>
+      <c r="E20" s="410"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="411"/>
+      <c r="J20" s="412"/>
+      <c r="K20" s="416"/>
+      <c r="L20" s="400"/>
+      <c r="M20" s="401"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -12486,18 +12317,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="371"/>
-      <c r="C21" s="372"/>
-      <c r="D21" s="372"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="377"/>
-      <c r="G21" s="377"/>
-      <c r="H21" s="377"/>
-      <c r="I21" s="377"/>
-      <c r="J21" s="378"/>
-      <c r="K21" s="380"/>
-      <c r="L21" s="381"/>
-      <c r="M21" s="367"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="392"/>
+      <c r="D21" s="392"/>
+      <c r="E21" s="413"/>
+      <c r="F21" s="414"/>
+      <c r="G21" s="414"/>
+      <c r="H21" s="414"/>
+      <c r="I21" s="414"/>
+      <c r="J21" s="415"/>
+      <c r="K21" s="417"/>
+      <c r="L21" s="400"/>
+      <c r="M21" s="401"/>
       <c r="N21" s="32"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -12540,13 +12371,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="369" t="s">
+      <c r="B23" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="369"/>
-      <c r="D23" s="369"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="369"/>
+      <c r="C23" s="409"/>
+      <c r="D23" s="409"/>
+      <c r="E23" s="409"/>
+      <c r="F23" s="409"/>
       <c r="G23" s="254"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -12569,7 +12400,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="368" t="s">
+      <c r="B24" s="408" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="258" t="s">
@@ -12606,7 +12437,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="368"/>
+      <c r="B25" s="408"/>
       <c r="C25" s="259" t="s">
         <v>26</v>
       </c>
@@ -12646,7 +12477,7 @@
       </c>
       <c r="C26" s="176">
         <f>+'S1 - Tunnit'!B3</f>
-        <v>32.5</v>
+        <v>36.25</v>
       </c>
       <c r="D26" s="176">
         <f>+'S2 -Tunnit'!B3</f>
@@ -12658,7 +12489,7 @@
       </c>
       <c r="F26" s="176">
         <f>SUM(B26:E26)</f>
-        <v>81.5</v>
+        <v>85.25</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="51"/>
@@ -12687,7 +12518,7 @@
       </c>
       <c r="C27" s="176">
         <f>'S1 - Tunnit'!B4</f>
-        <v>34.5</v>
+        <v>40.25</v>
       </c>
       <c r="D27" s="176">
         <f>+'S2 -Tunnit'!B4</f>
@@ -12699,7 +12530,7 @@
       </c>
       <c r="F27" s="176">
         <f>SUM(B27:E27)</f>
-        <v>100</v>
+        <v>105.75</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="51"/>
@@ -12836,7 +12667,7 @@
       </c>
       <c r="C32" s="241">
         <f>SUM(C26:C31)</f>
-        <v>67</v>
+        <v>76.5</v>
       </c>
       <c r="D32" s="241">
         <f>SUM(D26:D31)</f>
@@ -12848,7 +12679,7 @@
       </c>
       <c r="F32" s="241">
         <f>SUM(F26:F31)</f>
-        <v>181.5</v>
+        <v>191</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="51"/>
@@ -13117,23 +12948,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -13148,15 +12971,23 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13205,14 +13036,14 @@
       <c r="C2" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="527" t="s">
+      <c r="D2" s="546" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="E2" s="547"/>
+      <c r="F2" s="548" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="528"/>
+      <c r="G2" s="547"/>
       <c r="H2" s="315" t="s">
         <v>230</v>
       </c>
@@ -13234,14 +13065,14 @@
       <c r="C3" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="530" t="s">
+      <c r="D3" s="549" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="530"/>
-      <c r="F3" s="531" t="s">
+      <c r="E3" s="549"/>
+      <c r="F3" s="550" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="532"/>
+      <c r="G3" s="551"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -13255,10 +13086,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="316"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="531"/>
-      <c r="G4" s="532"/>
+      <c r="D4" s="551"/>
+      <c r="E4" s="551"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="551"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -13321,10 +13152,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="311"/>
-      <c r="B8" s="533" t="s">
+      <c r="B8" s="538" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="534"/>
+      <c r="C8" s="539"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -13362,10 +13193,10 @@
       <c r="B10" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="535" t="s">
+      <c r="C10" s="540" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="536"/>
+      <c r="D10" s="541"/>
       <c r="E10" s="314" t="s">
         <v>101</v>
       </c>
@@ -13394,16 +13225,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="537" t="s">
+      <c r="B11" s="542" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="537"/>
-      <c r="D11" s="538"/>
-      <c r="E11" s="539"/>
-      <c r="F11" s="540"/>
-      <c r="G11" s="539"/>
-      <c r="H11" s="539"/>
-      <c r="I11" s="539"/>
+      <c r="C11" s="542"/>
+      <c r="D11" s="543"/>
+      <c r="E11" s="544"/>
+      <c r="F11" s="545"/>
+      <c r="G11" s="544"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="544"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="311"/>
@@ -13451,10 +13282,10 @@
       <c r="B13" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="541" t="s">
+      <c r="C13" s="529" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="541"/>
+      <c r="D13" s="529"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -13538,10 +13369,10 @@
       <c r="B16" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="541" t="s">
+      <c r="C16" s="529" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="541"/>
+      <c r="D16" s="529"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -13609,10 +13440,10 @@
       <c r="B19" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="541" t="s">
+      <c r="C19" s="529" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="542"/>
+      <c r="D19" s="527"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -13653,10 +13484,10 @@
       <c r="B21" s="313" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="543" t="s">
+      <c r="C21" s="532" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="544"/>
+      <c r="D21" s="533"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -13676,10 +13507,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="311"/>
       <c r="B22" s="311"/>
-      <c r="C22" s="541" t="s">
+      <c r="C22" s="529" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="542"/>
+      <c r="D22" s="527"/>
       <c r="E22" s="311">
         <v>20</v>
       </c>
@@ -13699,10 +13530,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="312"/>
       <c r="B23" s="313"/>
-      <c r="C23" s="541" t="s">
+      <c r="C23" s="529" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="542"/>
+      <c r="D23" s="527"/>
       <c r="E23" s="312">
         <v>9</v>
       </c>
@@ -13722,10 +13553,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="312"/>
       <c r="B24" s="313"/>
-      <c r="C24" s="541" t="s">
+      <c r="C24" s="529" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="542"/>
+      <c r="D24" s="527"/>
       <c r="E24" s="312">
         <v>25</v>
       </c>
@@ -13745,10 +13576,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="312"/>
       <c r="B25" s="313"/>
-      <c r="C25" s="541" t="s">
+      <c r="C25" s="529" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="541"/>
+      <c r="D25" s="529"/>
       <c r="E25" s="312">
         <v>27</v>
       </c>
@@ -13768,10 +13599,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="312"/>
       <c r="B26" s="313"/>
-      <c r="C26" s="541" t="s">
+      <c r="C26" s="529" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="542"/>
+      <c r="D26" s="527"/>
       <c r="E26" s="312">
         <v>17</v>
       </c>
@@ -13790,16 +13621,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="312"/>
-      <c r="B27" s="545" t="s">
+      <c r="B27" s="528" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="546"/>
-      <c r="D27" s="547"/>
-      <c r="E27" s="548"/>
-      <c r="F27" s="549"/>
-      <c r="G27" s="548"/>
-      <c r="H27" s="548"/>
-      <c r="I27" s="548"/>
+      <c r="C27" s="534"/>
+      <c r="D27" s="535"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="537"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="536"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="311"/>
@@ -13829,10 +13660,10 @@
       <c r="B29" s="311" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="543" t="s">
+      <c r="C29" s="532" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="543"/>
+      <c r="D29" s="532"/>
       <c r="E29" s="311">
         <v>26</v>
       </c>
@@ -13852,10 +13683,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="312"/>
       <c r="B30" s="313"/>
-      <c r="C30" s="541" t="s">
+      <c r="C30" s="529" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="542"/>
+      <c r="D30" s="527"/>
       <c r="E30" s="121" t="s">
         <v>273</v>
       </c>
@@ -13873,10 +13704,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="312"/>
       <c r="B31" s="313"/>
-      <c r="C31" s="541" t="s">
+      <c r="C31" s="529" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="542"/>
+      <c r="D31" s="527"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -13896,10 +13727,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="312"/>
       <c r="B32" s="313"/>
-      <c r="C32" s="541" t="s">
+      <c r="C32" s="529" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="542"/>
+      <c r="D32" s="527"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -13917,10 +13748,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="312"/>
       <c r="B33" s="313"/>
-      <c r="C33" s="541" t="s">
+      <c r="C33" s="529" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="542"/>
+      <c r="D33" s="527"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -13938,10 +13769,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="312"/>
       <c r="B34" s="313"/>
-      <c r="C34" s="541" t="s">
+      <c r="C34" s="529" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="542"/>
+      <c r="D34" s="527"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -13959,10 +13790,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="312"/>
       <c r="B35" s="313"/>
-      <c r="C35" s="541" t="s">
+      <c r="C35" s="529" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="542"/>
+      <c r="D35" s="527"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -14016,10 +13847,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="312"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="543" t="s">
+      <c r="C38" s="532" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="544"/>
+      <c r="D38" s="533"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -14039,8 +13870,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="312"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="541"/>
-      <c r="D39" s="542"/>
+      <c r="C39" s="529"/>
+      <c r="D39" s="527"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -14056,10 +13887,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="312"/>
       <c r="B40" s="313"/>
-      <c r="C40" s="541" t="s">
+      <c r="C40" s="529" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="542"/>
+      <c r="D40" s="527"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -14163,16 +13994,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="312"/>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="528" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="545"/>
-      <c r="D46" s="545"/>
-      <c r="E46" s="545"/>
-      <c r="F46" s="545"/>
-      <c r="G46" s="545"/>
-      <c r="H46" s="545"/>
-      <c r="I46" s="545"/>
+      <c r="C46" s="528"/>
+      <c r="D46" s="528"/>
+      <c r="E46" s="528"/>
+      <c r="F46" s="528"/>
+      <c r="G46" s="528"/>
+      <c r="H46" s="528"/>
+      <c r="I46" s="528"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="312"/>
@@ -14185,10 +14016,10 @@
         <v>246</v>
       </c>
       <c r="B47" s="313"/>
-      <c r="C47" s="541" t="s">
+      <c r="C47" s="529" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="541"/>
+      <c r="D47" s="529"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -14210,8 +14041,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="312"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="541"/>
-      <c r="D48" s="541"/>
+      <c r="C48" s="529"/>
+      <c r="D48" s="529"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -14229,10 +14060,10 @@
         <v>246</v>
       </c>
       <c r="B49" s="313"/>
-      <c r="C49" s="541" t="s">
+      <c r="C49" s="529" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="541"/>
+      <c r="D49" s="529"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -14254,8 +14085,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="312"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="541"/>
-      <c r="D50" s="541"/>
+      <c r="C50" s="529"/>
+      <c r="D50" s="529"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -14288,8 +14119,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="313"/>
-      <c r="C52" s="541"/>
-      <c r="D52" s="542"/>
+      <c r="C52" s="529"/>
+      <c r="D52" s="527"/>
       <c r="E52" s="312"/>
       <c r="F52" s="133"/>
       <c r="G52" s="312"/>
@@ -14321,16 +14152,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="312"/>
-      <c r="B54" s="545" t="s">
+      <c r="B54" s="528" t="s">
         <v>284</v>
       </c>
-      <c r="C54" s="545"/>
-      <c r="D54" s="545"/>
-      <c r="E54" s="545"/>
-      <c r="F54" s="545"/>
-      <c r="G54" s="545"/>
-      <c r="H54" s="545"/>
-      <c r="I54" s="545"/>
+      <c r="C54" s="528"/>
+      <c r="D54" s="528"/>
+      <c r="E54" s="528"/>
+      <c r="F54" s="528"/>
+      <c r="G54" s="528"/>
+      <c r="H54" s="528"/>
+      <c r="I54" s="528"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="312"/>
@@ -14341,10 +14172,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="312"/>
       <c r="B55" s="313"/>
-      <c r="C55" s="541" t="s">
+      <c r="C55" s="529" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="542"/>
+      <c r="D55" s="527"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -14364,10 +14195,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="312"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="541" t="s">
+      <c r="C56" s="529" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="541"/>
+      <c r="D56" s="529"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -14403,16 +14234,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
-      <c r="B58" s="545" t="s">
+      <c r="B58" s="528" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="545"/>
-      <c r="D58" s="545"/>
-      <c r="E58" s="545"/>
-      <c r="F58" s="545"/>
-      <c r="G58" s="545"/>
-      <c r="H58" s="545"/>
-      <c r="I58" s="545"/>
+      <c r="C58" s="528"/>
+      <c r="D58" s="528"/>
+      <c r="E58" s="528"/>
+      <c r="F58" s="528"/>
+      <c r="G58" s="528"/>
+      <c r="H58" s="528"/>
+      <c r="I58" s="528"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="312"/>
@@ -14425,10 +14256,10 @@
       <c r="B59" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="541" t="s">
+      <c r="C59" s="529" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="541"/>
+      <c r="D59" s="529"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -14448,10 +14279,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="311"/>
       <c r="B60" s="311"/>
-      <c r="C60" s="542" t="s">
+      <c r="C60" s="527" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="542"/>
+      <c r="D60" s="527"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -14471,10 +14302,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="311"/>
       <c r="B61" s="311"/>
-      <c r="C61" s="542" t="s">
+      <c r="C61" s="527" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="542"/>
+      <c r="D61" s="527"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -14515,10 +14346,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="311"/>
       <c r="B63" s="311"/>
-      <c r="C63" s="542" t="s">
+      <c r="C63" s="527" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="542"/>
+      <c r="D63" s="527"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -14647,10 +14478,10 @@
       <c r="B68" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="541" t="s">
+      <c r="C68" s="529" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="541"/>
+      <c r="D68" s="529"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -14732,16 +14563,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="312"/>
-      <c r="B71" s="545" t="s">
+      <c r="B71" s="528" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="545"/>
-      <c r="D71" s="545"/>
-      <c r="E71" s="545"/>
-      <c r="F71" s="545"/>
-      <c r="G71" s="545"/>
-      <c r="H71" s="545"/>
-      <c r="I71" s="545"/>
+      <c r="C71" s="528"/>
+      <c r="D71" s="528"/>
+      <c r="E71" s="528"/>
+      <c r="F71" s="528"/>
+      <c r="G71" s="528"/>
+      <c r="H71" s="528"/>
+      <c r="I71" s="528"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="312"/>
@@ -14757,10 +14588,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="312"/>
       <c r="B72" s="312"/>
-      <c r="C72" s="542" t="s">
+      <c r="C72" s="527" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="542"/>
+      <c r="D72" s="527"/>
       <c r="E72" s="312">
         <v>20</v>
       </c>
@@ -14787,10 +14618,10 @@
       <c r="B73" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="542" t="s">
+      <c r="C73" s="527" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="542"/>
+      <c r="D73" s="527"/>
       <c r="E73" s="312">
         <v>16</v>
       </c>
@@ -14884,16 +14715,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="312"/>
-      <c r="B77" s="545" t="s">
+      <c r="B77" s="528" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="545"/>
-      <c r="D77" s="545"/>
-      <c r="E77" s="545"/>
-      <c r="F77" s="545"/>
-      <c r="G77" s="545"/>
-      <c r="H77" s="545"/>
-      <c r="I77" s="545"/>
+      <c r="C77" s="528"/>
+      <c r="D77" s="528"/>
+      <c r="E77" s="528"/>
+      <c r="F77" s="528"/>
+      <c r="G77" s="528"/>
+      <c r="H77" s="528"/>
+      <c r="I77" s="528"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="312"/>
@@ -14909,15 +14740,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="312"/>
       <c r="B78" s="312"/>
-      <c r="C78" s="541" t="s">
+      <c r="C78" s="529" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="541"/>
-      <c r="E78" s="541"/>
-      <c r="F78" s="541"/>
-      <c r="G78" s="541"/>
-      <c r="H78" s="541"/>
-      <c r="I78" s="541"/>
+      <c r="D78" s="529"/>
+      <c r="E78" s="529"/>
+      <c r="F78" s="529"/>
+      <c r="G78" s="529"/>
+      <c r="H78" s="529"/>
+      <c r="I78" s="529"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="312"/>
@@ -14933,13 +14764,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="312"/>
       <c r="B79" s="312"/>
-      <c r="C79" s="550"/>
-      <c r="D79" s="550"/>
-      <c r="E79" s="550"/>
-      <c r="F79" s="550"/>
-      <c r="G79" s="550"/>
-      <c r="H79" s="550"/>
-      <c r="I79" s="550"/>
+      <c r="C79" s="530"/>
+      <c r="D79" s="530"/>
+      <c r="E79" s="530"/>
+      <c r="F79" s="530"/>
+      <c r="G79" s="530"/>
+      <c r="H79" s="530"/>
+      <c r="I79" s="530"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="312"/>
@@ -14979,10 +14810,10 @@
         <v>309</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="551" t="s">
+      <c r="C81" s="531" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="551"/>
+      <c r="D81" s="531"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -15021,57 +14852,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15098,14 +14929,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="552" t="s">
+      <c r="A1" s="571" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="554"/>
+      <c r="B1" s="572"/>
+      <c r="C1" s="572"/>
+      <c r="D1" s="572"/>
+      <c r="E1" s="572"/>
+      <c r="F1" s="573"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15118,11 +14949,11 @@
       <c r="C2" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="483" t="s">
+      <c r="D2" s="509" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="483"/>
-      <c r="F2" s="483"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15137,11 +14968,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="555" t="s">
+      <c r="D3" s="574" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="556"/>
-      <c r="F3" s="557"/>
+      <c r="E3" s="575"/>
+      <c r="F3" s="576"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15156,11 +14987,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="558" t="s">
+      <c r="D4" s="560" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="559"/>
-      <c r="F4" s="560"/>
+      <c r="E4" s="561"/>
+      <c r="F4" s="562"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15175,9 +15006,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="558"/>
-      <c r="E5" s="559"/>
-      <c r="F5" s="560"/>
+      <c r="D5" s="560"/>
+      <c r="E5" s="561"/>
+      <c r="F5" s="562"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15192,9 +15023,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="558"/>
-      <c r="E6" s="559"/>
-      <c r="F6" s="560"/>
+      <c r="D6" s="560"/>
+      <c r="E6" s="561"/>
+      <c r="F6" s="562"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15209,78 +15040,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="558"/>
-      <c r="E7" s="559"/>
-      <c r="F7" s="560"/>
+      <c r="D7" s="560"/>
+      <c r="E7" s="561"/>
+      <c r="F7" s="562"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="561" t="s">
+      <c r="A8" s="563" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="563">
+      <c r="B8" s="565">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="563">
+      <c r="C8" s="565">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="558"/>
-      <c r="E8" s="559"/>
-      <c r="F8" s="560"/>
+      <c r="D8" s="560"/>
+      <c r="E8" s="561"/>
+      <c r="F8" s="562"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="562"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="565"/>
-      <c r="D9" s="566"/>
-      <c r="E9" s="567"/>
-      <c r="F9" s="568"/>
+      <c r="A9" s="564"/>
+      <c r="B9" s="566"/>
+      <c r="C9" s="567"/>
+      <c r="D9" s="568"/>
+      <c r="E9" s="569"/>
+      <c r="F9" s="570"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="569" t="s">
+      <c r="A10" s="552" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="570"/>
-      <c r="C10" s="570"/>
-      <c r="D10" s="570"/>
-      <c r="E10" s="571"/>
-      <c r="F10" s="570"/>
+      <c r="B10" s="553"/>
+      <c r="C10" s="553"/>
+      <c r="D10" s="553"/>
+      <c r="E10" s="554"/>
+      <c r="F10" s="553"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="572" t="s">
+      <c r="A11" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="509" t="s">
+      <c r="B11" s="486" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="395" t="s">
+      <c r="C11" s="387" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="397"/>
-      <c r="E11" s="573" t="s">
+      <c r="D11" s="389"/>
+      <c r="E11" s="556" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="575" t="s">
+      <c r="F11" s="558" t="s">
         <v>320</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="572"/>
-      <c r="B12" s="509"/>
+      <c r="A12" s="555"/>
+      <c r="B12" s="486"/>
       <c r="C12" s="302" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="574"/>
-      <c r="F12" s="576"/>
+      <c r="E12" s="557"/>
+      <c r="F12" s="559"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16608,12 +16439,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16621,11 +16451,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16635,8 +16466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE3776-34F1-4EC7-90B7-5F4D31BD4230}">
   <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16697,15 +16528,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="429" t="s">
+      <c r="B2" s="424" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="431"/>
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="426"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -16741,15 +16572,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="426" t="s">
+      <c r="B3" s="421" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427"/>
-      <c r="H3" s="428"/>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="422"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="423"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -16788,10 +16619,10 @@
       <c r="B4" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="418" t="s">
+      <c r="C4" s="433" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="419"/>
+      <c r="D4" s="434"/>
       <c r="E4" s="225" t="s">
         <v>78</v>
       </c>
@@ -16839,7 +16670,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="418" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -16891,7 +16722,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="425"/>
+      <c r="B6" s="418"/>
       <c r="C6" s="269" t="s">
         <v>375</v>
       </c>
@@ -16941,13 +16772,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="422"/>
-      <c r="C7" s="423"/>
-      <c r="D7" s="423"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="423"/>
-      <c r="G7" s="423"/>
-      <c r="H7" s="424"/>
+      <c r="B7" s="430"/>
+      <c r="C7" s="431"/>
+      <c r="D7" s="431"/>
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="432"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -16983,7 +16814,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="425" t="s">
+      <c r="B8" s="418" t="s">
         <v>373</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -17035,7 +16866,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="425"/>
+      <c r="B9" s="418"/>
       <c r="C9" s="269" t="s">
         <v>375</v>
       </c>
@@ -17085,13 +16916,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="422"/>
-      <c r="C10" s="423"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="423"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="423"/>
-      <c r="H10" s="424"/>
+      <c r="B10" s="430"/>
+      <c r="C10" s="431"/>
+      <c r="D10" s="431"/>
+      <c r="E10" s="431"/>
+      <c r="F10" s="431"/>
+      <c r="G10" s="431"/>
+      <c r="H10" s="432"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -17127,7 +16958,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
-      <c r="B11" s="420" t="s">
+      <c r="B11" s="419" t="s">
         <v>388</v>
       </c>
       <c r="C11" s="269" t="s">
@@ -17179,7 +17010,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
-      <c r="B12" s="421"/>
+      <c r="B12" s="420"/>
       <c r="C12" s="269" t="s">
         <v>375</v>
       </c>
@@ -17229,13 +17060,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="342"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="423"/>
-      <c r="D13" s="423"/>
-      <c r="E13" s="423"/>
-      <c r="F13" s="423"/>
-      <c r="G13" s="423"/>
-      <c r="H13" s="424"/>
+      <c r="B13" s="430"/>
+      <c r="C13" s="431"/>
+      <c r="D13" s="431"/>
+      <c r="E13" s="431"/>
+      <c r="F13" s="431"/>
+      <c r="G13" s="431"/>
+      <c r="H13" s="432"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -17271,7 +17102,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="342"/>
-      <c r="B14" s="420" t="s">
+      <c r="B14" s="419" t="s">
         <v>443</v>
       </c>
       <c r="C14" s="269" t="s">
@@ -17323,7 +17154,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="342"/>
-      <c r="B15" s="421"/>
+      <c r="B15" s="420"/>
       <c r="C15" s="269" t="s">
         <v>375</v>
       </c>
@@ -17373,13 +17204,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="342"/>
-      <c r="B16" s="422"/>
-      <c r="C16" s="423"/>
-      <c r="D16" s="423"/>
-      <c r="E16" s="423"/>
-      <c r="F16" s="423"/>
-      <c r="G16" s="423"/>
-      <c r="H16" s="424"/>
+      <c r="B16" s="430"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="431"/>
+      <c r="G16" s="431"/>
+      <c r="H16" s="432"/>
       <c r="I16" s="223"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -17415,7 +17246,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="420" t="s">
+      <c r="B17" s="419" t="s">
         <v>500</v>
       </c>
       <c r="C17" s="269" t="s">
@@ -17467,7 +17298,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="421"/>
+      <c r="B18" s="420"/>
       <c r="C18" s="269" t="s">
         <v>375</v>
       </c>
@@ -17517,13 +17348,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="422"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="423"/>
-      <c r="E19" s="423"/>
-      <c r="F19" s="423"/>
-      <c r="G19" s="423"/>
-      <c r="H19" s="424"/>
+      <c r="B19" s="430"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="431"/>
+      <c r="F19" s="431"/>
+      <c r="G19" s="431"/>
+      <c r="H19" s="432"/>
       <c r="I19" s="223"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -17559,7 +17390,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="420" t="s">
+      <c r="B20" s="419" t="s">
         <v>495</v>
       </c>
       <c r="C20" s="269" t="s">
@@ -17611,7 +17442,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="421"/>
+      <c r="B21" s="420"/>
       <c r="C21" s="269" t="s">
         <v>375</v>
       </c>
@@ -17661,13 +17492,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="422"/>
-      <c r="C22" s="423"/>
-      <c r="D22" s="423"/>
-      <c r="E22" s="423"/>
-      <c r="F22" s="423"/>
-      <c r="G22" s="423"/>
-      <c r="H22" s="424"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="431"/>
+      <c r="D22" s="431"/>
+      <c r="E22" s="431"/>
+      <c r="F22" s="431"/>
+      <c r="G22" s="431"/>
+      <c r="H22" s="432"/>
       <c r="I22" s="223"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -17703,7 +17534,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="420" t="s">
+      <c r="B23" s="419" t="s">
         <v>496</v>
       </c>
       <c r="C23" s="269" t="s">
@@ -17712,9 +17543,13 @@
       <c r="D23" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="338"/>
+      <c r="E23" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="F23" s="230"/>
-      <c r="G23" s="338"/>
+      <c r="G23" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="H23" s="184"/>
       <c r="I23" s="223"/>
       <c r="J23" s="29"/>
@@ -17751,16 +17586,20 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="421"/>
+      <c r="B24" s="420"/>
       <c r="C24" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D24" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="338"/>
+      <c r="E24" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="F24" s="184"/>
-      <c r="G24" s="338"/>
+      <c r="G24" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="H24" s="184"/>
       <c r="I24" s="223"/>
       <c r="J24" s="29"/>
@@ -17797,13 +17636,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="422"/>
-      <c r="C25" s="423"/>
-      <c r="D25" s="423"/>
-      <c r="E25" s="423"/>
-      <c r="F25" s="423"/>
-      <c r="G25" s="423"/>
-      <c r="H25" s="424"/>
+      <c r="B25" s="430"/>
+      <c r="C25" s="431"/>
+      <c r="D25" s="431"/>
+      <c r="E25" s="431"/>
+      <c r="F25" s="431"/>
+      <c r="G25" s="431"/>
+      <c r="H25" s="432"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -17839,7 +17678,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="420" t="s">
+      <c r="B26" s="419" t="s">
         <v>497</v>
       </c>
       <c r="C26" s="269" t="s">
@@ -17848,9 +17687,13 @@
       <c r="D26" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="338"/>
+      <c r="E26" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="F26" s="230"/>
-      <c r="G26" s="338"/>
+      <c r="G26" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="H26" s="184"/>
       <c r="I26" s="223"/>
       <c r="J26" s="29"/>
@@ -17887,16 +17730,20 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="421"/>
+      <c r="B27" s="420"/>
       <c r="C27" s="269" t="s">
         <v>375</v>
       </c>
       <c r="D27" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="338"/>
+      <c r="E27" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="F27" s="184"/>
-      <c r="G27" s="338"/>
+      <c r="G27" s="193" t="s">
+        <v>509</v>
+      </c>
       <c r="H27" s="184"/>
       <c r="I27" s="223"/>
       <c r="J27" s="29"/>
@@ -17933,13 +17780,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="422"/>
-      <c r="C28" s="423"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="423"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="423"/>
-      <c r="H28" s="424"/>
+      <c r="B28" s="430"/>
+      <c r="C28" s="431"/>
+      <c r="D28" s="431"/>
+      <c r="E28" s="431"/>
+      <c r="F28" s="431"/>
+      <c r="G28" s="431"/>
+      <c r="H28" s="432"/>
       <c r="I28" s="223"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -17975,7 +17822,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="420" t="s">
+      <c r="B29" s="419" t="s">
         <v>498</v>
       </c>
       <c r="C29" s="269" t="s">
@@ -18023,7 +17870,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="421"/>
+      <c r="B30" s="420"/>
       <c r="C30" s="269" t="s">
         <v>375</v>
       </c>
@@ -18069,13 +17916,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="422"/>
-      <c r="C31" s="423"/>
-      <c r="D31" s="423"/>
-      <c r="E31" s="423"/>
-      <c r="F31" s="423"/>
-      <c r="G31" s="423"/>
-      <c r="H31" s="424"/>
+      <c r="B31" s="430"/>
+      <c r="C31" s="431"/>
+      <c r="D31" s="431"/>
+      <c r="E31" s="431"/>
+      <c r="F31" s="431"/>
+      <c r="G31" s="431"/>
+      <c r="H31" s="432"/>
       <c r="I31" s="223"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -18111,7 +17958,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="420" t="s">
+      <c r="B32" s="419" t="s">
         <v>499</v>
       </c>
       <c r="C32" s="269" t="s">
@@ -18159,7 +18006,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="421"/>
+      <c r="B33" s="420"/>
       <c r="C33" s="269" t="s">
         <v>375</v>
       </c>
@@ -18205,13 +18052,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="422"/>
-      <c r="C34" s="423"/>
-      <c r="D34" s="423"/>
-      <c r="E34" s="423"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="423"/>
-      <c r="H34" s="424"/>
+      <c r="B34" s="430"/>
+      <c r="C34" s="431"/>
+      <c r="D34" s="431"/>
+      <c r="E34" s="431"/>
+      <c r="F34" s="431"/>
+      <c r="G34" s="431"/>
+      <c r="H34" s="432"/>
       <c r="I34" s="223"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -18247,15 +18094,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="222"/>
-      <c r="B35" s="426" t="s">
+      <c r="B35" s="421" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="427"/>
-      <c r="D35" s="427"/>
-      <c r="E35" s="427"/>
-      <c r="F35" s="427"/>
-      <c r="G35" s="427"/>
-      <c r="H35" s="428"/>
+      <c r="C35" s="422"/>
+      <c r="D35" s="422"/>
+      <c r="E35" s="422"/>
+      <c r="F35" s="422"/>
+      <c r="G35" s="422"/>
+      <c r="H35" s="423"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -18294,10 +18141,10 @@
       <c r="B36" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="418" t="s">
+      <c r="C36" s="433" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="419"/>
+      <c r="D36" s="434"/>
       <c r="E36" s="225" t="s">
         <v>78</v>
       </c>
@@ -18345,7 +18192,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="224"/>
-      <c r="B37" s="425"/>
+      <c r="B37" s="418"/>
       <c r="C37" s="269" t="s">
         <v>374</v>
       </c>
@@ -18391,7 +18238,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="231"/>
-      <c r="B38" s="425"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="269" t="s">
         <v>375</v>
       </c>
@@ -18437,13 +18284,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="231"/>
-      <c r="B39" s="422"/>
-      <c r="C39" s="423"/>
-      <c r="D39" s="423"/>
-      <c r="E39" s="423"/>
-      <c r="F39" s="423"/>
-      <c r="G39" s="423"/>
-      <c r="H39" s="424"/>
+      <c r="B39" s="430"/>
+      <c r="C39" s="431"/>
+      <c r="D39" s="431"/>
+      <c r="E39" s="431"/>
+      <c r="F39" s="431"/>
+      <c r="G39" s="431"/>
+      <c r="H39" s="432"/>
       <c r="I39" s="223"/>
       <c r="J39" s="29"/>
       <c r="L39" s="29"/>
@@ -18478,7 +18325,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="222"/>
-      <c r="B40" s="425"/>
+      <c r="B40" s="418"/>
       <c r="C40" s="269" t="s">
         <v>374</v>
       </c>
@@ -18524,7 +18371,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="231"/>
-      <c r="B41" s="425"/>
+      <c r="B41" s="418"/>
       <c r="C41" s="269" t="s">
         <v>375</v>
       </c>
@@ -18570,13 +18417,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="222"/>
-      <c r="B42" s="422"/>
-      <c r="C42" s="423"/>
-      <c r="D42" s="423"/>
-      <c r="E42" s="423"/>
-      <c r="F42" s="423"/>
-      <c r="G42" s="423"/>
-      <c r="H42" s="424"/>
+      <c r="B42" s="430"/>
+      <c r="C42" s="431"/>
+      <c r="D42" s="431"/>
+      <c r="E42" s="431"/>
+      <c r="F42" s="431"/>
+      <c r="G42" s="431"/>
+      <c r="H42" s="432"/>
       <c r="I42" s="223"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -18612,7 +18459,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="222"/>
-      <c r="B43" s="425"/>
+      <c r="B43" s="418"/>
       <c r="C43" s="269" t="s">
         <v>374</v>
       </c>
@@ -18658,7 +18505,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="222"/>
-      <c r="B44" s="425"/>
+      <c r="B44" s="418"/>
       <c r="C44" s="269" t="s">
         <v>375</v>
       </c>
@@ -18704,13 +18551,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="222"/>
-      <c r="B45" s="422"/>
-      <c r="C45" s="423"/>
-      <c r="D45" s="423"/>
-      <c r="E45" s="423"/>
-      <c r="F45" s="423"/>
-      <c r="G45" s="423"/>
-      <c r="H45" s="424"/>
+      <c r="B45" s="430"/>
+      <c r="C45" s="431"/>
+      <c r="D45" s="431"/>
+      <c r="E45" s="431"/>
+      <c r="F45" s="431"/>
+      <c r="G45" s="431"/>
+      <c r="H45" s="432"/>
       <c r="I45" s="223"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -18746,15 +18593,15 @@
     </row>
     <row r="46" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="222"/>
-      <c r="B46" s="432" t="s">
+      <c r="B46" s="427" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="433"/>
-      <c r="D46" s="433"/>
-      <c r="E46" s="433"/>
-      <c r="F46" s="433"/>
-      <c r="G46" s="433"/>
-      <c r="H46" s="434"/>
+      <c r="C46" s="428"/>
+      <c r="D46" s="428"/>
+      <c r="E46" s="428"/>
+      <c r="F46" s="428"/>
+      <c r="G46" s="428"/>
+      <c r="H46" s="429"/>
       <c r="I46" s="223"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -18793,10 +18640,10 @@
       <c r="B47" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="418" t="s">
+      <c r="C47" s="433" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="419"/>
+      <c r="D47" s="434"/>
       <c r="E47" s="225" t="s">
         <v>78</v>
       </c>
@@ -18844,7 +18691,7 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="224"/>
-      <c r="B48" s="425"/>
+      <c r="B48" s="418"/>
       <c r="C48" s="269" t="s">
         <v>374</v>
       </c>
@@ -18890,7 +18737,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="231"/>
-      <c r="B49" s="425"/>
+      <c r="B49" s="418"/>
       <c r="C49" s="269" t="s">
         <v>375</v>
       </c>
@@ -18936,13 +18783,13 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="231"/>
-      <c r="B50" s="422"/>
-      <c r="C50" s="423"/>
-      <c r="D50" s="423"/>
-      <c r="E50" s="423"/>
-      <c r="F50" s="423"/>
-      <c r="G50" s="423"/>
-      <c r="H50" s="424"/>
+      <c r="B50" s="430"/>
+      <c r="C50" s="431"/>
+      <c r="D50" s="431"/>
+      <c r="E50" s="431"/>
+      <c r="F50" s="431"/>
+      <c r="G50" s="431"/>
+      <c r="H50" s="432"/>
       <c r="I50" s="223"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -18978,7 +18825,7 @@
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="222"/>
-      <c r="B51" s="425"/>
+      <c r="B51" s="418"/>
       <c r="C51" s="269" t="s">
         <v>374</v>
       </c>
@@ -19024,7 +18871,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="231"/>
-      <c r="B52" s="425"/>
+      <c r="B52" s="418"/>
       <c r="C52" s="269" t="s">
         <v>375</v>
       </c>
@@ -19070,13 +18917,13 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="222"/>
-      <c r="B53" s="422"/>
-      <c r="C53" s="423"/>
-      <c r="D53" s="423"/>
-      <c r="E53" s="423"/>
-      <c r="F53" s="423"/>
-      <c r="G53" s="423"/>
-      <c r="H53" s="424"/>
+      <c r="B53" s="430"/>
+      <c r="C53" s="431"/>
+      <c r="D53" s="431"/>
+      <c r="E53" s="431"/>
+      <c r="F53" s="431"/>
+      <c r="G53" s="431"/>
+      <c r="H53" s="432"/>
       <c r="I53" s="223"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -19112,7 +18959,7 @@
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="222"/>
-      <c r="B54" s="425"/>
+      <c r="B54" s="418"/>
       <c r="C54" s="269" t="s">
         <v>374</v>
       </c>
@@ -19158,7 +19005,7 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="222"/>
-      <c r="B55" s="425"/>
+      <c r="B55" s="418"/>
       <c r="C55" s="269" t="s">
         <v>375</v>
       </c>
@@ -19204,13 +19051,13 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="222"/>
-      <c r="B56" s="422"/>
-      <c r="C56" s="423"/>
-      <c r="D56" s="423"/>
-      <c r="E56" s="423"/>
-      <c r="F56" s="423"/>
-      <c r="G56" s="423"/>
-      <c r="H56" s="424"/>
+      <c r="B56" s="430"/>
+      <c r="C56" s="431"/>
+      <c r="D56" s="431"/>
+      <c r="E56" s="431"/>
+      <c r="F56" s="431"/>
+      <c r="G56" s="431"/>
+      <c r="H56" s="432"/>
       <c r="I56" s="223"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -20467,11 +20314,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B53:H53"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B7:H7"/>
@@ -20486,26 +20346,13 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B53:H53"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20515,8 +20362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20536,10 +20383,10 @@
       <c r="B1" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="443" t="s">
+      <c r="C1" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="444"/>
+      <c r="D1" s="445"/>
       <c r="E1" s="341" t="s">
         <v>97</v>
       </c>
@@ -20554,10 +20401,10 @@
       <c r="B2" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="445" t="s">
+      <c r="C2" s="437" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="445"/>
+      <c r="D2" s="437"/>
       <c r="E2" s="345"/>
       <c r="F2" s="345"/>
     </row>
@@ -20582,10 +20429,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="346"/>
-      <c r="C4" s="447" t="s">
+      <c r="C4" s="443" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="447"/>
+      <c r="D4" s="443"/>
       <c r="E4" s="347" t="s">
         <v>135</v>
       </c>
@@ -20600,10 +20447,10 @@
       <c r="B5" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="439" t="s">
+      <c r="C5" s="447" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="439"/>
+      <c r="D5" s="447"/>
       <c r="E5" s="345"/>
       <c r="F5" s="345"/>
     </row>
@@ -20641,10 +20488,10 @@
       <c r="A8" s="351" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="447" t="s">
+      <c r="C8" s="443" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="447"/>
+      <c r="D8" s="443"/>
       <c r="E8" s="347" t="s">
         <v>135</v>
       </c>
@@ -20674,10 +20521,10 @@
       <c r="B10" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="445" t="s">
+      <c r="C10" s="437" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="445"/>
+      <c r="D10" s="437"/>
       <c r="E10" s="345"/>
       <c r="F10" s="345"/>
     </row>
@@ -20868,10 +20715,10 @@
       <c r="B23" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="436" t="s">
+      <c r="C23" s="442" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="436"/>
+      <c r="D23" s="442"/>
       <c r="E23" s="345"/>
       <c r="F23" s="345"/>
     </row>
@@ -20879,10 +20726,10 @@
       <c r="A24" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="442" t="s">
+      <c r="C24" s="436" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="442"/>
+      <c r="D24" s="436"/>
       <c r="E24" s="347" t="s">
         <v>135</v>
       </c>
@@ -20894,10 +20741,10 @@
       <c r="A25" s="351" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="442" t="s">
+      <c r="C25" s="436" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="442"/>
+      <c r="D25" s="436"/>
       <c r="E25" s="347" t="s">
         <v>135</v>
       </c>
@@ -20909,10 +20756,10 @@
       <c r="A26" s="351" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="442" t="s">
+      <c r="C26" s="436" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="442"/>
+      <c r="D26" s="436"/>
       <c r="E26" s="310" t="s">
         <v>400</v>
       </c>
@@ -20924,10 +20771,10 @@
       <c r="A27" s="351" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="441" t="s">
+      <c r="C27" s="435" t="s">
         <v>454</v>
       </c>
-      <c r="D27" s="441"/>
+      <c r="D27" s="435"/>
       <c r="E27" s="310" t="s">
         <v>400</v>
       </c>
@@ -20939,10 +20786,10 @@
       <c r="A28" s="351" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="442" t="s">
+      <c r="C28" s="436" t="s">
         <v>453</v>
       </c>
-      <c r="D28" s="442"/>
+      <c r="D28" s="436"/>
       <c r="E28" s="310" t="s">
         <v>400</v>
       </c>
@@ -20954,10 +20801,10 @@
       <c r="A29" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="C29" s="442" t="s">
+      <c r="C29" s="436" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="442"/>
+      <c r="D29" s="436"/>
       <c r="E29" s="310" t="s">
         <v>400</v>
       </c>
@@ -20969,10 +20816,10 @@
       <c r="A30" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="C30" s="441" t="s">
+      <c r="C30" s="435" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="441"/>
+      <c r="D30" s="435"/>
       <c r="E30" s="310" t="s">
         <v>400</v>
       </c>
@@ -20984,10 +20831,10 @@
       <c r="A31" s="351" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="441" t="s">
+      <c r="C31" s="435" t="s">
         <v>459</v>
       </c>
-      <c r="D31" s="441"/>
+      <c r="D31" s="435"/>
       <c r="E31" s="310" t="s">
         <v>400</v>
       </c>
@@ -20999,10 +20846,10 @@
       <c r="A32" s="351" t="s">
         <v>460</v>
       </c>
-      <c r="C32" s="441" t="s">
+      <c r="C32" s="435" t="s">
         <v>470</v>
       </c>
-      <c r="D32" s="441"/>
+      <c r="D32" s="435"/>
       <c r="E32" s="310" t="s">
         <v>400</v>
       </c>
@@ -21014,10 +20861,10 @@
       <c r="A33" s="351" t="s">
         <v>465</v>
       </c>
-      <c r="C33" s="442" t="s">
+      <c r="C33" s="436" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="442"/>
+      <c r="D33" s="436"/>
       <c r="E33" s="310" t="s">
         <v>400</v>
       </c>
@@ -21029,10 +20876,10 @@
       <c r="A34" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="C34" s="441" t="s">
+      <c r="C34" s="435" t="s">
         <v>463</v>
       </c>
-      <c r="D34" s="441"/>
+      <c r="D34" s="435"/>
       <c r="E34" s="310" t="s">
         <v>400</v>
       </c>
@@ -21044,10 +20891,10 @@
       <c r="A35" s="351" t="s">
         <v>472</v>
       </c>
-      <c r="C35" s="441" t="s">
+      <c r="C35" s="435" t="s">
         <v>464</v>
       </c>
-      <c r="D35" s="441"/>
+      <c r="D35" s="435"/>
       <c r="E35" s="310" t="s">
         <v>400</v>
       </c>
@@ -21059,10 +20906,10 @@
       <c r="A36" s="351" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="441" t="s">
+      <c r="C36" s="435" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="441"/>
+      <c r="D36" s="435"/>
       <c r="E36" s="347" t="s">
         <v>135</v>
       </c>
@@ -21074,10 +20921,10 @@
       <c r="A37" s="351" t="s">
         <v>474</v>
       </c>
-      <c r="C37" s="441" t="s">
+      <c r="C37" s="435" t="s">
         <v>466</v>
       </c>
-      <c r="D37" s="441"/>
+      <c r="D37" s="435"/>
       <c r="E37" s="310" t="s">
         <v>400</v>
       </c>
@@ -21089,10 +20936,10 @@
       <c r="A38" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="C38" s="441" t="s">
+      <c r="C38" s="435" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="441"/>
+      <c r="D38" s="435"/>
       <c r="E38" s="310" t="s">
         <v>400</v>
       </c>
@@ -21101,36 +20948,36 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="441"/>
-      <c r="D39" s="441"/>
+      <c r="C39" s="435"/>
+      <c r="D39" s="435"/>
       <c r="E39" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="441"/>
-      <c r="D40" s="441"/>
+      <c r="C40" s="435"/>
+      <c r="D40" s="435"/>
       <c r="E40" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="441"/>
-      <c r="D41" s="441"/>
+      <c r="C41" s="435"/>
+      <c r="D41" s="435"/>
       <c r="E41" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="441"/>
-      <c r="D42" s="441"/>
+      <c r="C42" s="435"/>
+      <c r="D42" s="435"/>
       <c r="E42" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="441"/>
-      <c r="D43" s="441"/>
+      <c r="C43" s="435"/>
+      <c r="D43" s="435"/>
       <c r="E43" s="310" t="s">
         <v>400</v>
       </c>
@@ -21142,10 +20989,10 @@
       <c r="B44" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="436" t="s">
+      <c r="C44" s="442" t="s">
         <v>411</v>
       </c>
-      <c r="D44" s="436"/>
+      <c r="D44" s="442"/>
       <c r="E44" s="345"/>
       <c r="F44" s="345"/>
     </row>
@@ -21153,10 +21000,10 @@
       <c r="A45" s="351" t="s">
         <v>481</v>
       </c>
-      <c r="C45" s="442" t="s">
+      <c r="C45" s="436" t="s">
         <v>476</v>
       </c>
-      <c r="D45" s="442"/>
+      <c r="D45" s="436"/>
       <c r="E45" s="310" t="s">
         <v>400</v>
       </c>
@@ -21165,10 +21012,10 @@
       <c r="A46" s="351" t="s">
         <v>482</v>
       </c>
-      <c r="C46" s="442" t="s">
+      <c r="C46" s="436" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="442"/>
+      <c r="D46" s="436"/>
       <c r="E46" s="310" t="s">
         <v>400</v>
       </c>
@@ -21177,10 +21024,10 @@
       <c r="A47" s="351" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="442" t="s">
+      <c r="C47" s="436" t="s">
         <v>478</v>
       </c>
-      <c r="D47" s="442"/>
+      <c r="D47" s="436"/>
       <c r="E47" s="310" t="s">
         <v>400</v>
       </c>
@@ -21189,10 +21036,10 @@
       <c r="A48" s="351" t="s">
         <v>484</v>
       </c>
-      <c r="C48" s="441" t="s">
+      <c r="C48" s="435" t="s">
         <v>479</v>
       </c>
-      <c r="D48" s="441"/>
+      <c r="D48" s="435"/>
       <c r="E48" s="310" t="s">
         <v>400</v>
       </c>
@@ -21201,52 +21048,52 @@
       <c r="A49" s="351" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="441" t="s">
+      <c r="C49" s="435" t="s">
         <v>480</v>
       </c>
-      <c r="D49" s="441"/>
+      <c r="D49" s="435"/>
       <c r="E49" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="441"/>
-      <c r="D50" s="441"/>
+      <c r="C50" s="435"/>
+      <c r="D50" s="435"/>
       <c r="E50" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="441"/>
-      <c r="D51" s="441"/>
+      <c r="C51" s="435"/>
+      <c r="D51" s="435"/>
       <c r="E51" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="441"/>
-      <c r="D52" s="441"/>
+      <c r="C52" s="435"/>
+      <c r="D52" s="435"/>
       <c r="E52" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="441"/>
-      <c r="D53" s="441"/>
+      <c r="C53" s="435"/>
+      <c r="D53" s="435"/>
       <c r="E53" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="441"/>
-      <c r="D54" s="441"/>
+      <c r="C54" s="435"/>
+      <c r="D54" s="435"/>
       <c r="E54" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="441"/>
-      <c r="D55" s="441"/>
+      <c r="C55" s="435"/>
+      <c r="D55" s="435"/>
       <c r="E55" s="310" t="s">
         <v>400</v>
       </c>
@@ -21258,26 +21105,26 @@
       <c r="B56" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C56" s="437" t="s">
+      <c r="C56" s="448" t="s">
         <v>412</v>
       </c>
-      <c r="D56" s="437"/>
+      <c r="D56" s="448"/>
       <c r="E56" s="345"/>
       <c r="F56" s="345"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="448"/>
-      <c r="D57" s="448"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="439"/>
       <c r="E57" s="345"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="448"/>
-      <c r="D58" s="448"/>
+      <c r="C58" s="439"/>
+      <c r="D58" s="439"/>
       <c r="E58" s="345"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="448"/>
-      <c r="D59" s="448"/>
+      <c r="C59" s="439"/>
+      <c r="D59" s="439"/>
       <c r="E59" s="345"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -21287,26 +21134,26 @@
       <c r="B60" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C60" s="436" t="s">
+      <c r="C60" s="442" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="436"/>
+      <c r="D60" s="442"/>
       <c r="E60" s="345"/>
       <c r="F60" s="345"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="448"/>
-      <c r="D61" s="448"/>
+      <c r="C61" s="439"/>
+      <c r="D61" s="439"/>
       <c r="E61" s="345"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="448"/>
-      <c r="D62" s="448"/>
+      <c r="C62" s="439"/>
+      <c r="D62" s="439"/>
       <c r="E62" s="345"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="448"/>
-      <c r="D63" s="448"/>
+      <c r="C63" s="439"/>
+      <c r="D63" s="439"/>
       <c r="E63" s="345"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -21316,26 +21163,26 @@
       <c r="B64" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C64" s="436" t="s">
+      <c r="C64" s="442" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="436"/>
+      <c r="D64" s="442"/>
       <c r="E64" s="345"/>
       <c r="F64" s="345"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="448"/>
-      <c r="D65" s="448"/>
+      <c r="C65" s="439"/>
+      <c r="D65" s="439"/>
       <c r="E65" s="345"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="448"/>
-      <c r="D66" s="448"/>
+      <c r="C66" s="439"/>
+      <c r="D66" s="439"/>
       <c r="E66" s="345"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="448"/>
-      <c r="D67" s="448"/>
+      <c r="C67" s="439"/>
+      <c r="D67" s="439"/>
       <c r="E67" s="345"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -21345,63 +21192,63 @@
       <c r="B68" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="436" t="s">
+      <c r="C68" s="442" t="s">
         <v>417</v>
       </c>
-      <c r="D68" s="436"/>
+      <c r="D68" s="442"/>
       <c r="E68" s="345"/>
       <c r="F68" s="345"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="448"/>
-      <c r="D69" s="448"/>
+      <c r="C69" s="439"/>
+      <c r="D69" s="439"/>
       <c r="E69" s="345"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="448"/>
-      <c r="D70" s="448"/>
+      <c r="C70" s="439"/>
+      <c r="D70" s="439"/>
       <c r="E70" s="345"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="448"/>
-      <c r="D71" s="448"/>
+      <c r="C71" s="439"/>
+      <c r="D71" s="439"/>
       <c r="E71" s="345"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="450">
+      <c r="A72" s="441">
         <v>10</v>
       </c>
-      <c r="B72" s="449" t="s">
+      <c r="B72" s="440" t="s">
         <v>413</v>
       </c>
-      <c r="C72" s="437" t="s">
+      <c r="C72" s="448" t="s">
         <v>414</v>
       </c>
-      <c r="D72" s="437"/>
+      <c r="D72" s="448"/>
       <c r="E72" s="345"/>
       <c r="F72" s="345"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="450"/>
-      <c r="B73" s="449"/>
-      <c r="C73" s="437"/>
-      <c r="D73" s="437"/>
+      <c r="A73" s="441"/>
+      <c r="B73" s="440"/>
+      <c r="C73" s="448"/>
+      <c r="D73" s="448"/>
       <c r="E73" s="345"/>
       <c r="F73" s="345"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="448"/>
-      <c r="D74" s="448"/>
+      <c r="C74" s="439"/>
+      <c r="D74" s="439"/>
       <c r="E74" s="345"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="448"/>
-      <c r="D75" s="448"/>
+      <c r="C75" s="439"/>
+      <c r="D75" s="439"/>
       <c r="E75" s="345"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="448"/>
-      <c r="D76" s="448"/>
+      <c r="C76" s="439"/>
+      <c r="D76" s="439"/>
       <c r="E76" s="345"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -21411,26 +21258,26 @@
       <c r="B77" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="437" t="s">
+      <c r="C77" s="448" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="437"/>
+      <c r="D77" s="448"/>
       <c r="E77" s="345"/>
       <c r="F77" s="345"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="448"/>
-      <c r="D78" s="448"/>
+      <c r="C78" s="439"/>
+      <c r="D78" s="439"/>
       <c r="E78" s="345"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="448"/>
-      <c r="D79" s="448"/>
+      <c r="C79" s="439"/>
+      <c r="D79" s="439"/>
       <c r="E79" s="345"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="448"/>
-      <c r="D80" s="448"/>
+      <c r="C80" s="439"/>
+      <c r="D80" s="439"/>
       <c r="E80" s="345"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21440,10 +21287,10 @@
       <c r="B81" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="439" t="s">
+      <c r="C81" s="447" t="s">
         <v>421</v>
       </c>
-      <c r="D81" s="439"/>
+      <c r="D81" s="447"/>
       <c r="E81" s="348"/>
       <c r="F81" s="345"/>
     </row>
@@ -21484,10 +21331,10 @@
       <c r="B84" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C84" s="445" t="s">
+      <c r="C84" s="437" t="s">
         <v>501</v>
       </c>
-      <c r="D84" s="445"/>
+      <c r="D84" s="437"/>
       <c r="E84" s="348"/>
       <c r="F84" s="345"/>
     </row>
@@ -21511,95 +21358,23 @@
       <c r="D86" s="438"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="440"/>
-      <c r="D91" s="440"/>
+      <c r="C91" s="450"/>
+      <c r="D91" s="450"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="435"/>
-      <c r="D92" s="435"/>
+      <c r="C92" s="449"/>
+      <c r="D92" s="449"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="435"/>
-      <c r="D93" s="435"/>
+      <c r="C93" s="449"/>
+      <c r="D93" s="449"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="435"/>
-      <c r="D94" s="435"/>
+      <c r="C94" s="449"/>
+      <c r="D94" s="449"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C72:D73"/>
@@ -21616,312 +21391,384 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="288" priority="138" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="266" priority="138" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="139" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="265" priority="139" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="140" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="264" priority="140" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E3)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="285" priority="141">
+    <cfRule type="containsBlanks" dxfId="263" priority="141">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="284" priority="133" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="262" priority="133" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="134" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="261" priority="134" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="135" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="260" priority="135" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E4)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="281" priority="136">
+    <cfRule type="containsBlanks" dxfId="259" priority="136">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8">
-    <cfRule type="containsText" dxfId="280" priority="118" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="258" priority="118" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="119" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="257" priority="119" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="120" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="256" priority="120" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E6)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="277" priority="121">
+    <cfRule type="containsBlanks" dxfId="255" priority="121">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="272" priority="106" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="254" priority="106" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="107" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="253" priority="107" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="108" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="252" priority="108" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E12)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="269" priority="109">
+    <cfRule type="containsBlanks" dxfId="251" priority="109">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="268" priority="102" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="250" priority="102" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="103" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="249" priority="103" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="104" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="248" priority="104" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E13)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="265" priority="105">
+    <cfRule type="containsBlanks" dxfId="247" priority="105">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="264" priority="98" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="246" priority="98" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="99" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="245" priority="99" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="100" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="244" priority="100" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E14)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="261" priority="101">
+    <cfRule type="containsBlanks" dxfId="243" priority="101">
       <formula>LEN(TRIM(E14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="260" priority="94" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="242" priority="94" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="95" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="241" priority="95" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="96" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="240" priority="96" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E16)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="257" priority="97">
+    <cfRule type="containsBlanks" dxfId="239" priority="97">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="containsText" dxfId="256" priority="90" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="238" priority="90" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="91" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="237" priority="91" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="92" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="236" priority="92" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E17)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="253" priority="93">
+    <cfRule type="containsBlanks" dxfId="235" priority="93">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="252" priority="82" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="234" priority="82" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="83" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="233" priority="83" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="84" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="232" priority="84" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E15)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="249" priority="85">
+    <cfRule type="containsBlanks" dxfId="231" priority="85">
       <formula>LEN(TRIM(E15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="248" priority="70" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="230" priority="70" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="71" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="229" priority="71" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="72" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="228" priority="72" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E26)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="245" priority="73">
+    <cfRule type="containsBlanks" dxfId="227" priority="73">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="244" priority="66" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="226" priority="66" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="67" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="225" priority="67" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="68" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="224" priority="68" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E24)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="241" priority="69">
+    <cfRule type="containsBlanks" dxfId="223" priority="69">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsText" dxfId="240" priority="62" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="222" priority="62" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="63" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="221" priority="63" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="64" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="220" priority="64" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E25)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="237" priority="65">
+    <cfRule type="containsBlanks" dxfId="219" priority="65">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E35 E37:E43">
-    <cfRule type="containsText" dxfId="236" priority="42" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="218" priority="42" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="43" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="217" priority="43" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="44" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="216" priority="44" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E27)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="233" priority="45">
+    <cfRule type="containsBlanks" dxfId="215" priority="45">
       <formula>LEN(TRIM(E27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E55">
-    <cfRule type="containsText" dxfId="232" priority="38" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="214" priority="38" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="39" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="213" priority="39" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="40" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="212" priority="40" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E45)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="229" priority="41">
+    <cfRule type="containsBlanks" dxfId="211" priority="41">
       <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="228" priority="34" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="210" priority="34" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="35" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="209" priority="35" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="36" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="208" priority="36" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E7)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="225" priority="37">
+    <cfRule type="containsBlanks" dxfId="207" priority="37">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="containsText" dxfId="224" priority="30" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="206" priority="30" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="31" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="205" priority="31" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="32" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="204" priority="32" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E85)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="221" priority="33">
+    <cfRule type="containsBlanks" dxfId="203" priority="33">
       <formula>LEN(TRIM(E85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="220" priority="26" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="202" priority="26" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="27" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="201" priority="27" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="28" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="200" priority="28" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E11)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="217" priority="29">
+    <cfRule type="containsBlanks" dxfId="199" priority="29">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="containsText" dxfId="216" priority="21" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="198" priority="21" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="22" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="197" priority="22" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="23" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="196" priority="23" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E19)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="213" priority="24">
+    <cfRule type="containsBlanks" dxfId="195" priority="24">
       <formula>LEN(TRIM(E19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="containsText" dxfId="212" priority="16" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="194" priority="16" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="17" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="193" priority="17" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="18" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="192" priority="18" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E83)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="209" priority="19">
+    <cfRule type="containsBlanks" dxfId="191" priority="19">
       <formula>LEN(TRIM(E83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="containsText" dxfId="203" priority="11" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="190" priority="11" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="12" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="189" priority="12" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="13" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="188" priority="13" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E36)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="200" priority="14">
+    <cfRule type="containsBlanks" dxfId="187" priority="14">
       <formula>LEN(TRIM(E36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="containsText" dxfId="198" priority="6" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="7" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="8" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="184" priority="8" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E82)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="195" priority="9">
+    <cfRule type="containsBlanks" dxfId="183" priority="9">
       <formula>LEN(TRIM(E82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="181" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="180" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",E9)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="179" priority="4">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22070,15 +21917,15 @@
       <c r="O1" s="304"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="453" t="s">
+      <c r="C2" s="468"/>
+      <c r="D2" s="469" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="454"/>
-      <c r="F2" s="455"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="J2" s="304"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
@@ -22089,9 +21936,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="458"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="J3" s="304"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
@@ -22102,9 +21949,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="458"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="474"/>
       <c r="J4" s="304"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
@@ -22115,9 +21962,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="458"/>
+      <c r="D5" s="472"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="474"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
@@ -22128,9 +21975,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="459"/>
-      <c r="E6" s="460"/>
-      <c r="F6" s="461"/>
+      <c r="D6" s="475"/>
+      <c r="E6" s="476"/>
+      <c r="F6" s="477"/>
       <c r="J6" s="304"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
@@ -22168,14 +22015,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="462" t="s">
+      <c r="F9" s="445"/>
+      <c r="G9" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="463"/>
+      <c r="H9" s="479"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -22201,12 +22048,12 @@
       <c r="D10" s="353" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="445" t="s">
+      <c r="E10" s="437" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="445"/>
-      <c r="G10" s="464"/>
-      <c r="H10" s="464"/>
+      <c r="F10" s="437"/>
+      <c r="G10" s="455"/>
+      <c r="H10" s="455"/>
       <c r="I10" s="353">
         <v>0</v>
       </c>
@@ -22232,12 +22079,12 @@
       <c r="D11" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="439" t="s">
+      <c r="E11" s="447" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="439"/>
-      <c r="G11" s="464"/>
-      <c r="H11" s="464"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="455"/>
+      <c r="H11" s="455"/>
       <c r="I11" s="353">
         <v>2</v>
       </c>
@@ -22263,12 +22110,12 @@
       <c r="D12" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="445" t="s">
+      <c r="E12" s="437" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="445"/>
-      <c r="G12" s="464"/>
-      <c r="H12" s="464"/>
+      <c r="F12" s="437"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="455"/>
       <c r="I12" s="353">
         <v>20</v>
       </c>
@@ -22294,12 +22141,12 @@
       <c r="D13" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="436" t="s">
+      <c r="E13" s="442" t="s">
         <v>410</v>
       </c>
-      <c r="F13" s="436"/>
-      <c r="G13" s="464"/>
-      <c r="H13" s="464"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="455"/>
+      <c r="H13" s="455"/>
       <c r="I13" s="353">
         <v>40</v>
       </c>
@@ -22325,12 +22172,12 @@
       <c r="D14" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="439" t="s">
+      <c r="E14" s="447" t="s">
         <v>421</v>
       </c>
-      <c r="F14" s="439"/>
-      <c r="G14" s="464"/>
-      <c r="H14" s="464"/>
+      <c r="F14" s="447"/>
+      <c r="G14" s="455"/>
+      <c r="H14" s="455"/>
       <c r="I14" s="353">
         <v>0</v>
       </c>
@@ -22356,12 +22203,12 @@
       <c r="D15" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="445" t="s">
+      <c r="E15" s="437" t="s">
         <v>501</v>
       </c>
-      <c r="F15" s="445"/>
-      <c r="G15" s="464"/>
-      <c r="H15" s="464"/>
+      <c r="F15" s="437"/>
+      <c r="G15" s="455"/>
+      <c r="H15" s="455"/>
       <c r="I15" s="353">
         <v>5</v>
       </c>
@@ -22381,10 +22228,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="474"/>
-      <c r="F16" s="474"/>
-      <c r="G16" s="473"/>
-      <c r="H16" s="473"/>
+      <c r="E16" s="457"/>
+      <c r="F16" s="457"/>
+      <c r="G16" s="456"/>
+      <c r="H16" s="456"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="310" t="e">
@@ -22422,8 +22269,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="470"/>
-      <c r="F18" s="470"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="465"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="173"/>
@@ -22441,11 +22288,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="465" t="s">
+      <c r="C19" s="460" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="466"/>
-      <c r="E19" s="467"/>
+      <c r="D19" s="461"/>
+      <c r="E19" s="462"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="178" t="s">
@@ -22499,10 +22346,10 @@
       <c r="C21" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="468" t="s">
+      <c r="D21" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="469"/>
+      <c r="E21" s="464"/>
       <c r="F21" s="172" t="s">
         <v>97</v>
       </c>
@@ -22552,10 +22399,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="358"/>
-      <c r="D22" s="471" t="s">
+      <c r="D22" s="466" t="s">
         <v>378</v>
       </c>
-      <c r="E22" s="471"/>
+      <c r="E22" s="466"/>
       <c r="F22" s="347" t="s">
         <v>135</v>
       </c>
@@ -22603,10 +22450,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="358"/>
-      <c r="D23" s="475" t="s">
+      <c r="D23" s="458" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="475"/>
+      <c r="E23" s="458"/>
       <c r="F23" s="347" t="s">
         <v>135</v>
       </c>
@@ -22646,10 +22493,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="360"/>
-      <c r="D24" s="476" t="s">
+      <c r="D24" s="454" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="476"/>
+      <c r="E24" s="454"/>
       <c r="F24" s="347" t="s">
         <v>135</v>
       </c>
@@ -22730,10 +22577,10 @@
         <v>488</v>
       </c>
       <c r="C26" s="360"/>
-      <c r="D26" s="477" t="s">
+      <c r="D26" s="459" t="s">
         <v>489</v>
       </c>
-      <c r="E26" s="477"/>
+      <c r="E26" s="459"/>
       <c r="F26" s="347" t="s">
         <v>135</v>
       </c>
@@ -22816,10 +22663,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="358"/>
-      <c r="D28" s="472" t="s">
+      <c r="D28" s="451" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="472"/>
+      <c r="E28" s="451"/>
       <c r="F28" s="347" t="s">
         <v>135</v>
       </c>
@@ -22859,10 +22706,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="358"/>
-      <c r="D29" s="472" t="s">
+      <c r="D29" s="451" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="472"/>
+      <c r="E29" s="451"/>
       <c r="F29" s="347" t="s">
         <v>135</v>
       </c>
@@ -22902,10 +22749,10 @@
         <v>401</v>
       </c>
       <c r="C30" s="358"/>
-      <c r="D30" s="472" t="s">
+      <c r="D30" s="451" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="472"/>
+      <c r="E30" s="451"/>
       <c r="F30" s="347" t="s">
         <v>135</v>
       </c>
@@ -22945,10 +22792,10 @@
         <v>402</v>
       </c>
       <c r="C31" s="358"/>
-      <c r="D31" s="472" t="s">
+      <c r="D31" s="451" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="472"/>
+      <c r="E31" s="451"/>
       <c r="F31" s="347" t="s">
         <v>135</v>
       </c>
@@ -22988,10 +22835,10 @@
         <v>403</v>
       </c>
       <c r="C32" s="358"/>
-      <c r="D32" s="472" t="s">
+      <c r="D32" s="451" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="472"/>
+      <c r="E32" s="451"/>
       <c r="F32" s="347" t="s">
         <v>135</v>
       </c>
@@ -23031,10 +22878,10 @@
         <v>404</v>
       </c>
       <c r="C33" s="358"/>
-      <c r="D33" s="472" t="s">
+      <c r="D33" s="451" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="472"/>
+      <c r="E33" s="451"/>
       <c r="F33" s="347" t="s">
         <v>135</v>
       </c>
@@ -23074,10 +22921,10 @@
         <v>405</v>
       </c>
       <c r="C34" s="358"/>
-      <c r="D34" s="472" t="s">
+      <c r="D34" s="451" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="472"/>
+      <c r="E34" s="451"/>
       <c r="F34" s="347" t="s">
         <v>135</v>
       </c>
@@ -23117,10 +22964,10 @@
         <v>406</v>
       </c>
       <c r="C35" s="358"/>
-      <c r="D35" s="472" t="s">
+      <c r="D35" s="451" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="472"/>
+      <c r="E35" s="451"/>
       <c r="F35" s="347" t="s">
         <v>135</v>
       </c>
@@ -23160,10 +23007,10 @@
         <v>407</v>
       </c>
       <c r="C36" s="358"/>
-      <c r="D36" s="472" t="s">
+      <c r="D36" s="451" t="s">
         <v>397</v>
       </c>
-      <c r="E36" s="472"/>
+      <c r="E36" s="451"/>
       <c r="F36" s="347" t="s">
         <v>135</v>
       </c>
@@ -23203,10 +23050,10 @@
         <v>408</v>
       </c>
       <c r="C37" s="358"/>
-      <c r="D37" s="472" t="s">
+      <c r="D37" s="451" t="s">
         <v>398</v>
       </c>
-      <c r="E37" s="472"/>
+      <c r="E37" s="451"/>
       <c r="F37" s="347" t="s">
         <v>135</v>
       </c>
@@ -23246,10 +23093,10 @@
         <v>409</v>
       </c>
       <c r="C38" s="358"/>
-      <c r="D38" s="472" t="s">
+      <c r="D38" s="451" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="472"/>
+      <c r="E38" s="451"/>
       <c r="F38" s="347" t="s">
         <v>135</v>
       </c>
@@ -23332,10 +23179,10 @@
         <v>425</v>
       </c>
       <c r="C40" s="360"/>
-      <c r="D40" s="479" t="s">
+      <c r="D40" s="452" t="s">
         <v>428</v>
       </c>
-      <c r="E40" s="479"/>
+      <c r="E40" s="452"/>
       <c r="F40" s="347" t="s">
         <v>135</v>
       </c>
@@ -23375,10 +23222,10 @@
         <v>426</v>
       </c>
       <c r="C41" s="360"/>
-      <c r="D41" s="479" t="s">
+      <c r="D41" s="452" t="s">
         <v>427</v>
       </c>
-      <c r="E41" s="479"/>
+      <c r="E41" s="452"/>
       <c r="F41" s="347" t="s">
         <v>135</v>
       </c>
@@ -23418,10 +23265,10 @@
         <v>429</v>
       </c>
       <c r="C42" s="360"/>
-      <c r="D42" s="479" t="s">
+      <c r="D42" s="452" t="s">
         <v>461</v>
       </c>
-      <c r="E42" s="479"/>
+      <c r="E42" s="452"/>
       <c r="F42" s="310" t="s">
         <v>400</v>
       </c>
@@ -23459,10 +23306,10 @@
         <v>452</v>
       </c>
       <c r="C43" s="360"/>
-      <c r="D43" s="478" t="s">
+      <c r="D43" s="453" t="s">
         <v>454</v>
       </c>
-      <c r="E43" s="478"/>
+      <c r="E43" s="453"/>
       <c r="F43" s="310" t="s">
         <v>400</v>
       </c>
@@ -23500,10 +23347,10 @@
         <v>430</v>
       </c>
       <c r="C44" s="360"/>
-      <c r="D44" s="479" t="s">
+      <c r="D44" s="452" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="479"/>
+      <c r="E44" s="452"/>
       <c r="F44" s="310" t="s">
         <v>400</v>
       </c>
@@ -23541,10 +23388,10 @@
         <v>455</v>
       </c>
       <c r="C45" s="360"/>
-      <c r="D45" s="479" t="s">
+      <c r="D45" s="452" t="s">
         <v>462</v>
       </c>
-      <c r="E45" s="479"/>
+      <c r="E45" s="452"/>
       <c r="F45" s="310" t="s">
         <v>400</v>
       </c>
@@ -23582,10 +23429,10 @@
         <v>456</v>
       </c>
       <c r="C46" s="360"/>
-      <c r="D46" s="478" t="s">
+      <c r="D46" s="453" t="s">
         <v>457</v>
       </c>
-      <c r="E46" s="478"/>
+      <c r="E46" s="453"/>
       <c r="F46" s="310" t="s">
         <v>400</v>
       </c>
@@ -23623,10 +23470,10 @@
         <v>458</v>
       </c>
       <c r="C47" s="360"/>
-      <c r="D47" s="478" t="s">
+      <c r="D47" s="453" t="s">
         <v>459</v>
       </c>
-      <c r="E47" s="478"/>
+      <c r="E47" s="453"/>
       <c r="F47" s="310" t="s">
         <v>400</v>
       </c>
@@ -23664,10 +23511,10 @@
         <v>460</v>
       </c>
       <c r="C48" s="360"/>
-      <c r="D48" s="478" t="s">
+      <c r="D48" s="453" t="s">
         <v>470</v>
       </c>
-      <c r="E48" s="478"/>
+      <c r="E48" s="453"/>
       <c r="F48" s="310" t="s">
         <v>400</v>
       </c>
@@ -23705,10 +23552,10 @@
         <v>465</v>
       </c>
       <c r="C49" s="360"/>
-      <c r="D49" s="479" t="s">
+      <c r="D49" s="452" t="s">
         <v>471</v>
       </c>
-      <c r="E49" s="479"/>
+      <c r="E49" s="452"/>
       <c r="F49" s="310" t="s">
         <v>400</v>
       </c>
@@ -23746,10 +23593,10 @@
         <v>468</v>
       </c>
       <c r="C50" s="360"/>
-      <c r="D50" s="478" t="s">
+      <c r="D50" s="453" t="s">
         <v>463</v>
       </c>
-      <c r="E50" s="478"/>
+      <c r="E50" s="453"/>
       <c r="F50" s="310" t="s">
         <v>400</v>
       </c>
@@ -23787,10 +23634,10 @@
         <v>472</v>
       </c>
       <c r="C51" s="360"/>
-      <c r="D51" s="478" t="s">
+      <c r="D51" s="453" t="s">
         <v>464</v>
       </c>
-      <c r="E51" s="478"/>
+      <c r="E51" s="453"/>
       <c r="F51" s="310" t="s">
         <v>400</v>
       </c>
@@ -23828,10 +23675,10 @@
         <v>473</v>
       </c>
       <c r="C52" s="360"/>
-      <c r="D52" s="478" t="s">
+      <c r="D52" s="453" t="s">
         <v>467</v>
       </c>
-      <c r="E52" s="478"/>
+      <c r="E52" s="453"/>
       <c r="F52" s="347" t="s">
         <v>135</v>
       </c>
@@ -23871,10 +23718,10 @@
         <v>474</v>
       </c>
       <c r="C53" s="360"/>
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="453" t="s">
         <v>466</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="453"/>
       <c r="F53" s="310" t="s">
         <v>400</v>
       </c>
@@ -23912,10 +23759,10 @@
         <v>475</v>
       </c>
       <c r="C54" s="360"/>
-      <c r="D54" s="478" t="s">
+      <c r="D54" s="453" t="s">
         <v>469</v>
       </c>
-      <c r="E54" s="478"/>
+      <c r="E54" s="453"/>
       <c r="F54" s="310" t="s">
         <v>400</v>
       </c>
@@ -23953,10 +23800,10 @@
         <v>137</v>
       </c>
       <c r="C55" s="358"/>
-      <c r="D55" s="472" t="s">
+      <c r="D55" s="451" t="s">
         <v>422</v>
       </c>
-      <c r="E55" s="472"/>
+      <c r="E55" s="451"/>
       <c r="F55" s="347" t="s">
         <v>135</v>
       </c>
@@ -23996,10 +23843,10 @@
         <v>424</v>
       </c>
       <c r="C56" s="358"/>
-      <c r="D56" s="472" t="s">
+      <c r="D56" s="451" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="472"/>
+      <c r="E56" s="451"/>
       <c r="F56" s="347" t="s">
         <v>135</v>
       </c>
@@ -24039,10 +23886,10 @@
         <v>139</v>
       </c>
       <c r="C57" s="360"/>
-      <c r="D57" s="476" t="s">
+      <c r="D57" s="454" t="s">
         <v>502</v>
       </c>
-      <c r="E57" s="476"/>
+      <c r="E57" s="454"/>
       <c r="F57" s="310" t="s">
         <v>400</v>
       </c>
@@ -24064,8 +23911,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="442"/>
-      <c r="E58" s="442"/>
+      <c r="D58" s="436"/>
+      <c r="E58" s="436"/>
       <c r="F58" s="268"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -24085,8 +23932,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="340"/>
       <c r="C59" s="340"/>
-      <c r="D59" s="442"/>
-      <c r="E59" s="442"/>
+      <c r="D59" s="436"/>
+      <c r="E59" s="436"/>
       <c r="F59" s="268"/>
       <c r="G59" s="340"/>
       <c r="H59" s="340"/>
@@ -24106,8 +23953,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="340"/>
       <c r="C60" s="340"/>
-      <c r="D60" s="442"/>
-      <c r="E60" s="442"/>
+      <c r="D60" s="436"/>
+      <c r="E60" s="436"/>
       <c r="F60" s="268"/>
       <c r="G60" s="340"/>
       <c r="H60" s="340"/>
@@ -24127,8 +23974,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="340"/>
       <c r="C61" s="340"/>
-      <c r="D61" s="442"/>
-      <c r="E61" s="442"/>
+      <c r="D61" s="436"/>
+      <c r="E61" s="436"/>
       <c r="F61" s="268"/>
       <c r="G61" s="340"/>
       <c r="H61" s="340"/>
@@ -24148,8 +23995,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="340"/>
       <c r="C62" s="340"/>
-      <c r="D62" s="442"/>
-      <c r="E62" s="442"/>
+      <c r="D62" s="436"/>
+      <c r="E62" s="436"/>
       <c r="F62" s="268"/>
       <c r="G62" s="340"/>
       <c r="H62" s="340"/>
@@ -24169,8 +24016,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="340"/>
       <c r="C63" s="340"/>
-      <c r="D63" s="442"/>
-      <c r="E63" s="442"/>
+      <c r="D63" s="436"/>
+      <c r="E63" s="436"/>
       <c r="F63" s="268"/>
       <c r="G63" s="340"/>
       <c r="H63" s="340"/>
@@ -24190,8 +24037,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="340"/>
       <c r="C64" s="340"/>
-      <c r="D64" s="442"/>
-      <c r="E64" s="442"/>
+      <c r="D64" s="436"/>
+      <c r="E64" s="436"/>
       <c r="F64" s="268"/>
       <c r="G64" s="340"/>
       <c r="H64" s="340"/>
@@ -24211,8 +24058,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="340"/>
       <c r="C65" s="340"/>
-      <c r="D65" s="442"/>
-      <c r="E65" s="442"/>
+      <c r="D65" s="436"/>
+      <c r="E65" s="436"/>
       <c r="F65" s="268"/>
       <c r="G65" s="340"/>
       <c r="H65" s="340"/>
@@ -24452,30 +24299,28 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -24492,530 +24337,532 @@
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
-    <cfRule type="containsText" dxfId="193" priority="279" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="171" priority="279" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="281" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="170" priority="281" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="282" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="169" priority="282" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F58)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="190" priority="284">
+    <cfRule type="containsBlanks" dxfId="168" priority="284">
       <formula>LEN(TRIM(F58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="189" priority="222" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="167" priority="222" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="223" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="166" priority="223" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="224" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="165" priority="224" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F23)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="186" priority="225">
+    <cfRule type="containsBlanks" dxfId="164" priority="225">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="185" priority="217" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="163" priority="217" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="218" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="162" priority="218" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="219" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="161" priority="219" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F22)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="182" priority="220">
+    <cfRule type="containsBlanks" dxfId="160" priority="220">
       <formula>LEN(TRIM(F22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="181" priority="212" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="159" priority="212" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="213" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="158" priority="213" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="214" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="157" priority="214" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F24)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="178" priority="215">
+    <cfRule type="containsBlanks" dxfId="156" priority="215">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="177" priority="207" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="155" priority="207" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="208" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="154" priority="208" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="209" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="153" priority="209" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F26)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="174" priority="210">
+    <cfRule type="containsBlanks" dxfId="152" priority="210">
       <formula>LEN(TRIM(F26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="173" priority="202" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="151" priority="202" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="203" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="150" priority="203" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="204" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="149" priority="204" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F29)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="170" priority="205">
+    <cfRule type="containsBlanks" dxfId="148" priority="205">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="169" priority="187" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="147" priority="187" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="188" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="146" priority="188" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="189" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="145" priority="189" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F32)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="166" priority="190">
+    <cfRule type="containsBlanks" dxfId="144" priority="190">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="165" priority="177" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="143" priority="177" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="178" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="142" priority="178" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="179" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="141" priority="179" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F34)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="162" priority="180">
+    <cfRule type="containsBlanks" dxfId="140" priority="180">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="139" priority="172" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="138" priority="173" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="137" priority="174" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F35)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="158" priority="175">
+    <cfRule type="containsBlanks" dxfId="136" priority="175">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="157" priority="152" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="135" priority="152" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="153" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="134" priority="153" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="154" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="133" priority="154" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F40)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="154" priority="155">
+    <cfRule type="containsBlanks" dxfId="132" priority="155">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="149" priority="142" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="131" priority="142" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="143" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="130" priority="143" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="144" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="129" priority="144" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F25)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="146" priority="145">
+    <cfRule type="containsBlanks" dxfId="128" priority="145">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="145" priority="134" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="135" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F42)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="142" priority="137">
+    <cfRule type="containsBlanks" dxfId="124" priority="137">
       <formula>LEN(TRIM(F42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="141" priority="130" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="131" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="122" priority="131" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="132" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="121" priority="132" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F43)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="138" priority="133">
+    <cfRule type="containsBlanks" dxfId="120" priority="133">
       <formula>LEN(TRIM(F43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="137" priority="126" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="127" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="118" priority="127" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="128" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="117" priority="128" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F44)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="134" priority="129">
+    <cfRule type="containsBlanks" dxfId="116" priority="129">
       <formula>LEN(TRIM(F44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="115" priority="122" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="123" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="114" priority="123" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="124" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="113" priority="124" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F45)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="130" priority="125">
+    <cfRule type="containsBlanks" dxfId="112" priority="125">
       <formula>LEN(TRIM(F45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="129" priority="118" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="119" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="110" priority="119" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="120" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="109" priority="120" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F46)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="126" priority="121">
+    <cfRule type="containsBlanks" dxfId="108" priority="121">
       <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="125" priority="114" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="107" priority="114" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="106" priority="115" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="116" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="105" priority="116" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F47)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="122" priority="117">
+    <cfRule type="containsBlanks" dxfId="104" priority="117">
       <formula>LEN(TRIM(F47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="121" priority="110" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="103" priority="110" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="102" priority="111" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="101" priority="112" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F48)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="118" priority="113">
+    <cfRule type="containsBlanks" dxfId="100" priority="113">
       <formula>LEN(TRIM(F48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="117" priority="106" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="99" priority="106" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="107" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="98" priority="107" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="97" priority="108" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F49)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="114" priority="109">
+    <cfRule type="containsBlanks" dxfId="96" priority="109">
       <formula>LEN(TRIM(F49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="113" priority="102" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="103" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="94" priority="103" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="104" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F50)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="110" priority="105">
+    <cfRule type="containsBlanks" dxfId="92" priority="105">
       <formula>LEN(TRIM(F50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="109" priority="98" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="91" priority="98" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="99" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="90" priority="99" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="89" priority="100" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F51)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="106" priority="101">
+    <cfRule type="containsBlanks" dxfId="88" priority="101">
       <formula>LEN(TRIM(F51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="101" priority="90" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="91" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="92" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F53)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="98" priority="93">
+    <cfRule type="containsBlanks" dxfId="84" priority="93">
       <formula>LEN(TRIM(F53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="97" priority="86" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="81" priority="88" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F54)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="94" priority="89">
+    <cfRule type="containsBlanks" dxfId="80" priority="89">
       <formula>LEN(TRIM(F54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="93" priority="74" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="75" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="76" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F57)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="90" priority="77">
+    <cfRule type="containsBlanks" dxfId="76" priority="77">
       <formula>LEN(TRIM(F57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="89" priority="60" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="61" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="62" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="73" priority="62" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F30)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="86" priority="63">
+    <cfRule type="containsBlanks" dxfId="72" priority="63">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="81" priority="55" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="56" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="57" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F31)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="78" priority="58">
+    <cfRule type="containsBlanks" dxfId="68" priority="58">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="77" priority="50" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="51" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="52" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="65" priority="52" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F33)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="74" priority="53">
+    <cfRule type="containsBlanks" dxfId="64" priority="53">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="73" priority="45" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="46" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="62" priority="46" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="47" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="61" priority="47" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F36)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="70" priority="48">
+    <cfRule type="containsBlanks" dxfId="60" priority="48">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="69" priority="40" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="42" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F37)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="66" priority="43">
+    <cfRule type="containsBlanks" dxfId="56" priority="43">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="containsText" dxfId="65" priority="35" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="36" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="37" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F38)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="62" priority="38">
+    <cfRule type="containsBlanks" dxfId="52" priority="38">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="61" priority="30" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="51" priority="30" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="32" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F28)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="58" priority="33">
+    <cfRule type="containsBlanks" dxfId="48" priority="33">
       <formula>LEN(TRIM(F28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="57" priority="25" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="26" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="27" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F56)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="54" priority="28">
+    <cfRule type="containsBlanks" dxfId="44" priority="28">
       <formula>LEN(TRIM(F56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F27)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="31" priority="4">
+    <cfRule type="containsBlanks" dxfId="40" priority="4">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F41)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="19">
+    <cfRule type="containsBlanks" dxfId="36" priority="19">
       <formula>LEN(TRIM(F41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F55)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="32" priority="14">
       <formula>LEN(TRIM(F55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F52)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="9">
+    <cfRule type="containsBlanks" dxfId="28" priority="9">
       <formula>LEN(TRIM(F52))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25319,7 +25166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25335,14 +25182,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="506" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="482"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="508"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -25356,11 +25203,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="483" t="s">
+      <c r="D2" s="509" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="483"/>
-      <c r="F2" s="484"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="510"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -25370,12 +25217,12 @@
       </c>
       <c r="B3" s="87">
         <f>SUMIF($B$14:$B$103,"Toni",$E$14:$E$103)</f>
-        <v>32.5</v>
+        <v>36.25</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="487"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="513"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -25385,12 +25232,12 @@
       </c>
       <c r="B4" s="87">
         <f>SUMIF($B$14:$B$103,"Ronja",$E$14:$E$103)</f>
-        <v>34.5</v>
+        <v>40.25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="490"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="493"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -25398,9 +25245,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="490"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="493"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -25408,9 +25255,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="488"/>
-      <c r="E6" s="489"/>
-      <c r="F6" s="490"/>
+      <c r="D6" s="491"/>
+      <c r="E6" s="492"/>
+      <c r="F6" s="493"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -25418,9 +25265,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="489"/>
-      <c r="E7" s="489"/>
-      <c r="F7" s="489"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -25435,81 +25282,81 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="494" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="493">
+      <c r="B9" s="496">
         <f>SUM(B3:B8)</f>
-        <v>67</v>
-      </c>
-      <c r="C9" s="495" t="str">
+        <v>76.5</v>
+      </c>
+      <c r="C9" s="498" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="497" t="s">
+      <c r="D9" s="500" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="499">
+      <c r="E9" s="502">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="501"/>
+        <v>2.25</v>
+      </c>
+      <c r="F9" s="504"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="492"/>
-      <c r="B10" s="494"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="498"/>
-      <c r="E10" s="500"/>
-      <c r="F10" s="502"/>
+      <c r="A10" s="495"/>
+      <c r="B10" s="497"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="501"/>
+      <c r="E10" s="503"/>
+      <c r="F10" s="505"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="503" t="s">
+      <c r="A11" s="480" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="504"/>
-      <c r="C11" s="505"/>
-      <c r="D11" s="504"/>
-      <c r="E11" s="506"/>
-      <c r="F11" s="507"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="482"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="484"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="508" t="s">
+      <c r="A12" s="485" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="509" t="s">
+      <c r="B12" s="486" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="510" t="s">
+      <c r="C12" s="487" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="511"/>
-      <c r="E12" s="512" t="s">
+      <c r="D12" s="488"/>
+      <c r="E12" s="489" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="513" t="s">
+      <c r="F12" s="490" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="508"/>
-      <c r="B13" s="509"/>
+      <c r="A13" s="485"/>
+      <c r="B13" s="486"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="512"/>
-      <c r="F13" s="513"/>
+      <c r="E13" s="489"/>
+      <c r="F13" s="490"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -25978,48 +25825,84 @@
       <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="174"/>
-      <c r="B40" s="191"/>
+      <c r="A40" s="174">
+        <v>43932</v>
+      </c>
+      <c r="B40" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C40" s="192"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="331"/>
+      <c r="D40" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="E40" s="331">
+        <v>3</v>
+      </c>
       <c r="F40" s="195"/>
       <c r="G40" s="56"/>
       <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="174"/>
-      <c r="B41" s="191"/>
+      <c r="A41" s="174">
+        <v>43932</v>
+      </c>
+      <c r="B41" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C41" s="192"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="331"/>
+      <c r="D41" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="E41" s="331">
+        <v>5</v>
+      </c>
       <c r="F41" s="195"/>
       <c r="G41" s="56"/>
       <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="174"/>
-      <c r="B42" s="191"/>
+      <c r="A42" s="174">
+        <v>43933</v>
+      </c>
+      <c r="B42" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C42" s="192"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="331"/>
+      <c r="D42" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F42" s="195"/>
       <c r="G42" s="56"/>
       <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="174"/>
-      <c r="B43" s="191"/>
+      <c r="A43" s="174">
+        <v>43933</v>
+      </c>
+      <c r="B43" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="331"/>
+      <c r="D43" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F43" s="195"/>
       <c r="G43" s="56"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="174"/>
-      <c r="B44" s="191"/>
+      <c r="A44" s="174">
+        <v>43935</v>
+      </c>
+      <c r="B44" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C44" s="192"/>
       <c r="D44" s="193"/>
       <c r="E44" s="331"/>
@@ -26028,8 +25911,12 @@
       <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174"/>
-      <c r="B45" s="191"/>
+      <c r="A45" s="174">
+        <v>43935</v>
+      </c>
+      <c r="B45" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C45" s="192"/>
       <c r="D45" s="193"/>
       <c r="E45" s="331"/>
@@ -26038,28 +25925,48 @@
       <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="174"/>
-      <c r="B46" s="191"/>
+      <c r="A46" s="174">
+        <v>43936</v>
+      </c>
+      <c r="B46" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C46" s="192"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="331"/>
+      <c r="D46" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F46" s="195"/>
       <c r="G46" s="56"/>
       <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="174"/>
-      <c r="B47" s="191"/>
+      <c r="A47" s="174">
+        <v>43936</v>
+      </c>
+      <c r="B47" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C47" s="192"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="331"/>
+      <c r="D47" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F47" s="195"/>
       <c r="G47" s="56"/>
       <c r="H47" s="29"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="174"/>
-      <c r="B48" s="191"/>
+      <c r="A48" s="174">
+        <v>43939</v>
+      </c>
+      <c r="B48" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C48" s="192"/>
       <c r="D48" s="193"/>
       <c r="E48" s="331"/>
@@ -26068,8 +25975,12 @@
       <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="174"/>
-      <c r="B49" s="191"/>
+      <c r="A49" s="174">
+        <v>43939</v>
+      </c>
+      <c r="B49" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C49" s="192"/>
       <c r="D49" s="193"/>
       <c r="E49" s="331"/>
@@ -26078,21 +25989,37 @@
       <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="174"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="174">
+        <v>43940</v>
+      </c>
+      <c r="B50" s="191" t="s">
+        <v>374</v>
+      </c>
       <c r="C50" s="192"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="331"/>
+      <c r="D50" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F50" s="195"/>
       <c r="G50" s="56"/>
       <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="174"/>
-      <c r="B51" s="191"/>
+      <c r="A51" s="174">
+        <v>43940</v>
+      </c>
+      <c r="B51" s="191" t="s">
+        <v>375</v>
+      </c>
       <c r="C51" s="192"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="331"/>
+      <c r="D51" s="193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="329">
+        <v>0.25</v>
+      </c>
       <c r="F51" s="195"/>
       <c r="G51" s="56"/>
       <c r="H51" s="29"/>
@@ -26729,12 +26656,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -26743,11 +26669,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26779,15 +26706,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="453" t="s">
+      <c r="C2" s="468"/>
+      <c r="D2" s="469" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="454"/>
-      <c r="F2" s="455"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -26797,9 +26724,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="458"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -26809,9 +26736,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="458"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="474"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -26821,9 +26748,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="458"/>
+      <c r="D5" s="472"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="474"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -26833,9 +26760,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="459"/>
-      <c r="E6" s="460"/>
-      <c r="F6" s="461"/>
+      <c r="D6" s="475"/>
+      <c r="E6" s="476"/>
+      <c r="F6" s="477"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -26879,14 +26806,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="462" t="s">
+      <c r="F9" s="445"/>
+      <c r="G9" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="463"/>
+      <c r="H9" s="479"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -26912,12 +26839,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="520" t="s">
+      <c r="E10" s="514" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="520"/>
-      <c r="G10" s="473"/>
-      <c r="H10" s="473"/>
+      <c r="F10" s="514"/>
+      <c r="G10" s="456"/>
+      <c r="H10" s="456"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -26942,12 +26869,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="474" t="s">
+      <c r="E11" s="457" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="474"/>
-      <c r="G11" s="473"/>
-      <c r="H11" s="473"/>
+      <c r="F11" s="457"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -26972,12 +26899,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="474" t="s">
+      <c r="E12" s="457" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="474"/>
-      <c r="G12" s="473"/>
-      <c r="H12" s="473"/>
+      <c r="F12" s="457"/>
+      <c r="G12" s="456"/>
+      <c r="H12" s="456"/>
       <c r="I12" s="310">
         <v>2</v>
       </c>
@@ -27002,12 +26929,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="457" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="474"/>
-      <c r="G13" s="473"/>
-      <c r="H13" s="473"/>
+      <c r="F13" s="457"/>
+      <c r="G13" s="456"/>
+      <c r="H13" s="456"/>
       <c r="I13" s="310">
         <v>5</v>
       </c>
@@ -27032,12 +26959,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="474" t="s">
+      <c r="E14" s="457" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="474"/>
-      <c r="G14" s="473"/>
-      <c r="H14" s="473"/>
+      <c r="F14" s="457"/>
+      <c r="G14" s="456"/>
+      <c r="H14" s="456"/>
       <c r="I14" s="310">
         <v>12</v>
       </c>
@@ -27062,12 +26989,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="474" t="s">
+      <c r="E15" s="457" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="474"/>
-      <c r="G15" s="473"/>
-      <c r="H15" s="473"/>
+      <c r="F15" s="457"/>
+      <c r="G15" s="456"/>
+      <c r="H15" s="456"/>
       <c r="I15" s="310">
         <v>19</v>
       </c>
@@ -27094,10 +27021,10 @@
       <c r="D16" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="514" t="s">
+      <c r="E16" s="515" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="514"/>
+      <c r="F16" s="515"/>
       <c r="G16" s="308"/>
       <c r="H16" s="308"/>
       <c r="I16" s="275">
@@ -27126,12 +27053,12 @@
       <c r="D17" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="514" t="s">
+      <c r="E17" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="514"/>
-      <c r="G17" s="515"/>
-      <c r="H17" s="515"/>
+      <c r="F17" s="515"/>
+      <c r="G17" s="516"/>
+      <c r="H17" s="516"/>
       <c r="I17" s="275">
         <v>12</v>
       </c>
@@ -27150,10 +27077,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="474"/>
-      <c r="F18" s="474"/>
-      <c r="G18" s="473"/>
-      <c r="H18" s="473"/>
+      <c r="E18" s="457"/>
+      <c r="F18" s="457"/>
+      <c r="G18" s="456"/>
+      <c r="H18" s="456"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="310"/>
@@ -27170,8 +27097,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="470"/>
-      <c r="F19" s="470"/>
+      <c r="E19" s="465"/>
+      <c r="F19" s="465"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="304"/>
@@ -27189,11 +27116,11 @@
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
-      <c r="C20" s="516" t="s">
+      <c r="C20" s="517" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="517"/>
-      <c r="E20" s="518"/>
+      <c r="D20" s="518"/>
+      <c r="E20" s="519"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="178" t="s">
@@ -27247,10 +27174,10 @@
       <c r="C22" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="468" t="s">
+      <c r="D22" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="469"/>
+      <c r="E22" s="464"/>
       <c r="F22" s="172" t="s">
         <v>97</v>
       </c>
@@ -27299,10 +27226,10 @@
         <v>133</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="519" t="s">
+      <c r="D23" s="520" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="519"/>
+      <c r="E23" s="520"/>
       <c r="F23" s="303" t="s">
         <v>135</v>
       </c>
@@ -27348,10 +27275,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="447" t="s">
+      <c r="D24" s="443" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="447"/>
+      <c r="E24" s="443"/>
       <c r="F24" s="303" t="s">
         <v>135</v>
       </c>
@@ -27399,10 +27326,10 @@
         <v>139</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="447" t="s">
+      <c r="D25" s="443" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="447"/>
+      <c r="E25" s="443"/>
       <c r="F25" s="303" t="s">
         <v>135</v>
       </c>
@@ -28293,8 +28220,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="442"/>
-      <c r="E49" s="442"/>
+      <c r="D49" s="436"/>
+      <c r="E49" s="436"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -28314,8 +28241,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="442"/>
-      <c r="E50" s="442"/>
+      <c r="D50" s="436"/>
+      <c r="E50" s="436"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -28335,8 +28262,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="442"/>
-      <c r="E51" s="442"/>
+      <c r="D51" s="436"/>
+      <c r="E51" s="436"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -28356,8 +28283,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="442"/>
-      <c r="E52" s="442"/>
+      <c r="D52" s="436"/>
+      <c r="E52" s="436"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -28377,8 +28304,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="442"/>
-      <c r="E53" s="442"/>
+      <c r="D53" s="436"/>
+      <c r="E53" s="436"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -28398,8 +28325,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="442"/>
-      <c r="E54" s="442"/>
+      <c r="D54" s="436"/>
+      <c r="E54" s="436"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -28419,8 +28346,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="442"/>
-      <c r="E55" s="442"/>
+      <c r="D55" s="436"/>
+      <c r="E55" s="436"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -28440,8 +28367,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="442"/>
-      <c r="E56" s="442"/>
+      <c r="D56" s="436"/>
+      <c r="E56" s="436"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -28461,8 +28388,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="442"/>
-      <c r="E57" s="442"/>
+      <c r="D57" s="436"/>
+      <c r="E57" s="436"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -28482,8 +28409,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="442"/>
-      <c r="E58" s="442"/>
+      <c r="D58" s="436"/>
+      <c r="E58" s="436"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -28503,8 +28430,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="442"/>
-      <c r="E59" s="442"/>
+      <c r="D59" s="436"/>
+      <c r="E59" s="436"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -28739,18 +28666,39 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -28766,51 +28714,30 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F23)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28839,14 +28766,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="506" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="482"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="508"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -28860,11 +28787,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="483" t="s">
+      <c r="D2" s="509" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="483"/>
-      <c r="F2" s="484"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="510"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -28877,9 +28804,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="487"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="513"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -28892,9 +28819,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="490"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="493"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -28907,9 +28834,9 @@
         <v>26.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="490"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="493"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -28922,9 +28849,9 @@
         <v>45</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="488"/>
-      <c r="E6" s="489"/>
-      <c r="F6" s="490"/>
+      <c r="D6" s="491"/>
+      <c r="E6" s="492"/>
+      <c r="F6" s="493"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -28937,9 +28864,9 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="489"/>
-      <c r="E7" s="489"/>
-      <c r="F7" s="489"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -28954,80 +28881,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="523" t="s">
+      <c r="A9" s="521" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="493">
+      <c r="B9" s="496">
         <f>SUM(B3:B8)</f>
         <v>126</v>
       </c>
-      <c r="C9" s="495" t="str">
+      <c r="C9" s="498" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="497" t="s">
+      <c r="D9" s="500" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="525">
+      <c r="E9" s="523">
         <v>10.5</v>
       </c>
-      <c r="F9" s="501"/>
+      <c r="F9" s="504"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="524"/>
-      <c r="B10" s="494"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="498"/>
-      <c r="E10" s="526"/>
-      <c r="F10" s="502"/>
+      <c r="A10" s="522"/>
+      <c r="B10" s="497"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="501"/>
+      <c r="E10" s="524"/>
+      <c r="F10" s="505"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="503" t="s">
+      <c r="A11" s="480" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="504"/>
-      <c r="C11" s="505"/>
-      <c r="D11" s="504"/>
-      <c r="E11" s="506"/>
-      <c r="F11" s="507"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="482"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="484"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="521" t="s">
+      <c r="A12" s="525" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="509" t="s">
+      <c r="B12" s="486" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="510" t="s">
+      <c r="C12" s="487" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="511"/>
-      <c r="E12" s="522" t="s">
+      <c r="D12" s="488"/>
+      <c r="E12" s="526" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="513" t="s">
+      <c r="F12" s="490" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="521"/>
-      <c r="B13" s="509"/>
+      <c r="A13" s="525"/>
+      <c r="B13" s="486"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="522"/>
-      <c r="F13" s="513"/>
+      <c r="E13" s="526"/>
+      <c r="F13" s="490"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -30596,12 +30523,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -30609,12 +30536,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30645,15 +30572,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="453" t="s">
+      <c r="C2" s="468"/>
+      <c r="D2" s="469" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="454"/>
-      <c r="F2" s="455"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="471"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -30663,9 +30590,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="458"/>
+      <c r="D3" s="472"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="474"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -30675,9 +30602,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="458"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="474"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -30687,9 +30614,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457"/>
-      <c r="F5" s="458"/>
+      <c r="D5" s="472"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="474"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -30699,9 +30626,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="459"/>
-      <c r="E6" s="460"/>
-      <c r="F6" s="461"/>
+      <c r="D6" s="475"/>
+      <c r="E6" s="476"/>
+      <c r="F6" s="477"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -30745,14 +30672,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="444"/>
-      <c r="G9" s="462" t="s">
+      <c r="F9" s="445"/>
+      <c r="G9" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="463"/>
+      <c r="H9" s="479"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -30778,12 +30705,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="474" t="s">
+      <c r="E10" s="457" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="474"/>
-      <c r="G10" s="473"/>
-      <c r="H10" s="473"/>
+      <c r="F10" s="457"/>
+      <c r="G10" s="456"/>
+      <c r="H10" s="456"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -30808,12 +30735,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="474" t="s">
+      <c r="E11" s="457" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="474"/>
-      <c r="G11" s="473"/>
-      <c r="H11" s="473"/>
+      <c r="F11" s="457"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -30838,12 +30765,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="474" t="s">
+      <c r="E12" s="457" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="474"/>
-      <c r="G12" s="473"/>
-      <c r="H12" s="473"/>
+      <c r="F12" s="457"/>
+      <c r="G12" s="456"/>
+      <c r="H12" s="456"/>
       <c r="I12" s="310">
         <v>40</v>
       </c>
@@ -30868,12 +30795,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="457" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="474"/>
-      <c r="G13" s="473"/>
-      <c r="H13" s="473"/>
+      <c r="F13" s="457"/>
+      <c r="G13" s="456"/>
+      <c r="H13" s="456"/>
       <c r="I13" s="310">
         <v>3</v>
       </c>
@@ -30898,12 +30825,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="474" t="s">
+      <c r="E14" s="457" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="474"/>
-      <c r="G14" s="473"/>
-      <c r="H14" s="473"/>
+      <c r="F14" s="457"/>
+      <c r="G14" s="456"/>
+      <c r="H14" s="456"/>
       <c r="I14" s="310">
         <v>27</v>
       </c>
@@ -30928,12 +30855,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="474" t="s">
+      <c r="E15" s="457" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="474"/>
-      <c r="G15" s="473"/>
-      <c r="H15" s="473"/>
+      <c r="F15" s="457"/>
+      <c r="G15" s="456"/>
+      <c r="H15" s="456"/>
       <c r="I15" s="310">
         <v>7</v>
       </c>
@@ -30952,10 +30879,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="474"/>
-      <c r="F16" s="474"/>
-      <c r="G16" s="473"/>
-      <c r="H16" s="473"/>
+      <c r="E16" s="457"/>
+      <c r="F16" s="457"/>
+      <c r="G16" s="456"/>
+      <c r="H16" s="456"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="310"/>
@@ -30972,8 +30899,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="470"/>
-      <c r="F17" s="470"/>
+      <c r="E17" s="465"/>
+      <c r="F17" s="465"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="304"/>
@@ -30991,11 +30918,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="465" t="s">
+      <c r="C18" s="460" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="466"/>
-      <c r="E18" s="467"/>
+      <c r="D18" s="461"/>
+      <c r="E18" s="462"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -31049,10 +30976,10 @@
       <c r="C20" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="468" t="s">
+      <c r="D20" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="469"/>
+      <c r="E20" s="464"/>
       <c r="F20" s="172" t="s">
         <v>97</v>
       </c>
@@ -31510,10 +31437,10 @@
         <v>224</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="442" t="s">
+      <c r="D29" s="436" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="442"/>
+      <c r="E29" s="436"/>
       <c r="F29" s="303" t="s">
         <v>105</v>
       </c>
@@ -31559,8 +31486,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="442"/>
-      <c r="E30" s="442"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="436"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -31580,8 +31507,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="442"/>
+      <c r="D31" s="436"/>
+      <c r="E31" s="436"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -31601,8 +31528,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="442"/>
-      <c r="E32" s="442"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="436"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -31622,8 +31549,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="442"/>
-      <c r="E33" s="442"/>
+      <c r="D33" s="436"/>
+      <c r="E33" s="436"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -31643,8 +31570,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="442"/>
-      <c r="E34" s="442"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="436"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -31664,8 +31591,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="442"/>
-      <c r="E35" s="442"/>
+      <c r="D35" s="436"/>
+      <c r="E35" s="436"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -31966,28 +31893,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -32002,18 +31907,40 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
       <formula>NOT(ISERROR(SEARCH("Ei tehdä",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Valmis">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Valmis">
       <formula>NOT(ISERROR(SEARCH("Valmis",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Kesken">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Kesken">
       <formula>NOT(ISERROR(SEARCH("Kesken",F21)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(F21))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32042,14 +31969,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="506" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="482"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="508"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -32063,11 +31990,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="483" t="s">
+      <c r="D2" s="509" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="483"/>
-      <c r="F2" s="484"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="510"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -32080,9 +32007,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="487"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="513"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -32095,9 +32022,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="490"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="493"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -32110,9 +32037,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="488"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="490"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="493"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -32125,9 +32052,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="488"/>
-      <c r="E6" s="489"/>
-      <c r="F6" s="490"/>
+      <c r="D6" s="491"/>
+      <c r="E6" s="492"/>
+      <c r="F6" s="493"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -32140,9 +32067,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="489"/>
-      <c r="E7" s="489"/>
-      <c r="F7" s="489"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="492"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -32157,80 +32084,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="491" t="s">
+      <c r="A9" s="494" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="493">
+      <c r="B9" s="496">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="495" t="str">
+      <c r="C9" s="498" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="497" t="s">
+      <c r="D9" s="500" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="525">
+      <c r="E9" s="523">
         <v>16.5</v>
       </c>
-      <c r="F9" s="501"/>
+      <c r="F9" s="504"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="492"/>
-      <c r="B10" s="494"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="498"/>
-      <c r="E10" s="526"/>
-      <c r="F10" s="502"/>
+      <c r="A10" s="495"/>
+      <c r="B10" s="497"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="501"/>
+      <c r="E10" s="524"/>
+      <c r="F10" s="505"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="503" t="s">
+      <c r="A11" s="480" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="504"/>
-      <c r="C11" s="505"/>
-      <c r="D11" s="504"/>
-      <c r="E11" s="506"/>
-      <c r="F11" s="507"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="482"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="483"/>
+      <c r="F11" s="484"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="508" t="s">
+      <c r="A12" s="485" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="509" t="s">
+      <c r="B12" s="486" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="510" t="s">
+      <c r="C12" s="487" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="511"/>
-      <c r="E12" s="522" t="s">
+      <c r="D12" s="488"/>
+      <c r="E12" s="526" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="513" t="s">
+      <c r="F12" s="490" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="508"/>
-      <c r="B13" s="509"/>
+      <c r="A13" s="485"/>
+      <c r="B13" s="486"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="522"/>
-      <c r="F13" s="513"/>
+      <c r="E13" s="526"/>
+      <c r="F13" s="490"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -34034,12 +33961,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34047,12 +33974,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34217,18 +34144,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34250,6 +34177,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -34263,12 +34198,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Scrum projekti\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6A3EC-2D01-4828-8652-F98B41F4A780}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB90703-856F-40AB-A06F-62D640F48D21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="514">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -1629,6 +1629,12 @@
   </si>
   <si>
     <t>After effects opettelua</t>
+  </si>
+  <si>
+    <t>Prototyypin esittely asiakkaalle</t>
+  </si>
+  <si>
+    <t>Asiakkaan palautteen perusteella muutokset suunnitelmaan</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3143,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="577">
+  <cellXfs count="578">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4193,6 +4199,117 @@
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4226,12 +4343,6 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4244,116 +4355,38 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4373,42 +4406,45 @@
     <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4416,44 +4452,76 @@
     <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4463,68 +4531,78 @@
     <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4559,95 +4637,32 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4661,19 +4676,73 @@
     <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4682,65 +4751,56 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="25" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4765,57 +4825,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7074,10 +7083,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.25</c:v>
+                  <c:v>41.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.25</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11710,20 +11719,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="407" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="373"/>
-      <c r="I2" s="373"/>
-      <c r="J2" s="373"/>
-      <c r="K2" s="373"/>
-      <c r="L2" s="371"/>
-      <c r="M2" s="374"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
+      <c r="K2" s="410"/>
+      <c r="L2" s="408"/>
+      <c r="M2" s="411"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -11739,19 +11748,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="412" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="377"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="414"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -11770,17 +11779,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="375"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-      <c r="H4" s="376"/>
-      <c r="I4" s="376"/>
-      <c r="J4" s="376"/>
-      <c r="K4" s="376"/>
-      <c r="L4" s="377"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="413"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="413"/>
+      <c r="K4" s="413"/>
+      <c r="L4" s="414"/>
       <c r="M4" s="175">
         <v>43920</v>
       </c>
@@ -11833,19 +11842,19 @@
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="378" t="s">
+      <c r="C6" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="379"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="380"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="385"/>
+      <c r="K6" s="385"/>
+      <c r="L6" s="385"/>
+      <c r="M6" s="415"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -11864,19 +11873,19 @@
       <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="381" t="s">
+      <c r="C7" s="416" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="382"/>
-      <c r="J7" s="382"/>
-      <c r="K7" s="382"/>
-      <c r="L7" s="382"/>
-      <c r="M7" s="383"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+      <c r="F7" s="417"/>
+      <c r="G7" s="417"/>
+      <c r="H7" s="417"/>
+      <c r="I7" s="417"/>
+      <c r="J7" s="417"/>
+      <c r="K7" s="417"/>
+      <c r="L7" s="417"/>
+      <c r="M7" s="418"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -11895,19 +11904,19 @@
       <c r="B8" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="381" t="s">
+      <c r="C8" s="416" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="382"/>
-      <c r="K8" s="382"/>
-      <c r="L8" s="382"/>
-      <c r="M8" s="383"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="417"/>
+      <c r="H8" s="417"/>
+      <c r="I8" s="417"/>
+      <c r="J8" s="417"/>
+      <c r="K8" s="417"/>
+      <c r="L8" s="417"/>
+      <c r="M8" s="418"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -11926,19 +11935,19 @@
       <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="381" t="s">
+      <c r="C9" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="382"/>
-      <c r="J9" s="382"/>
-      <c r="K9" s="382"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="383"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="417"/>
+      <c r="F9" s="417"/>
+      <c r="G9" s="417"/>
+      <c r="H9" s="417"/>
+      <c r="I9" s="417"/>
+      <c r="J9" s="417"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="418"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -11957,19 +11966,19 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="367" t="s">
+      <c r="C10" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="368"/>
-      <c r="E10" s="368"/>
-      <c r="F10" s="368"/>
-      <c r="G10" s="368"/>
-      <c r="H10" s="368"/>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="369"/>
+      <c r="D10" s="405"/>
+      <c r="E10" s="405"/>
+      <c r="F10" s="405"/>
+      <c r="G10" s="405"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="405"/>
+      <c r="J10" s="405"/>
+      <c r="K10" s="405"/>
+      <c r="L10" s="405"/>
+      <c r="M10" s="406"/>
       <c r="N10" s="32"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -12012,20 +12021,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="384" t="s">
+      <c r="B12" s="393" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="385"/>
-      <c r="D12" s="385"/>
-      <c r="E12" s="385"/>
-      <c r="F12" s="385"/>
-      <c r="G12" s="385"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="385"/>
-      <c r="J12" s="385"/>
-      <c r="K12" s="385"/>
-      <c r="L12" s="385"/>
-      <c r="M12" s="386"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="394"/>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="395"/>
       <c r="N12" s="32"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -12050,14 +12059,14 @@
       <c r="D13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="387" t="s">
+      <c r="E13" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="388"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="389"/>
+      <c r="F13" s="397"/>
+      <c r="G13" s="397"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="397"/>
+      <c r="J13" s="398"/>
       <c r="K13" s="293" t="s">
         <v>16</v>
       </c>
@@ -12075,38 +12084,38 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="390"/>
-      <c r="W13" s="390"/>
-      <c r="X13" s="390"/>
+      <c r="V13" s="399"/>
+      <c r="W13" s="399"/>
+      <c r="X13" s="399"/>
       <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="391">
+      <c r="B14" s="371">
         <v>1</v>
       </c>
-      <c r="C14" s="392">
+      <c r="C14" s="373">
         <v>43906</v>
       </c>
-      <c r="D14" s="392">
+      <c r="D14" s="373">
         <v>43941</v>
       </c>
-      <c r="E14" s="393" t="s">
+      <c r="E14" s="400" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="394"/>
-      <c r="G14" s="395"/>
-      <c r="H14" s="395"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="397" t="s">
+      <c r="F14" s="401"/>
+      <c r="G14" s="402"/>
+      <c r="H14" s="402"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="403"/>
+      <c r="K14" s="390" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="399">
+      <c r="L14" s="392">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="401">
+      <c r="M14" s="368">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12125,18 +12134,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="391"/>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="395"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="398"/>
-      <c r="L15" s="400"/>
-      <c r="M15" s="401"/>
+      <c r="B15" s="371"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="400"/>
+      <c r="F15" s="401"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="402"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="403"/>
+      <c r="K15" s="391"/>
+      <c r="L15" s="382"/>
+      <c r="M15" s="368"/>
       <c r="N15" s="32"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -12152,29 +12161,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="391">
+      <c r="B16" s="371">
         <v>2</v>
       </c>
-      <c r="C16" s="392">
+      <c r="C16" s="373">
         <v>43941</v>
       </c>
-      <c r="D16" s="392">
+      <c r="D16" s="373">
         <v>43969</v>
       </c>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="404"/>
-      <c r="K16" s="397" t="s">
+      <c r="E16" s="384"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="385"/>
+      <c r="J16" s="386"/>
+      <c r="K16" s="390" t="s">
         <v>491</v>
       </c>
-      <c r="L16" s="399">
+      <c r="L16" s="392">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M16" s="401">
+      <c r="M16" s="368">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -12193,18 +12202,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="405"/>
-      <c r="F17" s="406"/>
-      <c r="G17" s="406"/>
-      <c r="H17" s="406"/>
-      <c r="I17" s="406"/>
-      <c r="J17" s="407"/>
-      <c r="K17" s="398"/>
-      <c r="L17" s="400"/>
-      <c r="M17" s="401"/>
+      <c r="B17" s="372"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="388"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="382"/>
+      <c r="M17" s="368"/>
       <c r="N17" s="32"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -12220,29 +12229,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="391">
+      <c r="B18" s="371">
         <v>3</v>
       </c>
-      <c r="C18" s="392">
+      <c r="C18" s="373">
         <v>43969</v>
       </c>
-      <c r="D18" s="392">
+      <c r="D18" s="373">
         <v>43997</v>
       </c>
-      <c r="E18" s="378"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="379"/>
-      <c r="J18" s="404"/>
-      <c r="K18" s="397" t="s">
+      <c r="E18" s="384"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="385"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="385"/>
+      <c r="J18" s="386"/>
+      <c r="K18" s="390" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="399">
+      <c r="L18" s="392">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M18" s="399">
+      <c r="M18" s="392">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -12261,18 +12270,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="402"/>
-      <c r="C19" s="403"/>
-      <c r="D19" s="403"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="406"/>
-      <c r="G19" s="406"/>
-      <c r="H19" s="406"/>
-      <c r="I19" s="406"/>
-      <c r="J19" s="407"/>
-      <c r="K19" s="398"/>
-      <c r="L19" s="400"/>
-      <c r="M19" s="400"/>
+      <c r="B19" s="372"/>
+      <c r="C19" s="383"/>
+      <c r="D19" s="383"/>
+      <c r="E19" s="387"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="382"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -12288,20 +12297,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="391">
+      <c r="B20" s="371">
         <v>4</v>
       </c>
-      <c r="C20" s="392"/>
-      <c r="D20" s="392"/>
-      <c r="E20" s="410"/>
-      <c r="F20" s="411"/>
-      <c r="G20" s="411"/>
-      <c r="H20" s="411"/>
-      <c r="I20" s="411"/>
-      <c r="J20" s="412"/>
-      <c r="K20" s="416"/>
-      <c r="L20" s="400"/>
-      <c r="M20" s="401"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="375"/>
+      <c r="G20" s="375"/>
+      <c r="H20" s="375"/>
+      <c r="I20" s="375"/>
+      <c r="J20" s="376"/>
+      <c r="K20" s="380"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="368"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -12317,18 +12326,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="402"/>
-      <c r="C21" s="392"/>
-      <c r="D21" s="392"/>
-      <c r="E21" s="413"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="414"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="414"/>
-      <c r="J21" s="415"/>
-      <c r="K21" s="417"/>
-      <c r="L21" s="400"/>
-      <c r="M21" s="401"/>
+      <c r="B21" s="372"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="377"/>
+      <c r="F21" s="378"/>
+      <c r="G21" s="378"/>
+      <c r="H21" s="378"/>
+      <c r="I21" s="378"/>
+      <c r="J21" s="379"/>
+      <c r="K21" s="381"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="368"/>
       <c r="N21" s="32"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -12371,13 +12380,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="409" t="s">
+      <c r="B23" s="370" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="409"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
+      <c r="C23" s="370"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
       <c r="G23" s="254"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -12400,7 +12409,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="408" t="s">
+      <c r="B24" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="258" t="s">
@@ -12437,7 +12446,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="408"/>
+      <c r="B25" s="369"/>
       <c r="C25" s="259" t="s">
         <v>26</v>
       </c>
@@ -12477,7 +12486,7 @@
       </c>
       <c r="C26" s="176">
         <f>+'S1 - Tunnit'!B3</f>
-        <v>36.25</v>
+        <v>41.25</v>
       </c>
       <c r="D26" s="176">
         <f>+'S2 -Tunnit'!B3</f>
@@ -12489,7 +12498,7 @@
       </c>
       <c r="F26" s="176">
         <f>SUM(B26:E26)</f>
-        <v>85.25</v>
+        <v>90.25</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="51"/>
@@ -12518,7 +12527,7 @@
       </c>
       <c r="C27" s="176">
         <f>'S1 - Tunnit'!B4</f>
-        <v>40.25</v>
+        <v>45.25</v>
       </c>
       <c r="D27" s="176">
         <f>+'S2 -Tunnit'!B4</f>
@@ -12530,7 +12539,7 @@
       </c>
       <c r="F27" s="176">
         <f>SUM(B27:E27)</f>
-        <v>105.75</v>
+        <v>110.75</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="51"/>
@@ -12667,7 +12676,7 @@
       </c>
       <c r="C32" s="241">
         <f>SUM(C26:C31)</f>
-        <v>76.5</v>
+        <v>86.5</v>
       </c>
       <c r="D32" s="241">
         <f>SUM(D26:D31)</f>
@@ -12679,7 +12688,7 @@
       </c>
       <c r="F32" s="241">
         <f>SUM(F26:F31)</f>
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="51"/>
@@ -12948,15 +12957,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -12971,23 +12988,15 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13036,14 +13045,14 @@
       <c r="C2" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="546" t="s">
+      <c r="D2" s="528" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="547"/>
-      <c r="F2" s="548" t="s">
+      <c r="E2" s="529"/>
+      <c r="F2" s="530" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="547"/>
+      <c r="G2" s="529"/>
       <c r="H2" s="315" t="s">
         <v>230</v>
       </c>
@@ -13065,14 +13074,14 @@
       <c r="C3" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="549" t="s">
+      <c r="D3" s="531" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="549"/>
-      <c r="F3" s="550" t="s">
+      <c r="E3" s="531"/>
+      <c r="F3" s="532" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="551"/>
+      <c r="G3" s="533"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -13086,10 +13095,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="316"/>
-      <c r="D4" s="551"/>
-      <c r="E4" s="551"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="551"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="533"/>
+      <c r="F4" s="532"/>
+      <c r="G4" s="533"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -13152,10 +13161,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="311"/>
-      <c r="B8" s="538" t="s">
+      <c r="B8" s="534" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="539"/>
+      <c r="C8" s="535"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -13193,10 +13202,10 @@
       <c r="B10" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="540" t="s">
+      <c r="C10" s="536" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="541"/>
+      <c r="D10" s="537"/>
       <c r="E10" s="314" t="s">
         <v>101</v>
       </c>
@@ -13225,16 +13234,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="542" t="s">
+      <c r="B11" s="538" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="542"/>
-      <c r="D11" s="543"/>
-      <c r="E11" s="544"/>
-      <c r="F11" s="545"/>
-      <c r="G11" s="544"/>
-      <c r="H11" s="544"/>
-      <c r="I11" s="544"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="539"/>
+      <c r="E11" s="540"/>
+      <c r="F11" s="541"/>
+      <c r="G11" s="540"/>
+      <c r="H11" s="540"/>
+      <c r="I11" s="540"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="311"/>
@@ -13282,10 +13291,10 @@
       <c r="B13" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="529" t="s">
+      <c r="C13" s="542" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="529"/>
+      <c r="D13" s="542"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -13369,10 +13378,10 @@
       <c r="B16" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="529" t="s">
+      <c r="C16" s="542" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="529"/>
+      <c r="D16" s="542"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -13440,10 +13449,10 @@
       <c r="B19" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="529" t="s">
+      <c r="C19" s="542" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="527"/>
+      <c r="D19" s="543"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -13484,10 +13493,10 @@
       <c r="B21" s="313" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="532" t="s">
+      <c r="C21" s="544" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="533"/>
+      <c r="D21" s="545"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -13507,10 +13516,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="311"/>
       <c r="B22" s="311"/>
-      <c r="C22" s="529" t="s">
+      <c r="C22" s="542" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="527"/>
+      <c r="D22" s="543"/>
       <c r="E22" s="311">
         <v>20</v>
       </c>
@@ -13530,10 +13539,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="312"/>
       <c r="B23" s="313"/>
-      <c r="C23" s="529" t="s">
+      <c r="C23" s="542" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="527"/>
+      <c r="D23" s="543"/>
       <c r="E23" s="312">
         <v>9</v>
       </c>
@@ -13553,10 +13562,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="312"/>
       <c r="B24" s="313"/>
-      <c r="C24" s="529" t="s">
+      <c r="C24" s="542" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="527"/>
+      <c r="D24" s="543"/>
       <c r="E24" s="312">
         <v>25</v>
       </c>
@@ -13576,10 +13585,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="312"/>
       <c r="B25" s="313"/>
-      <c r="C25" s="529" t="s">
+      <c r="C25" s="542" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="529"/>
+      <c r="D25" s="542"/>
       <c r="E25" s="312">
         <v>27</v>
       </c>
@@ -13599,10 +13608,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="312"/>
       <c r="B26" s="313"/>
-      <c r="C26" s="529" t="s">
+      <c r="C26" s="542" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="527"/>
+      <c r="D26" s="543"/>
       <c r="E26" s="312">
         <v>17</v>
       </c>
@@ -13621,16 +13630,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="312"/>
-      <c r="B27" s="528" t="s">
+      <c r="B27" s="546" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="534"/>
-      <c r="D27" s="535"/>
-      <c r="E27" s="536"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="536"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="536"/>
+      <c r="C27" s="547"/>
+      <c r="D27" s="548"/>
+      <c r="E27" s="549"/>
+      <c r="F27" s="550"/>
+      <c r="G27" s="549"/>
+      <c r="H27" s="549"/>
+      <c r="I27" s="549"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="311"/>
@@ -13660,10 +13669,10 @@
       <c r="B29" s="311" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="532" t="s">
+      <c r="C29" s="544" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="532"/>
+      <c r="D29" s="544"/>
       <c r="E29" s="311">
         <v>26</v>
       </c>
@@ -13683,10 +13692,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="312"/>
       <c r="B30" s="313"/>
-      <c r="C30" s="529" t="s">
+      <c r="C30" s="542" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="527"/>
+      <c r="D30" s="543"/>
       <c r="E30" s="121" t="s">
         <v>273</v>
       </c>
@@ -13704,10 +13713,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="312"/>
       <c r="B31" s="313"/>
-      <c r="C31" s="529" t="s">
+      <c r="C31" s="542" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="527"/>
+      <c r="D31" s="543"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -13727,10 +13736,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="312"/>
       <c r="B32" s="313"/>
-      <c r="C32" s="529" t="s">
+      <c r="C32" s="542" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="527"/>
+      <c r="D32" s="543"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -13748,10 +13757,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="312"/>
       <c r="B33" s="313"/>
-      <c r="C33" s="529" t="s">
+      <c r="C33" s="542" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="527"/>
+      <c r="D33" s="543"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -13769,10 +13778,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="312"/>
       <c r="B34" s="313"/>
-      <c r="C34" s="529" t="s">
+      <c r="C34" s="542" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="527"/>
+      <c r="D34" s="543"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -13790,10 +13799,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="312"/>
       <c r="B35" s="313"/>
-      <c r="C35" s="529" t="s">
+      <c r="C35" s="542" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="527"/>
+      <c r="D35" s="543"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -13847,10 +13856,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="312"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="532" t="s">
+      <c r="C38" s="544" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="533"/>
+      <c r="D38" s="545"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -13870,8 +13879,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="312"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="529"/>
-      <c r="D39" s="527"/>
+      <c r="C39" s="542"/>
+      <c r="D39" s="543"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -13887,10 +13896,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="312"/>
       <c r="B40" s="313"/>
-      <c r="C40" s="529" t="s">
+      <c r="C40" s="542" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="527"/>
+      <c r="D40" s="543"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -13994,16 +14003,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="312"/>
-      <c r="B46" s="528" t="s">
+      <c r="B46" s="546" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="528"/>
-      <c r="D46" s="528"/>
-      <c r="E46" s="528"/>
-      <c r="F46" s="528"/>
-      <c r="G46" s="528"/>
-      <c r="H46" s="528"/>
-      <c r="I46" s="528"/>
+      <c r="C46" s="546"/>
+      <c r="D46" s="546"/>
+      <c r="E46" s="546"/>
+      <c r="F46" s="546"/>
+      <c r="G46" s="546"/>
+      <c r="H46" s="546"/>
+      <c r="I46" s="546"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="312"/>
@@ -14016,10 +14025,10 @@
         <v>246</v>
       </c>
       <c r="B47" s="313"/>
-      <c r="C47" s="529" t="s">
+      <c r="C47" s="542" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="529"/>
+      <c r="D47" s="542"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -14041,8 +14050,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="312"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="529"/>
-      <c r="D48" s="529"/>
+      <c r="C48" s="542"/>
+      <c r="D48" s="542"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -14060,10 +14069,10 @@
         <v>246</v>
       </c>
       <c r="B49" s="313"/>
-      <c r="C49" s="529" t="s">
+      <c r="C49" s="542" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="529"/>
+      <c r="D49" s="542"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -14085,8 +14094,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="312"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="529"/>
-      <c r="D50" s="529"/>
+      <c r="C50" s="542"/>
+      <c r="D50" s="542"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -14119,8 +14128,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="313"/>
-      <c r="C52" s="529"/>
-      <c r="D52" s="527"/>
+      <c r="C52" s="542"/>
+      <c r="D52" s="543"/>
       <c r="E52" s="312"/>
       <c r="F52" s="133"/>
       <c r="G52" s="312"/>
@@ -14152,16 +14161,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="312"/>
-      <c r="B54" s="528" t="s">
+      <c r="B54" s="546" t="s">
         <v>284</v>
       </c>
-      <c r="C54" s="528"/>
-      <c r="D54" s="528"/>
-      <c r="E54" s="528"/>
-      <c r="F54" s="528"/>
-      <c r="G54" s="528"/>
-      <c r="H54" s="528"/>
-      <c r="I54" s="528"/>
+      <c r="C54" s="546"/>
+      <c r="D54" s="546"/>
+      <c r="E54" s="546"/>
+      <c r="F54" s="546"/>
+      <c r="G54" s="546"/>
+      <c r="H54" s="546"/>
+      <c r="I54" s="546"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="312"/>
@@ -14172,10 +14181,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="312"/>
       <c r="B55" s="313"/>
-      <c r="C55" s="529" t="s">
+      <c r="C55" s="542" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="527"/>
+      <c r="D55" s="543"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -14195,10 +14204,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="312"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="529" t="s">
+      <c r="C56" s="542" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="529"/>
+      <c r="D56" s="542"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -14234,16 +14243,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
-      <c r="B58" s="528" t="s">
+      <c r="B58" s="546" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="528"/>
-      <c r="D58" s="528"/>
-      <c r="E58" s="528"/>
-      <c r="F58" s="528"/>
-      <c r="G58" s="528"/>
-      <c r="H58" s="528"/>
-      <c r="I58" s="528"/>
+      <c r="C58" s="546"/>
+      <c r="D58" s="546"/>
+      <c r="E58" s="546"/>
+      <c r="F58" s="546"/>
+      <c r="G58" s="546"/>
+      <c r="H58" s="546"/>
+      <c r="I58" s="546"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="312"/>
@@ -14256,10 +14265,10 @@
       <c r="B59" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="529" t="s">
+      <c r="C59" s="542" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="529"/>
+      <c r="D59" s="542"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -14279,10 +14288,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="311"/>
       <c r="B60" s="311"/>
-      <c r="C60" s="527" t="s">
+      <c r="C60" s="543" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="527"/>
+      <c r="D60" s="543"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -14302,10 +14311,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="311"/>
       <c r="B61" s="311"/>
-      <c r="C61" s="527" t="s">
+      <c r="C61" s="543" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="527"/>
+      <c r="D61" s="543"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -14346,10 +14355,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="311"/>
       <c r="B63" s="311"/>
-      <c r="C63" s="527" t="s">
+      <c r="C63" s="543" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="527"/>
+      <c r="D63" s="543"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -14478,10 +14487,10 @@
       <c r="B68" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="529" t="s">
+      <c r="C68" s="542" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="529"/>
+      <c r="D68" s="542"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -14563,16 +14572,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="312"/>
-      <c r="B71" s="528" t="s">
+      <c r="B71" s="546" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="528"/>
-      <c r="D71" s="528"/>
-      <c r="E71" s="528"/>
-      <c r="F71" s="528"/>
-      <c r="G71" s="528"/>
-      <c r="H71" s="528"/>
-      <c r="I71" s="528"/>
+      <c r="C71" s="546"/>
+      <c r="D71" s="546"/>
+      <c r="E71" s="546"/>
+      <c r="F71" s="546"/>
+      <c r="G71" s="546"/>
+      <c r="H71" s="546"/>
+      <c r="I71" s="546"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="312"/>
@@ -14588,10 +14597,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="312"/>
       <c r="B72" s="312"/>
-      <c r="C72" s="527" t="s">
+      <c r="C72" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="527"/>
+      <c r="D72" s="543"/>
       <c r="E72" s="312">
         <v>20</v>
       </c>
@@ -14618,10 +14627,10 @@
       <c r="B73" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="527" t="s">
+      <c r="C73" s="543" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="527"/>
+      <c r="D73" s="543"/>
       <c r="E73" s="312">
         <v>16</v>
       </c>
@@ -14715,16 +14724,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="312"/>
-      <c r="B77" s="528" t="s">
+      <c r="B77" s="546" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="528"/>
-      <c r="D77" s="528"/>
-      <c r="E77" s="528"/>
-      <c r="F77" s="528"/>
-      <c r="G77" s="528"/>
-      <c r="H77" s="528"/>
-      <c r="I77" s="528"/>
+      <c r="C77" s="546"/>
+      <c r="D77" s="546"/>
+      <c r="E77" s="546"/>
+      <c r="F77" s="546"/>
+      <c r="G77" s="546"/>
+      <c r="H77" s="546"/>
+      <c r="I77" s="546"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="312"/>
@@ -14740,15 +14749,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="312"/>
       <c r="B78" s="312"/>
-      <c r="C78" s="529" t="s">
+      <c r="C78" s="542" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="529"/>
-      <c r="E78" s="529"/>
-      <c r="F78" s="529"/>
-      <c r="G78" s="529"/>
-      <c r="H78" s="529"/>
-      <c r="I78" s="529"/>
+      <c r="D78" s="542"/>
+      <c r="E78" s="542"/>
+      <c r="F78" s="542"/>
+      <c r="G78" s="542"/>
+      <c r="H78" s="542"/>
+      <c r="I78" s="542"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="312"/>
@@ -14764,13 +14773,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="312"/>
       <c r="B79" s="312"/>
-      <c r="C79" s="530"/>
-      <c r="D79" s="530"/>
-      <c r="E79" s="530"/>
-      <c r="F79" s="530"/>
-      <c r="G79" s="530"/>
-      <c r="H79" s="530"/>
-      <c r="I79" s="530"/>
+      <c r="C79" s="551"/>
+      <c r="D79" s="551"/>
+      <c r="E79" s="551"/>
+      <c r="F79" s="551"/>
+      <c r="G79" s="551"/>
+      <c r="H79" s="551"/>
+      <c r="I79" s="551"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="312"/>
@@ -14810,10 +14819,10 @@
         <v>309</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="531" t="s">
+      <c r="C81" s="552" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="531"/>
+      <c r="D81" s="552"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -14852,57 +14861,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14929,14 +14938,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="553" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="572"/>
-      <c r="C1" s="572"/>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="573"/>
+      <c r="B1" s="554"/>
+      <c r="C1" s="554"/>
+      <c r="D1" s="554"/>
+      <c r="E1" s="554"/>
+      <c r="F1" s="555"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14949,11 +14958,11 @@
       <c r="C2" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="509" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14968,11 +14977,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="574" t="s">
+      <c r="D3" s="556" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="575"/>
-      <c r="F3" s="576"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="558"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14987,11 +14996,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="560" t="s">
+      <c r="D4" s="559" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="561"/>
-      <c r="F4" s="562"/>
+      <c r="E4" s="560"/>
+      <c r="F4" s="561"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15006,9 +15015,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="560"/>
-      <c r="E5" s="561"/>
-      <c r="F5" s="562"/>
+      <c r="D5" s="559"/>
+      <c r="E5" s="560"/>
+      <c r="F5" s="561"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15023,9 +15032,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="560"/>
-      <c r="E6" s="561"/>
-      <c r="F6" s="562"/>
+      <c r="D6" s="559"/>
+      <c r="E6" s="560"/>
+      <c r="F6" s="561"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15040,78 +15049,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="560"/>
-      <c r="E7" s="561"/>
-      <c r="F7" s="562"/>
+      <c r="D7" s="559"/>
+      <c r="E7" s="560"/>
+      <c r="F7" s="561"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="563" t="s">
+      <c r="A8" s="562" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="565">
+      <c r="B8" s="564">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="565">
+      <c r="C8" s="564">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="560"/>
-      <c r="E8" s="561"/>
-      <c r="F8" s="562"/>
+      <c r="D8" s="559"/>
+      <c r="E8" s="560"/>
+      <c r="F8" s="561"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="564"/>
-      <c r="B9" s="566"/>
-      <c r="C9" s="567"/>
-      <c r="D9" s="568"/>
-      <c r="E9" s="569"/>
-      <c r="F9" s="570"/>
+      <c r="A9" s="563"/>
+      <c r="B9" s="565"/>
+      <c r="C9" s="566"/>
+      <c r="D9" s="567"/>
+      <c r="E9" s="568"/>
+      <c r="F9" s="569"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="552" t="s">
+      <c r="A10" s="570" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="553"/>
-      <c r="C10" s="553"/>
-      <c r="D10" s="553"/>
-      <c r="E10" s="554"/>
-      <c r="F10" s="553"/>
+      <c r="B10" s="571"/>
+      <c r="C10" s="571"/>
+      <c r="D10" s="571"/>
+      <c r="E10" s="572"/>
+      <c r="F10" s="571"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="555" t="s">
+      <c r="A11" s="573" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="486" t="s">
+      <c r="B11" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="387" t="s">
+      <c r="C11" s="396" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="389"/>
-      <c r="E11" s="556" t="s">
+      <c r="D11" s="398"/>
+      <c r="E11" s="574" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="558" t="s">
+      <c r="F11" s="576" t="s">
         <v>320</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="555"/>
-      <c r="B12" s="486"/>
+      <c r="A12" s="573"/>
+      <c r="B12" s="510"/>
       <c r="C12" s="302" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="557"/>
-      <c r="F12" s="559"/>
+      <c r="E12" s="575"/>
+      <c r="F12" s="577"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16439,11 +16448,12 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16451,12 +16461,11 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16467,7 +16476,7 @@
   <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16528,15 +16537,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="433" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="426"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="435"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -16572,15 +16581,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="430" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="423"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="432"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -16619,10 +16628,10 @@
       <c r="B4" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="433" t="s">
+      <c r="C4" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="434"/>
+      <c r="D4" s="425"/>
       <c r="E4" s="225" t="s">
         <v>78</v>
       </c>
@@ -16670,7 +16679,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="418" t="s">
+      <c r="B5" s="426" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -16722,7 +16731,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="418"/>
+      <c r="B6" s="426"/>
       <c r="C6" s="269" t="s">
         <v>375</v>
       </c>
@@ -16772,13 +16781,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="430"/>
-      <c r="C7" s="431"/>
-      <c r="D7" s="431"/>
-      <c r="E7" s="431"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="431"/>
-      <c r="H7" s="432"/>
+      <c r="B7" s="421"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
+      <c r="F7" s="422"/>
+      <c r="G7" s="422"/>
+      <c r="H7" s="423"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -16814,7 +16823,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="418" t="s">
+      <c r="B8" s="426" t="s">
         <v>373</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -16866,7 +16875,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="418"/>
+      <c r="B9" s="426"/>
       <c r="C9" s="269" t="s">
         <v>375</v>
       </c>
@@ -16916,13 +16925,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="430"/>
-      <c r="C10" s="431"/>
-      <c r="D10" s="431"/>
-      <c r="E10" s="431"/>
-      <c r="F10" s="431"/>
-      <c r="G10" s="431"/>
-      <c r="H10" s="432"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="422"/>
+      <c r="D10" s="422"/>
+      <c r="E10" s="422"/>
+      <c r="F10" s="422"/>
+      <c r="G10" s="422"/>
+      <c r="H10" s="423"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -17060,13 +17069,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="342"/>
-      <c r="B13" s="430"/>
-      <c r="C13" s="431"/>
-      <c r="D13" s="431"/>
-      <c r="E13" s="431"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="431"/>
-      <c r="H13" s="432"/>
+      <c r="B13" s="421"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="422"/>
+      <c r="F13" s="422"/>
+      <c r="G13" s="422"/>
+      <c r="H13" s="423"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -17204,13 +17213,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="342"/>
-      <c r="B16" s="430"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431"/>
-      <c r="E16" s="431"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="431"/>
-      <c r="H16" s="432"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="422"/>
+      <c r="D16" s="422"/>
+      <c r="E16" s="422"/>
+      <c r="F16" s="422"/>
+      <c r="G16" s="422"/>
+      <c r="H16" s="423"/>
       <c r="I16" s="223"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -17348,13 +17357,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="430"/>
-      <c r="C19" s="431"/>
-      <c r="D19" s="431"/>
-      <c r="E19" s="431"/>
-      <c r="F19" s="431"/>
-      <c r="G19" s="431"/>
-      <c r="H19" s="432"/>
+      <c r="B19" s="421"/>
+      <c r="C19" s="422"/>
+      <c r="D19" s="422"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
+      <c r="G19" s="422"/>
+      <c r="H19" s="423"/>
       <c r="I19" s="223"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -17492,13 +17501,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="430"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="431"/>
-      <c r="H22" s="432"/>
+      <c r="B22" s="421"/>
+      <c r="C22" s="422"/>
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="423"/>
       <c r="I22" s="223"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -17636,13 +17645,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="430"/>
-      <c r="C25" s="431"/>
-      <c r="D25" s="431"/>
-      <c r="E25" s="431"/>
-      <c r="F25" s="431"/>
-      <c r="G25" s="431"/>
-      <c r="H25" s="432"/>
+      <c r="B25" s="421"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="423"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -17780,13 +17789,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="430"/>
-      <c r="C28" s="431"/>
-      <c r="D28" s="431"/>
-      <c r="E28" s="431"/>
-      <c r="F28" s="431"/>
-      <c r="G28" s="431"/>
-      <c r="H28" s="432"/>
+      <c r="B28" s="421"/>
+      <c r="C28" s="422"/>
+      <c r="D28" s="422"/>
+      <c r="E28" s="422"/>
+      <c r="F28" s="422"/>
+      <c r="G28" s="422"/>
+      <c r="H28" s="423"/>
       <c r="I28" s="223"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -17831,9 +17840,13 @@
       <c r="D29" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="338"/>
+      <c r="E29" s="338" t="s">
+        <v>512</v>
+      </c>
       <c r="F29" s="230"/>
-      <c r="G29" s="338"/>
+      <c r="G29" s="338" t="s">
+        <v>513</v>
+      </c>
       <c r="H29" s="184"/>
       <c r="I29" s="223"/>
       <c r="J29" s="29"/>
@@ -17877,9 +17890,13 @@
       <c r="D30" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="338"/>
+      <c r="E30" s="367" t="s">
+        <v>512</v>
+      </c>
       <c r="F30" s="184"/>
-      <c r="G30" s="338"/>
+      <c r="G30" s="367" t="s">
+        <v>513</v>
+      </c>
       <c r="H30" s="184"/>
       <c r="I30" s="223"/>
       <c r="J30" s="29"/>
@@ -17916,13 +17933,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="430"/>
-      <c r="C31" s="431"/>
-      <c r="D31" s="431"/>
-      <c r="E31" s="431"/>
-      <c r="F31" s="431"/>
-      <c r="G31" s="431"/>
-      <c r="H31" s="432"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="422"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="422"/>
+      <c r="G31" s="422"/>
+      <c r="H31" s="423"/>
       <c r="I31" s="223"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -18052,13 +18069,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="430"/>
-      <c r="C34" s="431"/>
-      <c r="D34" s="431"/>
-      <c r="E34" s="431"/>
-      <c r="F34" s="431"/>
-      <c r="G34" s="431"/>
-      <c r="H34" s="432"/>
+      <c r="B34" s="421"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="422"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="422"/>
+      <c r="G34" s="422"/>
+      <c r="H34" s="423"/>
       <c r="I34" s="223"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -18094,15 +18111,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="222"/>
-      <c r="B35" s="421" t="s">
+      <c r="B35" s="430" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
-      <c r="F35" s="422"/>
-      <c r="G35" s="422"/>
-      <c r="H35" s="423"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="431"/>
+      <c r="E35" s="431"/>
+      <c r="F35" s="431"/>
+      <c r="G35" s="431"/>
+      <c r="H35" s="432"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -18141,10 +18158,10 @@
       <c r="B36" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="433" t="s">
+      <c r="C36" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="434"/>
+      <c r="D36" s="425"/>
       <c r="E36" s="225" t="s">
         <v>78</v>
       </c>
@@ -18192,7 +18209,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="224"/>
-      <c r="B37" s="418"/>
+      <c r="B37" s="426"/>
       <c r="C37" s="269" t="s">
         <v>374</v>
       </c>
@@ -18238,7 +18255,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="231"/>
-      <c r="B38" s="418"/>
+      <c r="B38" s="426"/>
       <c r="C38" s="269" t="s">
         <v>375</v>
       </c>
@@ -18284,13 +18301,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="231"/>
-      <c r="B39" s="430"/>
-      <c r="C39" s="431"/>
-      <c r="D39" s="431"/>
-      <c r="E39" s="431"/>
-      <c r="F39" s="431"/>
-      <c r="G39" s="431"/>
-      <c r="H39" s="432"/>
+      <c r="B39" s="421"/>
+      <c r="C39" s="422"/>
+      <c r="D39" s="422"/>
+      <c r="E39" s="422"/>
+      <c r="F39" s="422"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="423"/>
       <c r="I39" s="223"/>
       <c r="J39" s="29"/>
       <c r="L39" s="29"/>
@@ -18325,7 +18342,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="222"/>
-      <c r="B40" s="418"/>
+      <c r="B40" s="426"/>
       <c r="C40" s="269" t="s">
         <v>374</v>
       </c>
@@ -18371,7 +18388,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="231"/>
-      <c r="B41" s="418"/>
+      <c r="B41" s="426"/>
       <c r="C41" s="269" t="s">
         <v>375</v>
       </c>
@@ -18417,13 +18434,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="222"/>
-      <c r="B42" s="430"/>
-      <c r="C42" s="431"/>
-      <c r="D42" s="431"/>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="431"/>
-      <c r="H42" s="432"/>
+      <c r="B42" s="421"/>
+      <c r="C42" s="422"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="422"/>
+      <c r="F42" s="422"/>
+      <c r="G42" s="422"/>
+      <c r="H42" s="423"/>
       <c r="I42" s="223"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -18459,7 +18476,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="222"/>
-      <c r="B43" s="418"/>
+      <c r="B43" s="426"/>
       <c r="C43" s="269" t="s">
         <v>374</v>
       </c>
@@ -18505,7 +18522,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="222"/>
-      <c r="B44" s="418"/>
+      <c r="B44" s="426"/>
       <c r="C44" s="269" t="s">
         <v>375</v>
       </c>
@@ -18551,13 +18568,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="222"/>
-      <c r="B45" s="430"/>
-      <c r="C45" s="431"/>
-      <c r="D45" s="431"/>
-      <c r="E45" s="431"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="431"/>
-      <c r="H45" s="432"/>
+      <c r="B45" s="421"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="422"/>
+      <c r="E45" s="422"/>
+      <c r="F45" s="422"/>
+      <c r="G45" s="422"/>
+      <c r="H45" s="423"/>
       <c r="I45" s="223"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -18640,10 +18657,10 @@
       <c r="B47" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="433" t="s">
+      <c r="C47" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="434"/>
+      <c r="D47" s="425"/>
       <c r="E47" s="225" t="s">
         <v>78</v>
       </c>
@@ -18691,7 +18708,7 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="224"/>
-      <c r="B48" s="418"/>
+      <c r="B48" s="426"/>
       <c r="C48" s="269" t="s">
         <v>374</v>
       </c>
@@ -18737,7 +18754,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="231"/>
-      <c r="B49" s="418"/>
+      <c r="B49" s="426"/>
       <c r="C49" s="269" t="s">
         <v>375</v>
       </c>
@@ -18783,13 +18800,13 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="231"/>
-      <c r="B50" s="430"/>
-      <c r="C50" s="431"/>
-      <c r="D50" s="431"/>
-      <c r="E50" s="431"/>
-      <c r="F50" s="431"/>
-      <c r="G50" s="431"/>
-      <c r="H50" s="432"/>
+      <c r="B50" s="421"/>
+      <c r="C50" s="422"/>
+      <c r="D50" s="422"/>
+      <c r="E50" s="422"/>
+      <c r="F50" s="422"/>
+      <c r="G50" s="422"/>
+      <c r="H50" s="423"/>
       <c r="I50" s="223"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -18825,7 +18842,7 @@
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="222"/>
-      <c r="B51" s="418"/>
+      <c r="B51" s="426"/>
       <c r="C51" s="269" t="s">
         <v>374</v>
       </c>
@@ -18871,7 +18888,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="231"/>
-      <c r="B52" s="418"/>
+      <c r="B52" s="426"/>
       <c r="C52" s="269" t="s">
         <v>375</v>
       </c>
@@ -18917,13 +18934,13 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="222"/>
-      <c r="B53" s="430"/>
-      <c r="C53" s="431"/>
-      <c r="D53" s="431"/>
-      <c r="E53" s="431"/>
-      <c r="F53" s="431"/>
-      <c r="G53" s="431"/>
-      <c r="H53" s="432"/>
+      <c r="B53" s="421"/>
+      <c r="C53" s="422"/>
+      <c r="D53" s="422"/>
+      <c r="E53" s="422"/>
+      <c r="F53" s="422"/>
+      <c r="G53" s="422"/>
+      <c r="H53" s="423"/>
       <c r="I53" s="223"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -18959,7 +18976,7 @@
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="222"/>
-      <c r="B54" s="418"/>
+      <c r="B54" s="426"/>
       <c r="C54" s="269" t="s">
         <v>374</v>
       </c>
@@ -19005,7 +19022,7 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="222"/>
-      <c r="B55" s="418"/>
+      <c r="B55" s="426"/>
       <c r="C55" s="269" t="s">
         <v>375</v>
       </c>
@@ -19051,13 +19068,13 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="222"/>
-      <c r="B56" s="430"/>
-      <c r="C56" s="431"/>
-      <c r="D56" s="431"/>
-      <c r="E56" s="431"/>
-      <c r="F56" s="431"/>
-      <c r="G56" s="431"/>
-      <c r="H56" s="432"/>
+      <c r="B56" s="421"/>
+      <c r="C56" s="422"/>
+      <c r="D56" s="422"/>
+      <c r="E56" s="422"/>
+      <c r="F56" s="422"/>
+      <c r="G56" s="422"/>
+      <c r="H56" s="423"/>
       <c r="I56" s="223"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -20314,24 +20331,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B7:H7"/>
@@ -20348,11 +20352,24 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20362,7 +20379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C74" sqref="C74:D74"/>
     </sheetView>
   </sheetViews>
@@ -20383,10 +20400,10 @@
       <c r="B1" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="444" t="s">
+      <c r="C1" s="445" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="445"/>
+      <c r="D1" s="446"/>
       <c r="E1" s="341" t="s">
         <v>97</v>
       </c>
@@ -20401,10 +20418,10 @@
       <c r="B2" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="437" t="s">
+      <c r="C2" s="447" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="437"/>
+      <c r="D2" s="447"/>
       <c r="E2" s="345"/>
       <c r="F2" s="345"/>
     </row>
@@ -20413,10 +20430,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="346"/>
-      <c r="C3" s="446" t="s">
+      <c r="C3" s="448" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="446"/>
+      <c r="D3" s="448"/>
       <c r="E3" s="347" t="s">
         <v>135</v>
       </c>
@@ -20429,10 +20446,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="346"/>
-      <c r="C4" s="443" t="s">
+      <c r="C4" s="449" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="443"/>
+      <c r="D4" s="449"/>
       <c r="E4" s="347" t="s">
         <v>135</v>
       </c>
@@ -20447,10 +20464,10 @@
       <c r="B5" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="447" t="s">
+      <c r="C5" s="440" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="447"/>
+      <c r="D5" s="440"/>
       <c r="E5" s="345"/>
       <c r="F5" s="345"/>
     </row>
@@ -20458,10 +20475,10 @@
       <c r="A6" s="351" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="438" t="s">
+      <c r="C6" s="439" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="438"/>
+      <c r="D6" s="439"/>
       <c r="E6" s="347" t="s">
         <v>135</v>
       </c>
@@ -20488,10 +20505,10 @@
       <c r="A8" s="351" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="443" t="s">
+      <c r="C8" s="449" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="443"/>
+      <c r="D8" s="449"/>
       <c r="E8" s="347" t="s">
         <v>135</v>
       </c>
@@ -20521,10 +20538,10 @@
       <c r="B10" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="437" t="s">
+      <c r="C10" s="447" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="437"/>
+      <c r="D10" s="447"/>
       <c r="E10" s="345"/>
       <c r="F10" s="345"/>
     </row>
@@ -20532,10 +20549,10 @@
       <c r="A11" s="351" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="438" t="s">
+      <c r="C11" s="439" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="438"/>
+      <c r="D11" s="439"/>
       <c r="E11" s="347" t="s">
         <v>135</v>
       </c>
@@ -20547,10 +20564,10 @@
       <c r="A12" s="351" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="438" t="s">
+      <c r="C12" s="439" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="438"/>
+      <c r="D12" s="439"/>
       <c r="E12" s="347" t="s">
         <v>135</v>
       </c>
@@ -20562,10 +20579,10 @@
       <c r="A13" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="438" t="s">
+      <c r="C13" s="439" t="s">
         <v>391</v>
       </c>
-      <c r="D13" s="438"/>
+      <c r="D13" s="439"/>
       <c r="E13" s="347" t="s">
         <v>135</v>
       </c>
@@ -20577,10 +20594,10 @@
       <c r="A14" s="351" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="438" t="s">
+      <c r="C14" s="439" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="438"/>
+      <c r="D14" s="439"/>
       <c r="E14" s="347" t="s">
         <v>135</v>
       </c>
@@ -20592,10 +20609,10 @@
       <c r="A15" s="351" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="438" t="s">
+      <c r="C15" s="439" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="438"/>
+      <c r="D15" s="439"/>
       <c r="E15" s="347" t="s">
         <v>135</v>
       </c>
@@ -20607,10 +20624,10 @@
       <c r="A16" s="351" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="438" t="s">
+      <c r="C16" s="439" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="438"/>
+      <c r="D16" s="439"/>
       <c r="E16" s="347" t="s">
         <v>135</v>
       </c>
@@ -20622,10 +20639,10 @@
       <c r="A17" s="351" t="s">
         <v>405</v>
       </c>
-      <c r="C17" s="438" t="s">
+      <c r="C17" s="439" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="438"/>
+      <c r="D17" s="439"/>
       <c r="E17" s="347" t="s">
         <v>135</v>
       </c>
@@ -20637,10 +20654,10 @@
       <c r="A18" s="351" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="438" t="s">
+      <c r="C18" s="439" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="438"/>
+      <c r="D18" s="439"/>
       <c r="E18" s="347" t="s">
         <v>135</v>
       </c>
@@ -20652,10 +20669,10 @@
       <c r="A19" s="351" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="438" t="s">
+      <c r="C19" s="439" t="s">
         <v>397</v>
       </c>
-      <c r="D19" s="438"/>
+      <c r="D19" s="439"/>
       <c r="E19" s="347" t="s">
         <v>135</v>
       </c>
@@ -20667,10 +20684,10 @@
       <c r="A20" s="351" t="s">
         <v>408</v>
       </c>
-      <c r="C20" s="438" t="s">
+      <c r="C20" s="439" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="438"/>
+      <c r="D20" s="439"/>
       <c r="E20" s="347" t="s">
         <v>135</v>
       </c>
@@ -20682,10 +20699,10 @@
       <c r="A21" s="351" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="438" t="s">
+      <c r="C21" s="439" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="438"/>
+      <c r="D21" s="439"/>
       <c r="E21" s="347" t="s">
         <v>135</v>
       </c>
@@ -20715,10 +20732,10 @@
       <c r="B23" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="442" t="s">
+      <c r="C23" s="437" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="442"/>
+      <c r="D23" s="437"/>
       <c r="E23" s="345"/>
       <c r="F23" s="345"/>
     </row>
@@ -20726,10 +20743,10 @@
       <c r="A24" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="436" t="s">
+      <c r="C24" s="444" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="436"/>
+      <c r="D24" s="444"/>
       <c r="E24" s="347" t="s">
         <v>135</v>
       </c>
@@ -20741,10 +20758,10 @@
       <c r="A25" s="351" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="436" t="s">
+      <c r="C25" s="444" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="436"/>
+      <c r="D25" s="444"/>
       <c r="E25" s="347" t="s">
         <v>135</v>
       </c>
@@ -20756,10 +20773,10 @@
       <c r="A26" s="351" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="436" t="s">
+      <c r="C26" s="444" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="436"/>
+      <c r="D26" s="444"/>
       <c r="E26" s="310" t="s">
         <v>400</v>
       </c>
@@ -20771,10 +20788,10 @@
       <c r="A27" s="351" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="435" t="s">
+      <c r="C27" s="442" t="s">
         <v>454</v>
       </c>
-      <c r="D27" s="435"/>
+      <c r="D27" s="442"/>
       <c r="E27" s="310" t="s">
         <v>400</v>
       </c>
@@ -20786,10 +20803,10 @@
       <c r="A28" s="351" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="436" t="s">
+      <c r="C28" s="444" t="s">
         <v>453</v>
       </c>
-      <c r="D28" s="436"/>
+      <c r="D28" s="444"/>
       <c r="E28" s="310" t="s">
         <v>400</v>
       </c>
@@ -20801,10 +20818,10 @@
       <c r="A29" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="C29" s="436" t="s">
+      <c r="C29" s="444" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="436"/>
+      <c r="D29" s="444"/>
       <c r="E29" s="310" t="s">
         <v>400</v>
       </c>
@@ -20816,10 +20833,10 @@
       <c r="A30" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="C30" s="435" t="s">
+      <c r="C30" s="442" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="435"/>
+      <c r="D30" s="442"/>
       <c r="E30" s="310" t="s">
         <v>400</v>
       </c>
@@ -20831,10 +20848,10 @@
       <c r="A31" s="351" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="435" t="s">
+      <c r="C31" s="442" t="s">
         <v>459</v>
       </c>
-      <c r="D31" s="435"/>
+      <c r="D31" s="442"/>
       <c r="E31" s="310" t="s">
         <v>400</v>
       </c>
@@ -20846,10 +20863,10 @@
       <c r="A32" s="351" t="s">
         <v>460</v>
       </c>
-      <c r="C32" s="435" t="s">
+      <c r="C32" s="442" t="s">
         <v>470</v>
       </c>
-      <c r="D32" s="435"/>
+      <c r="D32" s="442"/>
       <c r="E32" s="310" t="s">
         <v>400</v>
       </c>
@@ -20861,10 +20878,10 @@
       <c r="A33" s="351" t="s">
         <v>465</v>
       </c>
-      <c r="C33" s="436" t="s">
+      <c r="C33" s="444" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="436"/>
+      <c r="D33" s="444"/>
       <c r="E33" s="310" t="s">
         <v>400</v>
       </c>
@@ -20876,10 +20893,10 @@
       <c r="A34" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="C34" s="435" t="s">
+      <c r="C34" s="442" t="s">
         <v>463</v>
       </c>
-      <c r="D34" s="435"/>
+      <c r="D34" s="442"/>
       <c r="E34" s="310" t="s">
         <v>400</v>
       </c>
@@ -20891,10 +20908,10 @@
       <c r="A35" s="351" t="s">
         <v>472</v>
       </c>
-      <c r="C35" s="435" t="s">
+      <c r="C35" s="442" t="s">
         <v>464</v>
       </c>
-      <c r="D35" s="435"/>
+      <c r="D35" s="442"/>
       <c r="E35" s="310" t="s">
         <v>400</v>
       </c>
@@ -20906,10 +20923,10 @@
       <c r="A36" s="351" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="435" t="s">
+      <c r="C36" s="442" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="435"/>
+      <c r="D36" s="442"/>
       <c r="E36" s="347" t="s">
         <v>135</v>
       </c>
@@ -20921,10 +20938,10 @@
       <c r="A37" s="351" t="s">
         <v>474</v>
       </c>
-      <c r="C37" s="435" t="s">
+      <c r="C37" s="442" t="s">
         <v>466</v>
       </c>
-      <c r="D37" s="435"/>
+      <c r="D37" s="442"/>
       <c r="E37" s="310" t="s">
         <v>400</v>
       </c>
@@ -20936,10 +20953,10 @@
       <c r="A38" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="C38" s="435" t="s">
+      <c r="C38" s="442" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="435"/>
+      <c r="D38" s="442"/>
       <c r="E38" s="310" t="s">
         <v>400</v>
       </c>
@@ -20948,36 +20965,36 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="435"/>
-      <c r="D39" s="435"/>
+      <c r="C39" s="442"/>
+      <c r="D39" s="442"/>
       <c r="E39" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="435"/>
-      <c r="D40" s="435"/>
+      <c r="C40" s="442"/>
+      <c r="D40" s="442"/>
       <c r="E40" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="435"/>
-      <c r="D41" s="435"/>
+      <c r="C41" s="442"/>
+      <c r="D41" s="442"/>
       <c r="E41" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="435"/>
-      <c r="D42" s="435"/>
+      <c r="C42" s="442"/>
+      <c r="D42" s="442"/>
       <c r="E42" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="435"/>
-      <c r="D43" s="435"/>
+      <c r="C43" s="442"/>
+      <c r="D43" s="442"/>
       <c r="E43" s="310" t="s">
         <v>400</v>
       </c>
@@ -20989,10 +21006,10 @@
       <c r="B44" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="442" t="s">
+      <c r="C44" s="437" t="s">
         <v>411</v>
       </c>
-      <c r="D44" s="442"/>
+      <c r="D44" s="437"/>
       <c r="E44" s="345"/>
       <c r="F44" s="345"/>
     </row>
@@ -21000,10 +21017,10 @@
       <c r="A45" s="351" t="s">
         <v>481</v>
       </c>
-      <c r="C45" s="436" t="s">
+      <c r="C45" s="444" t="s">
         <v>476</v>
       </c>
-      <c r="D45" s="436"/>
+      <c r="D45" s="444"/>
       <c r="E45" s="310" t="s">
         <v>400</v>
       </c>
@@ -21012,10 +21029,10 @@
       <c r="A46" s="351" t="s">
         <v>482</v>
       </c>
-      <c r="C46" s="436" t="s">
+      <c r="C46" s="444" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="436"/>
+      <c r="D46" s="444"/>
       <c r="E46" s="310" t="s">
         <v>400</v>
       </c>
@@ -21024,10 +21041,10 @@
       <c r="A47" s="351" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="436" t="s">
+      <c r="C47" s="444" t="s">
         <v>478</v>
       </c>
-      <c r="D47" s="436"/>
+      <c r="D47" s="444"/>
       <c r="E47" s="310" t="s">
         <v>400</v>
       </c>
@@ -21036,10 +21053,10 @@
       <c r="A48" s="351" t="s">
         <v>484</v>
       </c>
-      <c r="C48" s="435" t="s">
+      <c r="C48" s="442" t="s">
         <v>479</v>
       </c>
-      <c r="D48" s="435"/>
+      <c r="D48" s="442"/>
       <c r="E48" s="310" t="s">
         <v>400</v>
       </c>
@@ -21048,52 +21065,52 @@
       <c r="A49" s="351" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="435" t="s">
+      <c r="C49" s="442" t="s">
         <v>480</v>
       </c>
-      <c r="D49" s="435"/>
+      <c r="D49" s="442"/>
       <c r="E49" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="435"/>
-      <c r="D50" s="435"/>
+      <c r="C50" s="442"/>
+      <c r="D50" s="442"/>
       <c r="E50" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="435"/>
-      <c r="D51" s="435"/>
+      <c r="C51" s="442"/>
+      <c r="D51" s="442"/>
       <c r="E51" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="435"/>
-      <c r="D52" s="435"/>
+      <c r="C52" s="442"/>
+      <c r="D52" s="442"/>
       <c r="E52" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="435"/>
-      <c r="D53" s="435"/>
+      <c r="C53" s="442"/>
+      <c r="D53" s="442"/>
       <c r="E53" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="435"/>
-      <c r="D54" s="435"/>
+      <c r="C54" s="442"/>
+      <c r="D54" s="442"/>
       <c r="E54" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="435"/>
-      <c r="D55" s="435"/>
+      <c r="C55" s="442"/>
+      <c r="D55" s="442"/>
       <c r="E55" s="310" t="s">
         <v>400</v>
       </c>
@@ -21105,26 +21122,26 @@
       <c r="B56" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C56" s="448" t="s">
+      <c r="C56" s="438" t="s">
         <v>412</v>
       </c>
-      <c r="D56" s="448"/>
+      <c r="D56" s="438"/>
       <c r="E56" s="345"/>
       <c r="F56" s="345"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="439"/>
-      <c r="D57" s="439"/>
+      <c r="C57" s="443"/>
+      <c r="D57" s="443"/>
       <c r="E57" s="345"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="439"/>
-      <c r="D58" s="439"/>
+      <c r="C58" s="443"/>
+      <c r="D58" s="443"/>
       <c r="E58" s="345"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="439"/>
-      <c r="D59" s="439"/>
+      <c r="C59" s="443"/>
+      <c r="D59" s="443"/>
       <c r="E59" s="345"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -21134,26 +21151,26 @@
       <c r="B60" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C60" s="442" t="s">
+      <c r="C60" s="437" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="442"/>
+      <c r="D60" s="437"/>
       <c r="E60" s="345"/>
       <c r="F60" s="345"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="439"/>
-      <c r="D61" s="439"/>
+      <c r="C61" s="443"/>
+      <c r="D61" s="443"/>
       <c r="E61" s="345"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="439"/>
-      <c r="D62" s="439"/>
+      <c r="C62" s="443"/>
+      <c r="D62" s="443"/>
       <c r="E62" s="345"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="439"/>
-      <c r="D63" s="439"/>
+      <c r="C63" s="443"/>
+      <c r="D63" s="443"/>
       <c r="E63" s="345"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -21163,26 +21180,26 @@
       <c r="B64" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C64" s="442" t="s">
+      <c r="C64" s="437" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="442"/>
+      <c r="D64" s="437"/>
       <c r="E64" s="345"/>
       <c r="F64" s="345"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="439"/>
-      <c r="D65" s="439"/>
+      <c r="C65" s="443"/>
+      <c r="D65" s="443"/>
       <c r="E65" s="345"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="439"/>
-      <c r="D66" s="439"/>
+      <c r="C66" s="443"/>
+      <c r="D66" s="443"/>
       <c r="E66" s="345"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="439"/>
-      <c r="D67" s="439"/>
+      <c r="C67" s="443"/>
+      <c r="D67" s="443"/>
       <c r="E67" s="345"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -21192,63 +21209,63 @@
       <c r="B68" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="442" t="s">
+      <c r="C68" s="437" t="s">
         <v>417</v>
       </c>
-      <c r="D68" s="442"/>
+      <c r="D68" s="437"/>
       <c r="E68" s="345"/>
       <c r="F68" s="345"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="439"/>
-      <c r="D69" s="439"/>
+      <c r="C69" s="443"/>
+      <c r="D69" s="443"/>
       <c r="E69" s="345"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="439"/>
-      <c r="D70" s="439"/>
+      <c r="C70" s="443"/>
+      <c r="D70" s="443"/>
       <c r="E70" s="345"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="439"/>
-      <c r="D71" s="439"/>
+      <c r="C71" s="443"/>
+      <c r="D71" s="443"/>
       <c r="E71" s="345"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="441">
+      <c r="A72" s="451">
         <v>10</v>
       </c>
-      <c r="B72" s="440" t="s">
+      <c r="B72" s="450" t="s">
         <v>413</v>
       </c>
-      <c r="C72" s="448" t="s">
+      <c r="C72" s="438" t="s">
         <v>414</v>
       </c>
-      <c r="D72" s="448"/>
+      <c r="D72" s="438"/>
       <c r="E72" s="345"/>
       <c r="F72" s="345"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="441"/>
-      <c r="B73" s="440"/>
-      <c r="C73" s="448"/>
-      <c r="D73" s="448"/>
+      <c r="A73" s="451"/>
+      <c r="B73" s="450"/>
+      <c r="C73" s="438"/>
+      <c r="D73" s="438"/>
       <c r="E73" s="345"/>
       <c r="F73" s="345"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="439"/>
-      <c r="D74" s="439"/>
+      <c r="C74" s="443"/>
+      <c r="D74" s="443"/>
       <c r="E74" s="345"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="439"/>
-      <c r="D75" s="439"/>
+      <c r="C75" s="443"/>
+      <c r="D75" s="443"/>
       <c r="E75" s="345"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="439"/>
-      <c r="D76" s="439"/>
+      <c r="C76" s="443"/>
+      <c r="D76" s="443"/>
       <c r="E76" s="345"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -21258,26 +21275,26 @@
       <c r="B77" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="448" t="s">
+      <c r="C77" s="438" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="448"/>
+      <c r="D77" s="438"/>
       <c r="E77" s="345"/>
       <c r="F77" s="345"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="439"/>
-      <c r="D78" s="439"/>
+      <c r="C78" s="443"/>
+      <c r="D78" s="443"/>
       <c r="E78" s="345"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="439"/>
-      <c r="D79" s="439"/>
+      <c r="C79" s="443"/>
+      <c r="D79" s="443"/>
       <c r="E79" s="345"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="439"/>
-      <c r="D80" s="439"/>
+      <c r="C80" s="443"/>
+      <c r="D80" s="443"/>
       <c r="E80" s="345"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21287,10 +21304,10 @@
       <c r="B81" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="447" t="s">
+      <c r="C81" s="440" t="s">
         <v>421</v>
       </c>
-      <c r="D81" s="447"/>
+      <c r="D81" s="440"/>
       <c r="E81" s="348"/>
       <c r="F81" s="345"/>
     </row>
@@ -21298,10 +21315,10 @@
       <c r="A82" s="351" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="438" t="s">
+      <c r="C82" s="439" t="s">
         <v>422</v>
       </c>
-      <c r="D82" s="438"/>
+      <c r="D82" s="439"/>
       <c r="E82" s="347" t="s">
         <v>135</v>
       </c>
@@ -21313,10 +21330,10 @@
       <c r="A83" s="351" t="s">
         <v>424</v>
       </c>
-      <c r="C83" s="438" t="s">
+      <c r="C83" s="439" t="s">
         <v>423</v>
       </c>
-      <c r="D83" s="438"/>
+      <c r="D83" s="439"/>
       <c r="E83" s="347" t="s">
         <v>135</v>
       </c>
@@ -21331,10 +21348,10 @@
       <c r="B84" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C84" s="437" t="s">
+      <c r="C84" s="447" t="s">
         <v>501</v>
       </c>
-      <c r="D84" s="437"/>
+      <c r="D84" s="447"/>
       <c r="E84" s="348"/>
       <c r="F84" s="345"/>
     </row>
@@ -21342,10 +21359,10 @@
       <c r="A85" s="351" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="438" t="s">
+      <c r="C85" s="439" t="s">
         <v>502</v>
       </c>
-      <c r="D85" s="438"/>
+      <c r="D85" s="439"/>
       <c r="E85" s="310" t="s">
         <v>400</v>
       </c>
@@ -21354,27 +21371,99 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="438"/>
-      <c r="D86" s="438"/>
+      <c r="C86" s="439"/>
+      <c r="D86" s="439"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="450"/>
-      <c r="D91" s="450"/>
+      <c r="C91" s="441"/>
+      <c r="D91" s="441"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="449"/>
-      <c r="D92" s="449"/>
+      <c r="C92" s="436"/>
+      <c r="D92" s="436"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="449"/>
-      <c r="D93" s="449"/>
+      <c r="C93" s="436"/>
+      <c r="D93" s="436"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="449"/>
-      <c r="D94" s="449"/>
+      <c r="C94" s="436"/>
+      <c r="D94" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C72:D73"/>
@@ -21391,78 +21480,6 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="266" priority="138" operator="containsText" text="Ei tehdä">
@@ -21917,15 +21934,15 @@
       <c r="O1" s="304"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="470"/>
-      <c r="F2" s="471"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="J2" s="304"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
@@ -21936,9 +21953,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="474"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="J3" s="304"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
@@ -21949,9 +21966,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="474"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="J4" s="304"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
@@ -21962,9 +21979,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="472"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="474"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
@@ -21975,9 +21992,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="475"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="477"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="J6" s="304"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
@@ -22015,14 +22032,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="444" t="s">
+      <c r="E9" s="445" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="445"/>
-      <c r="G9" s="478" t="s">
+      <c r="F9" s="446"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="479"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -22048,12 +22065,12 @@
       <c r="D10" s="353" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="437" t="s">
+      <c r="E10" s="447" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="437"/>
-      <c r="G10" s="455"/>
-      <c r="H10" s="455"/>
+      <c r="F10" s="447"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
       <c r="I10" s="353">
         <v>0</v>
       </c>
@@ -22079,12 +22096,12 @@
       <c r="D11" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="447" t="s">
+      <c r="E11" s="440" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="455"/>
-      <c r="H11" s="455"/>
+      <c r="F11" s="440"/>
+      <c r="G11" s="465"/>
+      <c r="H11" s="465"/>
       <c r="I11" s="353">
         <v>2</v>
       </c>
@@ -22110,12 +22127,12 @@
       <c r="D12" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="437" t="s">
+      <c r="E12" s="447" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="437"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="465"/>
+      <c r="H12" s="465"/>
       <c r="I12" s="353">
         <v>20</v>
       </c>
@@ -22141,12 +22158,12 @@
       <c r="D13" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="442" t="s">
+      <c r="E13" s="437" t="s">
         <v>410</v>
       </c>
-      <c r="F13" s="442"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="455"/>
+      <c r="F13" s="437"/>
+      <c r="G13" s="465"/>
+      <c r="H13" s="465"/>
       <c r="I13" s="353">
         <v>40</v>
       </c>
@@ -22172,12 +22189,12 @@
       <c r="D14" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="447" t="s">
+      <c r="E14" s="440" t="s">
         <v>421</v>
       </c>
-      <c r="F14" s="447"/>
-      <c r="G14" s="455"/>
-      <c r="H14" s="455"/>
+      <c r="F14" s="440"/>
+      <c r="G14" s="465"/>
+      <c r="H14" s="465"/>
       <c r="I14" s="353">
         <v>0</v>
       </c>
@@ -22203,12 +22220,12 @@
       <c r="D15" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="437" t="s">
+      <c r="E15" s="447" t="s">
         <v>501</v>
       </c>
-      <c r="F15" s="437"/>
-      <c r="G15" s="455"/>
-      <c r="H15" s="455"/>
+      <c r="F15" s="447"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="465"/>
       <c r="I15" s="353">
         <v>5</v>
       </c>
@@ -22228,10 +22245,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="457"/>
-      <c r="F16" s="457"/>
-      <c r="G16" s="456"/>
-      <c r="H16" s="456"/>
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
+      <c r="G16" s="476"/>
+      <c r="H16" s="476"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="310" t="e">
@@ -22269,8 +22286,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="465"/>
-      <c r="F18" s="465"/>
+      <c r="E18" s="471"/>
+      <c r="F18" s="471"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="173"/>
@@ -22288,11 +22305,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="460" t="s">
+      <c r="C19" s="466" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="461"/>
-      <c r="E19" s="462"/>
+      <c r="D19" s="467"/>
+      <c r="E19" s="468"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="178" t="s">
@@ -22346,10 +22363,10 @@
       <c r="C21" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="463" t="s">
+      <c r="D21" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="464"/>
+      <c r="E21" s="470"/>
       <c r="F21" s="172" t="s">
         <v>97</v>
       </c>
@@ -22399,10 +22416,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="358"/>
-      <c r="D22" s="466" t="s">
+      <c r="D22" s="472" t="s">
         <v>378</v>
       </c>
-      <c r="E22" s="466"/>
+      <c r="E22" s="472"/>
       <c r="F22" s="347" t="s">
         <v>135</v>
       </c>
@@ -22450,10 +22467,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="358"/>
-      <c r="D23" s="458" t="s">
+      <c r="D23" s="478" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="458"/>
+      <c r="E23" s="478"/>
       <c r="F23" s="347" t="s">
         <v>135</v>
       </c>
@@ -22493,10 +22510,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="360"/>
-      <c r="D24" s="454" t="s">
+      <c r="D24" s="479" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="454"/>
+      <c r="E24" s="479"/>
       <c r="F24" s="347" t="s">
         <v>135</v>
       </c>
@@ -22577,10 +22594,10 @@
         <v>488</v>
       </c>
       <c r="C26" s="360"/>
-      <c r="D26" s="459" t="s">
+      <c r="D26" s="480" t="s">
         <v>489</v>
       </c>
-      <c r="E26" s="459"/>
+      <c r="E26" s="480"/>
       <c r="F26" s="347" t="s">
         <v>135</v>
       </c>
@@ -22663,10 +22680,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="358"/>
-      <c r="D28" s="451" t="s">
+      <c r="D28" s="475" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="451"/>
+      <c r="E28" s="475"/>
       <c r="F28" s="347" t="s">
         <v>135</v>
       </c>
@@ -22706,10 +22723,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="358"/>
-      <c r="D29" s="451" t="s">
+      <c r="D29" s="475" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="451"/>
+      <c r="E29" s="475"/>
       <c r="F29" s="347" t="s">
         <v>135</v>
       </c>
@@ -22749,10 +22766,10 @@
         <v>401</v>
       </c>
       <c r="C30" s="358"/>
-      <c r="D30" s="451" t="s">
+      <c r="D30" s="475" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="451"/>
+      <c r="E30" s="475"/>
       <c r="F30" s="347" t="s">
         <v>135</v>
       </c>
@@ -22792,10 +22809,10 @@
         <v>402</v>
       </c>
       <c r="C31" s="358"/>
-      <c r="D31" s="451" t="s">
+      <c r="D31" s="475" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="451"/>
+      <c r="E31" s="475"/>
       <c r="F31" s="347" t="s">
         <v>135</v>
       </c>
@@ -22835,10 +22852,10 @@
         <v>403</v>
       </c>
       <c r="C32" s="358"/>
-      <c r="D32" s="451" t="s">
+      <c r="D32" s="475" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="451"/>
+      <c r="E32" s="475"/>
       <c r="F32" s="347" t="s">
         <v>135</v>
       </c>
@@ -22878,10 +22895,10 @@
         <v>404</v>
       </c>
       <c r="C33" s="358"/>
-      <c r="D33" s="451" t="s">
+      <c r="D33" s="475" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="451"/>
+      <c r="E33" s="475"/>
       <c r="F33" s="347" t="s">
         <v>135</v>
       </c>
@@ -22921,10 +22938,10 @@
         <v>405</v>
       </c>
       <c r="C34" s="358"/>
-      <c r="D34" s="451" t="s">
+      <c r="D34" s="475" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="451"/>
+      <c r="E34" s="475"/>
       <c r="F34" s="347" t="s">
         <v>135</v>
       </c>
@@ -22964,10 +22981,10 @@
         <v>406</v>
       </c>
       <c r="C35" s="358"/>
-      <c r="D35" s="451" t="s">
+      <c r="D35" s="475" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="451"/>
+      <c r="E35" s="475"/>
       <c r="F35" s="347" t="s">
         <v>135</v>
       </c>
@@ -23007,10 +23024,10 @@
         <v>407</v>
       </c>
       <c r="C36" s="358"/>
-      <c r="D36" s="451" t="s">
+      <c r="D36" s="475" t="s">
         <v>397</v>
       </c>
-      <c r="E36" s="451"/>
+      <c r="E36" s="475"/>
       <c r="F36" s="347" t="s">
         <v>135</v>
       </c>
@@ -23050,10 +23067,10 @@
         <v>408</v>
       </c>
       <c r="C37" s="358"/>
-      <c r="D37" s="451" t="s">
+      <c r="D37" s="475" t="s">
         <v>398</v>
       </c>
-      <c r="E37" s="451"/>
+      <c r="E37" s="475"/>
       <c r="F37" s="347" t="s">
         <v>135</v>
       </c>
@@ -23093,10 +23110,10 @@
         <v>409</v>
       </c>
       <c r="C38" s="358"/>
-      <c r="D38" s="451" t="s">
+      <c r="D38" s="475" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="451"/>
+      <c r="E38" s="475"/>
       <c r="F38" s="347" t="s">
         <v>135</v>
       </c>
@@ -23179,10 +23196,10 @@
         <v>425</v>
       </c>
       <c r="C40" s="360"/>
-      <c r="D40" s="452" t="s">
+      <c r="D40" s="474" t="s">
         <v>428</v>
       </c>
-      <c r="E40" s="452"/>
+      <c r="E40" s="474"/>
       <c r="F40" s="347" t="s">
         <v>135</v>
       </c>
@@ -23222,10 +23239,10 @@
         <v>426</v>
       </c>
       <c r="C41" s="360"/>
-      <c r="D41" s="452" t="s">
+      <c r="D41" s="474" t="s">
         <v>427</v>
       </c>
-      <c r="E41" s="452"/>
+      <c r="E41" s="474"/>
       <c r="F41" s="347" t="s">
         <v>135</v>
       </c>
@@ -23265,10 +23282,10 @@
         <v>429</v>
       </c>
       <c r="C42" s="360"/>
-      <c r="D42" s="452" t="s">
+      <c r="D42" s="474" t="s">
         <v>461</v>
       </c>
-      <c r="E42" s="452"/>
+      <c r="E42" s="474"/>
       <c r="F42" s="310" t="s">
         <v>400</v>
       </c>
@@ -23306,10 +23323,10 @@
         <v>452</v>
       </c>
       <c r="C43" s="360"/>
-      <c r="D43" s="453" t="s">
+      <c r="D43" s="473" t="s">
         <v>454</v>
       </c>
-      <c r="E43" s="453"/>
+      <c r="E43" s="473"/>
       <c r="F43" s="310" t="s">
         <v>400</v>
       </c>
@@ -23347,10 +23364,10 @@
         <v>430</v>
       </c>
       <c r="C44" s="360"/>
-      <c r="D44" s="452" t="s">
+      <c r="D44" s="474" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="452"/>
+      <c r="E44" s="474"/>
       <c r="F44" s="310" t="s">
         <v>400</v>
       </c>
@@ -23388,10 +23405,10 @@
         <v>455</v>
       </c>
       <c r="C45" s="360"/>
-      <c r="D45" s="452" t="s">
+      <c r="D45" s="474" t="s">
         <v>462</v>
       </c>
-      <c r="E45" s="452"/>
+      <c r="E45" s="474"/>
       <c r="F45" s="310" t="s">
         <v>400</v>
       </c>
@@ -23429,10 +23446,10 @@
         <v>456</v>
       </c>
       <c r="C46" s="360"/>
-      <c r="D46" s="453" t="s">
+      <c r="D46" s="473" t="s">
         <v>457</v>
       </c>
-      <c r="E46" s="453"/>
+      <c r="E46" s="473"/>
       <c r="F46" s="310" t="s">
         <v>400</v>
       </c>
@@ -23470,10 +23487,10 @@
         <v>458</v>
       </c>
       <c r="C47" s="360"/>
-      <c r="D47" s="453" t="s">
+      <c r="D47" s="473" t="s">
         <v>459</v>
       </c>
-      <c r="E47" s="453"/>
+      <c r="E47" s="473"/>
       <c r="F47" s="310" t="s">
         <v>400</v>
       </c>
@@ -23511,10 +23528,10 @@
         <v>460</v>
       </c>
       <c r="C48" s="360"/>
-      <c r="D48" s="453" t="s">
+      <c r="D48" s="473" t="s">
         <v>470</v>
       </c>
-      <c r="E48" s="453"/>
+      <c r="E48" s="473"/>
       <c r="F48" s="310" t="s">
         <v>400</v>
       </c>
@@ -23552,10 +23569,10 @@
         <v>465</v>
       </c>
       <c r="C49" s="360"/>
-      <c r="D49" s="452" t="s">
+      <c r="D49" s="474" t="s">
         <v>471</v>
       </c>
-      <c r="E49" s="452"/>
+      <c r="E49" s="474"/>
       <c r="F49" s="310" t="s">
         <v>400</v>
       </c>
@@ -23593,10 +23610,10 @@
         <v>468</v>
       </c>
       <c r="C50" s="360"/>
-      <c r="D50" s="453" t="s">
+      <c r="D50" s="473" t="s">
         <v>463</v>
       </c>
-      <c r="E50" s="453"/>
+      <c r="E50" s="473"/>
       <c r="F50" s="310" t="s">
         <v>400</v>
       </c>
@@ -23634,10 +23651,10 @@
         <v>472</v>
       </c>
       <c r="C51" s="360"/>
-      <c r="D51" s="453" t="s">
+      <c r="D51" s="473" t="s">
         <v>464</v>
       </c>
-      <c r="E51" s="453"/>
+      <c r="E51" s="473"/>
       <c r="F51" s="310" t="s">
         <v>400</v>
       </c>
@@ -23675,10 +23692,10 @@
         <v>473</v>
       </c>
       <c r="C52" s="360"/>
-      <c r="D52" s="453" t="s">
+      <c r="D52" s="473" t="s">
         <v>467</v>
       </c>
-      <c r="E52" s="453"/>
+      <c r="E52" s="473"/>
       <c r="F52" s="347" t="s">
         <v>135</v>
       </c>
@@ -23718,10 +23735,10 @@
         <v>474</v>
       </c>
       <c r="C53" s="360"/>
-      <c r="D53" s="453" t="s">
+      <c r="D53" s="473" t="s">
         <v>466</v>
       </c>
-      <c r="E53" s="453"/>
+      <c r="E53" s="473"/>
       <c r="F53" s="310" t="s">
         <v>400</v>
       </c>
@@ -23759,10 +23776,10 @@
         <v>475</v>
       </c>
       <c r="C54" s="360"/>
-      <c r="D54" s="453" t="s">
+      <c r="D54" s="473" t="s">
         <v>469</v>
       </c>
-      <c r="E54" s="453"/>
+      <c r="E54" s="473"/>
       <c r="F54" s="310" t="s">
         <v>400</v>
       </c>
@@ -23800,10 +23817,10 @@
         <v>137</v>
       </c>
       <c r="C55" s="358"/>
-      <c r="D55" s="451" t="s">
+      <c r="D55" s="475" t="s">
         <v>422</v>
       </c>
-      <c r="E55" s="451"/>
+      <c r="E55" s="475"/>
       <c r="F55" s="347" t="s">
         <v>135</v>
       </c>
@@ -23843,10 +23860,10 @@
         <v>424</v>
       </c>
       <c r="C56" s="358"/>
-      <c r="D56" s="451" t="s">
+      <c r="D56" s="475" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="451"/>
+      <c r="E56" s="475"/>
       <c r="F56" s="347" t="s">
         <v>135</v>
       </c>
@@ -23886,10 +23903,10 @@
         <v>139</v>
       </c>
       <c r="C57" s="360"/>
-      <c r="D57" s="454" t="s">
+      <c r="D57" s="479" t="s">
         <v>502</v>
       </c>
-      <c r="E57" s="454"/>
+      <c r="E57" s="479"/>
       <c r="F57" s="310" t="s">
         <v>400</v>
       </c>
@@ -23911,8 +23928,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="436"/>
-      <c r="E58" s="436"/>
+      <c r="D58" s="444"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="268"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -23932,8 +23949,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="340"/>
       <c r="C59" s="340"/>
-      <c r="D59" s="436"/>
-      <c r="E59" s="436"/>
+      <c r="D59" s="444"/>
+      <c r="E59" s="444"/>
       <c r="F59" s="268"/>
       <c r="G59" s="340"/>
       <c r="H59" s="340"/>
@@ -23953,8 +23970,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="340"/>
       <c r="C60" s="340"/>
-      <c r="D60" s="436"/>
-      <c r="E60" s="436"/>
+      <c r="D60" s="444"/>
+      <c r="E60" s="444"/>
       <c r="F60" s="268"/>
       <c r="G60" s="340"/>
       <c r="H60" s="340"/>
@@ -23974,8 +23991,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="340"/>
       <c r="C61" s="340"/>
-      <c r="D61" s="436"/>
-      <c r="E61" s="436"/>
+      <c r="D61" s="444"/>
+      <c r="E61" s="444"/>
       <c r="F61" s="268"/>
       <c r="G61" s="340"/>
       <c r="H61" s="340"/>
@@ -23995,8 +24012,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="340"/>
       <c r="C62" s="340"/>
-      <c r="D62" s="436"/>
-      <c r="E62" s="436"/>
+      <c r="D62" s="444"/>
+      <c r="E62" s="444"/>
       <c r="F62" s="268"/>
       <c r="G62" s="340"/>
       <c r="H62" s="340"/>
@@ -24016,8 +24033,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="340"/>
       <c r="C63" s="340"/>
-      <c r="D63" s="436"/>
-      <c r="E63" s="436"/>
+      <c r="D63" s="444"/>
+      <c r="E63" s="444"/>
       <c r="F63" s="268"/>
       <c r="G63" s="340"/>
       <c r="H63" s="340"/>
@@ -24037,8 +24054,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="340"/>
       <c r="C64" s="340"/>
-      <c r="D64" s="436"/>
-      <c r="E64" s="436"/>
+      <c r="D64" s="444"/>
+      <c r="E64" s="444"/>
       <c r="F64" s="268"/>
       <c r="G64" s="340"/>
       <c r="H64" s="340"/>
@@ -24058,8 +24075,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="340"/>
       <c r="C65" s="340"/>
-      <c r="D65" s="436"/>
-      <c r="E65" s="436"/>
+      <c r="D65" s="444"/>
+      <c r="E65" s="444"/>
       <c r="F65" s="268"/>
       <c r="G65" s="340"/>
       <c r="H65" s="340"/>
@@ -24299,12 +24316,46 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="C19:E19"/>
@@ -24321,46 +24372,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
     <cfRule type="containsText" dxfId="171" priority="279" operator="containsText" text="Ei tehdä">
@@ -25164,9 +25181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25182,14 +25199,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="481" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="508"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -25203,11 +25220,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="509" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="509"/>
-      <c r="F2" s="510"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -25217,12 +25234,12 @@
       </c>
       <c r="B3" s="87">
         <f>SUMIF($B$14:$B$103,"Toni",$E$14:$E$103)</f>
-        <v>36.25</v>
+        <v>41.25</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="513"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -25232,12 +25249,12 @@
       </c>
       <c r="B4" s="87">
         <f>SUMIF($B$14:$B$103,"Ronja",$E$14:$E$103)</f>
-        <v>40.25</v>
+        <v>45.25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -25245,9 +25262,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -25255,9 +25272,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -25265,9 +25282,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="492"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="492"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -25282,81 +25299,81 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="494" t="s">
+      <c r="A9" s="492" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="496">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
-        <v>76.5</v>
-      </c>
-      <c r="C9" s="498" t="str">
+        <v>86.5</v>
+      </c>
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="500" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="502">
+      <c r="E9" s="500">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="504"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="495"/>
-      <c r="B10" s="497"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="501"/>
-      <c r="E10" s="503"/>
-      <c r="F10" s="505"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="501"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="480" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="481"/>
-      <c r="C11" s="482"/>
-      <c r="D11" s="481"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="484"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="485" t="s">
+      <c r="A12" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="486" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="487" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="488"/>
-      <c r="E12" s="489" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="513" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="490" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="485"/>
-      <c r="B13" s="486"/>
+      <c r="A13" s="509"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="489"/>
-      <c r="F13" s="490"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -25904,8 +25921,12 @@
         <v>374</v>
       </c>
       <c r="C44" s="192"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="331"/>
+      <c r="D44" s="367" t="s">
+        <v>512</v>
+      </c>
+      <c r="E44" s="331">
+        <v>1</v>
+      </c>
       <c r="F44" s="195"/>
       <c r="G44" s="56"/>
       <c r="H44" s="29"/>
@@ -25918,8 +25939,12 @@
         <v>375</v>
       </c>
       <c r="C45" s="192"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="331"/>
+      <c r="D45" s="367" t="s">
+        <v>512</v>
+      </c>
+      <c r="E45" s="331">
+        <v>1</v>
+      </c>
       <c r="F45" s="195"/>
       <c r="G45" s="56"/>
       <c r="H45" s="29"/>
@@ -25968,8 +25993,12 @@
         <v>374</v>
       </c>
       <c r="C48" s="192"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="331"/>
+      <c r="D48" s="367" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="331">
+        <v>4</v>
+      </c>
       <c r="F48" s="195"/>
       <c r="G48" s="56"/>
       <c r="H48" s="29"/>
@@ -25982,8 +26011,12 @@
         <v>375</v>
       </c>
       <c r="C49" s="192"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="331"/>
+      <c r="D49" s="367" t="s">
+        <v>513</v>
+      </c>
+      <c r="E49" s="331">
+        <v>4</v>
+      </c>
       <c r="F49" s="195"/>
       <c r="G49" s="56"/>
       <c r="H49" s="29"/>
@@ -26656,11 +26689,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -26669,12 +26703,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26706,15 +26739,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="470"/>
-      <c r="F2" s="471"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -26724,9 +26757,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="474"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -26736,9 +26769,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="474"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -26748,9 +26781,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="472"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="474"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -26760,9 +26793,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="475"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="477"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -26806,14 +26839,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="444" t="s">
+      <c r="E9" s="445" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="445"/>
-      <c r="G9" s="478" t="s">
+      <c r="F9" s="446"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="479"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -26839,12 +26872,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="514" t="s">
+      <c r="E10" s="521" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="514"/>
-      <c r="G10" s="456"/>
-      <c r="H10" s="456"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="476"/>
+      <c r="H10" s="476"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -26869,12 +26902,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="457" t="s">
+      <c r="E11" s="477" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="457"/>
-      <c r="G11" s="456"/>
-      <c r="H11" s="456"/>
+      <c r="F11" s="477"/>
+      <c r="G11" s="476"/>
+      <c r="H11" s="476"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -26899,12 +26932,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="457" t="s">
+      <c r="E12" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="457"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="456"/>
+      <c r="F12" s="477"/>
+      <c r="G12" s="476"/>
+      <c r="H12" s="476"/>
       <c r="I12" s="310">
         <v>2</v>
       </c>
@@ -26929,12 +26962,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="457" t="s">
+      <c r="E13" s="477" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="457"/>
-      <c r="G13" s="456"/>
-      <c r="H13" s="456"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="476"/>
+      <c r="H13" s="476"/>
       <c r="I13" s="310">
         <v>5</v>
       </c>
@@ -26959,12 +26992,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="457" t="s">
+      <c r="E14" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="457"/>
-      <c r="G14" s="456"/>
-      <c r="H14" s="456"/>
+      <c r="F14" s="477"/>
+      <c r="G14" s="476"/>
+      <c r="H14" s="476"/>
       <c r="I14" s="310">
         <v>12</v>
       </c>
@@ -26989,12 +27022,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="457" t="s">
+      <c r="E15" s="477" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="457"/>
-      <c r="G15" s="456"/>
-      <c r="H15" s="456"/>
+      <c r="F15" s="477"/>
+      <c r="G15" s="476"/>
+      <c r="H15" s="476"/>
       <c r="I15" s="310">
         <v>19</v>
       </c>
@@ -27077,10 +27110,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="457"/>
-      <c r="F18" s="457"/>
-      <c r="G18" s="456"/>
-      <c r="H18" s="456"/>
+      <c r="E18" s="477"/>
+      <c r="F18" s="477"/>
+      <c r="G18" s="476"/>
+      <c r="H18" s="476"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="310"/>
@@ -27097,8 +27130,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="465"/>
-      <c r="F19" s="465"/>
+      <c r="E19" s="471"/>
+      <c r="F19" s="471"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="304"/>
@@ -27174,10 +27207,10 @@
       <c r="C22" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="463" t="s">
+      <c r="D22" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="464"/>
+      <c r="E22" s="470"/>
       <c r="F22" s="172" t="s">
         <v>97</v>
       </c>
@@ -27275,10 +27308,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="443" t="s">
+      <c r="D24" s="449" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="443"/>
+      <c r="E24" s="449"/>
       <c r="F24" s="303" t="s">
         <v>135</v>
       </c>
@@ -27326,10 +27359,10 @@
         <v>139</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="443" t="s">
+      <c r="D25" s="449" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="443"/>
+      <c r="E25" s="449"/>
       <c r="F25" s="303" t="s">
         <v>135</v>
       </c>
@@ -27375,10 +27408,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="438" t="s">
+      <c r="D26" s="439" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="438"/>
+      <c r="E26" s="439"/>
       <c r="F26" s="303" t="s">
         <v>135</v>
       </c>
@@ -27473,10 +27506,10 @@
         <v>144</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="438" t="s">
+      <c r="D28" s="439" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="438"/>
+      <c r="E28" s="439"/>
       <c r="F28" s="303" t="s">
         <v>111</v>
       </c>
@@ -27522,10 +27555,10 @@
         <v>146</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="438" t="s">
+      <c r="D29" s="439" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="438"/>
+      <c r="E29" s="439"/>
       <c r="F29" s="303" t="s">
         <v>111</v>
       </c>
@@ -27571,10 +27604,10 @@
         <v>148</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="438" t="s">
+      <c r="D30" s="439" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="438"/>
+      <c r="E30" s="439"/>
       <c r="F30" s="303" t="s">
         <v>111</v>
       </c>
@@ -27620,10 +27653,10 @@
         <v>151</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="438" t="s">
+      <c r="D31" s="439" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="438"/>
+      <c r="E31" s="439"/>
       <c r="F31" s="303" t="s">
         <v>135</v>
       </c>
@@ -27669,10 +27702,10 @@
         <v>153</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="438" t="s">
+      <c r="D32" s="439" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="438"/>
+      <c r="E32" s="439"/>
       <c r="F32" s="303" t="s">
         <v>135</v>
       </c>
@@ -27718,10 +27751,10 @@
         <v>155</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="438" t="s">
+      <c r="D33" s="439" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="438"/>
+      <c r="E33" s="439"/>
       <c r="F33" s="303" t="s">
         <v>135</v>
       </c>
@@ -27767,10 +27800,10 @@
         <v>157</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="438" t="s">
+      <c r="D34" s="439" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="438"/>
+      <c r="E34" s="439"/>
       <c r="F34" s="303" t="s">
         <v>135</v>
       </c>
@@ -27816,10 +27849,10 @@
         <v>159</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="438" t="s">
+      <c r="D35" s="439" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="438"/>
+      <c r="E35" s="439"/>
       <c r="F35" s="303" t="s">
         <v>135</v>
       </c>
@@ -27865,10 +27898,10 @@
         <v>161</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="438" t="s">
+      <c r="D36" s="439" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="438"/>
+      <c r="E36" s="439"/>
       <c r="F36" s="303" t="s">
         <v>135</v>
       </c>
@@ -27914,10 +27947,10 @@
         <v>163</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="438" t="s">
+      <c r="D37" s="439" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="438"/>
+      <c r="E37" s="439"/>
       <c r="F37" s="303" t="s">
         <v>135</v>
       </c>
@@ -27963,10 +27996,10 @@
         <v>165</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="438" t="s">
+      <c r="D38" s="439" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="438"/>
+      <c r="E38" s="439"/>
       <c r="F38" s="303" t="s">
         <v>135</v>
       </c>
@@ -28010,8 +28043,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="303"/>
-      <c r="D39" s="438"/>
-      <c r="E39" s="438"/>
+      <c r="D39" s="439"/>
+      <c r="E39" s="439"/>
       <c r="F39" s="303"/>
       <c r="G39" s="303"/>
       <c r="H39" s="303"/>
@@ -28031,8 +28064,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="438"/>
-      <c r="E40" s="438"/>
+      <c r="D40" s="439"/>
+      <c r="E40" s="439"/>
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
       <c r="H40" s="303"/>
@@ -28052,8 +28085,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="303"/>
-      <c r="D41" s="438"/>
-      <c r="E41" s="438"/>
+      <c r="D41" s="439"/>
+      <c r="E41" s="439"/>
       <c r="F41" s="303"/>
       <c r="G41" s="303"/>
       <c r="H41" s="303"/>
@@ -28073,8 +28106,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="303"/>
-      <c r="D42" s="438"/>
-      <c r="E42" s="438"/>
+      <c r="D42" s="439"/>
+      <c r="E42" s="439"/>
       <c r="F42" s="303"/>
       <c r="G42" s="303"/>
       <c r="H42" s="303"/>
@@ -28094,8 +28127,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="303"/>
-      <c r="D43" s="438"/>
-      <c r="E43" s="438"/>
+      <c r="D43" s="439"/>
+      <c r="E43" s="439"/>
       <c r="F43" s="303"/>
       <c r="G43" s="303"/>
       <c r="H43" s="303"/>
@@ -28115,8 +28148,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="438"/>
-      <c r="E44" s="438"/>
+      <c r="D44" s="439"/>
+      <c r="E44" s="439"/>
       <c r="F44" s="303"/>
       <c r="G44" s="303"/>
       <c r="H44" s="303"/>
@@ -28136,8 +28169,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="303"/>
-      <c r="D45" s="438"/>
-      <c r="E45" s="438"/>
+      <c r="D45" s="439"/>
+      <c r="E45" s="439"/>
       <c r="F45" s="303"/>
       <c r="G45" s="303"/>
       <c r="H45" s="303"/>
@@ -28157,8 +28190,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="303"/>
-      <c r="D46" s="438"/>
-      <c r="E46" s="438"/>
+      <c r="D46" s="439"/>
+      <c r="E46" s="439"/>
       <c r="F46" s="303"/>
       <c r="G46" s="303"/>
       <c r="H46" s="303"/>
@@ -28178,8 +28211,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="303"/>
-      <c r="D47" s="438"/>
-      <c r="E47" s="438"/>
+      <c r="D47" s="439"/>
+      <c r="E47" s="439"/>
       <c r="F47" s="303"/>
       <c r="G47" s="303"/>
       <c r="H47" s="303"/>
@@ -28199,8 +28232,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="303"/>
-      <c r="D48" s="438"/>
-      <c r="E48" s="438"/>
+      <c r="D48" s="439"/>
+      <c r="E48" s="439"/>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
       <c r="H48" s="303"/>
@@ -28220,8 +28253,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="436"/>
-      <c r="E49" s="436"/>
+      <c r="D49" s="444"/>
+      <c r="E49" s="444"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -28241,8 +28274,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="436"/>
-      <c r="E50" s="436"/>
+      <c r="D50" s="444"/>
+      <c r="E50" s="444"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -28262,8 +28295,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="436"/>
-      <c r="E51" s="436"/>
+      <c r="D51" s="444"/>
+      <c r="E51" s="444"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -28283,8 +28316,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="436"/>
-      <c r="E52" s="436"/>
+      <c r="D52" s="444"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -28304,8 +28337,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="436"/>
-      <c r="E53" s="436"/>
+      <c r="D53" s="444"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -28325,8 +28358,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="436"/>
-      <c r="E54" s="436"/>
+      <c r="D54" s="444"/>
+      <c r="E54" s="444"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -28346,8 +28379,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="436"/>
-      <c r="E55" s="436"/>
+      <c r="D55" s="444"/>
+      <c r="E55" s="444"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -28367,8 +28400,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="436"/>
-      <c r="E56" s="436"/>
+      <c r="D56" s="444"/>
+      <c r="E56" s="444"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -28388,8 +28421,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="444"/>
+      <c r="E57" s="444"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -28409,8 +28442,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="436"/>
-      <c r="E58" s="436"/>
+      <c r="D58" s="444"/>
+      <c r="E58" s="444"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -28430,8 +28463,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="436"/>
-      <c r="E59" s="436"/>
+      <c r="D59" s="444"/>
+      <c r="E59" s="444"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -28666,39 +28699,18 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -28714,18 +28726,39 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
@@ -28766,14 +28799,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="481" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="508"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -28787,11 +28820,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="509" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="509"/>
-      <c r="F2" s="510"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -28804,9 +28837,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="513"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -28819,9 +28852,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -28834,9 +28867,9 @@
         <v>26.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -28849,9 +28882,9 @@
         <v>45</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -28864,9 +28897,9 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="492"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="492"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -28881,80 +28914,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="524" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="496">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
         <v>126</v>
       </c>
-      <c r="C9" s="498" t="str">
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="500" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="523">
+      <c r="E9" s="526">
         <v>10.5</v>
       </c>
-      <c r="F9" s="504"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="522"/>
-      <c r="B10" s="497"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="501"/>
-      <c r="E10" s="524"/>
-      <c r="F10" s="505"/>
+      <c r="A10" s="525"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="527"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="480" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="481"/>
-      <c r="C11" s="482"/>
-      <c r="D11" s="481"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="484"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="525" t="s">
+      <c r="A12" s="522" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="486" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="487" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="488"/>
-      <c r="E12" s="526" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="490" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="525"/>
-      <c r="B13" s="486"/>
+      <c r="A13" s="522"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="526"/>
-      <c r="F13" s="490"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -30523,12 +30556,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -30536,12 +30569,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30572,15 +30605,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="470"/>
-      <c r="F2" s="471"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="456"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -30590,9 +30623,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="474"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -30602,9 +30635,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="474"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="459"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -30614,9 +30647,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="472"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="474"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="459"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -30626,9 +30659,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="475"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="477"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="461"/>
+      <c r="F6" s="462"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -30672,14 +30705,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="444" t="s">
+      <c r="E9" s="445" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="445"/>
-      <c r="G9" s="478" t="s">
+      <c r="F9" s="446"/>
+      <c r="G9" s="463" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="479"/>
+      <c r="H9" s="464"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -30705,12 +30738,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="457" t="s">
+      <c r="E10" s="477" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="457"/>
-      <c r="G10" s="456"/>
-      <c r="H10" s="456"/>
+      <c r="F10" s="477"/>
+      <c r="G10" s="476"/>
+      <c r="H10" s="476"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -30735,12 +30768,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="457" t="s">
+      <c r="E11" s="477" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="457"/>
-      <c r="G11" s="456"/>
-      <c r="H11" s="456"/>
+      <c r="F11" s="477"/>
+      <c r="G11" s="476"/>
+      <c r="H11" s="476"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -30765,12 +30798,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="457" t="s">
+      <c r="E12" s="477" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="457"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="456"/>
+      <c r="F12" s="477"/>
+      <c r="G12" s="476"/>
+      <c r="H12" s="476"/>
       <c r="I12" s="310">
         <v>40</v>
       </c>
@@ -30795,12 +30828,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="457" t="s">
+      <c r="E13" s="477" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="457"/>
-      <c r="G13" s="456"/>
-      <c r="H13" s="456"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="476"/>
+      <c r="H13" s="476"/>
       <c r="I13" s="310">
         <v>3</v>
       </c>
@@ -30825,12 +30858,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="457" t="s">
+      <c r="E14" s="477" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="457"/>
-      <c r="G14" s="456"/>
-      <c r="H14" s="456"/>
+      <c r="F14" s="477"/>
+      <c r="G14" s="476"/>
+      <c r="H14" s="476"/>
       <c r="I14" s="310">
         <v>27</v>
       </c>
@@ -30855,12 +30888,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="457" t="s">
+      <c r="E15" s="477" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="457"/>
-      <c r="G15" s="456"/>
-      <c r="H15" s="456"/>
+      <c r="F15" s="477"/>
+      <c r="G15" s="476"/>
+      <c r="H15" s="476"/>
       <c r="I15" s="310">
         <v>7</v>
       </c>
@@ -30879,10 +30912,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="457"/>
-      <c r="F16" s="457"/>
-      <c r="G16" s="456"/>
-      <c r="H16" s="456"/>
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
+      <c r="G16" s="476"/>
+      <c r="H16" s="476"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="310"/>
@@ -30899,8 +30932,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="465"/>
-      <c r="F17" s="465"/>
+      <c r="E17" s="471"/>
+      <c r="F17" s="471"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="304"/>
@@ -30918,11 +30951,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="460" t="s">
+      <c r="C18" s="466" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="461"/>
-      <c r="E18" s="462"/>
+      <c r="D18" s="467"/>
+      <c r="E18" s="468"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -30976,10 +31009,10 @@
       <c r="C20" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="463" t="s">
+      <c r="D20" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="464"/>
+      <c r="E20" s="470"/>
       <c r="F20" s="172" t="s">
         <v>97</v>
       </c>
@@ -31031,10 +31064,10 @@
         <v>144</v>
       </c>
       <c r="C21" s="303"/>
-      <c r="D21" s="438" t="s">
+      <c r="D21" s="439" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="438"/>
+      <c r="E21" s="439"/>
       <c r="F21" s="303" t="s">
         <v>105</v>
       </c>
@@ -31080,10 +31113,10 @@
         <v>210</v>
       </c>
       <c r="C22" s="303"/>
-      <c r="D22" s="438" t="s">
+      <c r="D22" s="439" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="438"/>
+      <c r="E22" s="439"/>
       <c r="F22" s="303" t="s">
         <v>105</v>
       </c>
@@ -31131,10 +31164,10 @@
         <v>213</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="438" t="s">
+      <c r="D23" s="439" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="438"/>
+      <c r="E23" s="439"/>
       <c r="F23" s="303" t="s">
         <v>105</v>
       </c>
@@ -31182,10 +31215,10 @@
         <v>215</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="438" t="s">
+      <c r="D24" s="439" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="438"/>
+      <c r="E24" s="439"/>
       <c r="F24" s="303" t="s">
         <v>105</v>
       </c>
@@ -31233,10 +31266,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="438" t="s">
+      <c r="D25" s="439" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="438"/>
+      <c r="E25" s="439"/>
       <c r="F25" s="303" t="s">
         <v>105</v>
       </c>
@@ -31284,10 +31317,10 @@
         <v>219</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="438" t="s">
+      <c r="D26" s="439" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="438"/>
+      <c r="E26" s="439"/>
       <c r="F26" s="303" t="s">
         <v>105</v>
       </c>
@@ -31335,10 +31368,10 @@
         <v>220</v>
       </c>
       <c r="C27" s="303"/>
-      <c r="D27" s="438" t="s">
+      <c r="D27" s="439" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="438"/>
+      <c r="E27" s="439"/>
       <c r="F27" s="303" t="s">
         <v>105</v>
       </c>
@@ -31386,10 +31419,10 @@
         <v>222</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="438" t="s">
+      <c r="D28" s="439" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="438"/>
+      <c r="E28" s="439"/>
       <c r="F28" s="303" t="s">
         <v>105</v>
       </c>
@@ -31437,10 +31470,10 @@
         <v>224</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="436" t="s">
+      <c r="D29" s="444" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="436"/>
+      <c r="E29" s="444"/>
       <c r="F29" s="303" t="s">
         <v>105</v>
       </c>
@@ -31486,8 +31519,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="436"/>
-      <c r="E30" s="436"/>
+      <c r="D30" s="444"/>
+      <c r="E30" s="444"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -31507,8 +31540,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="436"/>
-      <c r="E31" s="436"/>
+      <c r="D31" s="444"/>
+      <c r="E31" s="444"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -31528,8 +31561,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="436"/>
+      <c r="D32" s="444"/>
+      <c r="E32" s="444"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -31549,8 +31582,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="436"/>
-      <c r="E33" s="436"/>
+      <c r="D33" s="444"/>
+      <c r="E33" s="444"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -31570,8 +31603,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="436"/>
-      <c r="E34" s="436"/>
+      <c r="D34" s="444"/>
+      <c r="E34" s="444"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -31591,8 +31624,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="436"/>
-      <c r="E35" s="436"/>
+      <c r="D35" s="444"/>
+      <c r="E35" s="444"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -31893,6 +31926,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -31907,28 +31962,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
@@ -31969,14 +32002,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="508"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="483"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -31990,11 +32023,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="509" t="s">
+      <c r="D2" s="484" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="509"/>
-      <c r="F2" s="510"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="485"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -32007,9 +32040,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="513"/>
+      <c r="D3" s="486"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="488"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -32022,9 +32055,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="491"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -32037,9 +32070,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="491"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -32052,9 +32085,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="490"/>
+      <c r="F6" s="491"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -32067,9 +32100,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="492"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="492"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
+      <c r="F7" s="490"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -32084,80 +32117,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="494" t="s">
+      <c r="A9" s="492" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="496">
+      <c r="B9" s="494">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="498" t="str">
+      <c r="C9" s="496" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="500" t="s">
+      <c r="D9" s="498" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="523">
+      <c r="E9" s="526">
         <v>16.5</v>
       </c>
-      <c r="F9" s="504"/>
+      <c r="F9" s="502"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="495"/>
-      <c r="B10" s="497"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="501"/>
-      <c r="E10" s="524"/>
-      <c r="F10" s="505"/>
+      <c r="A10" s="493"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="527"/>
+      <c r="F10" s="503"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="480" t="s">
+      <c r="A11" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="481"/>
-      <c r="C11" s="482"/>
-      <c r="D11" s="481"/>
-      <c r="E11" s="483"/>
-      <c r="F11" s="484"/>
+      <c r="B11" s="505"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="507"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="485" t="s">
+      <c r="A12" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="486" t="s">
+      <c r="B12" s="510" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="487" t="s">
+      <c r="C12" s="511" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="488"/>
-      <c r="E12" s="526" t="s">
+      <c r="D12" s="512"/>
+      <c r="E12" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="490" t="s">
+      <c r="F12" s="514" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="485"/>
-      <c r="B13" s="486"/>
+      <c r="A13" s="509"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="526"/>
-      <c r="F13" s="490"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="514"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -33961,12 +33994,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -33974,12 +34007,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34144,18 +34177,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34177,14 +34210,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -34198,4 +34223,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Desktop\Scrum projekti\muistutussovellus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB90703-856F-40AB-A06F-62D640F48D21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2FCD0-8C8D-4FF4-B8B0-6CD8CA8E9766}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="518">
   <si>
     <t>Päivitetty</t>
   </si>
@@ -1635,6 +1635,18 @@
   </si>
   <si>
     <t>Asiakkaan palautteen perusteella muutokset suunnitelmaan</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>Lisää kahden värimaailman toteutus</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>Tallenna "värimaailma" kentät tietokantaan</t>
   </si>
 </sst>
 </file>
@@ -4202,24 +4214,135 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4244,116 +4367,8 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="31" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4361,6 +4376,33 @@
     <xf numFmtId="14" fontId="5" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4376,81 +4418,95 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4491,49 +4547,83 @@
     <xf numFmtId="0" fontId="48" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4559,83 +4649,8 @@
     <xf numFmtId="166" fontId="14" fillId="31" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="31" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="31" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="27" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4655,8 +4670,17 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4664,17 +4688,62 @@
     <xf numFmtId="166" fontId="7" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4694,62 +4763,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4768,63 +4837,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="29" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11719,20 +11731,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
-      <c r="B2" s="407" t="s">
+      <c r="B2" s="371" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="408"/>
-      <c r="D2" s="408"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="411"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="372"/>
+      <c r="M2" s="375"/>
       <c r="N2" s="32"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -11748,19 +11760,19 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="376" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="413"/>
-      <c r="F3" s="413"/>
-      <c r="G3" s="413"/>
-      <c r="H3" s="413"/>
-      <c r="I3" s="413"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="414"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -11779,17 +11791,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
-      <c r="B4" s="412"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="413"/>
-      <c r="K4" s="413"/>
-      <c r="L4" s="414"/>
+      <c r="B4" s="376"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="377"/>
+      <c r="L4" s="378"/>
       <c r="M4" s="175">
         <v>43920</v>
       </c>
@@ -11842,19 +11854,19 @@
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="384" t="s">
+      <c r="C6" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="385"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="385"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="385"/>
-      <c r="J6" s="385"/>
-      <c r="K6" s="385"/>
-      <c r="L6" s="385"/>
-      <c r="M6" s="415"/>
+      <c r="D6" s="380"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="380"/>
+      <c r="L6" s="380"/>
+      <c r="M6" s="381"/>
       <c r="N6" s="32"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -11873,19 +11885,19 @@
       <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="416" t="s">
+      <c r="C7" s="382" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
-      <c r="F7" s="417"/>
-      <c r="G7" s="417"/>
-      <c r="H7" s="417"/>
-      <c r="I7" s="417"/>
-      <c r="J7" s="417"/>
-      <c r="K7" s="417"/>
-      <c r="L7" s="417"/>
-      <c r="M7" s="418"/>
+      <c r="D7" s="383"/>
+      <c r="E7" s="383"/>
+      <c r="F7" s="383"/>
+      <c r="G7" s="383"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="383"/>
+      <c r="J7" s="383"/>
+      <c r="K7" s="383"/>
+      <c r="L7" s="383"/>
+      <c r="M7" s="384"/>
       <c r="N7" s="32"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -11904,19 +11916,19 @@
       <c r="B8" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="416" t="s">
+      <c r="C8" s="382" t="s">
         <v>494</v>
       </c>
-      <c r="D8" s="417"/>
-      <c r="E8" s="417"/>
-      <c r="F8" s="417"/>
-      <c r="G8" s="417"/>
-      <c r="H8" s="417"/>
-      <c r="I8" s="417"/>
-      <c r="J8" s="417"/>
-      <c r="K8" s="417"/>
-      <c r="L8" s="417"/>
-      <c r="M8" s="418"/>
+      <c r="D8" s="383"/>
+      <c r="E8" s="383"/>
+      <c r="F8" s="383"/>
+      <c r="G8" s="383"/>
+      <c r="H8" s="383"/>
+      <c r="I8" s="383"/>
+      <c r="J8" s="383"/>
+      <c r="K8" s="383"/>
+      <c r="L8" s="383"/>
+      <c r="M8" s="384"/>
       <c r="N8" s="32"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -11935,19 +11947,19 @@
       <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="416" t="s">
+      <c r="C9" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="417"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="417"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="417"/>
-      <c r="I9" s="417"/>
-      <c r="J9" s="417"/>
-      <c r="K9" s="417"/>
-      <c r="L9" s="417"/>
-      <c r="M9" s="418"/>
+      <c r="D9" s="383"/>
+      <c r="E9" s="383"/>
+      <c r="F9" s="383"/>
+      <c r="G9" s="383"/>
+      <c r="H9" s="383"/>
+      <c r="I9" s="383"/>
+      <c r="J9" s="383"/>
+      <c r="K9" s="383"/>
+      <c r="L9" s="383"/>
+      <c r="M9" s="384"/>
       <c r="N9" s="32"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -11966,19 +11978,19 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="404" t="s">
+      <c r="C10" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="405"/>
-      <c r="E10" s="405"/>
-      <c r="F10" s="405"/>
-      <c r="G10" s="405"/>
-      <c r="H10" s="405"/>
-      <c r="I10" s="405"/>
-      <c r="J10" s="405"/>
-      <c r="K10" s="405"/>
-      <c r="L10" s="405"/>
-      <c r="M10" s="406"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
+      <c r="G10" s="369"/>
+      <c r="H10" s="369"/>
+      <c r="I10" s="369"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="369"/>
+      <c r="M10" s="370"/>
       <c r="N10" s="32"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -12021,20 +12033,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="393" t="s">
+      <c r="B12" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="394"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
-      <c r="G12" s="394"/>
-      <c r="H12" s="394"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="394"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="395"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="386"/>
+      <c r="F12" s="386"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="386"/>
+      <c r="K12" s="386"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="387"/>
       <c r="N12" s="32"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -12059,14 +12071,14 @@
       <c r="D13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="396" t="s">
+      <c r="E13" s="388" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="397"/>
-      <c r="G13" s="397"/>
-      <c r="H13" s="397"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="398"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="389"/>
+      <c r="H13" s="389"/>
+      <c r="I13" s="389"/>
+      <c r="J13" s="390"/>
       <c r="K13" s="293" t="s">
         <v>16</v>
       </c>
@@ -12084,38 +12096,38 @@
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="399"/>
-      <c r="W13" s="399"/>
-      <c r="X13" s="399"/>
+      <c r="V13" s="391"/>
+      <c r="W13" s="391"/>
+      <c r="X13" s="391"/>
       <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
-      <c r="B14" s="371">
+      <c r="B14" s="392">
         <v>1</v>
       </c>
-      <c r="C14" s="373">
+      <c r="C14" s="393">
         <v>43906</v>
       </c>
-      <c r="D14" s="373">
+      <c r="D14" s="393">
         <v>43941</v>
       </c>
-      <c r="E14" s="400" t="s">
+      <c r="E14" s="394" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="401"/>
-      <c r="G14" s="402"/>
-      <c r="H14" s="402"/>
-      <c r="I14" s="402"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="390" t="s">
+      <c r="F14" s="395"/>
+      <c r="G14" s="396"/>
+      <c r="H14" s="396"/>
+      <c r="I14" s="396"/>
+      <c r="J14" s="397"/>
+      <c r="K14" s="398" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="392">
+      <c r="L14" s="400">
         <f>'S1 - Backlog'!I19</f>
         <v>67</v>
       </c>
-      <c r="M14" s="368">
+      <c r="M14" s="402">
         <f>'S1 - Backlog'!J19</f>
         <v>1</v>
       </c>
@@ -12134,18 +12146,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
-      <c r="B15" s="371"/>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="400"/>
-      <c r="F15" s="401"/>
-      <c r="G15" s="402"/>
-      <c r="H15" s="402"/>
-      <c r="I15" s="402"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="391"/>
-      <c r="L15" s="382"/>
-      <c r="M15" s="368"/>
+      <c r="B15" s="392"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="397"/>
+      <c r="K15" s="399"/>
+      <c r="L15" s="401"/>
+      <c r="M15" s="402"/>
       <c r="N15" s="32"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -12161,29 +12173,29 @@
     </row>
     <row r="16" spans="1:25" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
-      <c r="B16" s="371">
+      <c r="B16" s="392">
         <v>2</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="393">
         <v>43941</v>
       </c>
-      <c r="D16" s="373">
+      <c r="D16" s="393">
         <v>43969</v>
       </c>
-      <c r="E16" s="384"/>
-      <c r="F16" s="385"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="385"/>
-      <c r="I16" s="385"/>
-      <c r="J16" s="386"/>
-      <c r="K16" s="390" t="s">
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="405"/>
+      <c r="K16" s="398" t="s">
         <v>491</v>
       </c>
-      <c r="L16" s="392">
+      <c r="L16" s="400">
         <f>'S2 - Backlog'!I20</f>
         <v>87</v>
       </c>
-      <c r="M16" s="368">
+      <c r="M16" s="402">
         <f>'S2 - Backlog'!J20</f>
         <v>63</v>
       </c>
@@ -12202,18 +12214,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
-      <c r="B17" s="372"/>
-      <c r="C17" s="383"/>
-      <c r="D17" s="383"/>
-      <c r="E17" s="387"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="382"/>
-      <c r="M17" s="368"/>
+      <c r="B17" s="403"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="404"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="407"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="407"/>
+      <c r="I17" s="407"/>
+      <c r="J17" s="408"/>
+      <c r="K17" s="399"/>
+      <c r="L17" s="401"/>
+      <c r="M17" s="402"/>
       <c r="N17" s="32"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -12229,29 +12241,29 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="371">
+      <c r="B18" s="392">
         <v>3</v>
       </c>
-      <c r="C18" s="373">
+      <c r="C18" s="393">
         <v>43969</v>
       </c>
-      <c r="D18" s="373">
+      <c r="D18" s="393">
         <v>43997</v>
       </c>
-      <c r="E18" s="384"/>
-      <c r="F18" s="385"/>
-      <c r="G18" s="385"/>
-      <c r="H18" s="385"/>
-      <c r="I18" s="385"/>
-      <c r="J18" s="386"/>
-      <c r="K18" s="390" t="s">
+      <c r="E18" s="379"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="405"/>
+      <c r="K18" s="398" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="392">
+      <c r="L18" s="400">
         <f>'S3 - Backlog'!I18</f>
         <v>83</v>
       </c>
-      <c r="M18" s="392">
+      <c r="M18" s="400">
         <f>'S3 - Backlog'!J18</f>
         <v>83</v>
       </c>
@@ -12270,18 +12282,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="372"/>
-      <c r="C19" s="383"/>
-      <c r="D19" s="383"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="388"/>
-      <c r="G19" s="388"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="391"/>
-      <c r="L19" s="382"/>
-      <c r="M19" s="382"/>
+      <c r="B19" s="403"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="404"/>
+      <c r="E19" s="406"/>
+      <c r="F19" s="407"/>
+      <c r="G19" s="407"/>
+      <c r="H19" s="407"/>
+      <c r="I19" s="407"/>
+      <c r="J19" s="408"/>
+      <c r="K19" s="399"/>
+      <c r="L19" s="401"/>
+      <c r="M19" s="401"/>
       <c r="N19" s="32"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -12297,20 +12309,20 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="371">
+      <c r="B20" s="392">
         <v>4</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="375"/>
-      <c r="G20" s="375"/>
-      <c r="H20" s="375"/>
-      <c r="I20" s="375"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="382"/>
-      <c r="M20" s="368"/>
+      <c r="C20" s="393"/>
+      <c r="D20" s="393"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="412"/>
+      <c r="G20" s="412"/>
+      <c r="H20" s="412"/>
+      <c r="I20" s="412"/>
+      <c r="J20" s="413"/>
+      <c r="K20" s="417"/>
+      <c r="L20" s="401"/>
+      <c r="M20" s="402"/>
       <c r="N20" s="32"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -12326,18 +12338,18 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="372"/>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="377"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="378"/>
-      <c r="H21" s="378"/>
-      <c r="I21" s="378"/>
-      <c r="J21" s="379"/>
-      <c r="K21" s="381"/>
-      <c r="L21" s="382"/>
-      <c r="M21" s="368"/>
+      <c r="B21" s="403"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="414"/>
+      <c r="F21" s="415"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="415"/>
+      <c r="I21" s="415"/>
+      <c r="J21" s="416"/>
+      <c r="K21" s="418"/>
+      <c r="L21" s="401"/>
+      <c r="M21" s="402"/>
       <c r="N21" s="32"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -12380,13 +12392,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="370" t="s">
+      <c r="B23" s="410" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="370"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
+      <c r="C23" s="410"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
       <c r="G23" s="254"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -12409,7 +12421,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="369" t="s">
+      <c r="B24" s="409" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="258" t="s">
@@ -12446,7 +12458,7 @@
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="369"/>
+      <c r="B25" s="409"/>
       <c r="C25" s="259" t="s">
         <v>26</v>
       </c>
@@ -12957,23 +12969,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -12988,15 +12992,23 @@
     <mergeCell ref="E16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13045,14 +13057,14 @@
       <c r="C2" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="528" t="s">
+      <c r="D2" s="547" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="529"/>
-      <c r="F2" s="530" t="s">
+      <c r="E2" s="548"/>
+      <c r="F2" s="549" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="529"/>
+      <c r="G2" s="548"/>
       <c r="H2" s="315" t="s">
         <v>230</v>
       </c>
@@ -13074,14 +13086,14 @@
       <c r="C3" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="531" t="s">
+      <c r="D3" s="550" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="531"/>
-      <c r="F3" s="532" t="s">
+      <c r="E3" s="550"/>
+      <c r="F3" s="551" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="552"/>
       <c r="H3" s="98"/>
       <c r="I3" s="96"/>
       <c r="J3" s="99"/>
@@ -13095,10 +13107,10 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="316"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="533"/>
+      <c r="D4" s="552"/>
+      <c r="E4" s="552"/>
+      <c r="F4" s="551"/>
+      <c r="G4" s="552"/>
       <c r="H4" s="98"/>
       <c r="I4" s="96"/>
       <c r="J4" s="101"/>
@@ -13161,10 +13173,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="311"/>
-      <c r="B8" s="534" t="s">
+      <c r="B8" s="539" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="535"/>
+      <c r="C8" s="540"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="111"/>
@@ -13202,10 +13214,10 @@
       <c r="B10" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="536" t="s">
+      <c r="C10" s="541" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="537"/>
+      <c r="D10" s="542"/>
       <c r="E10" s="314" t="s">
         <v>101</v>
       </c>
@@ -13234,16 +13246,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
-      <c r="B11" s="538" t="s">
+      <c r="B11" s="543" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="538"/>
-      <c r="D11" s="539"/>
-      <c r="E11" s="540"/>
-      <c r="F11" s="541"/>
-      <c r="G11" s="540"/>
-      <c r="H11" s="540"/>
-      <c r="I11" s="540"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="544"/>
+      <c r="E11" s="545"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="545"/>
+      <c r="H11" s="545"/>
+      <c r="I11" s="545"/>
       <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="311"/>
@@ -13291,10 +13303,10 @@
       <c r="B13" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="542" t="s">
+      <c r="C13" s="530" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="542"/>
+      <c r="D13" s="530"/>
       <c r="E13" s="121">
         <v>5</v>
       </c>
@@ -13378,10 +13390,10 @@
       <c r="B16" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="542" t="s">
+      <c r="C16" s="530" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="542"/>
+      <c r="D16" s="530"/>
       <c r="E16" s="121">
         <v>15</v>
       </c>
@@ -13449,10 +13461,10 @@
       <c r="B19" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="542" t="s">
+      <c r="C19" s="530" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="543"/>
+      <c r="D19" s="528"/>
       <c r="E19" s="121">
         <v>44</v>
       </c>
@@ -13493,10 +13505,10 @@
       <c r="B21" s="313" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="544" t="s">
+      <c r="C21" s="533" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="545"/>
+      <c r="D21" s="534"/>
       <c r="E21" s="121">
         <v>32</v>
       </c>
@@ -13516,10 +13528,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="311"/>
       <c r="B22" s="311"/>
-      <c r="C22" s="542" t="s">
+      <c r="C22" s="530" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="543"/>
+      <c r="D22" s="528"/>
       <c r="E22" s="311">
         <v>20</v>
       </c>
@@ -13539,10 +13551,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="312"/>
       <c r="B23" s="313"/>
-      <c r="C23" s="542" t="s">
+      <c r="C23" s="530" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="543"/>
+      <c r="D23" s="528"/>
       <c r="E23" s="312">
         <v>9</v>
       </c>
@@ -13562,10 +13574,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="312"/>
       <c r="B24" s="313"/>
-      <c r="C24" s="542" t="s">
+      <c r="C24" s="530" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="543"/>
+      <c r="D24" s="528"/>
       <c r="E24" s="312">
         <v>25</v>
       </c>
@@ -13585,10 +13597,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="312"/>
       <c r="B25" s="313"/>
-      <c r="C25" s="542" t="s">
+      <c r="C25" s="530" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="542"/>
+      <c r="D25" s="530"/>
       <c r="E25" s="312">
         <v>27</v>
       </c>
@@ -13608,10 +13620,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="312"/>
       <c r="B26" s="313"/>
-      <c r="C26" s="542" t="s">
+      <c r="C26" s="530" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="543"/>
+      <c r="D26" s="528"/>
       <c r="E26" s="312">
         <v>17</v>
       </c>
@@ -13630,16 +13642,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="312"/>
-      <c r="B27" s="546" t="s">
+      <c r="B27" s="529" t="s">
         <v>269</v>
       </c>
-      <c r="C27" s="547"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="550"/>
-      <c r="G27" s="549"/>
-      <c r="H27" s="549"/>
-      <c r="I27" s="549"/>
+      <c r="C27" s="535"/>
+      <c r="D27" s="536"/>
+      <c r="E27" s="537"/>
+      <c r="F27" s="538"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="537"/>
+      <c r="I27" s="537"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="311"/>
@@ -13669,10 +13681,10 @@
       <c r="B29" s="311" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="544" t="s">
+      <c r="C29" s="533" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="544"/>
+      <c r="D29" s="533"/>
       <c r="E29" s="311">
         <v>26</v>
       </c>
@@ -13692,10 +13704,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="312"/>
       <c r="B30" s="313"/>
-      <c r="C30" s="542" t="s">
+      <c r="C30" s="530" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="543"/>
+      <c r="D30" s="528"/>
       <c r="E30" s="121" t="s">
         <v>273</v>
       </c>
@@ -13713,10 +13725,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="312"/>
       <c r="B31" s="313"/>
-      <c r="C31" s="542" t="s">
+      <c r="C31" s="530" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="543"/>
+      <c r="D31" s="528"/>
       <c r="E31" s="121">
         <v>24</v>
       </c>
@@ -13736,10 +13748,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="312"/>
       <c r="B32" s="313"/>
-      <c r="C32" s="542" t="s">
+      <c r="C32" s="530" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="543"/>
+      <c r="D32" s="528"/>
       <c r="E32" s="121">
         <v>40</v>
       </c>
@@ -13757,10 +13769,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="312"/>
       <c r="B33" s="313"/>
-      <c r="C33" s="542" t="s">
+      <c r="C33" s="530" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="543"/>
+      <c r="D33" s="528"/>
       <c r="E33" s="121">
         <v>29</v>
       </c>
@@ -13778,10 +13790,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="312"/>
       <c r="B34" s="313"/>
-      <c r="C34" s="542" t="s">
+      <c r="C34" s="530" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="543"/>
+      <c r="D34" s="528"/>
       <c r="E34" s="121">
         <v>22</v>
       </c>
@@ -13799,10 +13811,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="312"/>
       <c r="B35" s="313"/>
-      <c r="C35" s="542" t="s">
+      <c r="C35" s="530" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="543"/>
+      <c r="D35" s="528"/>
       <c r="E35" s="121">
         <v>32</v>
       </c>
@@ -13856,10 +13868,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="312"/>
       <c r="B38" s="127"/>
-      <c r="C38" s="544" t="s">
+      <c r="C38" s="533" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="545"/>
+      <c r="D38" s="534"/>
       <c r="E38" s="121">
         <v>12</v>
       </c>
@@ -13879,8 +13891,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="312"/>
       <c r="B39" s="127"/>
-      <c r="C39" s="542"/>
-      <c r="D39" s="543"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="528"/>
       <c r="E39" s="121"/>
       <c r="F39" s="111"/>
       <c r="G39" s="125"/>
@@ -13896,10 +13908,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="312"/>
       <c r="B40" s="313"/>
-      <c r="C40" s="542" t="s">
+      <c r="C40" s="530" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="543"/>
+      <c r="D40" s="528"/>
       <c r="E40" s="121">
         <v>32</v>
       </c>
@@ -14003,16 +14015,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="312"/>
-      <c r="B46" s="546" t="s">
+      <c r="B46" s="529" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="546"/>
-      <c r="E46" s="546"/>
-      <c r="F46" s="546"/>
-      <c r="G46" s="546"/>
-      <c r="H46" s="546"/>
-      <c r="I46" s="546"/>
+      <c r="C46" s="529"/>
+      <c r="D46" s="529"/>
+      <c r="E46" s="529"/>
+      <c r="F46" s="529"/>
+      <c r="G46" s="529"/>
+      <c r="H46" s="529"/>
+      <c r="I46" s="529"/>
       <c r="J46" s="132"/>
       <c r="K46" s="132"/>
       <c r="L46" s="312"/>
@@ -14025,10 +14037,10 @@
         <v>246</v>
       </c>
       <c r="B47" s="313"/>
-      <c r="C47" s="542" t="s">
+      <c r="C47" s="530" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="542"/>
+      <c r="D47" s="530"/>
       <c r="E47" s="121">
         <v>11</v>
       </c>
@@ -14050,8 +14062,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="312"/>
       <c r="B48" s="127"/>
-      <c r="C48" s="542"/>
-      <c r="D48" s="542"/>
+      <c r="C48" s="530"/>
+      <c r="D48" s="530"/>
       <c r="E48" s="121"/>
       <c r="F48" s="111"/>
       <c r="G48" s="125"/>
@@ -14069,10 +14081,10 @@
         <v>246</v>
       </c>
       <c r="B49" s="313"/>
-      <c r="C49" s="542" t="s">
+      <c r="C49" s="530" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="542"/>
+      <c r="D49" s="530"/>
       <c r="E49" s="121">
         <v>10</v>
       </c>
@@ -14094,8 +14106,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="312"/>
       <c r="B50" s="127"/>
-      <c r="C50" s="542"/>
-      <c r="D50" s="542"/>
+      <c r="C50" s="530"/>
+      <c r="D50" s="530"/>
       <c r="E50" s="121"/>
       <c r="F50" s="111"/>
       <c r="G50" s="125"/>
@@ -14128,8 +14140,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="313"/>
-      <c r="C52" s="542"/>
-      <c r="D52" s="543"/>
+      <c r="C52" s="530"/>
+      <c r="D52" s="528"/>
       <c r="E52" s="312"/>
       <c r="F52" s="133"/>
       <c r="G52" s="312"/>
@@ -14161,16 +14173,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="312"/>
-      <c r="B54" s="546" t="s">
+      <c r="B54" s="529" t="s">
         <v>284</v>
       </c>
-      <c r="C54" s="546"/>
-      <c r="D54" s="546"/>
-      <c r="E54" s="546"/>
-      <c r="F54" s="546"/>
-      <c r="G54" s="546"/>
-      <c r="H54" s="546"/>
-      <c r="I54" s="546"/>
+      <c r="C54" s="529"/>
+      <c r="D54" s="529"/>
+      <c r="E54" s="529"/>
+      <c r="F54" s="529"/>
+      <c r="G54" s="529"/>
+      <c r="H54" s="529"/>
+      <c r="I54" s="529"/>
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="312"/>
@@ -14181,10 +14193,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="312"/>
       <c r="B55" s="313"/>
-      <c r="C55" s="542" t="s">
+      <c r="C55" s="530" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="543"/>
+      <c r="D55" s="528"/>
       <c r="E55" s="134">
         <v>26</v>
       </c>
@@ -14204,10 +14216,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="312"/>
       <c r="B56" s="127"/>
-      <c r="C56" s="542" t="s">
+      <c r="C56" s="530" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="542"/>
+      <c r="D56" s="530"/>
       <c r="E56" s="134">
         <v>55</v>
       </c>
@@ -14243,16 +14255,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
-      <c r="B58" s="546" t="s">
+      <c r="B58" s="529" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="546"/>
-      <c r="D58" s="546"/>
-      <c r="E58" s="546"/>
-      <c r="F58" s="546"/>
-      <c r="G58" s="546"/>
-      <c r="H58" s="546"/>
-      <c r="I58" s="546"/>
+      <c r="C58" s="529"/>
+      <c r="D58" s="529"/>
+      <c r="E58" s="529"/>
+      <c r="F58" s="529"/>
+      <c r="G58" s="529"/>
+      <c r="H58" s="529"/>
+      <c r="I58" s="529"/>
       <c r="J58" s="132"/>
       <c r="K58" s="132"/>
       <c r="L58" s="312"/>
@@ -14265,10 +14277,10 @@
       <c r="B59" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="542" t="s">
+      <c r="C59" s="530" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="542"/>
+      <c r="D59" s="530"/>
       <c r="E59" s="121">
         <v>32</v>
       </c>
@@ -14288,10 +14300,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="311"/>
       <c r="B60" s="311"/>
-      <c r="C60" s="543" t="s">
+      <c r="C60" s="528" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="543"/>
+      <c r="D60" s="528"/>
       <c r="E60" s="121">
         <v>50</v>
       </c>
@@ -14311,10 +14323,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="311"/>
       <c r="B61" s="311"/>
-      <c r="C61" s="543" t="s">
+      <c r="C61" s="528" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="543"/>
+      <c r="D61" s="528"/>
       <c r="E61" s="121">
         <v>16</v>
       </c>
@@ -14355,10 +14367,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="311"/>
       <c r="B63" s="311"/>
-      <c r="C63" s="543" t="s">
+      <c r="C63" s="528" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="543"/>
+      <c r="D63" s="528"/>
       <c r="E63" s="121">
         <v>14</v>
       </c>
@@ -14487,10 +14499,10 @@
       <c r="B68" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="542" t="s">
+      <c r="C68" s="530" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="542"/>
+      <c r="D68" s="530"/>
       <c r="E68" s="121">
         <v>28</v>
       </c>
@@ -14572,16 +14584,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="312"/>
-      <c r="B71" s="546" t="s">
+      <c r="B71" s="529" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="546"/>
-      <c r="D71" s="546"/>
-      <c r="E71" s="546"/>
-      <c r="F71" s="546"/>
-      <c r="G71" s="546"/>
-      <c r="H71" s="546"/>
-      <c r="I71" s="546"/>
+      <c r="C71" s="529"/>
+      <c r="D71" s="529"/>
+      <c r="E71" s="529"/>
+      <c r="F71" s="529"/>
+      <c r="G71" s="529"/>
+      <c r="H71" s="529"/>
+      <c r="I71" s="529"/>
       <c r="J71" s="104"/>
       <c r="K71" s="104"/>
       <c r="L71" s="312"/>
@@ -14597,10 +14609,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="312"/>
       <c r="B72" s="312"/>
-      <c r="C72" s="543" t="s">
+      <c r="C72" s="528" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="543"/>
+      <c r="D72" s="528"/>
       <c r="E72" s="312">
         <v>20</v>
       </c>
@@ -14627,10 +14639,10 @@
       <c r="B73" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="543" t="s">
+      <c r="C73" s="528" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="543"/>
+      <c r="D73" s="528"/>
       <c r="E73" s="312">
         <v>16</v>
       </c>
@@ -14724,16 +14736,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="312"/>
-      <c r="B77" s="546" t="s">
+      <c r="B77" s="529" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="546"/>
-      <c r="D77" s="546"/>
-      <c r="E77" s="546"/>
-      <c r="F77" s="546"/>
-      <c r="G77" s="546"/>
-      <c r="H77" s="546"/>
-      <c r="I77" s="546"/>
+      <c r="C77" s="529"/>
+      <c r="D77" s="529"/>
+      <c r="E77" s="529"/>
+      <c r="F77" s="529"/>
+      <c r="G77" s="529"/>
+      <c r="H77" s="529"/>
+      <c r="I77" s="529"/>
       <c r="J77" s="132"/>
       <c r="K77" s="132"/>
       <c r="L77" s="312"/>
@@ -14749,15 +14761,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="312"/>
       <c r="B78" s="312"/>
-      <c r="C78" s="542" t="s">
+      <c r="C78" s="530" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="542"/>
-      <c r="E78" s="542"/>
-      <c r="F78" s="542"/>
-      <c r="G78" s="542"/>
-      <c r="H78" s="542"/>
-      <c r="I78" s="542"/>
+      <c r="D78" s="530"/>
+      <c r="E78" s="530"/>
+      <c r="F78" s="530"/>
+      <c r="G78" s="530"/>
+      <c r="H78" s="530"/>
+      <c r="I78" s="530"/>
       <c r="J78" s="104"/>
       <c r="K78" s="104"/>
       <c r="L78" s="312"/>
@@ -14773,13 +14785,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="312"/>
       <c r="B79" s="312"/>
-      <c r="C79" s="551"/>
-      <c r="D79" s="551"/>
-      <c r="E79" s="551"/>
-      <c r="F79" s="551"/>
-      <c r="G79" s="551"/>
-      <c r="H79" s="551"/>
-      <c r="I79" s="551"/>
+      <c r="C79" s="531"/>
+      <c r="D79" s="531"/>
+      <c r="E79" s="531"/>
+      <c r="F79" s="531"/>
+      <c r="G79" s="531"/>
+      <c r="H79" s="531"/>
+      <c r="I79" s="531"/>
       <c r="J79" s="104"/>
       <c r="K79" s="104"/>
       <c r="L79" s="312"/>
@@ -14819,10 +14831,10 @@
         <v>309</v>
       </c>
       <c r="B81" s="143"/>
-      <c r="C81" s="552" t="s">
+      <c r="C81" s="532" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="552"/>
+      <c r="D81" s="532"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
       <c r="G81" s="143"/>
@@ -14861,57 +14873,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14938,14 +14950,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="572" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="554"/>
-      <c r="C1" s="554"/>
-      <c r="D1" s="554"/>
-      <c r="E1" s="554"/>
-      <c r="F1" s="555"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="574"/>
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14958,11 +14970,11 @@
       <c r="C2" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="510" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
+      <c r="E2" s="510"/>
+      <c r="F2" s="510"/>
       <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14977,11 +14989,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="556" t="s">
+      <c r="D3" s="575" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="557"/>
-      <c r="F3" s="558"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="577"/>
       <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14996,11 +15008,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="559" t="s">
+      <c r="D4" s="561" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="560"/>
-      <c r="F4" s="561"/>
+      <c r="E4" s="562"/>
+      <c r="F4" s="563"/>
       <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15015,9 +15027,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="559"/>
-      <c r="E5" s="560"/>
-      <c r="F5" s="561"/>
+      <c r="D5" s="561"/>
+      <c r="E5" s="562"/>
+      <c r="F5" s="563"/>
       <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15032,9 +15044,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="559"/>
-      <c r="E6" s="560"/>
-      <c r="F6" s="561"/>
+      <c r="D6" s="561"/>
+      <c r="E6" s="562"/>
+      <c r="F6" s="563"/>
       <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15049,78 +15061,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="559"/>
-      <c r="E7" s="560"/>
-      <c r="F7" s="561"/>
+      <c r="D7" s="561"/>
+      <c r="E7" s="562"/>
+      <c r="F7" s="563"/>
       <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="562" t="s">
+      <c r="A8" s="564" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="564">
+      <c r="B8" s="566">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="564">
+      <c r="C8" s="566">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="559"/>
-      <c r="E8" s="560"/>
-      <c r="F8" s="561"/>
+      <c r="D8" s="561"/>
+      <c r="E8" s="562"/>
+      <c r="F8" s="563"/>
       <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="563"/>
-      <c r="B9" s="565"/>
-      <c r="C9" s="566"/>
-      <c r="D9" s="567"/>
-      <c r="E9" s="568"/>
-      <c r="F9" s="569"/>
+      <c r="A9" s="565"/>
+      <c r="B9" s="567"/>
+      <c r="C9" s="568"/>
+      <c r="D9" s="569"/>
+      <c r="E9" s="570"/>
+      <c r="F9" s="571"/>
       <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="570" t="s">
+      <c r="A10" s="553" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="571"/>
-      <c r="C10" s="571"/>
-      <c r="D10" s="571"/>
-      <c r="E10" s="572"/>
-      <c r="F10" s="571"/>
+      <c r="B10" s="554"/>
+      <c r="C10" s="554"/>
+      <c r="D10" s="554"/>
+      <c r="E10" s="555"/>
+      <c r="F10" s="554"/>
       <c r="G10" s="147"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="573" t="s">
+      <c r="A11" s="556" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="510" t="s">
+      <c r="B11" s="487" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="396" t="s">
+      <c r="C11" s="388" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="398"/>
-      <c r="E11" s="574" t="s">
+      <c r="D11" s="390"/>
+      <c r="E11" s="557" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="576" t="s">
+      <c r="F11" s="559" t="s">
         <v>320</v>
       </c>
       <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="573"/>
-      <c r="B12" s="510"/>
+      <c r="A12" s="556"/>
+      <c r="B12" s="487"/>
       <c r="C12" s="302" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="575"/>
-      <c r="F12" s="577"/>
+      <c r="E12" s="558"/>
+      <c r="F12" s="560"/>
       <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16448,12 +16460,11 @@
   </sheetData>
   <autoFilter ref="A12:F12" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -16461,11 +16472,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16537,15 +16549,15 @@
     </row>
     <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="222"/>
-      <c r="B2" s="433" t="s">
+      <c r="B2" s="425" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="434"/>
-      <c r="F2" s="434"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="435"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="426"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
       <c r="I2" s="223"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -16581,15 +16593,15 @@
     </row>
     <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="222"/>
-      <c r="B3" s="430" t="s">
+      <c r="B3" s="422" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="432"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="424"/>
       <c r="I3" s="223"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -16628,10 +16640,10 @@
       <c r="B4" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="424" t="s">
+      <c r="C4" s="434" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="425"/>
+      <c r="D4" s="435"/>
       <c r="E4" s="225" t="s">
         <v>78</v>
       </c>
@@ -16679,7 +16691,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="231"/>
-      <c r="B5" s="426" t="s">
+      <c r="B5" s="419" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="269" t="s">
@@ -16731,7 +16743,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="231"/>
-      <c r="B6" s="426"/>
+      <c r="B6" s="419"/>
       <c r="C6" s="269" t="s">
         <v>375</v>
       </c>
@@ -16781,13 +16793,13 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
-      <c r="B7" s="421"/>
-      <c r="C7" s="422"/>
-      <c r="D7" s="422"/>
-      <c r="E7" s="422"/>
-      <c r="F7" s="422"/>
-      <c r="G7" s="422"/>
-      <c r="H7" s="423"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="432"/>
+      <c r="D7" s="432"/>
+      <c r="E7" s="432"/>
+      <c r="F7" s="432"/>
+      <c r="G7" s="432"/>
+      <c r="H7" s="433"/>
       <c r="I7" s="223"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -16823,7 +16835,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="231"/>
-      <c r="B8" s="426" t="s">
+      <c r="B8" s="419" t="s">
         <v>373</v>
       </c>
       <c r="C8" s="269" t="s">
@@ -16875,7 +16887,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="222"/>
-      <c r="B9" s="426"/>
+      <c r="B9" s="419"/>
       <c r="C9" s="269" t="s">
         <v>375</v>
       </c>
@@ -16925,13 +16937,13 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="222"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="422"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="422"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="423"/>
+      <c r="B10" s="431"/>
+      <c r="C10" s="432"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="432"/>
+      <c r="F10" s="432"/>
+      <c r="G10" s="432"/>
+      <c r="H10" s="433"/>
       <c r="I10" s="223"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -16967,7 +16979,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
-      <c r="B11" s="419" t="s">
+      <c r="B11" s="420" t="s">
         <v>388</v>
       </c>
       <c r="C11" s="269" t="s">
@@ -17019,7 +17031,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
-      <c r="B12" s="420"/>
+      <c r="B12" s="421"/>
       <c r="C12" s="269" t="s">
         <v>375</v>
       </c>
@@ -17069,13 +17081,13 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="342"/>
-      <c r="B13" s="421"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
-      <c r="F13" s="422"/>
-      <c r="G13" s="422"/>
-      <c r="H13" s="423"/>
+      <c r="B13" s="431"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="432"/>
+      <c r="G13" s="432"/>
+      <c r="H13" s="433"/>
       <c r="I13" s="223"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -17111,7 +17123,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="342"/>
-      <c r="B14" s="419" t="s">
+      <c r="B14" s="420" t="s">
         <v>443</v>
       </c>
       <c r="C14" s="269" t="s">
@@ -17163,7 +17175,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="342"/>
-      <c r="B15" s="420"/>
+      <c r="B15" s="421"/>
       <c r="C15" s="269" t="s">
         <v>375</v>
       </c>
@@ -17213,13 +17225,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="342"/>
-      <c r="B16" s="421"/>
-      <c r="C16" s="422"/>
-      <c r="D16" s="422"/>
-      <c r="E16" s="422"/>
-      <c r="F16" s="422"/>
-      <c r="G16" s="422"/>
-      <c r="H16" s="423"/>
+      <c r="B16" s="431"/>
+      <c r="C16" s="432"/>
+      <c r="D16" s="432"/>
+      <c r="E16" s="432"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
       <c r="I16" s="223"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -17255,7 +17267,7 @@
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="419" t="s">
+      <c r="B17" s="420" t="s">
         <v>500</v>
       </c>
       <c r="C17" s="269" t="s">
@@ -17307,7 +17319,7 @@
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="420"/>
+      <c r="B18" s="421"/>
       <c r="C18" s="269" t="s">
         <v>375</v>
       </c>
@@ -17357,13 +17369,13 @@
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="421"/>
-      <c r="C19" s="422"/>
-      <c r="D19" s="422"/>
-      <c r="E19" s="422"/>
-      <c r="F19" s="422"/>
-      <c r="G19" s="422"/>
-      <c r="H19" s="423"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="432"/>
+      <c r="F19" s="432"/>
+      <c r="G19" s="432"/>
+      <c r="H19" s="433"/>
       <c r="I19" s="223"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -17399,7 +17411,7 @@
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="419" t="s">
+      <c r="B20" s="420" t="s">
         <v>495</v>
       </c>
       <c r="C20" s="269" t="s">
@@ -17451,7 +17463,7 @@
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="420"/>
+      <c r="B21" s="421"/>
       <c r="C21" s="269" t="s">
         <v>375</v>
       </c>
@@ -17501,13 +17513,13 @@
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="421"/>
-      <c r="C22" s="422"/>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="423"/>
+      <c r="B22" s="431"/>
+      <c r="C22" s="432"/>
+      <c r="D22" s="432"/>
+      <c r="E22" s="432"/>
+      <c r="F22" s="432"/>
+      <c r="G22" s="432"/>
+      <c r="H22" s="433"/>
       <c r="I22" s="223"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -17543,7 +17555,7 @@
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="419" t="s">
+      <c r="B23" s="420" t="s">
         <v>496</v>
       </c>
       <c r="C23" s="269" t="s">
@@ -17595,7 +17607,7 @@
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="420"/>
+      <c r="B24" s="421"/>
       <c r="C24" s="269" t="s">
         <v>375</v>
       </c>
@@ -17645,13 +17657,13 @@
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="421"/>
-      <c r="C25" s="422"/>
-      <c r="D25" s="422"/>
-      <c r="E25" s="422"/>
-      <c r="F25" s="422"/>
-      <c r="G25" s="422"/>
-      <c r="H25" s="423"/>
+      <c r="B25" s="431"/>
+      <c r="C25" s="432"/>
+      <c r="D25" s="432"/>
+      <c r="E25" s="432"/>
+      <c r="F25" s="432"/>
+      <c r="G25" s="432"/>
+      <c r="H25" s="433"/>
       <c r="I25" s="223"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -17687,7 +17699,7 @@
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="419" t="s">
+      <c r="B26" s="420" t="s">
         <v>497</v>
       </c>
       <c r="C26" s="269" t="s">
@@ -17739,7 +17751,7 @@
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="420"/>
+      <c r="B27" s="421"/>
       <c r="C27" s="269" t="s">
         <v>375</v>
       </c>
@@ -17789,13 +17801,13 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="421"/>
-      <c r="C28" s="422"/>
-      <c r="D28" s="422"/>
-      <c r="E28" s="422"/>
-      <c r="F28" s="422"/>
-      <c r="G28" s="422"/>
-      <c r="H28" s="423"/>
+      <c r="B28" s="431"/>
+      <c r="C28" s="432"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="432"/>
+      <c r="F28" s="432"/>
+      <c r="G28" s="432"/>
+      <c r="H28" s="433"/>
       <c r="I28" s="223"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -17831,7 +17843,7 @@
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="419" t="s">
+      <c r="B29" s="420" t="s">
         <v>498</v>
       </c>
       <c r="C29" s="269" t="s">
@@ -17883,7 +17895,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="420"/>
+      <c r="B30" s="421"/>
       <c r="C30" s="269" t="s">
         <v>375</v>
       </c>
@@ -17933,13 +17945,13 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
-      <c r="D31" s="422"/>
-      <c r="E31" s="422"/>
-      <c r="F31" s="422"/>
-      <c r="G31" s="422"/>
-      <c r="H31" s="423"/>
+      <c r="B31" s="431"/>
+      <c r="C31" s="432"/>
+      <c r="D31" s="432"/>
+      <c r="E31" s="432"/>
+      <c r="F31" s="432"/>
+      <c r="G31" s="432"/>
+      <c r="H31" s="433"/>
       <c r="I31" s="223"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -17975,7 +17987,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="419" t="s">
+      <c r="B32" s="420" t="s">
         <v>499</v>
       </c>
       <c r="C32" s="269" t="s">
@@ -18023,7 +18035,7 @@
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="420"/>
+      <c r="B33" s="421"/>
       <c r="C33" s="269" t="s">
         <v>375</v>
       </c>
@@ -18069,13 +18081,13 @@
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
-      <c r="B34" s="421"/>
-      <c r="C34" s="422"/>
-      <c r="D34" s="422"/>
-      <c r="E34" s="422"/>
-      <c r="F34" s="422"/>
-      <c r="G34" s="422"/>
-      <c r="H34" s="423"/>
+      <c r="B34" s="431"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="432"/>
+      <c r="E34" s="432"/>
+      <c r="F34" s="432"/>
+      <c r="G34" s="432"/>
+      <c r="H34" s="433"/>
       <c r="I34" s="223"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -18111,15 +18123,15 @@
     </row>
     <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="222"/>
-      <c r="B35" s="430" t="s">
+      <c r="B35" s="422" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="431"/>
-      <c r="D35" s="431"/>
-      <c r="E35" s="431"/>
-      <c r="F35" s="431"/>
-      <c r="G35" s="431"/>
-      <c r="H35" s="432"/>
+      <c r="C35" s="423"/>
+      <c r="D35" s="423"/>
+      <c r="E35" s="423"/>
+      <c r="F35" s="423"/>
+      <c r="G35" s="423"/>
+      <c r="H35" s="424"/>
       <c r="I35" s="223"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -18158,10 +18170,10 @@
       <c r="B36" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="424" t="s">
+      <c r="C36" s="434" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="425"/>
+      <c r="D36" s="435"/>
       <c r="E36" s="225" t="s">
         <v>78</v>
       </c>
@@ -18209,7 +18221,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="224"/>
-      <c r="B37" s="426"/>
+      <c r="B37" s="419"/>
       <c r="C37" s="269" t="s">
         <v>374</v>
       </c>
@@ -18255,7 +18267,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="231"/>
-      <c r="B38" s="426"/>
+      <c r="B38" s="419"/>
       <c r="C38" s="269" t="s">
         <v>375</v>
       </c>
@@ -18301,13 +18313,13 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="231"/>
-      <c r="B39" s="421"/>
-      <c r="C39" s="422"/>
-      <c r="D39" s="422"/>
-      <c r="E39" s="422"/>
-      <c r="F39" s="422"/>
-      <c r="G39" s="422"/>
-      <c r="H39" s="423"/>
+      <c r="B39" s="431"/>
+      <c r="C39" s="432"/>
+      <c r="D39" s="432"/>
+      <c r="E39" s="432"/>
+      <c r="F39" s="432"/>
+      <c r="G39" s="432"/>
+      <c r="H39" s="433"/>
       <c r="I39" s="223"/>
       <c r="J39" s="29"/>
       <c r="L39" s="29"/>
@@ -18342,7 +18354,7 @@
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="222"/>
-      <c r="B40" s="426"/>
+      <c r="B40" s="419"/>
       <c r="C40" s="269" t="s">
         <v>374</v>
       </c>
@@ -18388,7 +18400,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="231"/>
-      <c r="B41" s="426"/>
+      <c r="B41" s="419"/>
       <c r="C41" s="269" t="s">
         <v>375</v>
       </c>
@@ -18434,13 +18446,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="222"/>
-      <c r="B42" s="421"/>
-      <c r="C42" s="422"/>
-      <c r="D42" s="422"/>
-      <c r="E42" s="422"/>
-      <c r="F42" s="422"/>
-      <c r="G42" s="422"/>
-      <c r="H42" s="423"/>
+      <c r="B42" s="431"/>
+      <c r="C42" s="432"/>
+      <c r="D42" s="432"/>
+      <c r="E42" s="432"/>
+      <c r="F42" s="432"/>
+      <c r="G42" s="432"/>
+      <c r="H42" s="433"/>
       <c r="I42" s="223"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -18476,7 +18488,7 @@
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="222"/>
-      <c r="B43" s="426"/>
+      <c r="B43" s="419"/>
       <c r="C43" s="269" t="s">
         <v>374</v>
       </c>
@@ -18522,7 +18534,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="222"/>
-      <c r="B44" s="426"/>
+      <c r="B44" s="419"/>
       <c r="C44" s="269" t="s">
         <v>375</v>
       </c>
@@ -18568,13 +18580,13 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="222"/>
-      <c r="B45" s="421"/>
-      <c r="C45" s="422"/>
-      <c r="D45" s="422"/>
-      <c r="E45" s="422"/>
-      <c r="F45" s="422"/>
-      <c r="G45" s="422"/>
-      <c r="H45" s="423"/>
+      <c r="B45" s="431"/>
+      <c r="C45" s="432"/>
+      <c r="D45" s="432"/>
+      <c r="E45" s="432"/>
+      <c r="F45" s="432"/>
+      <c r="G45" s="432"/>
+      <c r="H45" s="433"/>
       <c r="I45" s="223"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -18610,15 +18622,15 @@
     </row>
     <row r="46" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="222"/>
-      <c r="B46" s="427" t="s">
+      <c r="B46" s="428" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="428"/>
-      <c r="D46" s="428"/>
-      <c r="E46" s="428"/>
-      <c r="F46" s="428"/>
-      <c r="G46" s="428"/>
-      <c r="H46" s="429"/>
+      <c r="C46" s="429"/>
+      <c r="D46" s="429"/>
+      <c r="E46" s="429"/>
+      <c r="F46" s="429"/>
+      <c r="G46" s="429"/>
+      <c r="H46" s="430"/>
       <c r="I46" s="223"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -18657,10 +18669,10 @@
       <c r="B47" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="424" t="s">
+      <c r="C47" s="434" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="425"/>
+      <c r="D47" s="435"/>
       <c r="E47" s="225" t="s">
         <v>78</v>
       </c>
@@ -18708,7 +18720,7 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="224"/>
-      <c r="B48" s="426"/>
+      <c r="B48" s="419"/>
       <c r="C48" s="269" t="s">
         <v>374</v>
       </c>
@@ -18754,7 +18766,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="231"/>
-      <c r="B49" s="426"/>
+      <c r="B49" s="419"/>
       <c r="C49" s="269" t="s">
         <v>375</v>
       </c>
@@ -18800,13 +18812,13 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="231"/>
-      <c r="B50" s="421"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="422"/>
-      <c r="E50" s="422"/>
-      <c r="F50" s="422"/>
-      <c r="G50" s="422"/>
-      <c r="H50" s="423"/>
+      <c r="B50" s="431"/>
+      <c r="C50" s="432"/>
+      <c r="D50" s="432"/>
+      <c r="E50" s="432"/>
+      <c r="F50" s="432"/>
+      <c r="G50" s="432"/>
+      <c r="H50" s="433"/>
       <c r="I50" s="223"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -18842,7 +18854,7 @@
     </row>
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="222"/>
-      <c r="B51" s="426"/>
+      <c r="B51" s="419"/>
       <c r="C51" s="269" t="s">
         <v>374</v>
       </c>
@@ -18888,7 +18900,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="231"/>
-      <c r="B52" s="426"/>
+      <c r="B52" s="419"/>
       <c r="C52" s="269" t="s">
         <v>375</v>
       </c>
@@ -18934,13 +18946,13 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="222"/>
-      <c r="B53" s="421"/>
-      <c r="C53" s="422"/>
-      <c r="D53" s="422"/>
-      <c r="E53" s="422"/>
-      <c r="F53" s="422"/>
-      <c r="G53" s="422"/>
-      <c r="H53" s="423"/>
+      <c r="B53" s="431"/>
+      <c r="C53" s="432"/>
+      <c r="D53" s="432"/>
+      <c r="E53" s="432"/>
+      <c r="F53" s="432"/>
+      <c r="G53" s="432"/>
+      <c r="H53" s="433"/>
       <c r="I53" s="223"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -18976,7 +18988,7 @@
     </row>
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="222"/>
-      <c r="B54" s="426"/>
+      <c r="B54" s="419"/>
       <c r="C54" s="269" t="s">
         <v>374</v>
       </c>
@@ -19022,7 +19034,7 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="222"/>
-      <c r="B55" s="426"/>
+      <c r="B55" s="419"/>
       <c r="C55" s="269" t="s">
         <v>375</v>
       </c>
@@ -19068,13 +19080,13 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="222"/>
-      <c r="B56" s="421"/>
-      <c r="C56" s="422"/>
-      <c r="D56" s="422"/>
-      <c r="E56" s="422"/>
-      <c r="F56" s="422"/>
-      <c r="G56" s="422"/>
-      <c r="H56" s="423"/>
+      <c r="B56" s="431"/>
+      <c r="C56" s="432"/>
+      <c r="D56" s="432"/>
+      <c r="E56" s="432"/>
+      <c r="F56" s="432"/>
+      <c r="G56" s="432"/>
+      <c r="H56" s="433"/>
       <c r="I56" s="223"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -20331,11 +20343,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B53:H53"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B7:H7"/>
@@ -20352,24 +20377,11 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20379,8 +20391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C7926-D64C-442F-9C0F-E045861C247A}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:D74"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20400,10 +20412,10 @@
       <c r="B1" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="445" t="s">
+      <c r="C1" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="446"/>
+      <c r="D1" s="447"/>
       <c r="E1" s="341" t="s">
         <v>97</v>
       </c>
@@ -20418,10 +20430,10 @@
       <c r="B2" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="447" t="s">
+      <c r="C2" s="436" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="447"/>
+      <c r="D2" s="436"/>
       <c r="E2" s="345"/>
       <c r="F2" s="345"/>
     </row>
@@ -20446,10 +20458,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="346"/>
-      <c r="C4" s="449" t="s">
+      <c r="C4" s="445" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="449"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="347" t="s">
         <v>135</v>
       </c>
@@ -20464,10 +20476,10 @@
       <c r="B5" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="440" t="s">
+      <c r="C5" s="449" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="440"/>
+      <c r="D5" s="449"/>
       <c r="E5" s="345"/>
       <c r="F5" s="345"/>
     </row>
@@ -20475,10 +20487,10 @@
       <c r="A6" s="351" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="439" t="s">
+      <c r="C6" s="437" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="439"/>
+      <c r="D6" s="437"/>
       <c r="E6" s="347" t="s">
         <v>135</v>
       </c>
@@ -20505,10 +20517,10 @@
       <c r="A8" s="351" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="449" t="s">
+      <c r="C8" s="445" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="449"/>
+      <c r="D8" s="445"/>
       <c r="E8" s="347" t="s">
         <v>135</v>
       </c>
@@ -20538,10 +20550,10 @@
       <c r="B10" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="447" t="s">
+      <c r="C10" s="436" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="447"/>
+      <c r="D10" s="436"/>
       <c r="E10" s="345"/>
       <c r="F10" s="345"/>
     </row>
@@ -20549,10 +20561,10 @@
       <c r="A11" s="351" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="439" t="s">
+      <c r="C11" s="437" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="439"/>
+      <c r="D11" s="437"/>
       <c r="E11" s="347" t="s">
         <v>135</v>
       </c>
@@ -20564,10 +20576,10 @@
       <c r="A12" s="351" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="439" t="s">
+      <c r="C12" s="437" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="439"/>
+      <c r="D12" s="437"/>
       <c r="E12" s="347" t="s">
         <v>135</v>
       </c>
@@ -20579,10 +20591,10 @@
       <c r="A13" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="439" t="s">
+      <c r="C13" s="437" t="s">
         <v>391</v>
       </c>
-      <c r="D13" s="439"/>
+      <c r="D13" s="437"/>
       <c r="E13" s="347" t="s">
         <v>135</v>
       </c>
@@ -20594,10 +20606,10 @@
       <c r="A14" s="351" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="439" t="s">
+      <c r="C14" s="437" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="439"/>
+      <c r="D14" s="437"/>
       <c r="E14" s="347" t="s">
         <v>135</v>
       </c>
@@ -20609,10 +20621,10 @@
       <c r="A15" s="351" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="439" t="s">
+      <c r="C15" s="437" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="439"/>
+      <c r="D15" s="437"/>
       <c r="E15" s="347" t="s">
         <v>135</v>
       </c>
@@ -20624,10 +20636,10 @@
       <c r="A16" s="351" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="439" t="s">
+      <c r="C16" s="437" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="439"/>
+      <c r="D16" s="437"/>
       <c r="E16" s="347" t="s">
         <v>135</v>
       </c>
@@ -20639,10 +20651,10 @@
       <c r="A17" s="351" t="s">
         <v>405</v>
       </c>
-      <c r="C17" s="439" t="s">
+      <c r="C17" s="437" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="439"/>
+      <c r="D17" s="437"/>
       <c r="E17" s="347" t="s">
         <v>135</v>
       </c>
@@ -20654,10 +20666,10 @@
       <c r="A18" s="351" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="439" t="s">
+      <c r="C18" s="437" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="439"/>
+      <c r="D18" s="437"/>
       <c r="E18" s="347" t="s">
         <v>135</v>
       </c>
@@ -20669,10 +20681,10 @@
       <c r="A19" s="351" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="439" t="s">
+      <c r="C19" s="437" t="s">
         <v>397</v>
       </c>
-      <c r="D19" s="439"/>
+      <c r="D19" s="437"/>
       <c r="E19" s="347" t="s">
         <v>135</v>
       </c>
@@ -20684,10 +20696,10 @@
       <c r="A20" s="351" t="s">
         <v>408</v>
       </c>
-      <c r="C20" s="439" t="s">
+      <c r="C20" s="437" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="439"/>
+      <c r="D20" s="437"/>
       <c r="E20" s="347" t="s">
         <v>135</v>
       </c>
@@ -20699,10 +20711,10 @@
       <c r="A21" s="351" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="439" t="s">
+      <c r="C21" s="437" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="439"/>
+      <c r="D21" s="437"/>
       <c r="E21" s="347" t="s">
         <v>135</v>
       </c>
@@ -20732,10 +20744,10 @@
       <c r="B23" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="437" t="s">
+      <c r="C23" s="442" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="437"/>
+      <c r="D23" s="442"/>
       <c r="E23" s="345"/>
       <c r="F23" s="345"/>
     </row>
@@ -20743,10 +20755,10 @@
       <c r="A24" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C24" s="444" t="s">
+      <c r="C24" s="443" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="444"/>
+      <c r="D24" s="443"/>
       <c r="E24" s="347" t="s">
         <v>135</v>
       </c>
@@ -20758,10 +20770,10 @@
       <c r="A25" s="351" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="444" t="s">
+      <c r="C25" s="443" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="444"/>
+      <c r="D25" s="443"/>
       <c r="E25" s="347" t="s">
         <v>135</v>
       </c>
@@ -20773,10 +20785,10 @@
       <c r="A26" s="351" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="444" t="s">
+      <c r="C26" s="443" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="444"/>
+      <c r="D26" s="443"/>
       <c r="E26" s="310" t="s">
         <v>400</v>
       </c>
@@ -20788,10 +20800,10 @@
       <c r="A27" s="351" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="442" t="s">
+      <c r="C27" s="438" t="s">
         <v>454</v>
       </c>
-      <c r="D27" s="442"/>
+      <c r="D27" s="438"/>
       <c r="E27" s="310" t="s">
         <v>400</v>
       </c>
@@ -20803,10 +20815,10 @@
       <c r="A28" s="351" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="444" t="s">
+      <c r="C28" s="443" t="s">
         <v>453</v>
       </c>
-      <c r="D28" s="444"/>
+      <c r="D28" s="443"/>
       <c r="E28" s="310" t="s">
         <v>400</v>
       </c>
@@ -20818,10 +20830,10 @@
       <c r="A29" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="C29" s="444" t="s">
+      <c r="C29" s="443" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="444"/>
+      <c r="D29" s="443"/>
       <c r="E29" s="310" t="s">
         <v>400</v>
       </c>
@@ -20833,10 +20845,10 @@
       <c r="A30" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="C30" s="442" t="s">
+      <c r="C30" s="438" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="442"/>
+      <c r="D30" s="438"/>
       <c r="E30" s="310" t="s">
         <v>400</v>
       </c>
@@ -20848,10 +20860,10 @@
       <c r="A31" s="351" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="442" t="s">
+      <c r="C31" s="438" t="s">
         <v>459</v>
       </c>
-      <c r="D31" s="442"/>
+      <c r="D31" s="438"/>
       <c r="E31" s="310" t="s">
         <v>400</v>
       </c>
@@ -20863,10 +20875,10 @@
       <c r="A32" s="351" t="s">
         <v>460</v>
       </c>
-      <c r="C32" s="442" t="s">
+      <c r="C32" s="438" t="s">
         <v>470</v>
       </c>
-      <c r="D32" s="442"/>
+      <c r="D32" s="438"/>
       <c r="E32" s="310" t="s">
         <v>400</v>
       </c>
@@ -20878,10 +20890,10 @@
       <c r="A33" s="351" t="s">
         <v>465</v>
       </c>
-      <c r="C33" s="444" t="s">
+      <c r="C33" s="443" t="s">
         <v>471</v>
       </c>
-      <c r="D33" s="444"/>
+      <c r="D33" s="443"/>
       <c r="E33" s="310" t="s">
         <v>400</v>
       </c>
@@ -20893,10 +20905,10 @@
       <c r="A34" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="C34" s="442" t="s">
+      <c r="C34" s="438" t="s">
         <v>463</v>
       </c>
-      <c r="D34" s="442"/>
+      <c r="D34" s="438"/>
       <c r="E34" s="310" t="s">
         <v>400</v>
       </c>
@@ -20908,10 +20920,10 @@
       <c r="A35" s="351" t="s">
         <v>472</v>
       </c>
-      <c r="C35" s="442" t="s">
+      <c r="C35" s="438" t="s">
         <v>464</v>
       </c>
-      <c r="D35" s="442"/>
+      <c r="D35" s="438"/>
       <c r="E35" s="310" t="s">
         <v>400</v>
       </c>
@@ -20923,10 +20935,10 @@
       <c r="A36" s="351" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="442" t="s">
+      <c r="C36" s="438" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="442"/>
+      <c r="D36" s="438"/>
       <c r="E36" s="347" t="s">
         <v>135</v>
       </c>
@@ -20938,10 +20950,10 @@
       <c r="A37" s="351" t="s">
         <v>474</v>
       </c>
-      <c r="C37" s="442" t="s">
+      <c r="C37" s="438" t="s">
         <v>466</v>
       </c>
-      <c r="D37" s="442"/>
+      <c r="D37" s="438"/>
       <c r="E37" s="310" t="s">
         <v>400</v>
       </c>
@@ -20953,10 +20965,10 @@
       <c r="A38" s="351" t="s">
         <v>475</v>
       </c>
-      <c r="C38" s="442" t="s">
+      <c r="C38" s="438" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="442"/>
+      <c r="D38" s="438"/>
       <c r="E38" s="310" t="s">
         <v>400</v>
       </c>
@@ -20965,36 +20977,46 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="442"/>
-      <c r="D39" s="442"/>
+      <c r="A39" s="351" t="s">
+        <v>514</v>
+      </c>
+      <c r="C39" s="438" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39" s="438"/>
       <c r="E39" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="442"/>
-      <c r="D40" s="442"/>
+      <c r="A40" s="351" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="438" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40" s="438"/>
       <c r="E40" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="442"/>
-      <c r="D41" s="442"/>
+      <c r="C41" s="438"/>
+      <c r="D41" s="438"/>
       <c r="E41" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="442"/>
-      <c r="D42" s="442"/>
+      <c r="C42" s="438"/>
+      <c r="D42" s="438"/>
       <c r="E42" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="442"/>
-      <c r="D43" s="442"/>
+      <c r="C43" s="438"/>
+      <c r="D43" s="438"/>
       <c r="E43" s="310" t="s">
         <v>400</v>
       </c>
@@ -21006,10 +21028,10 @@
       <c r="B44" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="437" t="s">
+      <c r="C44" s="442" t="s">
         <v>411</v>
       </c>
-      <c r="D44" s="437"/>
+      <c r="D44" s="442"/>
       <c r="E44" s="345"/>
       <c r="F44" s="345"/>
     </row>
@@ -21017,10 +21039,10 @@
       <c r="A45" s="351" t="s">
         <v>481</v>
       </c>
-      <c r="C45" s="444" t="s">
+      <c r="C45" s="443" t="s">
         <v>476</v>
       </c>
-      <c r="D45" s="444"/>
+      <c r="D45" s="443"/>
       <c r="E45" s="310" t="s">
         <v>400</v>
       </c>
@@ -21029,10 +21051,10 @@
       <c r="A46" s="351" t="s">
         <v>482</v>
       </c>
-      <c r="C46" s="444" t="s">
+      <c r="C46" s="443" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="444"/>
+      <c r="D46" s="443"/>
       <c r="E46" s="310" t="s">
         <v>400</v>
       </c>
@@ -21041,10 +21063,10 @@
       <c r="A47" s="351" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="444" t="s">
+      <c r="C47" s="443" t="s">
         <v>478</v>
       </c>
-      <c r="D47" s="444"/>
+      <c r="D47" s="443"/>
       <c r="E47" s="310" t="s">
         <v>400</v>
       </c>
@@ -21053,10 +21075,10 @@
       <c r="A48" s="351" t="s">
         <v>484</v>
       </c>
-      <c r="C48" s="442" t="s">
+      <c r="C48" s="438" t="s">
         <v>479</v>
       </c>
-      <c r="D48" s="442"/>
+      <c r="D48" s="438"/>
       <c r="E48" s="310" t="s">
         <v>400</v>
       </c>
@@ -21065,52 +21087,52 @@
       <c r="A49" s="351" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="442" t="s">
+      <c r="C49" s="438" t="s">
         <v>480</v>
       </c>
-      <c r="D49" s="442"/>
+      <c r="D49" s="438"/>
       <c r="E49" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="442"/>
-      <c r="D50" s="442"/>
+      <c r="C50" s="438"/>
+      <c r="D50" s="438"/>
       <c r="E50" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="442"/>
-      <c r="D51" s="442"/>
+      <c r="C51" s="438"/>
+      <c r="D51" s="438"/>
       <c r="E51" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="442"/>
-      <c r="D52" s="442"/>
+      <c r="C52" s="438"/>
+      <c r="D52" s="438"/>
       <c r="E52" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="442"/>
-      <c r="D53" s="442"/>
+      <c r="C53" s="438"/>
+      <c r="D53" s="438"/>
       <c r="E53" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="442"/>
-      <c r="D54" s="442"/>
+      <c r="C54" s="438"/>
+      <c r="D54" s="438"/>
       <c r="E54" s="310" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="442"/>
-      <c r="D55" s="442"/>
+      <c r="C55" s="438"/>
+      <c r="D55" s="438"/>
       <c r="E55" s="310" t="s">
         <v>400</v>
       </c>
@@ -21122,26 +21144,26 @@
       <c r="B56" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C56" s="438" t="s">
+      <c r="C56" s="440" t="s">
         <v>412</v>
       </c>
-      <c r="D56" s="438"/>
+      <c r="D56" s="440"/>
       <c r="E56" s="345"/>
       <c r="F56" s="345"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="443"/>
-      <c r="D57" s="443"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="439"/>
       <c r="E57" s="345"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="443"/>
-      <c r="D58" s="443"/>
+      <c r="C58" s="439"/>
+      <c r="D58" s="439"/>
       <c r="E58" s="345"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="443"/>
-      <c r="D59" s="443"/>
+      <c r="C59" s="439"/>
+      <c r="D59" s="439"/>
       <c r="E59" s="345"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -21151,26 +21173,26 @@
       <c r="B60" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C60" s="437" t="s">
+      <c r="C60" s="442" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="437"/>
+      <c r="D60" s="442"/>
       <c r="E60" s="345"/>
       <c r="F60" s="345"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="443"/>
-      <c r="D61" s="443"/>
+      <c r="C61" s="439"/>
+      <c r="D61" s="439"/>
       <c r="E61" s="345"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="443"/>
-      <c r="D62" s="443"/>
+      <c r="C62" s="439"/>
+      <c r="D62" s="439"/>
       <c r="E62" s="345"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="443"/>
-      <c r="D63" s="443"/>
+      <c r="C63" s="439"/>
+      <c r="D63" s="439"/>
       <c r="E63" s="345"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -21180,26 +21202,26 @@
       <c r="B64" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C64" s="437" t="s">
+      <c r="C64" s="442" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="437"/>
+      <c r="D64" s="442"/>
       <c r="E64" s="345"/>
       <c r="F64" s="345"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="443"/>
-      <c r="D65" s="443"/>
+      <c r="C65" s="439"/>
+      <c r="D65" s="439"/>
       <c r="E65" s="345"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="443"/>
-      <c r="D66" s="443"/>
+      <c r="C66" s="439"/>
+      <c r="D66" s="439"/>
       <c r="E66" s="345"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="443"/>
-      <c r="D67" s="443"/>
+      <c r="C67" s="439"/>
+      <c r="D67" s="439"/>
       <c r="E67" s="345"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -21209,63 +21231,63 @@
       <c r="B68" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="437" t="s">
+      <c r="C68" s="442" t="s">
         <v>417</v>
       </c>
-      <c r="D68" s="437"/>
+      <c r="D68" s="442"/>
       <c r="E68" s="345"/>
       <c r="F68" s="345"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="443"/>
-      <c r="D69" s="443"/>
+      <c r="C69" s="439"/>
+      <c r="D69" s="439"/>
       <c r="E69" s="345"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="443"/>
-      <c r="D70" s="443"/>
+      <c r="C70" s="439"/>
+      <c r="D70" s="439"/>
       <c r="E70" s="345"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="443"/>
-      <c r="D71" s="443"/>
+      <c r="C71" s="439"/>
+      <c r="D71" s="439"/>
       <c r="E71" s="345"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="451">
+      <c r="A72" s="441">
         <v>10</v>
       </c>
-      <c r="B72" s="450" t="s">
+      <c r="B72" s="444" t="s">
         <v>413</v>
       </c>
-      <c r="C72" s="438" t="s">
+      <c r="C72" s="440" t="s">
         <v>414</v>
       </c>
-      <c r="D72" s="438"/>
+      <c r="D72" s="440"/>
       <c r="E72" s="345"/>
       <c r="F72" s="345"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="451"/>
-      <c r="B73" s="450"/>
-      <c r="C73" s="438"/>
-      <c r="D73" s="438"/>
+      <c r="A73" s="441"/>
+      <c r="B73" s="444"/>
+      <c r="C73" s="440"/>
+      <c r="D73" s="440"/>
       <c r="E73" s="345"/>
       <c r="F73" s="345"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="443"/>
-      <c r="D74" s="443"/>
+      <c r="C74" s="439"/>
+      <c r="D74" s="439"/>
       <c r="E74" s="345"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="443"/>
-      <c r="D75" s="443"/>
+      <c r="C75" s="439"/>
+      <c r="D75" s="439"/>
       <c r="E75" s="345"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="443"/>
-      <c r="D76" s="443"/>
+      <c r="C76" s="439"/>
+      <c r="D76" s="439"/>
       <c r="E76" s="345"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -21275,26 +21297,26 @@
       <c r="B77" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="438" t="s">
+      <c r="C77" s="440" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="438"/>
+      <c r="D77" s="440"/>
       <c r="E77" s="345"/>
       <c r="F77" s="345"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="443"/>
-      <c r="D78" s="443"/>
+      <c r="C78" s="439"/>
+      <c r="D78" s="439"/>
       <c r="E78" s="345"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="443"/>
-      <c r="D79" s="443"/>
+      <c r="C79" s="439"/>
+      <c r="D79" s="439"/>
       <c r="E79" s="345"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="443"/>
-      <c r="D80" s="443"/>
+      <c r="C80" s="439"/>
+      <c r="D80" s="439"/>
       <c r="E80" s="345"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21304,10 +21326,10 @@
       <c r="B81" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="440" t="s">
+      <c r="C81" s="449" t="s">
         <v>421</v>
       </c>
-      <c r="D81" s="440"/>
+      <c r="D81" s="449"/>
       <c r="E81" s="348"/>
       <c r="F81" s="345"/>
     </row>
@@ -21315,10 +21337,10 @@
       <c r="A82" s="351" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="439" t="s">
+      <c r="C82" s="437" t="s">
         <v>422</v>
       </c>
-      <c r="D82" s="439"/>
+      <c r="D82" s="437"/>
       <c r="E82" s="347" t="s">
         <v>135</v>
       </c>
@@ -21330,10 +21352,10 @@
       <c r="A83" s="351" t="s">
         <v>424</v>
       </c>
-      <c r="C83" s="439" t="s">
+      <c r="C83" s="437" t="s">
         <v>423</v>
       </c>
-      <c r="D83" s="439"/>
+      <c r="D83" s="437"/>
       <c r="E83" s="347" t="s">
         <v>135</v>
       </c>
@@ -21348,10 +21370,10 @@
       <c r="B84" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="C84" s="447" t="s">
+      <c r="C84" s="436" t="s">
         <v>501</v>
       </c>
-      <c r="D84" s="447"/>
+      <c r="D84" s="436"/>
       <c r="E84" s="348"/>
       <c r="F84" s="345"/>
     </row>
@@ -21359,10 +21381,10 @@
       <c r="A85" s="351" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="439" t="s">
+      <c r="C85" s="437" t="s">
         <v>502</v>
       </c>
-      <c r="D85" s="439"/>
+      <c r="D85" s="437"/>
       <c r="E85" s="310" t="s">
         <v>400</v>
       </c>
@@ -21371,99 +21393,27 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="439"/>
-      <c r="D86" s="439"/>
+      <c r="C86" s="437"/>
+      <c r="D86" s="437"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="441"/>
-      <c r="D91" s="441"/>
+      <c r="C91" s="451"/>
+      <c r="D91" s="451"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="436"/>
-      <c r="D92" s="436"/>
+      <c r="C92" s="450"/>
+      <c r="D92" s="450"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="436"/>
-      <c r="D93" s="436"/>
+      <c r="C93" s="450"/>
+      <c r="D93" s="450"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="436"/>
-      <c r="D94" s="436"/>
+      <c r="C94" s="450"/>
+      <c r="D94" s="450"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C72:D73"/>
@@ -21480,6 +21430,78 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C77:D77"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="266" priority="138" operator="containsText" text="Ei tehdä">
@@ -21934,15 +21956,15 @@
       <c r="O1" s="304"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="470" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="471"/>
+      <c r="F2" s="472"/>
       <c r="J2" s="304"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
@@ -21953,9 +21975,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="475"/>
       <c r="J3" s="304"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
@@ -21966,9 +21988,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="475"/>
       <c r="J4" s="304"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
@@ -21979,9 +22001,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="474"/>
+      <c r="F5" s="475"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
@@ -21992,9 +22014,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="476"/>
+      <c r="E6" s="477"/>
+      <c r="F6" s="478"/>
       <c r="J6" s="304"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
@@ -22032,14 +22054,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="445" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="446"/>
-      <c r="G9" s="463" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="479" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="464"/>
+      <c r="H9" s="480"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -22065,12 +22087,12 @@
       <c r="D10" s="353" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="447" t="s">
+      <c r="E10" s="436" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="447"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="465"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="456"/>
+      <c r="H10" s="456"/>
       <c r="I10" s="353">
         <v>0</v>
       </c>
@@ -22096,12 +22118,12 @@
       <c r="D11" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="440" t="s">
+      <c r="E11" s="449" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="440"/>
-      <c r="G11" s="465"/>
-      <c r="H11" s="465"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
       <c r="I11" s="353">
         <v>2</v>
       </c>
@@ -22127,12 +22149,12 @@
       <c r="D12" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="447" t="s">
+      <c r="E12" s="436" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="447"/>
-      <c r="G12" s="465"/>
-      <c r="H12" s="465"/>
+      <c r="F12" s="436"/>
+      <c r="G12" s="456"/>
+      <c r="H12" s="456"/>
       <c r="I12" s="353">
         <v>20</v>
       </c>
@@ -22158,12 +22180,12 @@
       <c r="D13" s="345" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="437" t="s">
+      <c r="E13" s="442" t="s">
         <v>410</v>
       </c>
-      <c r="F13" s="437"/>
-      <c r="G13" s="465"/>
-      <c r="H13" s="465"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="456"/>
+      <c r="H13" s="456"/>
       <c r="I13" s="353">
         <v>40</v>
       </c>
@@ -22189,12 +22211,12 @@
       <c r="D14" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="440" t="s">
+      <c r="E14" s="449" t="s">
         <v>421</v>
       </c>
-      <c r="F14" s="440"/>
-      <c r="G14" s="465"/>
-      <c r="H14" s="465"/>
+      <c r="F14" s="449"/>
+      <c r="G14" s="456"/>
+      <c r="H14" s="456"/>
       <c r="I14" s="353">
         <v>0</v>
       </c>
@@ -22220,12 +22242,12 @@
       <c r="D15" s="345" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="447" t="s">
+      <c r="E15" s="436" t="s">
         <v>501</v>
       </c>
-      <c r="F15" s="447"/>
-      <c r="G15" s="465"/>
-      <c r="H15" s="465"/>
+      <c r="F15" s="436"/>
+      <c r="G15" s="456"/>
+      <c r="H15" s="456"/>
       <c r="I15" s="353">
         <v>5</v>
       </c>
@@ -22245,10 +22267,10 @@
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="477"/>
-      <c r="F16" s="477"/>
-      <c r="G16" s="476"/>
-      <c r="H16" s="476"/>
+      <c r="E16" s="458"/>
+      <c r="F16" s="458"/>
+      <c r="G16" s="457"/>
+      <c r="H16" s="457"/>
       <c r="I16" s="173"/>
       <c r="J16" s="173"/>
       <c r="K16" s="310" t="e">
@@ -22286,8 +22308,8 @@
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
-      <c r="E18" s="471"/>
-      <c r="F18" s="471"/>
+      <c r="E18" s="466"/>
+      <c r="F18" s="466"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="173"/>
@@ -22305,11 +22327,11 @@
     </row>
     <row r="19" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="466" t="s">
+      <c r="C19" s="461" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="467"/>
-      <c r="E19" s="468"/>
+      <c r="D19" s="462"/>
+      <c r="E19" s="463"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="178" t="s">
@@ -22363,10 +22385,10 @@
       <c r="C21" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="469" t="s">
+      <c r="D21" s="464" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="470"/>
+      <c r="E21" s="465"/>
       <c r="F21" s="172" t="s">
         <v>97</v>
       </c>
@@ -22416,10 +22438,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="358"/>
-      <c r="D22" s="472" t="s">
+      <c r="D22" s="467" t="s">
         <v>378</v>
       </c>
-      <c r="E22" s="472"/>
+      <c r="E22" s="467"/>
       <c r="F22" s="347" t="s">
         <v>135</v>
       </c>
@@ -22467,10 +22489,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="358"/>
-      <c r="D23" s="478" t="s">
+      <c r="D23" s="459" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="478"/>
+      <c r="E23" s="459"/>
       <c r="F23" s="347" t="s">
         <v>135</v>
       </c>
@@ -22510,10 +22532,10 @@
         <v>109</v>
       </c>
       <c r="C24" s="360"/>
-      <c r="D24" s="479" t="s">
+      <c r="D24" s="455" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="479"/>
+      <c r="E24" s="455"/>
       <c r="F24" s="347" t="s">
         <v>135</v>
       </c>
@@ -22594,10 +22616,10 @@
         <v>488</v>
       </c>
       <c r="C26" s="360"/>
-      <c r="D26" s="480" t="s">
+      <c r="D26" s="460" t="s">
         <v>489</v>
       </c>
-      <c r="E26" s="480"/>
+      <c r="E26" s="460"/>
       <c r="F26" s="347" t="s">
         <v>135</v>
       </c>
@@ -22680,10 +22702,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="358"/>
-      <c r="D28" s="475" t="s">
+      <c r="D28" s="452" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="475"/>
+      <c r="E28" s="452"/>
       <c r="F28" s="347" t="s">
         <v>135</v>
       </c>
@@ -22723,10 +22745,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="358"/>
-      <c r="D29" s="475" t="s">
+      <c r="D29" s="452" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="475"/>
+      <c r="E29" s="452"/>
       <c r="F29" s="347" t="s">
         <v>135</v>
       </c>
@@ -22766,10 +22788,10 @@
         <v>401</v>
       </c>
       <c r="C30" s="358"/>
-      <c r="D30" s="475" t="s">
+      <c r="D30" s="452" t="s">
         <v>391</v>
       </c>
-      <c r="E30" s="475"/>
+      <c r="E30" s="452"/>
       <c r="F30" s="347" t="s">
         <v>135</v>
       </c>
@@ -22809,10 +22831,10 @@
         <v>402</v>
       </c>
       <c r="C31" s="358"/>
-      <c r="D31" s="475" t="s">
+      <c r="D31" s="452" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="475"/>
+      <c r="E31" s="452"/>
       <c r="F31" s="347" t="s">
         <v>135</v>
       </c>
@@ -22852,10 +22874,10 @@
         <v>403</v>
       </c>
       <c r="C32" s="358"/>
-      <c r="D32" s="475" t="s">
+      <c r="D32" s="452" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="475"/>
+      <c r="E32" s="452"/>
       <c r="F32" s="347" t="s">
         <v>135</v>
       </c>
@@ -22895,10 +22917,10 @@
         <v>404</v>
       </c>
       <c r="C33" s="358"/>
-      <c r="D33" s="475" t="s">
+      <c r="D33" s="452" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="475"/>
+      <c r="E33" s="452"/>
       <c r="F33" s="347" t="s">
         <v>135</v>
       </c>
@@ -22938,10 +22960,10 @@
         <v>405</v>
       </c>
       <c r="C34" s="358"/>
-      <c r="D34" s="475" t="s">
+      <c r="D34" s="452" t="s">
         <v>395</v>
       </c>
-      <c r="E34" s="475"/>
+      <c r="E34" s="452"/>
       <c r="F34" s="347" t="s">
         <v>135</v>
       </c>
@@ -22981,10 +23003,10 @@
         <v>406</v>
       </c>
       <c r="C35" s="358"/>
-      <c r="D35" s="475" t="s">
+      <c r="D35" s="452" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="475"/>
+      <c r="E35" s="452"/>
       <c r="F35" s="347" t="s">
         <v>135</v>
       </c>
@@ -23024,10 +23046,10 @@
         <v>407</v>
       </c>
       <c r="C36" s="358"/>
-      <c r="D36" s="475" t="s">
+      <c r="D36" s="452" t="s">
         <v>397</v>
       </c>
-      <c r="E36" s="475"/>
+      <c r="E36" s="452"/>
       <c r="F36" s="347" t="s">
         <v>135</v>
       </c>
@@ -23067,10 +23089,10 @@
         <v>408</v>
       </c>
       <c r="C37" s="358"/>
-      <c r="D37" s="475" t="s">
+      <c r="D37" s="452" t="s">
         <v>398</v>
       </c>
-      <c r="E37" s="475"/>
+      <c r="E37" s="452"/>
       <c r="F37" s="347" t="s">
         <v>135</v>
       </c>
@@ -23110,10 +23132,10 @@
         <v>409</v>
       </c>
       <c r="C38" s="358"/>
-      <c r="D38" s="475" t="s">
+      <c r="D38" s="452" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="475"/>
+      <c r="E38" s="452"/>
       <c r="F38" s="347" t="s">
         <v>135</v>
       </c>
@@ -23196,10 +23218,10 @@
         <v>425</v>
       </c>
       <c r="C40" s="360"/>
-      <c r="D40" s="474" t="s">
+      <c r="D40" s="453" t="s">
         <v>428</v>
       </c>
-      <c r="E40" s="474"/>
+      <c r="E40" s="453"/>
       <c r="F40" s="347" t="s">
         <v>135</v>
       </c>
@@ -23239,10 +23261,10 @@
         <v>426</v>
       </c>
       <c r="C41" s="360"/>
-      <c r="D41" s="474" t="s">
+      <c r="D41" s="453" t="s">
         <v>427</v>
       </c>
-      <c r="E41" s="474"/>
+      <c r="E41" s="453"/>
       <c r="F41" s="347" t="s">
         <v>135</v>
       </c>
@@ -23282,10 +23304,10 @@
         <v>429</v>
       </c>
       <c r="C42" s="360"/>
-      <c r="D42" s="474" t="s">
+      <c r="D42" s="453" t="s">
         <v>461</v>
       </c>
-      <c r="E42" s="474"/>
+      <c r="E42" s="453"/>
       <c r="F42" s="310" t="s">
         <v>400</v>
       </c>
@@ -23323,10 +23345,10 @@
         <v>452</v>
       </c>
       <c r="C43" s="360"/>
-      <c r="D43" s="473" t="s">
+      <c r="D43" s="454" t="s">
         <v>454</v>
       </c>
-      <c r="E43" s="473"/>
+      <c r="E43" s="454"/>
       <c r="F43" s="310" t="s">
         <v>400</v>
       </c>
@@ -23364,10 +23386,10 @@
         <v>430</v>
       </c>
       <c r="C44" s="360"/>
-      <c r="D44" s="474" t="s">
+      <c r="D44" s="453" t="s">
         <v>453</v>
       </c>
-      <c r="E44" s="474"/>
+      <c r="E44" s="453"/>
       <c r="F44" s="310" t="s">
         <v>400</v>
       </c>
@@ -23405,10 +23427,10 @@
         <v>455</v>
       </c>
       <c r="C45" s="360"/>
-      <c r="D45" s="474" t="s">
+      <c r="D45" s="453" t="s">
         <v>462</v>
       </c>
-      <c r="E45" s="474"/>
+      <c r="E45" s="453"/>
       <c r="F45" s="310" t="s">
         <v>400</v>
       </c>
@@ -23446,10 +23468,10 @@
         <v>456</v>
       </c>
       <c r="C46" s="360"/>
-      <c r="D46" s="473" t="s">
+      <c r="D46" s="454" t="s">
         <v>457</v>
       </c>
-      <c r="E46" s="473"/>
+      <c r="E46" s="454"/>
       <c r="F46" s="310" t="s">
         <v>400</v>
       </c>
@@ -23487,10 +23509,10 @@
         <v>458</v>
       </c>
       <c r="C47" s="360"/>
-      <c r="D47" s="473" t="s">
+      <c r="D47" s="454" t="s">
         <v>459</v>
       </c>
-      <c r="E47" s="473"/>
+      <c r="E47" s="454"/>
       <c r="F47" s="310" t="s">
         <v>400</v>
       </c>
@@ -23528,10 +23550,10 @@
         <v>460</v>
       </c>
       <c r="C48" s="360"/>
-      <c r="D48" s="473" t="s">
+      <c r="D48" s="454" t="s">
         <v>470</v>
       </c>
-      <c r="E48" s="473"/>
+      <c r="E48" s="454"/>
       <c r="F48" s="310" t="s">
         <v>400</v>
       </c>
@@ -23569,10 +23591,10 @@
         <v>465</v>
       </c>
       <c r="C49" s="360"/>
-      <c r="D49" s="474" t="s">
+      <c r="D49" s="453" t="s">
         <v>471</v>
       </c>
-      <c r="E49" s="474"/>
+      <c r="E49" s="453"/>
       <c r="F49" s="310" t="s">
         <v>400</v>
       </c>
@@ -23610,10 +23632,10 @@
         <v>468</v>
       </c>
       <c r="C50" s="360"/>
-      <c r="D50" s="473" t="s">
+      <c r="D50" s="454" t="s">
         <v>463</v>
       </c>
-      <c r="E50" s="473"/>
+      <c r="E50" s="454"/>
       <c r="F50" s="310" t="s">
         <v>400</v>
       </c>
@@ -23651,10 +23673,10 @@
         <v>472</v>
       </c>
       <c r="C51" s="360"/>
-      <c r="D51" s="473" t="s">
+      <c r="D51" s="454" t="s">
         <v>464</v>
       </c>
-      <c r="E51" s="473"/>
+      <c r="E51" s="454"/>
       <c r="F51" s="310" t="s">
         <v>400</v>
       </c>
@@ -23692,10 +23714,10 @@
         <v>473</v>
       </c>
       <c r="C52" s="360"/>
-      <c r="D52" s="473" t="s">
+      <c r="D52" s="454" t="s">
         <v>467</v>
       </c>
-      <c r="E52" s="473"/>
+      <c r="E52" s="454"/>
       <c r="F52" s="347" t="s">
         <v>135</v>
       </c>
@@ -23735,10 +23757,10 @@
         <v>474</v>
       </c>
       <c r="C53" s="360"/>
-      <c r="D53" s="473" t="s">
+      <c r="D53" s="454" t="s">
         <v>466</v>
       </c>
-      <c r="E53" s="473"/>
+      <c r="E53" s="454"/>
       <c r="F53" s="310" t="s">
         <v>400</v>
       </c>
@@ -23776,10 +23798,10 @@
         <v>475</v>
       </c>
       <c r="C54" s="360"/>
-      <c r="D54" s="473" t="s">
+      <c r="D54" s="454" t="s">
         <v>469</v>
       </c>
-      <c r="E54" s="473"/>
+      <c r="E54" s="454"/>
       <c r="F54" s="310" t="s">
         <v>400</v>
       </c>
@@ -23817,10 +23839,10 @@
         <v>137</v>
       </c>
       <c r="C55" s="358"/>
-      <c r="D55" s="475" t="s">
+      <c r="D55" s="452" t="s">
         <v>422</v>
       </c>
-      <c r="E55" s="475"/>
+      <c r="E55" s="452"/>
       <c r="F55" s="347" t="s">
         <v>135</v>
       </c>
@@ -23860,10 +23882,10 @@
         <v>424</v>
       </c>
       <c r="C56" s="358"/>
-      <c r="D56" s="475" t="s">
+      <c r="D56" s="452" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="475"/>
+      <c r="E56" s="452"/>
       <c r="F56" s="347" t="s">
         <v>135</v>
       </c>
@@ -23903,10 +23925,10 @@
         <v>139</v>
       </c>
       <c r="C57" s="360"/>
-      <c r="D57" s="479" t="s">
+      <c r="D57" s="455" t="s">
         <v>502</v>
       </c>
-      <c r="E57" s="479"/>
+      <c r="E57" s="455"/>
       <c r="F57" s="310" t="s">
         <v>400</v>
       </c>
@@ -23928,8 +23950,8 @@
     <row r="58" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="444"/>
-      <c r="E58" s="444"/>
+      <c r="D58" s="443"/>
+      <c r="E58" s="443"/>
       <c r="F58" s="268"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -23949,8 +23971,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="340"/>
       <c r="C59" s="340"/>
-      <c r="D59" s="444"/>
-      <c r="E59" s="444"/>
+      <c r="D59" s="443"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="268"/>
       <c r="G59" s="340"/>
       <c r="H59" s="340"/>
@@ -23970,8 +23992,8 @@
     <row r="60" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="340"/>
       <c r="C60" s="340"/>
-      <c r="D60" s="444"/>
-      <c r="E60" s="444"/>
+      <c r="D60" s="443"/>
+      <c r="E60" s="443"/>
       <c r="F60" s="268"/>
       <c r="G60" s="340"/>
       <c r="H60" s="340"/>
@@ -23991,8 +24013,8 @@
     <row r="61" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="340"/>
       <c r="C61" s="340"/>
-      <c r="D61" s="444"/>
-      <c r="E61" s="444"/>
+      <c r="D61" s="443"/>
+      <c r="E61" s="443"/>
       <c r="F61" s="268"/>
       <c r="G61" s="340"/>
       <c r="H61" s="340"/>
@@ -24012,8 +24034,8 @@
     <row r="62" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="340"/>
       <c r="C62" s="340"/>
-      <c r="D62" s="444"/>
-      <c r="E62" s="444"/>
+      <c r="D62" s="443"/>
+      <c r="E62" s="443"/>
       <c r="F62" s="268"/>
       <c r="G62" s="340"/>
       <c r="H62" s="340"/>
@@ -24033,8 +24055,8 @@
     <row r="63" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="340"/>
       <c r="C63" s="340"/>
-      <c r="D63" s="444"/>
-      <c r="E63" s="444"/>
+      <c r="D63" s="443"/>
+      <c r="E63" s="443"/>
       <c r="F63" s="268"/>
       <c r="G63" s="340"/>
       <c r="H63" s="340"/>
@@ -24054,8 +24076,8 @@
     <row r="64" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="340"/>
       <c r="C64" s="340"/>
-      <c r="D64" s="444"/>
-      <c r="E64" s="444"/>
+      <c r="D64" s="443"/>
+      <c r="E64" s="443"/>
       <c r="F64" s="268"/>
       <c r="G64" s="340"/>
       <c r="H64" s="340"/>
@@ -24075,8 +24097,8 @@
     <row r="65" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="340"/>
       <c r="C65" s="340"/>
-      <c r="D65" s="444"/>
-      <c r="E65" s="444"/>
+      <c r="D65" s="443"/>
+      <c r="E65" s="443"/>
       <c r="F65" s="268"/>
       <c r="G65" s="340"/>
       <c r="H65" s="340"/>
@@ -24316,6 +24338,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D59:E59"/>
@@ -24332,52 +24400,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="F58:F65">
     <cfRule type="containsText" dxfId="171" priority="279" operator="containsText" text="Ei tehdä">
@@ -25181,7 +25203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
@@ -25199,14 +25221,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="507" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="483"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
+      <c r="F1" s="509"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -25220,11 +25242,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="510" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="484"/>
-      <c r="F2" s="485"/>
+      <c r="E2" s="510"/>
+      <c r="F2" s="511"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -25237,9 +25259,9 @@
         <v>41.25</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="488"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="514"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -25252,9 +25274,9 @@
         <v>45.25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="491"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -25262,9 +25284,9 @@
       <c r="A5" s="58"/>
       <c r="B5" s="87"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="491"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -25272,9 +25294,9 @@
       <c r="A6" s="58"/>
       <c r="B6" s="87"/>
       <c r="C6" s="177"/>
-      <c r="D6" s="489"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="491"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -25282,9 +25304,9 @@
       <c r="A7" s="59"/>
       <c r="B7" s="87"/>
       <c r="C7" s="177"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="490"/>
-      <c r="F7" s="490"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -25299,81 +25321,81 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="492" t="s">
+      <c r="A9" s="495" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="494">
+      <c r="B9" s="497">
         <f>SUM(B3:B8)</f>
         <v>86.5</v>
       </c>
-      <c r="C9" s="496" t="str">
+      <c r="C9" s="499" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="498" t="s">
+      <c r="D9" s="501" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="500">
+      <c r="E9" s="503">
         <f>SUMIF($D$14:$D$103,"Daily scrum / Teams",$E$14:$E$103) / 2</f>
         <v>2.25</v>
       </c>
-      <c r="F9" s="502"/>
+      <c r="F9" s="505"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="493"/>
-      <c r="B10" s="495"/>
-      <c r="C10" s="497"/>
-      <c r="D10" s="499"/>
-      <c r="E10" s="501"/>
-      <c r="F10" s="503"/>
+      <c r="A10" s="496"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="500"/>
+      <c r="D10" s="502"/>
+      <c r="E10" s="504"/>
+      <c r="F10" s="506"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="504" t="s">
+      <c r="A11" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="505"/>
-      <c r="C11" s="506"/>
-      <c r="D11" s="505"/>
-      <c r="E11" s="507"/>
-      <c r="F11" s="508"/>
+      <c r="B11" s="482"/>
+      <c r="C11" s="483"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="484"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="509" t="s">
+      <c r="A12" s="486" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="510" t="s">
+      <c r="B12" s="487" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="511" t="s">
+      <c r="C12" s="488" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="512"/>
-      <c r="E12" s="513" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="490" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="514" t="s">
+      <c r="F12" s="491" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="509"/>
-      <c r="B13" s="510"/>
+      <c r="A13" s="486"/>
+      <c r="B13" s="487"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="513"/>
-      <c r="F13" s="514"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="491"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -26689,12 +26711,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -26703,11 +26724,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26739,15 +26761,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="470" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="471"/>
+      <c r="F2" s="472"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -26757,9 +26779,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="475"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -26769,9 +26791,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="475"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -26781,9 +26803,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="474"/>
+      <c r="F5" s="475"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -26793,9 +26815,9 @@
     <row r="6" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="476"/>
+      <c r="E6" s="477"/>
+      <c r="F6" s="478"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -26839,14 +26861,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="445" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="446"/>
-      <c r="G9" s="463" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="479" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="464"/>
+      <c r="H9" s="480"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -26872,12 +26894,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="521" t="s">
+      <c r="E10" s="515" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="521"/>
-      <c r="G10" s="476"/>
-      <c r="H10" s="476"/>
+      <c r="F10" s="515"/>
+      <c r="G10" s="457"/>
+      <c r="H10" s="457"/>
       <c r="I10" s="173">
         <v>2</v>
       </c>
@@ -26902,12 +26924,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="477" t="s">
+      <c r="E11" s="458" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="477"/>
-      <c r="G11" s="476"/>
-      <c r="H11" s="476"/>
+      <c r="F11" s="458"/>
+      <c r="G11" s="457"/>
+      <c r="H11" s="457"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -26932,12 +26954,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="477" t="s">
+      <c r="E12" s="458" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="477"/>
-      <c r="G12" s="476"/>
-      <c r="H12" s="476"/>
+      <c r="F12" s="458"/>
+      <c r="G12" s="457"/>
+      <c r="H12" s="457"/>
       <c r="I12" s="310">
         <v>2</v>
       </c>
@@ -26962,12 +26984,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="477" t="s">
+      <c r="E13" s="458" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="477"/>
-      <c r="G13" s="476"/>
-      <c r="H13" s="476"/>
+      <c r="F13" s="458"/>
+      <c r="G13" s="457"/>
+      <c r="H13" s="457"/>
       <c r="I13" s="310">
         <v>5</v>
       </c>
@@ -26992,12 +27014,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="477" t="s">
+      <c r="E14" s="458" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="477"/>
-      <c r="G14" s="476"/>
-      <c r="H14" s="476"/>
+      <c r="F14" s="458"/>
+      <c r="G14" s="457"/>
+      <c r="H14" s="457"/>
       <c r="I14" s="310">
         <v>12</v>
       </c>
@@ -27022,12 +27044,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="477" t="s">
+      <c r="E15" s="458" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="477"/>
-      <c r="G15" s="476"/>
-      <c r="H15" s="476"/>
+      <c r="F15" s="458"/>
+      <c r="G15" s="457"/>
+      <c r="H15" s="457"/>
       <c r="I15" s="310">
         <v>19</v>
       </c>
@@ -27054,10 +27076,10 @@
       <c r="D16" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="515" t="s">
+      <c r="E16" s="516" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="515"/>
+      <c r="F16" s="516"/>
       <c r="G16" s="308"/>
       <c r="H16" s="308"/>
       <c r="I16" s="275">
@@ -27086,12 +27108,12 @@
       <c r="D17" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="515" t="s">
+      <c r="E17" s="516" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="515"/>
-      <c r="G17" s="516"/>
-      <c r="H17" s="516"/>
+      <c r="F17" s="516"/>
+      <c r="G17" s="517"/>
+      <c r="H17" s="517"/>
       <c r="I17" s="275">
         <v>12</v>
       </c>
@@ -27110,10 +27132,10 @@
       <c r="T17" s="216"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="477"/>
-      <c r="F18" s="477"/>
-      <c r="G18" s="476"/>
-      <c r="H18" s="476"/>
+      <c r="E18" s="458"/>
+      <c r="F18" s="458"/>
+      <c r="G18" s="457"/>
+      <c r="H18" s="457"/>
       <c r="I18" s="23"/>
       <c r="J18" s="180"/>
       <c r="K18" s="310"/>
@@ -27130,8 +27152,8 @@
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="277"/>
       <c r="D19" s="277"/>
-      <c r="E19" s="471"/>
-      <c r="F19" s="471"/>
+      <c r="E19" s="466"/>
+      <c r="F19" s="466"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="304"/>
@@ -27149,11 +27171,11 @@
     </row>
     <row r="20" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71"/>
-      <c r="C20" s="517" t="s">
+      <c r="C20" s="518" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="518"/>
-      <c r="E20" s="519"/>
+      <c r="D20" s="519"/>
+      <c r="E20" s="520"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="178" t="s">
@@ -27207,10 +27229,10 @@
       <c r="C22" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="469" t="s">
+      <c r="D22" s="464" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="470"/>
+      <c r="E22" s="465"/>
       <c r="F22" s="172" t="s">
         <v>97</v>
       </c>
@@ -27259,10 +27281,10 @@
         <v>133</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="520" t="s">
+      <c r="D23" s="521" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="520"/>
+      <c r="E23" s="521"/>
       <c r="F23" s="303" t="s">
         <v>135</v>
       </c>
@@ -27308,10 +27330,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="449" t="s">
+      <c r="D24" s="445" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="449"/>
+      <c r="E24" s="445"/>
       <c r="F24" s="303" t="s">
         <v>135</v>
       </c>
@@ -27359,10 +27381,10 @@
         <v>139</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="449" t="s">
+      <c r="D25" s="445" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="449"/>
+      <c r="E25" s="445"/>
       <c r="F25" s="303" t="s">
         <v>135</v>
       </c>
@@ -27408,10 +27430,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="439" t="s">
+      <c r="D26" s="437" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="439"/>
+      <c r="E26" s="437"/>
       <c r="F26" s="303" t="s">
         <v>135</v>
       </c>
@@ -27506,10 +27528,10 @@
         <v>144</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="439" t="s">
+      <c r="D28" s="437" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="439"/>
+      <c r="E28" s="437"/>
       <c r="F28" s="303" t="s">
         <v>111</v>
       </c>
@@ -27555,10 +27577,10 @@
         <v>146</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="439" t="s">
+      <c r="D29" s="437" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="439"/>
+      <c r="E29" s="437"/>
       <c r="F29" s="303" t="s">
         <v>111</v>
       </c>
@@ -27604,10 +27626,10 @@
         <v>148</v>
       </c>
       <c r="C30" s="303"/>
-      <c r="D30" s="439" t="s">
+      <c r="D30" s="437" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="439"/>
+      <c r="E30" s="437"/>
       <c r="F30" s="303" t="s">
         <v>111</v>
       </c>
@@ -27653,10 +27675,10 @@
         <v>151</v>
       </c>
       <c r="C31" s="303"/>
-      <c r="D31" s="439" t="s">
+      <c r="D31" s="437" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="439"/>
+      <c r="E31" s="437"/>
       <c r="F31" s="303" t="s">
         <v>135</v>
       </c>
@@ -27702,10 +27724,10 @@
         <v>153</v>
       </c>
       <c r="C32" s="303"/>
-      <c r="D32" s="439" t="s">
+      <c r="D32" s="437" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="439"/>
+      <c r="E32" s="437"/>
       <c r="F32" s="303" t="s">
         <v>135</v>
       </c>
@@ -27751,10 +27773,10 @@
         <v>155</v>
       </c>
       <c r="C33" s="303"/>
-      <c r="D33" s="439" t="s">
+      <c r="D33" s="437" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="439"/>
+      <c r="E33" s="437"/>
       <c r="F33" s="303" t="s">
         <v>135</v>
       </c>
@@ -27800,10 +27822,10 @@
         <v>157</v>
       </c>
       <c r="C34" s="303"/>
-      <c r="D34" s="439" t="s">
+      <c r="D34" s="437" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="439"/>
+      <c r="E34" s="437"/>
       <c r="F34" s="303" t="s">
         <v>135</v>
       </c>
@@ -27849,10 +27871,10 @@
         <v>159</v>
       </c>
       <c r="C35" s="303"/>
-      <c r="D35" s="439" t="s">
+      <c r="D35" s="437" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="439"/>
+      <c r="E35" s="437"/>
       <c r="F35" s="303" t="s">
         <v>135</v>
       </c>
@@ -27898,10 +27920,10 @@
         <v>161</v>
       </c>
       <c r="C36" s="303"/>
-      <c r="D36" s="439" t="s">
+      <c r="D36" s="437" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="439"/>
+      <c r="E36" s="437"/>
       <c r="F36" s="303" t="s">
         <v>135</v>
       </c>
@@ -27947,10 +27969,10 @@
         <v>163</v>
       </c>
       <c r="C37" s="303"/>
-      <c r="D37" s="439" t="s">
+      <c r="D37" s="437" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="439"/>
+      <c r="E37" s="437"/>
       <c r="F37" s="303" t="s">
         <v>135</v>
       </c>
@@ -27996,10 +28018,10 @@
         <v>165</v>
       </c>
       <c r="C38" s="303"/>
-      <c r="D38" s="439" t="s">
+      <c r="D38" s="437" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="439"/>
+      <c r="E38" s="437"/>
       <c r="F38" s="303" t="s">
         <v>135</v>
       </c>
@@ -28043,8 +28065,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="303"/>
-      <c r="D39" s="439"/>
-      <c r="E39" s="439"/>
+      <c r="D39" s="437"/>
+      <c r="E39" s="437"/>
       <c r="F39" s="303"/>
       <c r="G39" s="303"/>
       <c r="H39" s="303"/>
@@ -28064,8 +28086,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="303"/>
-      <c r="D40" s="439"/>
-      <c r="E40" s="439"/>
+      <c r="D40" s="437"/>
+      <c r="E40" s="437"/>
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
       <c r="H40" s="303"/>
@@ -28085,8 +28107,8 @@
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="303"/>
-      <c r="D41" s="439"/>
-      <c r="E41" s="439"/>
+      <c r="D41" s="437"/>
+      <c r="E41" s="437"/>
       <c r="F41" s="303"/>
       <c r="G41" s="303"/>
       <c r="H41" s="303"/>
@@ -28106,8 +28128,8 @@
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="303"/>
-      <c r="D42" s="439"/>
-      <c r="E42" s="439"/>
+      <c r="D42" s="437"/>
+      <c r="E42" s="437"/>
       <c r="F42" s="303"/>
       <c r="G42" s="303"/>
       <c r="H42" s="303"/>
@@ -28127,8 +28149,8 @@
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="303"/>
-      <c r="D43" s="439"/>
-      <c r="E43" s="439"/>
+      <c r="D43" s="437"/>
+      <c r="E43" s="437"/>
       <c r="F43" s="303"/>
       <c r="G43" s="303"/>
       <c r="H43" s="303"/>
@@ -28148,8 +28170,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="303"/>
-      <c r="D44" s="439"/>
-      <c r="E44" s="439"/>
+      <c r="D44" s="437"/>
+      <c r="E44" s="437"/>
       <c r="F44" s="303"/>
       <c r="G44" s="303"/>
       <c r="H44" s="303"/>
@@ -28169,8 +28191,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="303"/>
-      <c r="D45" s="439"/>
-      <c r="E45" s="439"/>
+      <c r="D45" s="437"/>
+      <c r="E45" s="437"/>
       <c r="F45" s="303"/>
       <c r="G45" s="303"/>
       <c r="H45" s="303"/>
@@ -28190,8 +28212,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="303"/>
-      <c r="D46" s="439"/>
-      <c r="E46" s="439"/>
+      <c r="D46" s="437"/>
+      <c r="E46" s="437"/>
       <c r="F46" s="303"/>
       <c r="G46" s="303"/>
       <c r="H46" s="303"/>
@@ -28211,8 +28233,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="303"/>
-      <c r="D47" s="439"/>
-      <c r="E47" s="439"/>
+      <c r="D47" s="437"/>
+      <c r="E47" s="437"/>
       <c r="F47" s="303"/>
       <c r="G47" s="303"/>
       <c r="H47" s="303"/>
@@ -28232,8 +28254,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="303"/>
-      <c r="D48" s="439"/>
-      <c r="E48" s="439"/>
+      <c r="D48" s="437"/>
+      <c r="E48" s="437"/>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
       <c r="H48" s="303"/>
@@ -28253,8 +28275,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="303"/>
-      <c r="D49" s="444"/>
-      <c r="E49" s="444"/>
+      <c r="D49" s="443"/>
+      <c r="E49" s="443"/>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
       <c r="H49" s="303"/>
@@ -28274,8 +28296,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="303"/>
-      <c r="D50" s="444"/>
-      <c r="E50" s="444"/>
+      <c r="D50" s="443"/>
+      <c r="E50" s="443"/>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
       <c r="H50" s="303"/>
@@ -28295,8 +28317,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="303"/>
-      <c r="D51" s="444"/>
-      <c r="E51" s="444"/>
+      <c r="D51" s="443"/>
+      <c r="E51" s="443"/>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
       <c r="H51" s="303"/>
@@ -28316,8 +28338,8 @@
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="303"/>
-      <c r="D52" s="444"/>
-      <c r="E52" s="444"/>
+      <c r="D52" s="443"/>
+      <c r="E52" s="443"/>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
       <c r="H52" s="303"/>
@@ -28337,8 +28359,8 @@
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="303"/>
-      <c r="D53" s="444"/>
-      <c r="E53" s="444"/>
+      <c r="D53" s="443"/>
+      <c r="E53" s="443"/>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
       <c r="H53" s="303"/>
@@ -28358,8 +28380,8 @@
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="303"/>
-      <c r="D54" s="444"/>
-      <c r="E54" s="444"/>
+      <c r="D54" s="443"/>
+      <c r="E54" s="443"/>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
       <c r="H54" s="303"/>
@@ -28379,8 +28401,8 @@
     <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="303"/>
-      <c r="D55" s="444"/>
-      <c r="E55" s="444"/>
+      <c r="D55" s="443"/>
+      <c r="E55" s="443"/>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
       <c r="H55" s="303"/>
@@ -28400,8 +28422,8 @@
     <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="444"/>
-      <c r="E56" s="444"/>
+      <c r="D56" s="443"/>
+      <c r="E56" s="443"/>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
       <c r="H56" s="303"/>
@@ -28421,8 +28443,8 @@
     <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="303"/>
       <c r="C57" s="303"/>
-      <c r="D57" s="444"/>
-      <c r="E57" s="444"/>
+      <c r="D57" s="443"/>
+      <c r="E57" s="443"/>
       <c r="F57" s="303"/>
       <c r="G57" s="303"/>
       <c r="H57" s="303"/>
@@ -28442,8 +28464,8 @@
     <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="303"/>
       <c r="C58" s="303"/>
-      <c r="D58" s="444"/>
-      <c r="E58" s="444"/>
+      <c r="D58" s="443"/>
+      <c r="E58" s="443"/>
       <c r="F58" s="303"/>
       <c r="G58" s="303"/>
       <c r="H58" s="303"/>
@@ -28463,8 +28485,8 @@
     <row r="59" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="303"/>
       <c r="C59" s="303"/>
-      <c r="D59" s="444"/>
-      <c r="E59" s="444"/>
+      <c r="D59" s="443"/>
+      <c r="E59" s="443"/>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
       <c r="H59" s="303"/>
@@ -28699,18 +28721,39 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D25:E25"/>
@@ -28726,39 +28769,18 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F59">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ei tehdä">
@@ -28799,14 +28821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="507" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="483"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
+      <c r="F1" s="509"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -28820,11 +28842,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="510" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="484"/>
-      <c r="F2" s="485"/>
+      <c r="E2" s="510"/>
+      <c r="F2" s="511"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -28837,9 +28859,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="488"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="514"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -28852,9 +28874,9 @@
         <v>25</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="491"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -28867,9 +28889,9 @@
         <v>26.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="491"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -28882,9 +28904,9 @@
         <v>45</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="489"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="491"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -28897,9 +28919,9 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="490"/>
-      <c r="F7" s="490"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -28914,80 +28936,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="524" t="s">
+      <c r="A9" s="522" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="494">
+      <c r="B9" s="497">
         <f>SUM(B3:B8)</f>
         <v>126</v>
       </c>
-      <c r="C9" s="496" t="str">
+      <c r="C9" s="499" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="498" t="s">
+      <c r="D9" s="501" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="526">
+      <c r="E9" s="524">
         <v>10.5</v>
       </c>
-      <c r="F9" s="502"/>
+      <c r="F9" s="505"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="525"/>
-      <c r="B10" s="495"/>
-      <c r="C10" s="497"/>
-      <c r="D10" s="499"/>
-      <c r="E10" s="527"/>
-      <c r="F10" s="503"/>
+      <c r="A10" s="523"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="500"/>
+      <c r="D10" s="502"/>
+      <c r="E10" s="525"/>
+      <c r="F10" s="506"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="504" t="s">
+      <c r="A11" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="505"/>
-      <c r="C11" s="506"/>
-      <c r="D11" s="505"/>
-      <c r="E11" s="507"/>
-      <c r="F11" s="508"/>
+      <c r="B11" s="482"/>
+      <c r="C11" s="483"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="484"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="522" t="s">
+      <c r="A12" s="526" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="510" t="s">
+      <c r="B12" s="487" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="511" t="s">
+      <c r="C12" s="488" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="512"/>
-      <c r="E12" s="523" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="527" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="514" t="s">
+      <c r="F12" s="491" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="522"/>
-      <c r="B13" s="510"/>
+      <c r="A13" s="526"/>
+      <c r="B13" s="487"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="523"/>
-      <c r="F13" s="514"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="491"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -30556,12 +30578,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -30569,12 +30591,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30605,15 +30627,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="470" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="455"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="471"/>
+      <c r="F2" s="472"/>
       <c r="K2" s="304"/>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -30623,9 +30645,9 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="264"/>
       <c r="C3" s="266"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="475"/>
       <c r="K3" s="304"/>
       <c r="L3" s="304"/>
       <c r="M3" s="304"/>
@@ -30635,9 +30657,9 @@
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="264"/>
       <c r="C4" s="266"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="459"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="475"/>
       <c r="K4" s="304"/>
       <c r="L4" s="304"/>
       <c r="M4" s="304"/>
@@ -30647,9 +30669,9 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="264"/>
       <c r="C5" s="266"/>
-      <c r="D5" s="457"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="459"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="474"/>
+      <c r="F5" s="475"/>
       <c r="K5" s="304"/>
       <c r="L5" s="304"/>
       <c r="M5" s="304"/>
@@ -30659,9 +30681,9 @@
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="265"/>
       <c r="C6" s="267"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="461"/>
-      <c r="F6" s="462"/>
+      <c r="D6" s="476"/>
+      <c r="E6" s="477"/>
+      <c r="F6" s="478"/>
       <c r="K6" s="304"/>
       <c r="L6" s="304"/>
       <c r="M6" s="304"/>
@@ -30705,14 +30727,14 @@
       <c r="D9" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="445" t="s">
+      <c r="E9" s="446" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="446"/>
-      <c r="G9" s="463" t="s">
+      <c r="F9" s="447"/>
+      <c r="G9" s="479" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="464"/>
+      <c r="H9" s="480"/>
       <c r="I9" s="306" t="s">
         <v>89</v>
       </c>
@@ -30738,12 +30760,12 @@
       <c r="D10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="477" t="s">
+      <c r="E10" s="458" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="477"/>
-      <c r="G10" s="476"/>
-      <c r="H10" s="476"/>
+      <c r="F10" s="458"/>
+      <c r="G10" s="457"/>
+      <c r="H10" s="457"/>
       <c r="I10" s="173">
         <v>3</v>
       </c>
@@ -30768,12 +30790,12 @@
       <c r="D11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="477" t="s">
+      <c r="E11" s="458" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="477"/>
-      <c r="G11" s="476"/>
-      <c r="H11" s="476"/>
+      <c r="F11" s="458"/>
+      <c r="G11" s="457"/>
+      <c r="H11" s="457"/>
       <c r="I11" s="310">
         <v>3</v>
       </c>
@@ -30798,12 +30820,12 @@
       <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="477" t="s">
+      <c r="E12" s="458" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="477"/>
-      <c r="G12" s="476"/>
-      <c r="H12" s="476"/>
+      <c r="F12" s="458"/>
+      <c r="G12" s="457"/>
+      <c r="H12" s="457"/>
       <c r="I12" s="310">
         <v>40</v>
       </c>
@@ -30828,12 +30850,12 @@
       <c r="D13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="477" t="s">
+      <c r="E13" s="458" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="477"/>
-      <c r="G13" s="476"/>
-      <c r="H13" s="476"/>
+      <c r="F13" s="458"/>
+      <c r="G13" s="457"/>
+      <c r="H13" s="457"/>
       <c r="I13" s="310">
         <v>3</v>
       </c>
@@ -30858,12 +30880,12 @@
       <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="477" t="s">
+      <c r="E14" s="458" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="477"/>
-      <c r="G14" s="476"/>
-      <c r="H14" s="476"/>
+      <c r="F14" s="458"/>
+      <c r="G14" s="457"/>
+      <c r="H14" s="457"/>
       <c r="I14" s="310">
         <v>27</v>
       </c>
@@ -30888,12 +30910,12 @@
       <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="477" t="s">
+      <c r="E15" s="458" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="477"/>
-      <c r="G15" s="476"/>
-      <c r="H15" s="476"/>
+      <c r="F15" s="458"/>
+      <c r="G15" s="457"/>
+      <c r="H15" s="457"/>
       <c r="I15" s="310">
         <v>7</v>
       </c>
@@ -30912,10 +30934,10 @@
       <c r="T15" s="303"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="477"/>
-      <c r="F16" s="477"/>
-      <c r="G16" s="476"/>
-      <c r="H16" s="476"/>
+      <c r="E16" s="458"/>
+      <c r="F16" s="458"/>
+      <c r="G16" s="457"/>
+      <c r="H16" s="457"/>
       <c r="I16" s="23"/>
       <c r="J16" s="180"/>
       <c r="K16" s="310"/>
@@ -30932,8 +30954,8 @@
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="471"/>
-      <c r="F17" s="471"/>
+      <c r="E17" s="466"/>
+      <c r="F17" s="466"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="304"/>
@@ -30951,11 +30973,11 @@
     </row>
     <row r="18" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="466" t="s">
+      <c r="C18" s="461" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="467"/>
-      <c r="E18" s="468"/>
+      <c r="D18" s="462"/>
+      <c r="E18" s="463"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="178" t="s">
@@ -31009,10 +31031,10 @@
       <c r="C20" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="469" t="s">
+      <c r="D20" s="464" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="470"/>
+      <c r="E20" s="465"/>
       <c r="F20" s="172" t="s">
         <v>97</v>
       </c>
@@ -31064,10 +31086,10 @@
         <v>144</v>
       </c>
       <c r="C21" s="303"/>
-      <c r="D21" s="439" t="s">
+      <c r="D21" s="437" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="439"/>
+      <c r="E21" s="437"/>
       <c r="F21" s="303" t="s">
         <v>105</v>
       </c>
@@ -31113,10 +31135,10 @@
         <v>210</v>
       </c>
       <c r="C22" s="303"/>
-      <c r="D22" s="439" t="s">
+      <c r="D22" s="437" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="439"/>
+      <c r="E22" s="437"/>
       <c r="F22" s="303" t="s">
         <v>105</v>
       </c>
@@ -31164,10 +31186,10 @@
         <v>213</v>
       </c>
       <c r="C23" s="303"/>
-      <c r="D23" s="439" t="s">
+      <c r="D23" s="437" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="439"/>
+      <c r="E23" s="437"/>
       <c r="F23" s="303" t="s">
         <v>105</v>
       </c>
@@ -31215,10 +31237,10 @@
         <v>215</v>
       </c>
       <c r="C24" s="303"/>
-      <c r="D24" s="439" t="s">
+      <c r="D24" s="437" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="439"/>
+      <c r="E24" s="437"/>
       <c r="F24" s="303" t="s">
         <v>105</v>
       </c>
@@ -31266,10 +31288,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="303"/>
-      <c r="D25" s="439" t="s">
+      <c r="D25" s="437" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="439"/>
+      <c r="E25" s="437"/>
       <c r="F25" s="303" t="s">
         <v>105</v>
       </c>
@@ -31317,10 +31339,10 @@
         <v>219</v>
       </c>
       <c r="C26" s="303"/>
-      <c r="D26" s="439" t="s">
+      <c r="D26" s="437" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="439"/>
+      <c r="E26" s="437"/>
       <c r="F26" s="303" t="s">
         <v>105</v>
       </c>
@@ -31368,10 +31390,10 @@
         <v>220</v>
       </c>
       <c r="C27" s="303"/>
-      <c r="D27" s="439" t="s">
+      <c r="D27" s="437" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="439"/>
+      <c r="E27" s="437"/>
       <c r="F27" s="303" t="s">
         <v>105</v>
       </c>
@@ -31419,10 +31441,10 @@
         <v>222</v>
       </c>
       <c r="C28" s="303"/>
-      <c r="D28" s="439" t="s">
+      <c r="D28" s="437" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="439"/>
+      <c r="E28" s="437"/>
       <c r="F28" s="303" t="s">
         <v>105</v>
       </c>
@@ -31470,10 +31492,10 @@
         <v>224</v>
       </c>
       <c r="C29" s="303"/>
-      <c r="D29" s="444" t="s">
+      <c r="D29" s="443" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="444"/>
+      <c r="E29" s="443"/>
       <c r="F29" s="303" t="s">
         <v>105</v>
       </c>
@@ -31519,8 +31541,8 @@
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="303"/>
-      <c r="D30" s="444"/>
-      <c r="E30" s="444"/>
+      <c r="D30" s="443"/>
+      <c r="E30" s="443"/>
       <c r="F30" s="303"/>
       <c r="G30" s="303"/>
       <c r="H30" s="303"/>
@@ -31540,8 +31562,8 @@
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="303"/>
-      <c r="D31" s="444"/>
-      <c r="E31" s="444"/>
+      <c r="D31" s="443"/>
+      <c r="E31" s="443"/>
       <c r="F31" s="303"/>
       <c r="G31" s="303"/>
       <c r="H31" s="303"/>
@@ -31561,8 +31583,8 @@
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="303"/>
       <c r="C32" s="303"/>
-      <c r="D32" s="444"/>
-      <c r="E32" s="444"/>
+      <c r="D32" s="443"/>
+      <c r="E32" s="443"/>
       <c r="F32" s="303"/>
       <c r="G32" s="303"/>
       <c r="H32" s="303"/>
@@ -31582,8 +31604,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="303"/>
       <c r="C33" s="303"/>
-      <c r="D33" s="444"/>
-      <c r="E33" s="444"/>
+      <c r="D33" s="443"/>
+      <c r="E33" s="443"/>
       <c r="F33" s="303"/>
       <c r="G33" s="303"/>
       <c r="H33" s="303"/>
@@ -31603,8 +31625,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="303"/>
       <c r="C34" s="303"/>
-      <c r="D34" s="444"/>
-      <c r="E34" s="444"/>
+      <c r="D34" s="443"/>
+      <c r="E34" s="443"/>
       <c r="F34" s="303"/>
       <c r="G34" s="303"/>
       <c r="H34" s="303"/>
@@ -31624,8 +31646,8 @@
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="303"/>
       <c r="C35" s="303"/>
-      <c r="D35" s="444"/>
-      <c r="E35" s="444"/>
+      <c r="D35" s="443"/>
+      <c r="E35" s="443"/>
       <c r="F35" s="303"/>
       <c r="G35" s="303"/>
       <c r="H35" s="303"/>
@@ -31926,28 +31948,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -31962,6 +31962,28 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="F21:F35">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Ei tehdä">
@@ -32002,14 +32024,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="507" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="483"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
+      <c r="F1" s="509"/>
       <c r="G1" s="56"/>
       <c r="H1" s="29"/>
     </row>
@@ -32023,11 +32045,11 @@
       <c r="C2" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="484" t="s">
+      <c r="D2" s="510" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="484"/>
-      <c r="F2" s="485"/>
+      <c r="E2" s="510"/>
+      <c r="F2" s="511"/>
       <c r="G2" s="62"/>
       <c r="H2" s="29"/>
     </row>
@@ -32040,9 +32062,9 @@
         <v>28</v>
       </c>
       <c r="C3" s="177"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="488"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="514"/>
       <c r="G3" s="56"/>
       <c r="H3" s="29"/>
     </row>
@@ -32055,9 +32077,9 @@
         <v>40.5</v>
       </c>
       <c r="C4" s="177"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="491"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
       <c r="G4" s="56"/>
       <c r="H4" s="29"/>
     </row>
@@ -32070,9 +32092,9 @@
         <v>21.5</v>
       </c>
       <c r="C5" s="177"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="490"/>
-      <c r="F5" s="491"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
       <c r="G5" s="56"/>
       <c r="H5" s="29"/>
     </row>
@@ -32085,9 +32107,9 @@
         <v>46</v>
       </c>
       <c r="C6" s="177"/>
-      <c r="D6" s="489"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="491"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
       <c r="G6" s="56"/>
       <c r="H6" s="29"/>
     </row>
@@ -32100,9 +32122,9 @@
         <v>22.5</v>
       </c>
       <c r="C7" s="177"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="490"/>
-      <c r="F7" s="490"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
       <c r="G7" s="51"/>
       <c r="H7" s="29"/>
     </row>
@@ -32117,80 +32139,80 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="492" t="s">
+      <c r="A9" s="495" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="494">
+      <c r="B9" s="497">
         <f>SUM(B3:B8)</f>
         <v>158.5</v>
       </c>
-      <c r="C9" s="496" t="str">
+      <c r="C9" s="499" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="498" t="s">
+      <c r="D9" s="501" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="526">
+      <c r="E9" s="524">
         <v>16.5</v>
       </c>
-      <c r="F9" s="502"/>
+      <c r="F9" s="505"/>
       <c r="G9" s="56"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="493"/>
-      <c r="B10" s="495"/>
-      <c r="C10" s="497"/>
-      <c r="D10" s="499"/>
-      <c r="E10" s="527"/>
-      <c r="F10" s="503"/>
+      <c r="A10" s="496"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="500"/>
+      <c r="D10" s="502"/>
+      <c r="E10" s="525"/>
+      <c r="F10" s="506"/>
       <c r="G10" s="56"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="504" t="s">
+      <c r="A11" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="505"/>
-      <c r="C11" s="506"/>
-      <c r="D11" s="505"/>
-      <c r="E11" s="507"/>
-      <c r="F11" s="508"/>
+      <c r="B11" s="482"/>
+      <c r="C11" s="483"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="484"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="62"/>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="509" t="s">
+      <c r="A12" s="486" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="510" t="s">
+      <c r="B12" s="487" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="511" t="s">
+      <c r="C12" s="488" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="512"/>
-      <c r="E12" s="523" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="527" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="514" t="s">
+      <c r="F12" s="491" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="509"/>
-      <c r="B13" s="510"/>
+      <c r="A13" s="486"/>
+      <c r="B13" s="487"/>
       <c r="C13" s="183" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="523"/>
-      <c r="F13" s="514"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="491"/>
       <c r="G13" s="62"/>
       <c r="H13" s="29"/>
     </row>
@@ -33994,12 +34016,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34007,12 +34029,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34177,18 +34199,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34210,25 +34232,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aec78b04-9439-499f-911c-68c5b1e9ccff"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>